--- a/scripts/Modelo_2sections.xlsx
+++ b/scripts/Modelo_2sections.xlsx
@@ -20,7 +20,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="GASESREFPROP">[1]LISTAS!$G$2:$G$195</definedName>
@@ -4264,423 +4263,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="9" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="9" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="26" fillId="6" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="26" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4859,24 +4441,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4911,73 +4475,22 @@
     <xf numFmtId="0" fontId="26" fillId="19" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="169" fontId="10" fillId="20" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="20" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="169" fontId="10" fillId="20" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="36" fillId="20" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="20" borderId="79" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="169" fontId="36" fillId="20" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4997,12 +4510,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5015,15 +4522,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5033,33 +4531,6 @@
     <xf numFmtId="164" fontId="22" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5079,33 +4550,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="5" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5129,15 +4573,6 @@
     <xf numFmtId="165" fontId="22" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5155,15 +4590,6 @@
     </xf>
     <xf numFmtId="164" fontId="22" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -5183,6 +4609,276 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="166" fontId="22" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="5" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="9" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="9" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -5190,6 +4886,309 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="20" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="20" borderId="79" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="26" fillId="6" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="26" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6813,7 +6812,7 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5927893.3681806568</c:v>
+                  <c:v>11333353.513971122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6825,7 +6824,7 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.53165848172920771</c:v>
+                  <c:v>0.53165848172920782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7562,7 +7561,7 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.78681410377465921</c:v>
+                  <c:v>0.89464555474377661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7574,7 +7573,7 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0065319795524608E-2</c:v>
+                  <c:v>1.1444753683164222E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8032,7 +8031,7 @@
                   <c:v>37.168454641133863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.837928257212347</c:v>
+                  <c:v>34.837972022367701</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25.010909680914001</c:v>
@@ -8595,7 +8594,7 @@
                   <c:v>0.72987067759020041</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69543553140534309</c:v>
+                  <c:v>0.69541791203235404</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.53510999836265705</c:v>
@@ -9784,7 +9783,7 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5927893.3681806568</c:v>
+                  <c:v>11333353.513971122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9796,7 +9795,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.53165900965346191</c:v>
+                  <c:v>0.53165848172920782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10497,7 +10496,7 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.78681410377465921</c:v>
+                  <c:v>0.89464555474377661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10509,7 +10508,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0065531127737892E-2</c:v>
+                  <c:v>1.1444753683164222E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10900,7 +10899,7 @@
                   <c:v>36349.063051104917</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39043.507021832833</c:v>
+                  <c:v>39043.527678987535</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>49727.953784184305</c:v>
@@ -10927,7 +10926,7 @@
                   <c:v>82.492187030000906</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.870658858601416</c:v>
+                  <c:v>82.936364975632188</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>74.764072326851988</c:v>
@@ -11463,7 +11462,7 @@
                   <c:v>36349.063051104917</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39043.507021832833</c:v>
+                  <c:v>39043.527678987535</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>49727.953784184305</c:v>
@@ -11490,7 +11489,7 @@
                   <c:v>0.82356963661471561</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83142986193836166</c:v>
+                  <c:v>0.82513189969599443</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.75874652727784098</c:v>
@@ -17541,836 +17540,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DataSheet"/>
-      <sheetName val="Test Procedure Data"/>
-      <sheetName val="Actual Test Data"/>
-      <sheetName val="GRAF"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="25">
-          <cell r="AS25">
-            <v>0.55924644749270025</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="AS26">
-            <v>11571935.651680376</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="AP39">
-            <v>8000</v>
-          </cell>
-          <cell r="AQ39">
-            <v>230</v>
-          </cell>
-          <cell r="AS39">
-            <v>0.83</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="AP40">
-            <v>9000</v>
-          </cell>
-          <cell r="AQ40">
-            <v>220</v>
-          </cell>
-          <cell r="AS40">
-            <v>0.82</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="AP41">
-            <v>10418.636490360617</v>
-          </cell>
-          <cell r="AQ41">
-            <v>205.78537918281884</v>
-          </cell>
-          <cell r="AS41">
-            <v>0.84289488128800871</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="22">
-          <cell r="S22">
-            <v>256.16633162529126</v>
-          </cell>
-          <cell r="U22">
-            <v>6193.711567662227</v>
-          </cell>
-          <cell r="AB22">
-            <v>0.78582446069871026</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="S23">
-            <v>233.85120769493298</v>
-          </cell>
-          <cell r="U23">
-            <v>8299.1038320877724</v>
-          </cell>
-          <cell r="AB23">
-            <v>0.82859937794636251</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="S24">
-            <v>210.17507359377501</v>
-          </cell>
-          <cell r="U24">
-            <v>10321.5996183813</v>
-          </cell>
-          <cell r="AB24">
-            <v>0.87165103500875141</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="S25">
-            <v>205.42227396672689</v>
-          </cell>
-          <cell r="U25">
-            <v>10456.288277945619</v>
-          </cell>
-          <cell r="AB25">
-            <v>0.86727044060340286</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="S26">
-            <v>170.77485261645475</v>
-          </cell>
-          <cell r="U26">
-            <v>11949.75353792336</v>
-          </cell>
-          <cell r="AB26">
-            <v>0.78285286921396124</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="J32">
-            <v>-1.7272086445389981E-2</v>
-          </cell>
-          <cell r="L32">
-            <v>0.11427065019906929</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="G3">
-            <v>0</v>
-          </cell>
-          <cell r="H3">
-            <v>0</v>
-          </cell>
-          <cell r="I3">
-            <v>0.28599999999999998</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>0.1</v>
-          </cell>
-          <cell r="H4">
-            <v>-0.1</v>
-          </cell>
-          <cell r="I4">
-            <v>0.26099999999999995</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>0.2</v>
-          </cell>
-          <cell r="H5">
-            <v>-0.2</v>
-          </cell>
-          <cell r="I5">
-            <v>0.23599999999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>0.214</v>
-          </cell>
-          <cell r="H6">
-            <v>-0.214</v>
-          </cell>
-          <cell r="I6">
-            <v>0.23249999999999998</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>0.215</v>
-          </cell>
-          <cell r="H7">
-            <v>-0.21381</v>
-          </cell>
-          <cell r="I7">
-            <v>0.23224999999999998</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8">
-            <v>0.3</v>
-          </cell>
-          <cell r="H8">
-            <v>-0.19120000000000004</v>
-          </cell>
-          <cell r="I8">
-            <v>0.21099999999999997</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="G9">
-            <v>0.4</v>
-          </cell>
-          <cell r="H9">
-            <v>-0.16460000000000002</v>
-          </cell>
-          <cell r="I9">
-            <v>0.18599999999999997</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10">
-            <v>0.5</v>
-          </cell>
-          <cell r="H10">
-            <v>-0.13800000000000001</v>
-          </cell>
-          <cell r="I10">
-            <v>0.16099999999999998</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>90000</v>
-          </cell>
-          <cell r="C11">
-            <v>0.32602702390909377</v>
-          </cell>
-          <cell r="D11">
-            <v>3.0672304032037254</v>
-          </cell>
-          <cell r="G11">
-            <v>0.6</v>
-          </cell>
-          <cell r="H11">
-            <v>-0.11140000000000003</v>
-          </cell>
-          <cell r="I11">
-            <v>0.13599999999999998</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>100000</v>
-          </cell>
-          <cell r="C12">
-            <v>0.31450149461575455</v>
-          </cell>
-          <cell r="D12">
-            <v>3.179635127717789</v>
-          </cell>
-          <cell r="G12">
-            <v>0.7</v>
-          </cell>
-          <cell r="H12">
-            <v>-8.4800000000000014E-2</v>
-          </cell>
-          <cell r="I12">
-            <v>0.11099999999999999</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>200000</v>
-          </cell>
-          <cell r="C13">
-            <v>0.24071381203141462</v>
-          </cell>
-          <cell r="D13">
-            <v>4.1543108455674913</v>
-          </cell>
-          <cell r="G13">
-            <v>0.8</v>
-          </cell>
-          <cell r="H13">
-            <v>-5.8200000000000002E-2</v>
-          </cell>
-          <cell r="I13">
-            <v>8.5999999999999965E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>300000</v>
-          </cell>
-          <cell r="C14">
-            <v>0.20021659060962196</v>
-          </cell>
-          <cell r="D14">
-            <v>4.9945910923524757</v>
-          </cell>
-          <cell r="G14">
-            <v>0.86</v>
-          </cell>
-          <cell r="H14">
-            <v>-4.224E-2</v>
-          </cell>
-          <cell r="I14">
-            <v>7.099999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>400000</v>
-          </cell>
-          <cell r="C15">
-            <v>0.1731962260566193</v>
-          </cell>
-          <cell r="D15">
-            <v>5.7737978636618337</v>
-          </cell>
-          <cell r="G15">
-            <v>0.9</v>
-          </cell>
-          <cell r="H15">
-            <v>-4.2000000000000003E-2</v>
-          </cell>
-          <cell r="I15">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>500000</v>
-          </cell>
-          <cell r="C16">
-            <v>0.15339773141749091</v>
-          </cell>
-          <cell r="D16">
-            <v>6.5190012313700816</v>
-          </cell>
-          <cell r="G16">
-            <v>1</v>
-          </cell>
-          <cell r="H16">
-            <v>-4.2000000000000003E-2</v>
-          </cell>
-          <cell r="I16">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>600000</v>
-          </cell>
-          <cell r="C17">
-            <v>0.1380529537863758</v>
-          </cell>
-          <cell r="D17">
-            <v>7.2435972760670371</v>
-          </cell>
-          <cell r="G17">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="H17">
-            <v>-4.2000000000000003E-2</v>
-          </cell>
-          <cell r="I17">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>700000</v>
-          </cell>
-          <cell r="C18">
-            <v>0.12570224778156519</v>
-          </cell>
-          <cell r="D18">
-            <v>7.955307225195499</v>
-          </cell>
-          <cell r="G18">
-            <v>1.2</v>
-          </cell>
-          <cell r="H18">
-            <v>-4.2000000000000003E-2</v>
-          </cell>
-          <cell r="I18">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>800000</v>
-          </cell>
-          <cell r="C19">
-            <v>0.11548639783308461</v>
-          </cell>
-          <cell r="D19">
-            <v>8.6590284116864176</v>
-          </cell>
-          <cell r="G19">
-            <v>1.3</v>
-          </cell>
-          <cell r="H19">
-            <v>-4.2000000000000003E-2</v>
-          </cell>
-          <cell r="I19">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>900000</v>
-          </cell>
-          <cell r="C20">
-            <v>0.10685952769812936</v>
-          </cell>
-          <cell r="D20">
-            <v>9.3580799161393458</v>
-          </cell>
-          <cell r="G20">
-            <v>1.4</v>
-          </cell>
-          <cell r="H20">
-            <v>-4.2000000000000003E-2</v>
-          </cell>
-          <cell r="I20">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>1000000</v>
-          </cell>
-          <cell r="C21">
-            <v>9.945475061958052E-2</v>
-          </cell>
-          <cell r="D21">
-            <v>10.054823864825234</v>
-          </cell>
-          <cell r="G21">
-            <v>1.5</v>
-          </cell>
-          <cell r="H21">
-            <v>-4.2000000000000003E-2</v>
-          </cell>
-          <cell r="I21">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>2000000</v>
-          </cell>
-          <cell r="C22">
-            <v>0.1</v>
-          </cell>
-          <cell r="D22">
-            <v>17.142246090031101</v>
-          </cell>
-          <cell r="G22">
-            <v>1.6</v>
-          </cell>
-          <cell r="H22">
-            <v>-4.2000000000000003E-2</v>
-          </cell>
-          <cell r="I22">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>3000000</v>
-          </cell>
-          <cell r="C23">
-            <v>0.1</v>
-          </cell>
-          <cell r="D23">
-            <v>24.756577436576972</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>4000000</v>
-          </cell>
-          <cell r="C24">
-            <v>0.1</v>
-          </cell>
-          <cell r="D24">
-            <v>33.06096957055027</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>5000000</v>
-          </cell>
-          <cell r="C25">
-            <v>0.1</v>
-          </cell>
-          <cell r="D25">
-            <v>42.121593511090794</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>6000000</v>
-          </cell>
-          <cell r="C26">
-            <v>0.1</v>
-          </cell>
-          <cell r="D26">
-            <v>51.979775671342622</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>7000000</v>
-          </cell>
-          <cell r="C27">
-            <v>0.1</v>
-          </cell>
-          <cell r="D27">
-            <v>62.668151344306395</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>8000000</v>
-          </cell>
-          <cell r="C28">
-            <v>0.1</v>
-          </cell>
-          <cell r="D28">
-            <v>74.215889273774081</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>9000000</v>
-          </cell>
-          <cell r="C29">
-            <v>0.1</v>
-          </cell>
-          <cell r="D29">
-            <v>86.650749265830541</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>10000000</v>
-          </cell>
-          <cell r="C30">
-            <v>0.1</v>
-          </cell>
-          <cell r="D30">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>20000000</v>
-          </cell>
-          <cell r="C31">
-            <v>0.1</v>
-          </cell>
-          <cell r="D31">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>30000000</v>
-          </cell>
-          <cell r="C32">
-            <v>0.1</v>
-          </cell>
-          <cell r="D32">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>40000000</v>
-          </cell>
-          <cell r="C33">
-            <v>0.1</v>
-          </cell>
-          <cell r="D33">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>50000000</v>
-          </cell>
-          <cell r="C34">
-            <v>0.1</v>
-          </cell>
-          <cell r="D34">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>60000000</v>
-          </cell>
-          <cell r="C35">
-            <v>0.1</v>
-          </cell>
-          <cell r="D35">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>70000000</v>
-          </cell>
-          <cell r="C36">
-            <v>0.1</v>
-          </cell>
-          <cell r="D36">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>80000000</v>
-          </cell>
-          <cell r="C37">
-            <v>0.1</v>
-          </cell>
-          <cell r="D37">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>90000000</v>
-          </cell>
-          <cell r="C38">
-            <v>0.1</v>
-          </cell>
-          <cell r="D38">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>100000000</v>
-          </cell>
-          <cell r="C39">
-            <v>0.1</v>
-          </cell>
-          <cell r="D39">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>200000000</v>
-          </cell>
-          <cell r="C40">
-            <v>0.1</v>
-          </cell>
-          <cell r="D40">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>300000000</v>
-          </cell>
-          <cell r="C41">
-            <v>0.1</v>
-          </cell>
-          <cell r="D41">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>400000000</v>
-          </cell>
-          <cell r="C42">
-            <v>0.1</v>
-          </cell>
-          <cell r="D42">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>500000000</v>
-          </cell>
-          <cell r="C43">
-            <v>0.1</v>
-          </cell>
-          <cell r="D43">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>600000000</v>
-          </cell>
-          <cell r="C44">
-            <v>0.1</v>
-          </cell>
-          <cell r="D44">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>700000000</v>
-          </cell>
-          <cell r="C45">
-            <v>0.1</v>
-          </cell>
-          <cell r="D45">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>800000000</v>
-          </cell>
-          <cell r="C46">
-            <v>0.1</v>
-          </cell>
-          <cell r="D46">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>900000000</v>
-          </cell>
-          <cell r="C47">
-            <v>0.1</v>
-          </cell>
-          <cell r="D47">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>1000000000</v>
-          </cell>
-          <cell r="C48">
-            <v>0.1</v>
-          </cell>
-          <cell r="D48">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>2000000000</v>
-          </cell>
-          <cell r="C49">
-            <v>0.1</v>
-          </cell>
-          <cell r="D49">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>3000000000</v>
-          </cell>
-          <cell r="C50">
-            <v>0.1</v>
-          </cell>
-          <cell r="D50">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>4000000000</v>
-          </cell>
-          <cell r="C51">
-            <v>0.1</v>
-          </cell>
-          <cell r="D51">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>5000000000</v>
-          </cell>
-          <cell r="C52">
-            <v>0.1</v>
-          </cell>
-          <cell r="D52">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>6000000000</v>
-          </cell>
-          <cell r="C53">
-            <v>0.1</v>
-          </cell>
-          <cell r="D53">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>7000000000</v>
-          </cell>
-          <cell r="C54">
-            <v>0.1</v>
-          </cell>
-          <cell r="D54">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>8000000000</v>
-          </cell>
-          <cell r="C55">
-            <v>0.1</v>
-          </cell>
-          <cell r="D55">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>9000000000</v>
-          </cell>
-          <cell r="C56">
-            <v>0.1</v>
-          </cell>
-          <cell r="D56">
-            <v>100</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -18638,7 +17807,7 @@
   <dimension ref="A1:AX175"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AP124" sqref="AP124"/>
+      <selection activeCell="T24" sqref="T24:V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18857,14 +18026,14 @@
         <v>7</v>
       </c>
       <c r="AC4" s="22"/>
-      <c r="AD4" s="319"/>
-      <c r="AE4" s="319"/>
-      <c r="AF4" s="319"/>
-      <c r="AG4" s="319"/>
-      <c r="AH4" s="319"/>
-      <c r="AI4" s="319"/>
-      <c r="AJ4" s="319"/>
-      <c r="AK4" s="319"/>
+      <c r="AD4" s="471"/>
+      <c r="AE4" s="471"/>
+      <c r="AF4" s="471"/>
+      <c r="AG4" s="471"/>
+      <c r="AH4" s="471"/>
+      <c r="AI4" s="471"/>
+      <c r="AJ4" s="471"/>
+      <c r="AK4" s="471"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="20"/>
       <c r="AN4" s="10"/>
@@ -19077,22 +18246,22 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="32"/>
-      <c r="E8" s="320"/>
-      <c r="F8" s="320"/>
-      <c r="G8" s="320"/>
-      <c r="H8" s="320"/>
-      <c r="I8" s="320"/>
-      <c r="J8" s="320"/>
-      <c r="K8" s="320"/>
-      <c r="L8" s="320"/>
-      <c r="M8" s="320"/>
-      <c r="N8" s="320"/>
-      <c r="O8" s="320"/>
-      <c r="P8" s="320"/>
-      <c r="Q8" s="320"/>
-      <c r="R8" s="320"/>
-      <c r="S8" s="320"/>
-      <c r="T8" s="320"/>
+      <c r="E8" s="472"/>
+      <c r="F8" s="472"/>
+      <c r="G8" s="472"/>
+      <c r="H8" s="472"/>
+      <c r="I8" s="472"/>
+      <c r="J8" s="472"/>
+      <c r="K8" s="472"/>
+      <c r="L8" s="472"/>
+      <c r="M8" s="472"/>
+      <c r="N8" s="472"/>
+      <c r="O8" s="472"/>
+      <c r="P8" s="472"/>
+      <c r="Q8" s="472"/>
+      <c r="R8" s="472"/>
+      <c r="S8" s="472"/>
+      <c r="T8" s="472"/>
       <c r="U8" s="32"/>
       <c r="V8" s="13" t="s">
         <v>18</v>
@@ -19136,22 +18305,22 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="319"/>
-      <c r="J9" s="319"/>
-      <c r="K9" s="319"/>
-      <c r="L9" s="319"/>
-      <c r="M9" s="319"/>
-      <c r="N9" s="319"/>
-      <c r="O9" s="319"/>
-      <c r="P9" s="319"/>
-      <c r="Q9" s="319"/>
-      <c r="R9" s="319"/>
-      <c r="S9" s="319"/>
-      <c r="T9" s="319"/>
+      <c r="E9" s="471"/>
+      <c r="F9" s="471"/>
+      <c r="G9" s="471"/>
+      <c r="H9" s="471"/>
+      <c r="I9" s="471"/>
+      <c r="J9" s="471"/>
+      <c r="K9" s="471"/>
+      <c r="L9" s="471"/>
+      <c r="M9" s="471"/>
+      <c r="N9" s="471"/>
+      <c r="O9" s="471"/>
+      <c r="P9" s="471"/>
+      <c r="Q9" s="471"/>
+      <c r="R9" s="471"/>
+      <c r="S9" s="471"/>
+      <c r="T9" s="471"/>
       <c r="U9" s="12"/>
       <c r="V9" s="13" t="s">
         <v>20</v>
@@ -19195,22 +18364,22 @@
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="319"/>
-      <c r="F10" s="319"/>
-      <c r="G10" s="319"/>
-      <c r="H10" s="319"/>
-      <c r="I10" s="319"/>
-      <c r="J10" s="319"/>
-      <c r="K10" s="319"/>
-      <c r="L10" s="319"/>
-      <c r="M10" s="319"/>
-      <c r="N10" s="319"/>
-      <c r="O10" s="319"/>
-      <c r="P10" s="319"/>
-      <c r="Q10" s="319"/>
-      <c r="R10" s="319"/>
-      <c r="S10" s="319"/>
-      <c r="T10" s="319"/>
+      <c r="E10" s="471"/>
+      <c r="F10" s="471"/>
+      <c r="G10" s="471"/>
+      <c r="H10" s="471"/>
+      <c r="I10" s="471"/>
+      <c r="J10" s="471"/>
+      <c r="K10" s="471"/>
+      <c r="L10" s="471"/>
+      <c r="M10" s="471"/>
+      <c r="N10" s="471"/>
+      <c r="O10" s="471"/>
+      <c r="P10" s="471"/>
+      <c r="Q10" s="471"/>
+      <c r="R10" s="471"/>
+      <c r="S10" s="471"/>
+      <c r="T10" s="471"/>
       <c r="U10" s="12"/>
       <c r="V10" s="13" t="s">
         <v>22</v>
@@ -19485,46 +18654,46 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="313" t="s">
+      <c r="B15" s="462" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="314"/>
-      <c r="D15" s="314"/>
-      <c r="E15" s="314"/>
-      <c r="F15" s="314"/>
-      <c r="G15" s="314"/>
-      <c r="H15" s="314"/>
-      <c r="I15" s="314"/>
-      <c r="J15" s="314"/>
-      <c r="K15" s="314"/>
-      <c r="L15" s="314"/>
-      <c r="M15" s="314"/>
-      <c r="N15" s="314"/>
-      <c r="O15" s="314"/>
-      <c r="P15" s="314"/>
-      <c r="Q15" s="314"/>
-      <c r="R15" s="314"/>
-      <c r="S15" s="314"/>
-      <c r="T15" s="314"/>
-      <c r="U15" s="314"/>
-      <c r="V15" s="314"/>
-      <c r="W15" s="314"/>
-      <c r="X15" s="314"/>
-      <c r="Y15" s="314"/>
-      <c r="Z15" s="314"/>
-      <c r="AA15" s="314"/>
-      <c r="AB15" s="314"/>
-      <c r="AC15" s="314"/>
-      <c r="AD15" s="314"/>
-      <c r="AE15" s="314"/>
-      <c r="AF15" s="314"/>
-      <c r="AG15" s="314"/>
-      <c r="AH15" s="314"/>
-      <c r="AI15" s="314"/>
-      <c r="AJ15" s="314"/>
-      <c r="AK15" s="314"/>
-      <c r="AL15" s="314"/>
-      <c r="AM15" s="315"/>
+      <c r="C15" s="463"/>
+      <c r="D15" s="463"/>
+      <c r="E15" s="463"/>
+      <c r="F15" s="463"/>
+      <c r="G15" s="463"/>
+      <c r="H15" s="463"/>
+      <c r="I15" s="463"/>
+      <c r="J15" s="463"/>
+      <c r="K15" s="463"/>
+      <c r="L15" s="463"/>
+      <c r="M15" s="463"/>
+      <c r="N15" s="463"/>
+      <c r="O15" s="463"/>
+      <c r="P15" s="463"/>
+      <c r="Q15" s="463"/>
+      <c r="R15" s="463"/>
+      <c r="S15" s="463"/>
+      <c r="T15" s="463"/>
+      <c r="U15" s="463"/>
+      <c r="V15" s="463"/>
+      <c r="W15" s="463"/>
+      <c r="X15" s="463"/>
+      <c r="Y15" s="463"/>
+      <c r="Z15" s="463"/>
+      <c r="AA15" s="463"/>
+      <c r="AB15" s="463"/>
+      <c r="AC15" s="463"/>
+      <c r="AD15" s="463"/>
+      <c r="AE15" s="463"/>
+      <c r="AF15" s="463"/>
+      <c r="AG15" s="463"/>
+      <c r="AH15" s="463"/>
+      <c r="AI15" s="463"/>
+      <c r="AJ15" s="463"/>
+      <c r="AK15" s="463"/>
+      <c r="AL15" s="463"/>
+      <c r="AM15" s="464"/>
       <c r="AN15" s="10"/>
       <c r="AO15" s="9"/>
       <c r="AP15" s="9"/>
@@ -19542,50 +18711,50 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="321" t="s">
+      <c r="B16" s="473" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="322"/>
-      <c r="D16" s="322"/>
-      <c r="E16" s="322"/>
-      <c r="F16" s="322"/>
-      <c r="G16" s="322"/>
-      <c r="H16" s="322"/>
-      <c r="I16" s="322"/>
-      <c r="J16" s="322"/>
-      <c r="K16" s="322"/>
-      <c r="L16" s="322"/>
-      <c r="M16" s="322"/>
-      <c r="N16" s="322"/>
-      <c r="O16" s="322"/>
-      <c r="P16" s="322"/>
-      <c r="Q16" s="322"/>
-      <c r="R16" s="322"/>
+      <c r="C16" s="474"/>
+      <c r="D16" s="474"/>
+      <c r="E16" s="474"/>
+      <c r="F16" s="474"/>
+      <c r="G16" s="474"/>
+      <c r="H16" s="474"/>
+      <c r="I16" s="474"/>
+      <c r="J16" s="474"/>
+      <c r="K16" s="474"/>
+      <c r="L16" s="474"/>
+      <c r="M16" s="474"/>
+      <c r="N16" s="474"/>
+      <c r="O16" s="474"/>
+      <c r="P16" s="474"/>
+      <c r="Q16" s="474"/>
+      <c r="R16" s="474"/>
       <c r="S16" s="13"/>
-      <c r="T16" s="313" t="s">
+      <c r="T16" s="462" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="314"/>
-      <c r="V16" s="314"/>
-      <c r="W16" s="314"/>
-      <c r="X16" s="314"/>
-      <c r="Y16" s="315"/>
-      <c r="Z16" s="313" t="s">
+      <c r="U16" s="463"/>
+      <c r="V16" s="463"/>
+      <c r="W16" s="463"/>
+      <c r="X16" s="463"/>
+      <c r="Y16" s="464"/>
+      <c r="Z16" s="462" t="s">
         <v>34</v>
       </c>
-      <c r="AA16" s="314"/>
-      <c r="AB16" s="314"/>
-      <c r="AC16" s="314"/>
-      <c r="AD16" s="314"/>
-      <c r="AE16" s="314"/>
-      <c r="AF16" s="314"/>
-      <c r="AG16" s="314"/>
-      <c r="AH16" s="314"/>
-      <c r="AI16" s="314"/>
-      <c r="AJ16" s="314"/>
-      <c r="AK16" s="314"/>
-      <c r="AL16" s="314"/>
-      <c r="AM16" s="315"/>
+      <c r="AA16" s="463"/>
+      <c r="AB16" s="463"/>
+      <c r="AC16" s="463"/>
+      <c r="AD16" s="463"/>
+      <c r="AE16" s="463"/>
+      <c r="AF16" s="463"/>
+      <c r="AG16" s="463"/>
+      <c r="AH16" s="463"/>
+      <c r="AI16" s="463"/>
+      <c r="AJ16" s="463"/>
+      <c r="AK16" s="463"/>
+      <c r="AL16" s="463"/>
+      <c r="AM16" s="464"/>
       <c r="AN16" s="10"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="9"/>
@@ -19621,38 +18790,38 @@
       <c r="Q17" s="195"/>
       <c r="R17" s="195"/>
       <c r="S17" s="13"/>
-      <c r="T17" s="313" t="s">
+      <c r="T17" s="462" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="314"/>
-      <c r="V17" s="315"/>
-      <c r="W17" s="313" t="s">
+      <c r="U17" s="463"/>
+      <c r="V17" s="464"/>
+      <c r="W17" s="462" t="s">
         <v>346</v>
       </c>
-      <c r="X17" s="314"/>
-      <c r="Y17" s="315"/>
-      <c r="Z17" s="313" t="s">
+      <c r="X17" s="463"/>
+      <c r="Y17" s="464"/>
+      <c r="Z17" s="462" t="s">
         <v>36</v>
       </c>
-      <c r="AA17" s="314"/>
-      <c r="AB17" s="315"/>
-      <c r="AC17" s="313" t="s">
+      <c r="AA17" s="463"/>
+      <c r="AB17" s="464"/>
+      <c r="AC17" s="462" t="s">
         <v>36</v>
       </c>
-      <c r="AD17" s="314"/>
-      <c r="AE17" s="315"/>
-      <c r="AF17" s="313" t="s">
+      <c r="AD17" s="463"/>
+      <c r="AE17" s="464"/>
+      <c r="AF17" s="462" t="s">
         <v>35</v>
       </c>
-      <c r="AG17" s="314"/>
-      <c r="AH17" s="315"/>
-      <c r="AI17" s="313" t="s">
+      <c r="AG17" s="463"/>
+      <c r="AH17" s="464"/>
+      <c r="AI17" s="462" t="s">
         <v>36</v>
       </c>
-      <c r="AJ17" s="314"/>
-      <c r="AK17" s="314"/>
-      <c r="AL17" s="314"/>
-      <c r="AM17" s="315"/>
+      <c r="AJ17" s="463"/>
+      <c r="AK17" s="463"/>
+      <c r="AL17" s="463"/>
+      <c r="AM17" s="464"/>
       <c r="AN17" s="10"/>
       <c r="AO17" s="9"/>
       <c r="AP17" s="9"/>
@@ -19691,11 +18860,11 @@
       <c r="T18" s="37"/>
       <c r="U18" s="38"/>
       <c r="V18" s="39"/>
-      <c r="W18" s="316" t="s">
+      <c r="W18" s="468" t="s">
         <v>347</v>
       </c>
-      <c r="X18" s="317"/>
-      <c r="Y18" s="318"/>
+      <c r="X18" s="469"/>
+      <c r="Y18" s="470"/>
       <c r="Z18" s="38"/>
       <c r="AA18" s="38"/>
       <c r="AB18" s="39"/>
@@ -19804,15 +18973,15 @@
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
-      <c r="T20" s="548"/>
-      <c r="U20" s="549"/>
-      <c r="V20" s="550"/>
-      <c r="W20" s="551"/>
-      <c r="X20" s="552"/>
-      <c r="Y20" s="553"/>
-      <c r="Z20" s="549"/>
-      <c r="AA20" s="549"/>
-      <c r="AB20" s="550"/>
+      <c r="T20" s="382"/>
+      <c r="U20" s="383"/>
+      <c r="V20" s="384"/>
+      <c r="W20" s="465"/>
+      <c r="X20" s="466"/>
+      <c r="Y20" s="467"/>
+      <c r="Z20" s="383"/>
+      <c r="AA20" s="383"/>
+      <c r="AB20" s="384"/>
       <c r="AC20" s="38"/>
       <c r="AD20" s="38"/>
       <c r="AE20" s="39"/>
@@ -19861,24 +19030,24 @@
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
-      <c r="T21" s="554">
+      <c r="T21" s="475">
         <v>53640</v>
       </c>
-      <c r="U21" s="555"/>
-      <c r="V21" s="556"/>
-      <c r="W21" s="554">
+      <c r="U21" s="476"/>
+      <c r="V21" s="477"/>
+      <c r="W21" s="475">
         <v>228914</v>
       </c>
-      <c r="X21" s="555"/>
-      <c r="Y21" s="556"/>
-      <c r="Z21" s="557">
+      <c r="X21" s="476"/>
+      <c r="Y21" s="477"/>
+      <c r="Z21" s="447">
         <v>282554</v>
       </c>
-      <c r="AA21" s="558"/>
-      <c r="AB21" s="559"/>
-      <c r="AC21" s="323"/>
-      <c r="AD21" s="324"/>
-      <c r="AE21" s="325"/>
+      <c r="AA21" s="448"/>
+      <c r="AB21" s="449"/>
+      <c r="AC21" s="478"/>
+      <c r="AD21" s="479"/>
+      <c r="AE21" s="480"/>
       <c r="AF21" s="38"/>
       <c r="AG21" s="38"/>
       <c r="AH21" s="38"/>
@@ -19924,15 +19093,15 @@
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
-      <c r="T22" s="560"/>
-      <c r="U22" s="561"/>
-      <c r="V22" s="562"/>
-      <c r="W22" s="560"/>
-      <c r="X22" s="561"/>
-      <c r="Y22" s="562"/>
-      <c r="Z22" s="560"/>
-      <c r="AA22" s="561"/>
-      <c r="AB22" s="562"/>
+      <c r="T22" s="385"/>
+      <c r="U22" s="386"/>
+      <c r="V22" s="387"/>
+      <c r="W22" s="385"/>
+      <c r="X22" s="386"/>
+      <c r="Y22" s="387"/>
+      <c r="Z22" s="385"/>
+      <c r="AA22" s="386"/>
+      <c r="AB22" s="387"/>
       <c r="AC22" s="43"/>
       <c r="AD22" s="43"/>
       <c r="AE22" s="43"/>
@@ -19981,22 +19150,22 @@
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
-      <c r="T23" s="557">
+      <c r="T23" s="447">
         <v>1.6995</v>
       </c>
-      <c r="U23" s="558"/>
-      <c r="V23" s="559"/>
-      <c r="W23" s="563"/>
-      <c r="X23" s="564"/>
-      <c r="Y23" s="565"/>
-      <c r="Z23" s="557">
+      <c r="U23" s="448"/>
+      <c r="V23" s="449"/>
+      <c r="W23" s="388"/>
+      <c r="X23" s="389"/>
+      <c r="Y23" s="390"/>
+      <c r="Z23" s="447">
         <v>3.4830000000000001</v>
       </c>
-      <c r="AA23" s="558"/>
-      <c r="AB23" s="559"/>
-      <c r="AC23" s="304"/>
-      <c r="AD23" s="305"/>
-      <c r="AE23" s="306"/>
+      <c r="AA23" s="448"/>
+      <c r="AB23" s="449"/>
+      <c r="AC23" s="450"/>
+      <c r="AD23" s="451"/>
+      <c r="AE23" s="452"/>
       <c r="AF23" s="44"/>
       <c r="AG23" s="44"/>
       <c r="AH23" s="44"/>
@@ -20008,12 +19177,12 @@
       <c r="AN23" s="10"/>
       <c r="AO23" s="9"/>
       <c r="AP23" s="9"/>
-      <c r="AQ23" s="326" t="s">
+      <c r="AQ23" s="481" t="s">
         <v>310</v>
       </c>
-      <c r="AR23" s="327"/>
-      <c r="AS23" s="327"/>
-      <c r="AT23" s="328"/>
+      <c r="AR23" s="482"/>
+      <c r="AS23" s="482"/>
+      <c r="AT23" s="483"/>
       <c r="AU23" s="9"/>
       <c r="AV23" s="9"/>
       <c r="AW23" s="9"/>
@@ -20044,24 +19213,24 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
-      <c r="T24" s="557">
+      <c r="T24" s="447">
         <v>-23.914999999999999</v>
       </c>
-      <c r="U24" s="558"/>
-      <c r="V24" s="559"/>
-      <c r="W24" s="557">
+      <c r="U24" s="448"/>
+      <c r="V24" s="449"/>
+      <c r="W24" s="447">
         <v>-1.1499999999999999</v>
       </c>
-      <c r="X24" s="558"/>
-      <c r="Y24" s="559"/>
-      <c r="Z24" s="557">
+      <c r="X24" s="448"/>
+      <c r="Y24" s="449"/>
+      <c r="Z24" s="447">
         <v>1.17</v>
       </c>
-      <c r="AA24" s="558"/>
-      <c r="AB24" s="559"/>
-      <c r="AC24" s="304"/>
-      <c r="AD24" s="305"/>
-      <c r="AE24" s="306"/>
+      <c r="AA24" s="448"/>
+      <c r="AB24" s="449"/>
+      <c r="AC24" s="450"/>
+      <c r="AD24" s="451"/>
+      <c r="AE24" s="452"/>
       <c r="AF24" s="44"/>
       <c r="AG24" s="44"/>
       <c r="AH24" s="44"/>
@@ -20073,10 +19242,10 @@
       <c r="AN24" s="10"/>
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
-      <c r="AQ24" s="329" t="s">
+      <c r="AQ24" s="484" t="s">
         <v>345</v>
       </c>
-      <c r="AR24" s="330"/>
+      <c r="AR24" s="485"/>
       <c r="AS24" s="249">
         <v>1</v>
       </c>
@@ -20113,15 +19282,15 @@
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
-      <c r="T25" s="563"/>
-      <c r="U25" s="564"/>
-      <c r="V25" s="565"/>
-      <c r="W25" s="563"/>
-      <c r="X25" s="564"/>
-      <c r="Y25" s="565"/>
-      <c r="Z25" s="563"/>
-      <c r="AA25" s="564"/>
-      <c r="AB25" s="565"/>
+      <c r="T25" s="388"/>
+      <c r="U25" s="389"/>
+      <c r="V25" s="390"/>
+      <c r="W25" s="388"/>
+      <c r="X25" s="389"/>
+      <c r="Y25" s="390"/>
+      <c r="Z25" s="388"/>
+      <c r="AA25" s="389"/>
+      <c r="AB25" s="390"/>
       <c r="AC25" s="48"/>
       <c r="AD25" s="48"/>
       <c r="AE25" s="49"/>
@@ -20136,15 +19305,15 @@
       <c r="AN25" s="10"/>
       <c r="AO25" s="9"/>
       <c r="AP25" s="50"/>
-      <c r="AQ25" s="283" t="s">
+      <c r="AQ25" s="420" t="s">
         <v>311</v>
       </c>
-      <c r="AR25" s="284"/>
+      <c r="AR25" s="421"/>
       <c r="AS25" s="240">
         <v>0.80577006125804551</v>
       </c>
       <c r="AT25" s="240">
-        <v>0.78681410377465921</v>
+        <v>0.89464555474377661</v>
       </c>
       <c r="AU25" s="9"/>
       <c r="AV25" s="9"/>
@@ -20176,15 +19345,15 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
-      <c r="T26" s="563"/>
-      <c r="U26" s="564"/>
-      <c r="V26" s="565"/>
-      <c r="W26" s="563"/>
-      <c r="X26" s="564"/>
-      <c r="Y26" s="565"/>
-      <c r="Z26" s="563"/>
-      <c r="AA26" s="564"/>
-      <c r="AB26" s="565"/>
+      <c r="T26" s="388"/>
+      <c r="U26" s="389"/>
+      <c r="V26" s="390"/>
+      <c r="W26" s="388"/>
+      <c r="X26" s="389"/>
+      <c r="Y26" s="390"/>
+      <c r="Z26" s="388"/>
+      <c r="AA26" s="389"/>
+      <c r="AB26" s="390"/>
       <c r="AC26" s="48"/>
       <c r="AD26" s="48"/>
       <c r="AE26" s="49"/>
@@ -20199,15 +19368,15 @@
       <c r="AN26" s="10"/>
       <c r="AO26" s="9"/>
       <c r="AP26" s="50"/>
-      <c r="AQ26" s="285" t="s">
+      <c r="AQ26" s="422" t="s">
         <v>312</v>
       </c>
-      <c r="AR26" s="286"/>
+      <c r="AR26" s="423"/>
       <c r="AS26" s="235">
         <v>3444336.0804700097</v>
       </c>
       <c r="AT26" s="256">
-        <v>5927893.3681806568</v>
+        <v>11333353.513971122</v>
       </c>
       <c r="AU26" s="50"/>
       <c r="AV26" s="50"/>
@@ -20239,18 +19408,18 @@
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
-      <c r="T27" s="563"/>
-      <c r="U27" s="564"/>
-      <c r="V27" s="565"/>
-      <c r="W27" s="563"/>
-      <c r="X27" s="564"/>
-      <c r="Y27" s="565"/>
-      <c r="Z27" s="563"/>
-      <c r="AA27" s="564"/>
-      <c r="AB27" s="565"/>
-      <c r="AC27" s="310"/>
-      <c r="AD27" s="311"/>
-      <c r="AE27" s="312"/>
+      <c r="T27" s="388"/>
+      <c r="U27" s="389"/>
+      <c r="V27" s="390"/>
+      <c r="W27" s="388"/>
+      <c r="X27" s="389"/>
+      <c r="Y27" s="390"/>
+      <c r="Z27" s="388"/>
+      <c r="AA27" s="389"/>
+      <c r="AB27" s="390"/>
+      <c r="AC27" s="453"/>
+      <c r="AD27" s="454"/>
+      <c r="AE27" s="455"/>
       <c r="AF27" s="44"/>
       <c r="AG27" s="44"/>
       <c r="AH27" s="44"/>
@@ -20262,10 +19431,10 @@
       <c r="AN27" s="10"/>
       <c r="AO27" s="9"/>
       <c r="AP27" s="50"/>
-      <c r="AQ27" s="285" t="s">
+      <c r="AQ27" s="422" t="s">
         <v>313</v>
       </c>
-      <c r="AR27" s="286"/>
+      <c r="AR27" s="423"/>
       <c r="AS27" s="239">
         <v>1.8381739631224414</v>
       </c>
@@ -20302,15 +19471,15 @@
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
-      <c r="T28" s="563"/>
-      <c r="U28" s="564"/>
-      <c r="V28" s="565"/>
-      <c r="W28" s="566"/>
-      <c r="X28" s="567"/>
-      <c r="Y28" s="568"/>
-      <c r="Z28" s="563"/>
-      <c r="AA28" s="564"/>
-      <c r="AB28" s="565"/>
+      <c r="T28" s="388"/>
+      <c r="U28" s="389"/>
+      <c r="V28" s="390"/>
+      <c r="W28" s="424"/>
+      <c r="X28" s="425"/>
+      <c r="Y28" s="426"/>
+      <c r="Z28" s="388"/>
+      <c r="AA28" s="389"/>
+      <c r="AB28" s="390"/>
       <c r="AC28" s="48"/>
       <c r="AD28" s="48"/>
       <c r="AE28" s="49"/>
@@ -20325,15 +19494,15 @@
       <c r="AN28" s="10"/>
       <c r="AO28" s="9"/>
       <c r="AP28" s="50"/>
-      <c r="AQ28" s="285" t="s">
+      <c r="AQ28" s="422" t="s">
         <v>314</v>
       </c>
-      <c r="AR28" s="286"/>
+      <c r="AR28" s="423"/>
       <c r="AS28" s="239">
         <v>6.2577332211443376E-2</v>
       </c>
       <c r="AT28" s="239">
-        <v>0.17398308458415979</v>
+        <v>0.11835058514485503</v>
       </c>
       <c r="AU28" s="50"/>
       <c r="AV28" s="50"/>
@@ -20365,22 +19534,22 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
-      <c r="T29" s="569">
+      <c r="T29" s="456">
         <v>14614</v>
       </c>
-      <c r="U29" s="570"/>
-      <c r="V29" s="571"/>
-      <c r="W29" s="569"/>
-      <c r="X29" s="570"/>
-      <c r="Y29" s="571"/>
-      <c r="Z29" s="572">
+      <c r="U29" s="457"/>
+      <c r="V29" s="458"/>
+      <c r="W29" s="456"/>
+      <c r="X29" s="457"/>
+      <c r="Y29" s="458"/>
+      <c r="Z29" s="459">
         <v>39350</v>
       </c>
-      <c r="AA29" s="573"/>
-      <c r="AB29" s="574"/>
-      <c r="AC29" s="304"/>
-      <c r="AD29" s="305"/>
-      <c r="AE29" s="306"/>
+      <c r="AA29" s="460"/>
+      <c r="AB29" s="461"/>
+      <c r="AC29" s="450"/>
+      <c r="AD29" s="451"/>
+      <c r="AE29" s="452"/>
       <c r="AF29" s="44"/>
       <c r="AG29" s="44"/>
       <c r="AH29" s="44"/>
@@ -20392,15 +19561,15 @@
       <c r="AN29" s="10"/>
       <c r="AO29" s="9"/>
       <c r="AP29" s="50"/>
-      <c r="AQ29" s="285" t="s">
+      <c r="AQ29" s="422" t="s">
         <v>315</v>
       </c>
-      <c r="AR29" s="286"/>
+      <c r="AR29" s="423"/>
       <c r="AS29" s="239">
         <v>2.0910686906253764</v>
       </c>
       <c r="AT29" s="239">
-        <v>5.1330745381737763</v>
+        <v>3.9702680261087946</v>
       </c>
       <c r="AU29" s="50"/>
       <c r="AV29" s="50"/>
@@ -20432,15 +19601,15 @@
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
-      <c r="T30" s="560"/>
-      <c r="U30" s="561"/>
-      <c r="V30" s="562"/>
-      <c r="W30" s="566"/>
-      <c r="X30" s="567"/>
-      <c r="Y30" s="568"/>
-      <c r="Z30" s="560"/>
-      <c r="AA30" s="561"/>
-      <c r="AB30" s="562"/>
+      <c r="T30" s="385"/>
+      <c r="U30" s="386"/>
+      <c r="V30" s="387"/>
+      <c r="W30" s="424"/>
+      <c r="X30" s="425"/>
+      <c r="Y30" s="426"/>
+      <c r="Z30" s="385"/>
+      <c r="AA30" s="386"/>
+      <c r="AB30" s="387"/>
       <c r="AC30" s="52"/>
       <c r="AD30" s="52"/>
       <c r="AE30" s="52"/>
@@ -20455,15 +19624,15 @@
       <c r="AN30" s="10"/>
       <c r="AO30" s="9"/>
       <c r="AP30" s="50"/>
-      <c r="AQ30" s="285" t="s">
+      <c r="AQ30" s="422" t="s">
         <v>316</v>
       </c>
-      <c r="AR30" s="286"/>
+      <c r="AR30" s="423"/>
       <c r="AS30" s="239">
         <v>1.4986605874131345</v>
       </c>
       <c r="AT30" s="239">
-        <v>3.0476311828341203</v>
+        <v>2.3572446787190606</v>
       </c>
       <c r="AU30" s="50"/>
       <c r="AV30" s="50"/>
@@ -20495,23 +19664,23 @@
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
-      <c r="T31" s="557">
+      <c r="T31" s="447">
         <f>Z23</f>
         <v>3.4830000000000001</v>
       </c>
-      <c r="U31" s="558"/>
-      <c r="V31" s="559"/>
-      <c r="W31" s="566"/>
-      <c r="X31" s="567"/>
-      <c r="Y31" s="568"/>
-      <c r="Z31" s="557">
+      <c r="U31" s="448"/>
+      <c r="V31" s="449"/>
+      <c r="W31" s="424"/>
+      <c r="X31" s="425"/>
+      <c r="Y31" s="426"/>
+      <c r="Z31" s="447">
         <v>17.527999999999999</v>
       </c>
-      <c r="AA31" s="558"/>
-      <c r="AB31" s="559"/>
-      <c r="AC31" s="304"/>
-      <c r="AD31" s="305"/>
-      <c r="AE31" s="306"/>
+      <c r="AA31" s="448"/>
+      <c r="AB31" s="449"/>
+      <c r="AC31" s="450"/>
+      <c r="AD31" s="451"/>
+      <c r="AE31" s="452"/>
       <c r="AF31" s="45"/>
       <c r="AG31" s="44"/>
       <c r="AH31" s="44"/>
@@ -20523,8 +19692,8 @@
       <c r="AN31" s="10"/>
       <c r="AO31" s="9"/>
       <c r="AP31" s="50"/>
-      <c r="AQ31" s="331"/>
-      <c r="AR31" s="332"/>
+      <c r="AQ31" s="486"/>
+      <c r="AR31" s="487"/>
       <c r="AS31" s="237"/>
       <c r="AT31" s="237"/>
       <c r="AU31" s="50"/>
@@ -20557,22 +19726,22 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
-      <c r="T32" s="557">
+      <c r="T32" s="447">
         <v>10.44</v>
       </c>
-      <c r="U32" s="558"/>
-      <c r="V32" s="559"/>
-      <c r="W32" s="566"/>
-      <c r="X32" s="567"/>
-      <c r="Y32" s="568"/>
-      <c r="Z32" s="557">
+      <c r="U32" s="448"/>
+      <c r="V32" s="449"/>
+      <c r="W32" s="424"/>
+      <c r="X32" s="425"/>
+      <c r="Y32" s="426"/>
+      <c r="Z32" s="447">
         <v>75.44</v>
       </c>
-      <c r="AA32" s="558"/>
-      <c r="AB32" s="559"/>
-      <c r="AC32" s="304"/>
-      <c r="AD32" s="305"/>
-      <c r="AE32" s="306"/>
+      <c r="AA32" s="448"/>
+      <c r="AB32" s="449"/>
+      <c r="AC32" s="450"/>
+      <c r="AD32" s="451"/>
+      <c r="AE32" s="452"/>
       <c r="AF32" s="45"/>
       <c r="AG32" s="44"/>
       <c r="AH32" s="44"/>
@@ -20584,10 +19753,10 @@
       <c r="AN32" s="10"/>
       <c r="AO32" s="9"/>
       <c r="AP32" s="50"/>
-      <c r="AQ32" s="285" t="s">
+      <c r="AQ32" s="422" t="s">
         <v>317</v>
       </c>
-      <c r="AR32" s="286"/>
+      <c r="AR32" s="423"/>
       <c r="AS32" s="236">
         <v>0.69764585396711076</v>
       </c>
@@ -20624,15 +19793,15 @@
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
-      <c r="T33" s="563"/>
-      <c r="U33" s="564"/>
-      <c r="V33" s="564"/>
-      <c r="W33" s="563"/>
-      <c r="X33" s="564"/>
-      <c r="Y33" s="564"/>
-      <c r="Z33" s="563"/>
-      <c r="AA33" s="564"/>
-      <c r="AB33" s="564"/>
+      <c r="T33" s="388"/>
+      <c r="U33" s="389"/>
+      <c r="V33" s="389"/>
+      <c r="W33" s="388"/>
+      <c r="X33" s="389"/>
+      <c r="Y33" s="389"/>
+      <c r="Z33" s="388"/>
+      <c r="AA33" s="389"/>
+      <c r="AB33" s="389"/>
       <c r="AC33" s="53"/>
       <c r="AD33" s="48"/>
       <c r="AE33" s="48"/>
@@ -20647,10 +19816,10 @@
       <c r="AN33" s="10"/>
       <c r="AO33" s="9"/>
       <c r="AP33" s="50"/>
-      <c r="AQ33" s="337" t="s">
+      <c r="AQ33" s="493" t="s">
         <v>330</v>
       </c>
-      <c r="AR33" s="338"/>
+      <c r="AR33" s="494"/>
       <c r="AS33" s="238">
         <v>719.21536737229644</v>
       </c>
@@ -20689,15 +19858,15 @@
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
-      <c r="T34" s="563"/>
-      <c r="U34" s="564"/>
-      <c r="V34" s="564"/>
-      <c r="W34" s="563"/>
-      <c r="X34" s="564"/>
-      <c r="Y34" s="564"/>
-      <c r="Z34" s="563"/>
-      <c r="AA34" s="564"/>
-      <c r="AB34" s="564"/>
+      <c r="T34" s="388"/>
+      <c r="U34" s="389"/>
+      <c r="V34" s="389"/>
+      <c r="W34" s="388"/>
+      <c r="X34" s="389"/>
+      <c r="Y34" s="389"/>
+      <c r="Z34" s="388"/>
+      <c r="AA34" s="389"/>
+      <c r="AB34" s="389"/>
       <c r="AC34" s="53"/>
       <c r="AD34" s="48"/>
       <c r="AE34" s="48"/>
@@ -20712,10 +19881,10 @@
       <c r="AN34" s="10"/>
       <c r="AO34" s="9"/>
       <c r="AP34" s="50"/>
-      <c r="AQ34" s="333" t="s">
+      <c r="AQ34" s="489" t="s">
         <v>355</v>
       </c>
-      <c r="AR34" s="334"/>
+      <c r="AR34" s="490"/>
       <c r="AS34" s="238">
         <v>14000.072579891636</v>
       </c>
@@ -20754,18 +19923,18 @@
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
-      <c r="T35" s="563"/>
-      <c r="U35" s="564"/>
-      <c r="V35" s="564"/>
-      <c r="W35" s="563"/>
-      <c r="X35" s="564"/>
-      <c r="Y35" s="564"/>
-      <c r="Z35" s="563"/>
-      <c r="AA35" s="564"/>
-      <c r="AB35" s="564"/>
-      <c r="AC35" s="304"/>
-      <c r="AD35" s="305"/>
-      <c r="AE35" s="306"/>
+      <c r="T35" s="388"/>
+      <c r="U35" s="389"/>
+      <c r="V35" s="389"/>
+      <c r="W35" s="388"/>
+      <c r="X35" s="389"/>
+      <c r="Y35" s="389"/>
+      <c r="Z35" s="388"/>
+      <c r="AA35" s="389"/>
+      <c r="AB35" s="389"/>
+      <c r="AC35" s="450"/>
+      <c r="AD35" s="451"/>
+      <c r="AE35" s="452"/>
       <c r="AF35" s="12"/>
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
@@ -20777,10 +19946,10 @@
       <c r="AN35" s="10"/>
       <c r="AO35" s="9"/>
       <c r="AP35" s="50"/>
-      <c r="AQ35" s="333" t="s">
+      <c r="AQ35" s="489" t="s">
         <v>356</v>
       </c>
-      <c r="AR35" s="334"/>
+      <c r="AR35" s="490"/>
       <c r="AS35" s="257"/>
       <c r="AT35" s="238">
         <v>1.0595085461752092</v>
@@ -20817,19 +19986,19 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
-      <c r="T36" s="557">
+      <c r="T36" s="447">
         <v>636</v>
       </c>
-      <c r="U36" s="558"/>
-      <c r="V36" s="559"/>
-      <c r="W36" s="564"/>
-      <c r="X36" s="564"/>
-      <c r="Y36" s="564"/>
-      <c r="Z36" s="557">
+      <c r="U36" s="448"/>
+      <c r="V36" s="449"/>
+      <c r="W36" s="389"/>
+      <c r="X36" s="389"/>
+      <c r="Y36" s="389"/>
+      <c r="Z36" s="447">
         <v>7718</v>
       </c>
-      <c r="AA36" s="558"/>
-      <c r="AB36" s="559"/>
+      <c r="AA36" s="448"/>
+      <c r="AB36" s="449"/>
       <c r="AC36" s="53"/>
       <c r="AD36" s="48"/>
       <c r="AE36" s="48"/>
@@ -20844,14 +20013,14 @@
       <c r="AN36" s="10"/>
       <c r="AO36" s="9"/>
       <c r="AP36" s="50"/>
-      <c r="AQ36" s="333" t="s">
+      <c r="AQ36" s="489" t="s">
         <v>358</v>
       </c>
-      <c r="AR36" s="334"/>
-      <c r="AS36" s="335">
+      <c r="AR36" s="490"/>
+      <c r="AS36" s="491">
         <v>31259.452441734171</v>
       </c>
-      <c r="AT36" s="336"/>
+      <c r="AT36" s="492"/>
       <c r="AU36" s="50" t="s">
         <v>321</v>
       </c>
@@ -20884,15 +20053,15 @@
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
-      <c r="T37" s="575"/>
-      <c r="U37" s="576"/>
-      <c r="V37" s="576"/>
-      <c r="W37" s="576"/>
-      <c r="X37" s="576"/>
-      <c r="Y37" s="576"/>
-      <c r="Z37" s="576"/>
-      <c r="AA37" s="576"/>
-      <c r="AB37" s="577"/>
+      <c r="T37" s="391"/>
+      <c r="U37" s="392"/>
+      <c r="V37" s="392"/>
+      <c r="W37" s="392"/>
+      <c r="X37" s="392"/>
+      <c r="Y37" s="392"/>
+      <c r="Z37" s="392"/>
+      <c r="AA37" s="392"/>
+      <c r="AB37" s="393"/>
       <c r="AC37" s="258"/>
       <c r="AD37" s="258"/>
       <c r="AE37" s="259"/>
@@ -20907,14 +20076,14 @@
       <c r="AN37" s="10"/>
       <c r="AO37" s="9"/>
       <c r="AP37" s="50"/>
-      <c r="AQ37" s="333" t="s">
+      <c r="AQ37" s="489" t="s">
         <v>361</v>
       </c>
-      <c r="AR37" s="334"/>
-      <c r="AS37" s="335">
+      <c r="AR37" s="490"/>
+      <c r="AS37" s="491">
         <v>4.1042866922269026</v>
       </c>
-      <c r="AT37" s="336"/>
+      <c r="AT37" s="492"/>
       <c r="AU37" s="50"/>
       <c r="AV37" s="50"/>
       <c r="AW37" s="9"/>
@@ -20945,17 +20114,17 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
-      <c r="T38" s="557">
+      <c r="T38" s="447">
         <v>5162</v>
       </c>
-      <c r="U38" s="558"/>
-      <c r="V38" s="558"/>
-      <c r="W38" s="558"/>
-      <c r="X38" s="558"/>
-      <c r="Y38" s="558"/>
-      <c r="Z38" s="558"/>
-      <c r="AA38" s="558"/>
-      <c r="AB38" s="559"/>
+      <c r="U38" s="448"/>
+      <c r="V38" s="448"/>
+      <c r="W38" s="448"/>
+      <c r="X38" s="448"/>
+      <c r="Y38" s="448"/>
+      <c r="Z38" s="448"/>
+      <c r="AA38" s="448"/>
+      <c r="AB38" s="449"/>
       <c r="AC38" s="48"/>
       <c r="AD38" s="48"/>
       <c r="AE38" s="49"/>
@@ -21004,15 +20173,15 @@
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
-      <c r="T39" s="578"/>
-      <c r="U39" s="579"/>
-      <c r="V39" s="580"/>
-      <c r="W39" s="564"/>
-      <c r="X39" s="564"/>
-      <c r="Y39" s="564"/>
-      <c r="Z39" s="581"/>
-      <c r="AA39" s="581"/>
-      <c r="AB39" s="582"/>
+      <c r="T39" s="394"/>
+      <c r="U39" s="395"/>
+      <c r="V39" s="396"/>
+      <c r="W39" s="389"/>
+      <c r="X39" s="389"/>
+      <c r="Y39" s="389"/>
+      <c r="Z39" s="397"/>
+      <c r="AA39" s="397"/>
+      <c r="AB39" s="398"/>
       <c r="AC39" s="55"/>
       <c r="AD39" s="55"/>
       <c r="AE39" s="56"/>
@@ -21026,13 +20195,13 @@
       <c r="AM39" s="39"/>
       <c r="AN39" s="10"/>
       <c r="AO39" s="9"/>
-      <c r="AP39" s="499" t="s">
+      <c r="AP39" s="502" t="s">
         <v>406</v>
       </c>
-      <c r="AQ39" s="500"/>
-      <c r="AR39" s="500"/>
-      <c r="AS39" s="501"/>
-      <c r="AT39" s="516" t="s">
+      <c r="AQ39" s="503"/>
+      <c r="AR39" s="503"/>
+      <c r="AS39" s="504"/>
+      <c r="AT39" s="499" t="s">
         <v>402</v>
       </c>
       <c r="AU39" s="9"/>
@@ -21065,22 +20234,22 @@
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
-      <c r="T40" s="557">
+      <c r="T40" s="447">
         <v>34550</v>
       </c>
-      <c r="U40" s="558"/>
-      <c r="V40" s="559"/>
-      <c r="W40" s="564"/>
-      <c r="X40" s="564"/>
-      <c r="Y40" s="564"/>
-      <c r="Z40" s="557">
+      <c r="U40" s="448"/>
+      <c r="V40" s="449"/>
+      <c r="W40" s="389"/>
+      <c r="X40" s="389"/>
+      <c r="Y40" s="389"/>
+      <c r="Z40" s="447">
         <v>83420</v>
       </c>
-      <c r="AA40" s="558"/>
-      <c r="AB40" s="559"/>
-      <c r="AC40" s="304"/>
-      <c r="AD40" s="305"/>
-      <c r="AE40" s="306"/>
+      <c r="AA40" s="448"/>
+      <c r="AB40" s="449"/>
+      <c r="AC40" s="450"/>
+      <c r="AD40" s="451"/>
+      <c r="AE40" s="452"/>
       <c r="AF40" s="44"/>
       <c r="AG40" s="44"/>
       <c r="AH40" s="44"/>
@@ -21091,17 +20260,17 @@
       <c r="AM40" s="46"/>
       <c r="AN40" s="10"/>
       <c r="AO40" s="9"/>
-      <c r="AP40" s="502" t="s">
+      <c r="AP40" s="355" t="s">
         <v>400</v>
       </c>
-      <c r="AQ40" s="503" t="s">
+      <c r="AQ40" s="505" t="s">
         <v>403</v>
       </c>
-      <c r="AR40" s="503"/>
-      <c r="AS40" s="504" t="s">
+      <c r="AR40" s="505"/>
+      <c r="AS40" s="356" t="s">
         <v>404</v>
       </c>
-      <c r="AT40" s="516"/>
+      <c r="AT40" s="499"/>
       <c r="AU40" s="9"/>
       <c r="AV40" s="9"/>
       <c r="AW40" s="9"/>
@@ -21132,22 +20301,22 @@
       <c r="Q41" s="13"/>
       <c r="R41" s="13"/>
       <c r="S41" s="13"/>
-      <c r="T41" s="583">
+      <c r="T41" s="495">
         <v>0.84599999999999997</v>
       </c>
-      <c r="U41" s="584"/>
-      <c r="V41" s="585"/>
-      <c r="W41" s="564"/>
-      <c r="X41" s="564"/>
-      <c r="Y41" s="564"/>
-      <c r="Z41" s="583">
+      <c r="U41" s="496"/>
+      <c r="V41" s="497"/>
+      <c r="W41" s="389"/>
+      <c r="X41" s="389"/>
+      <c r="Y41" s="389"/>
+      <c r="Z41" s="495">
         <v>0.85199999999999998</v>
       </c>
-      <c r="AA41" s="584"/>
-      <c r="AB41" s="585"/>
-      <c r="AC41" s="304"/>
-      <c r="AD41" s="305"/>
-      <c r="AE41" s="306"/>
+      <c r="AA41" s="496"/>
+      <c r="AB41" s="497"/>
+      <c r="AC41" s="450"/>
+      <c r="AD41" s="451"/>
+      <c r="AE41" s="452"/>
       <c r="AF41" s="44"/>
       <c r="AG41" s="44"/>
       <c r="AH41" s="44"/>
@@ -21158,17 +20327,17 @@
       <c r="AM41" s="46"/>
       <c r="AN41" s="10"/>
       <c r="AO41" s="9"/>
-      <c r="AP41" s="505" t="s">
+      <c r="AP41" s="357" t="s">
         <v>321</v>
       </c>
       <c r="AQ41" s="506" t="s">
         <v>405</v>
       </c>
       <c r="AR41" s="506"/>
-      <c r="AS41" s="507" t="s">
+      <c r="AS41" s="358" t="s">
         <v>65</v>
       </c>
-      <c r="AT41" s="516"/>
+      <c r="AT41" s="499"/>
       <c r="AU41" s="9"/>
       <c r="AV41" s="9"/>
       <c r="AW41" s="9"/>
@@ -21199,15 +20368,15 @@
       <c r="Q42" s="13"/>
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
-      <c r="T42" s="586"/>
-      <c r="U42" s="587"/>
-      <c r="V42" s="588"/>
-      <c r="W42" s="587"/>
-      <c r="X42" s="587"/>
-      <c r="Y42" s="588"/>
-      <c r="Z42" s="587"/>
-      <c r="AA42" s="587"/>
-      <c r="AB42" s="588"/>
+      <c r="T42" s="399"/>
+      <c r="U42" s="400"/>
+      <c r="V42" s="401"/>
+      <c r="W42" s="400"/>
+      <c r="X42" s="400"/>
+      <c r="Y42" s="401"/>
+      <c r="Z42" s="400"/>
+      <c r="AA42" s="400"/>
+      <c r="AB42" s="401"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
       <c r="AE42" s="57"/>
@@ -21221,17 +20390,17 @@
       <c r="AM42" s="57"/>
       <c r="AN42" s="10"/>
       <c r="AO42" s="9"/>
-      <c r="AP42" s="508">
+      <c r="AP42" s="359">
         <v>11000</v>
       </c>
-      <c r="AQ42" s="509">
+      <c r="AQ42" s="498">
         <v>40</v>
       </c>
-      <c r="AR42" s="509"/>
-      <c r="AS42" s="510">
+      <c r="AR42" s="498"/>
+      <c r="AS42" s="360">
         <v>0.75</v>
       </c>
-      <c r="AT42" s="516"/>
+      <c r="AT42" s="499"/>
       <c r="AU42" s="9"/>
       <c r="AV42" s="9"/>
       <c r="AW42" s="9"/>
@@ -21262,15 +20431,15 @@
       <c r="Q43" s="13"/>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
-      <c r="T43" s="589"/>
-      <c r="U43" s="590"/>
-      <c r="V43" s="590"/>
-      <c r="W43" s="590"/>
-      <c r="X43" s="590"/>
-      <c r="Y43" s="591"/>
-      <c r="Z43" s="589"/>
-      <c r="AA43" s="590"/>
-      <c r="AB43" s="590"/>
+      <c r="T43" s="402"/>
+      <c r="U43" s="403"/>
+      <c r="V43" s="403"/>
+      <c r="W43" s="403"/>
+      <c r="X43" s="403"/>
+      <c r="Y43" s="404"/>
+      <c r="Z43" s="402"/>
+      <c r="AA43" s="403"/>
+      <c r="AB43" s="403"/>
       <c r="AC43" s="44"/>
       <c r="AD43" s="44"/>
       <c r="AE43" s="46"/>
@@ -21284,17 +20453,17 @@
       <c r="AM43" s="46"/>
       <c r="AN43" s="10"/>
       <c r="AO43" s="9"/>
-      <c r="AP43" s="508">
+      <c r="AP43" s="359">
         <v>13000</v>
       </c>
-      <c r="AQ43" s="509">
+      <c r="AQ43" s="498">
         <v>36</v>
       </c>
-      <c r="AR43" s="509"/>
-      <c r="AS43" s="510">
+      <c r="AR43" s="498"/>
+      <c r="AS43" s="360">
         <v>0.72</v>
       </c>
-      <c r="AT43" s="516"/>
+      <c r="AT43" s="499"/>
       <c r="AU43" s="9"/>
       <c r="AV43" s="9"/>
       <c r="AW43" s="9"/>
@@ -21325,15 +20494,15 @@
       <c r="Q44" s="13"/>
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
-      <c r="T44" s="548"/>
-      <c r="U44" s="549"/>
-      <c r="V44" s="550"/>
-      <c r="W44" s="549"/>
-      <c r="X44" s="549"/>
-      <c r="Y44" s="550"/>
-      <c r="Z44" s="549"/>
-      <c r="AA44" s="549"/>
-      <c r="AB44" s="550"/>
+      <c r="T44" s="382"/>
+      <c r="U44" s="383"/>
+      <c r="V44" s="384"/>
+      <c r="W44" s="383"/>
+      <c r="X44" s="383"/>
+      <c r="Y44" s="384"/>
+      <c r="Z44" s="383"/>
+      <c r="AA44" s="383"/>
+      <c r="AB44" s="384"/>
       <c r="AC44" s="38"/>
       <c r="AD44" s="38"/>
       <c r="AE44" s="39"/>
@@ -21347,17 +20516,17 @@
       <c r="AM44" s="39"/>
       <c r="AN44" s="10"/>
       <c r="AO44" s="9"/>
-      <c r="AP44" s="508">
+      <c r="AP44" s="359">
         <v>14000.072579891636</v>
       </c>
-      <c r="AQ44" s="511">
+      <c r="AQ44" s="507">
         <v>33.675007997094966</v>
       </c>
-      <c r="AR44" s="512"/>
-      <c r="AS44" s="510">
+      <c r="AR44" s="508"/>
+      <c r="AS44" s="360">
         <v>0.69764585396711076</v>
       </c>
-      <c r="AT44" s="516"/>
+      <c r="AT44" s="499"/>
       <c r="AU44" s="9"/>
       <c r="AV44" s="9"/>
       <c r="AW44" s="9"/>
@@ -21410,11 +20579,11 @@
       <c r="AM45" s="33"/>
       <c r="AN45" s="10"/>
       <c r="AO45" s="9"/>
-      <c r="AP45" s="508"/>
-      <c r="AQ45" s="509"/>
-      <c r="AR45" s="509"/>
-      <c r="AS45" s="510"/>
-      <c r="AT45" s="516"/>
+      <c r="AP45" s="359"/>
+      <c r="AQ45" s="498"/>
+      <c r="AR45" s="498"/>
+      <c r="AS45" s="360"/>
+      <c r="AT45" s="499"/>
       <c r="AU45" s="9"/>
       <c r="AV45" s="9"/>
       <c r="AW45" s="9"/>
@@ -21477,11 +20646,11 @@
       <c r="AM46" s="33"/>
       <c r="AN46" s="10"/>
       <c r="AO46" s="9"/>
-      <c r="AP46" s="508"/>
-      <c r="AQ46" s="509"/>
-      <c r="AR46" s="509"/>
-      <c r="AS46" s="510"/>
-      <c r="AT46" s="516"/>
+      <c r="AP46" s="359"/>
+      <c r="AQ46" s="498"/>
+      <c r="AR46" s="498"/>
+      <c r="AS46" s="360"/>
+      <c r="AT46" s="499"/>
       <c r="AU46" s="9"/>
       <c r="AV46" s="9"/>
       <c r="AW46" s="9"/>
@@ -21546,11 +20715,11 @@
       <c r="AM47" s="33"/>
       <c r="AN47" s="10"/>
       <c r="AO47" s="9"/>
-      <c r="AP47" s="508"/>
-      <c r="AQ47" s="509"/>
-      <c r="AR47" s="509"/>
-      <c r="AS47" s="510"/>
-      <c r="AT47" s="516"/>
+      <c r="AP47" s="359"/>
+      <c r="AQ47" s="498"/>
+      <c r="AR47" s="498"/>
+      <c r="AS47" s="360"/>
+      <c r="AT47" s="499"/>
       <c r="AU47" s="9"/>
       <c r="AV47" s="9"/>
       <c r="AW47" s="9"/>
@@ -21617,11 +20786,11 @@
       <c r="AM48" s="33"/>
       <c r="AN48" s="10"/>
       <c r="AO48" s="9"/>
-      <c r="AP48" s="508"/>
-      <c r="AQ48" s="509"/>
-      <c r="AR48" s="509"/>
-      <c r="AS48" s="510"/>
-      <c r="AT48" s="516"/>
+      <c r="AP48" s="359"/>
+      <c r="AQ48" s="498"/>
+      <c r="AR48" s="498"/>
+      <c r="AS48" s="360"/>
+      <c r="AT48" s="499"/>
       <c r="AU48" s="9"/>
       <c r="AV48" s="9"/>
       <c r="AW48" s="9"/>
@@ -21676,11 +20845,11 @@
       <c r="AM49" s="33"/>
       <c r="AN49" s="10"/>
       <c r="AO49" s="9"/>
-      <c r="AP49" s="513"/>
-      <c r="AQ49" s="514"/>
-      <c r="AR49" s="514"/>
-      <c r="AS49" s="515"/>
-      <c r="AT49" s="516"/>
+      <c r="AP49" s="361"/>
+      <c r="AQ49" s="488"/>
+      <c r="AR49" s="488"/>
+      <c r="AS49" s="362"/>
+      <c r="AT49" s="499"/>
       <c r="AU49" s="9"/>
       <c r="AV49" s="9"/>
       <c r="AW49" s="9"/>
@@ -21739,13 +20908,13 @@
       <c r="AM50" s="33"/>
       <c r="AN50" s="10"/>
       <c r="AO50" s="9"/>
-      <c r="AP50" s="499" t="s">
+      <c r="AP50" s="502" t="s">
         <v>407</v>
       </c>
-      <c r="AQ50" s="500"/>
-      <c r="AR50" s="500"/>
-      <c r="AS50" s="501"/>
-      <c r="AT50" s="516"/>
+      <c r="AQ50" s="503"/>
+      <c r="AR50" s="503"/>
+      <c r="AS50" s="504"/>
+      <c r="AT50" s="499"/>
       <c r="AU50" s="9"/>
       <c r="AV50" s="9"/>
       <c r="AW50" s="9"/>
@@ -21802,17 +20971,17 @@
       <c r="AM51" s="33"/>
       <c r="AN51" s="10"/>
       <c r="AO51" s="9"/>
-      <c r="AP51" s="502" t="s">
+      <c r="AP51" s="355" t="s">
         <v>400</v>
       </c>
-      <c r="AQ51" s="503" t="s">
+      <c r="AQ51" s="505" t="s">
         <v>403</v>
       </c>
-      <c r="AR51" s="503"/>
-      <c r="AS51" s="504" t="s">
+      <c r="AR51" s="505"/>
+      <c r="AS51" s="356" t="s">
         <v>404</v>
       </c>
-      <c r="AT51" s="516"/>
+      <c r="AT51" s="499"/>
       <c r="AU51" s="9"/>
       <c r="AV51" s="9"/>
       <c r="AW51" s="9"/>
@@ -21863,17 +21032,17 @@
       <c r="AM52" s="33"/>
       <c r="AN52" s="10"/>
       <c r="AO52" s="9"/>
-      <c r="AP52" s="505" t="s">
+      <c r="AP52" s="357" t="s">
         <v>321</v>
       </c>
       <c r="AQ52" s="506" t="s">
         <v>405</v>
       </c>
       <c r="AR52" s="506"/>
-      <c r="AS52" s="507" t="s">
+      <c r="AS52" s="358" t="s">
         <v>65</v>
       </c>
-      <c r="AT52" s="516"/>
+      <c r="AT52" s="499"/>
       <c r="AU52" s="9"/>
       <c r="AV52" s="9"/>
       <c r="AW52" s="9"/>
@@ -21926,17 +21095,17 @@
       <c r="AM53" s="33"/>
       <c r="AN53" s="10"/>
       <c r="AO53" s="9"/>
-      <c r="AP53" s="508">
+      <c r="AP53" s="359">
         <v>32000</v>
       </c>
-      <c r="AQ53" s="509">
+      <c r="AQ53" s="498">
         <v>85</v>
       </c>
-      <c r="AR53" s="509"/>
-      <c r="AS53" s="510">
+      <c r="AR53" s="498"/>
+      <c r="AS53" s="360">
         <v>0.79</v>
       </c>
-      <c r="AT53" s="516"/>
+      <c r="AT53" s="499"/>
       <c r="AU53" s="9"/>
       <c r="AV53" s="9"/>
       <c r="AW53" s="9"/>
@@ -21984,17 +21153,17 @@
       <c r="AM54" s="59"/>
       <c r="AN54" s="10"/>
       <c r="AO54" s="9"/>
-      <c r="AP54" s="508">
+      <c r="AP54" s="359">
         <v>35000</v>
       </c>
-      <c r="AQ54" s="509">
+      <c r="AQ54" s="498">
         <v>84</v>
       </c>
-      <c r="AR54" s="509"/>
-      <c r="AS54" s="510">
+      <c r="AR54" s="498"/>
+      <c r="AS54" s="360">
         <v>0.81</v>
       </c>
-      <c r="AT54" s="516"/>
+      <c r="AT54" s="499"/>
       <c r="AU54" s="9"/>
       <c r="AV54" s="9"/>
       <c r="AW54" s="9"/>
@@ -22047,17 +21216,17 @@
       <c r="AM55" s="33"/>
       <c r="AN55" s="10"/>
       <c r="AO55" s="9"/>
-      <c r="AP55" s="508">
+      <c r="AP55" s="359">
         <v>38924.251414575934</v>
       </c>
-      <c r="AQ55" s="511">
+      <c r="AQ55" s="507">
         <v>82.664107065268283</v>
       </c>
-      <c r="AR55" s="512"/>
-      <c r="AS55" s="510">
+      <c r="AR55" s="508"/>
+      <c r="AS55" s="360">
         <v>0.84214168812256252</v>
       </c>
-      <c r="AT55" s="516"/>
+      <c r="AT55" s="499"/>
       <c r="AU55" s="9"/>
       <c r="AV55" s="9"/>
       <c r="AW55" s="9"/>
@@ -22110,11 +21279,11 @@
       <c r="AM56" s="33"/>
       <c r="AN56" s="10"/>
       <c r="AO56" s="9"/>
-      <c r="AP56" s="508"/>
-      <c r="AQ56" s="509"/>
-      <c r="AR56" s="509"/>
-      <c r="AS56" s="510"/>
-      <c r="AT56" s="516"/>
+      <c r="AP56" s="359"/>
+      <c r="AQ56" s="498"/>
+      <c r="AR56" s="498"/>
+      <c r="AS56" s="360"/>
+      <c r="AT56" s="499"/>
       <c r="AU56" s="9"/>
       <c r="AV56" s="9"/>
       <c r="AW56" s="9"/>
@@ -22164,11 +21333,11 @@
       <c r="AM57" s="65"/>
       <c r="AN57" s="10"/>
       <c r="AO57" s="9"/>
-      <c r="AP57" s="508"/>
-      <c r="AQ57" s="509"/>
-      <c r="AR57" s="509"/>
-      <c r="AS57" s="510"/>
-      <c r="AT57" s="516"/>
+      <c r="AP57" s="359"/>
+      <c r="AQ57" s="498"/>
+      <c r="AR57" s="498"/>
+      <c r="AS57" s="360"/>
+      <c r="AT57" s="499"/>
       <c r="AU57" s="9"/>
       <c r="AV57" s="9"/>
       <c r="AW57" s="9"/>
@@ -22294,11 +21463,11 @@
       </c>
       <c r="AN58" s="9"/>
       <c r="AO58" s="9"/>
-      <c r="AP58" s="508"/>
-      <c r="AQ58" s="509"/>
-      <c r="AR58" s="509"/>
-      <c r="AS58" s="510"/>
-      <c r="AT58" s="516"/>
+      <c r="AP58" s="359"/>
+      <c r="AQ58" s="498"/>
+      <c r="AR58" s="498"/>
+      <c r="AS58" s="360"/>
+      <c r="AT58" s="499"/>
       <c r="AU58" s="9"/>
       <c r="AV58" s="9"/>
       <c r="AW58" s="9"/>
@@ -22382,11 +21551,11 @@
       <c r="AM59" s="69"/>
       <c r="AN59" s="10"/>
       <c r="AO59" s="9"/>
-      <c r="AP59" s="508"/>
-      <c r="AQ59" s="509"/>
-      <c r="AR59" s="509"/>
-      <c r="AS59" s="510"/>
-      <c r="AT59" s="516"/>
+      <c r="AP59" s="359"/>
+      <c r="AQ59" s="498"/>
+      <c r="AR59" s="498"/>
+      <c r="AS59" s="360"/>
+      <c r="AT59" s="499"/>
       <c r="AU59" s="9"/>
       <c r="AV59" s="9"/>
       <c r="AW59" s="9"/>
@@ -22434,11 +21603,11 @@
       <c r="AM60" s="77"/>
       <c r="AN60" s="10"/>
       <c r="AO60" s="9"/>
-      <c r="AP60" s="513"/>
-      <c r="AQ60" s="514"/>
-      <c r="AR60" s="514"/>
-      <c r="AS60" s="515"/>
-      <c r="AT60" s="516"/>
+      <c r="AP60" s="361"/>
+      <c r="AQ60" s="488"/>
+      <c r="AR60" s="488"/>
+      <c r="AS60" s="362"/>
+      <c r="AT60" s="499"/>
       <c r="AU60" s="9"/>
       <c r="AV60" s="9"/>
       <c r="AW60" s="9"/>
@@ -22471,27 +21640,27 @@
       </c>
       <c r="U61" s="75"/>
       <c r="V61" s="75"/>
-      <c r="W61" s="298">
+      <c r="W61" s="438">
         <v>0</v>
       </c>
-      <c r="X61" s="298"/>
-      <c r="Y61" s="298"/>
-      <c r="Z61" s="298"/>
-      <c r="AA61" s="298"/>
+      <c r="X61" s="438"/>
+      <c r="Y61" s="438"/>
+      <c r="Z61" s="438"/>
+      <c r="AA61" s="438"/>
       <c r="AB61" s="76" t="s">
         <v>2</v>
       </c>
       <c r="AC61" s="76"/>
       <c r="AD61" s="76"/>
-      <c r="AE61" s="298" t="s">
+      <c r="AE61" s="438" t="s">
         <v>82</v>
       </c>
-      <c r="AF61" s="298"/>
-      <c r="AG61" s="298"/>
-      <c r="AH61" s="298"/>
-      <c r="AI61" s="298"/>
-      <c r="AJ61" s="298"/>
-      <c r="AK61" s="298"/>
+      <c r="AF61" s="438"/>
+      <c r="AG61" s="438"/>
+      <c r="AH61" s="438"/>
+      <c r="AI61" s="438"/>
+      <c r="AJ61" s="438"/>
+      <c r="AK61" s="438"/>
       <c r="AL61" s="10"/>
       <c r="AM61" s="74"/>
       <c r="AN61" s="10"/>
@@ -22534,26 +21703,26 @@
       <c r="U62" s="75"/>
       <c r="V62" s="75"/>
       <c r="W62" s="76"/>
-      <c r="X62" s="299" t="s">
+      <c r="X62" s="439" t="s">
         <v>82</v>
       </c>
-      <c r="Y62" s="299"/>
-      <c r="Z62" s="299"/>
-      <c r="AA62" s="299"/>
+      <c r="Y62" s="439"/>
+      <c r="Z62" s="439"/>
+      <c r="AA62" s="439"/>
       <c r="AB62" s="81" t="s">
         <v>7</v>
       </c>
       <c r="AC62" s="81"/>
-      <c r="AD62" s="298" t="s">
+      <c r="AD62" s="438" t="s">
         <v>82</v>
       </c>
-      <c r="AE62" s="298"/>
-      <c r="AF62" s="298"/>
-      <c r="AG62" s="298"/>
-      <c r="AH62" s="298"/>
-      <c r="AI62" s="298"/>
-      <c r="AJ62" s="298"/>
-      <c r="AK62" s="298"/>
+      <c r="AE62" s="438"/>
+      <c r="AF62" s="438"/>
+      <c r="AG62" s="438"/>
+      <c r="AH62" s="438"/>
+      <c r="AI62" s="438"/>
+      <c r="AJ62" s="438"/>
+      <c r="AK62" s="438"/>
       <c r="AL62" s="10"/>
       <c r="AM62" s="74"/>
       <c r="AN62" s="10"/>
@@ -22770,14 +21939,14 @@
       <c r="H66" s="71"/>
       <c r="I66" s="71"/>
       <c r="J66" s="71"/>
-      <c r="K66" s="300" t="s">
+      <c r="K66" s="440" t="s">
         <v>87</v>
       </c>
-      <c r="L66" s="301"/>
-      <c r="M66" s="301"/>
-      <c r="N66" s="301"/>
-      <c r="O66" s="301"/>
-      <c r="P66" s="301"/>
+      <c r="L66" s="441"/>
+      <c r="M66" s="441"/>
+      <c r="N66" s="441"/>
+      <c r="O66" s="441"/>
+      <c r="P66" s="441"/>
       <c r="Q66" s="203" t="s">
         <v>88</v>
       </c>
@@ -22831,22 +22000,22 @@
       <c r="H67" s="96"/>
       <c r="I67" s="96"/>
       <c r="J67" s="96"/>
-      <c r="K67" s="307" t="s">
+      <c r="K67" s="444" t="s">
         <v>35</v>
       </c>
-      <c r="L67" s="308"/>
-      <c r="M67" s="309"/>
-      <c r="N67" s="307" t="s">
+      <c r="L67" s="445"/>
+      <c r="M67" s="446"/>
+      <c r="N67" s="444" t="s">
         <v>346</v>
       </c>
-      <c r="O67" s="308"/>
-      <c r="P67" s="309"/>
-      <c r="Q67" s="307" t="s">
+      <c r="O67" s="445"/>
+      <c r="P67" s="446"/>
+      <c r="Q67" s="444" t="s">
         <v>357</v>
       </c>
-      <c r="R67" s="308"/>
-      <c r="S67" s="308"/>
-      <c r="T67" s="309"/>
+      <c r="R67" s="445"/>
+      <c r="S67" s="445"/>
+      <c r="T67" s="446"/>
       <c r="U67" s="97"/>
       <c r="V67" s="98" t="s">
         <v>90</v>
@@ -22862,17 +22031,17 @@
         <v>92</v>
       </c>
       <c r="AC67" s="99"/>
-      <c r="AD67" s="302" t="s">
+      <c r="AD67" s="442" t="s">
         <v>93</v>
       </c>
-      <c r="AE67" s="303"/>
-      <c r="AF67" s="303"/>
-      <c r="AG67" s="303"/>
-      <c r="AH67" s="303"/>
-      <c r="AI67" s="303"/>
-      <c r="AJ67" s="303"/>
-      <c r="AK67" s="303"/>
-      <c r="AL67" s="303"/>
+      <c r="AE67" s="443"/>
+      <c r="AF67" s="443"/>
+      <c r="AG67" s="443"/>
+      <c r="AH67" s="443"/>
+      <c r="AI67" s="443"/>
+      <c r="AJ67" s="443"/>
+      <c r="AK67" s="443"/>
+      <c r="AL67" s="443"/>
       <c r="AM67" s="100"/>
       <c r="AN67" s="9"/>
       <c r="AO67" s="9"/>
@@ -22948,27 +22117,27 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B69" s="277" t="s">
+      <c r="B69" s="414" t="s">
         <v>297</v>
       </c>
-      <c r="C69" s="278"/>
-      <c r="D69" s="278"/>
-      <c r="E69" s="278"/>
-      <c r="F69" s="278"/>
-      <c r="G69" s="279"/>
+      <c r="C69" s="415"/>
+      <c r="D69" s="415"/>
+      <c r="E69" s="415"/>
+      <c r="F69" s="415"/>
+      <c r="G69" s="416"/>
       <c r="H69" s="211"/>
       <c r="I69" s="212"/>
       <c r="J69" s="207"/>
-      <c r="K69" s="592">
+      <c r="K69" s="411">
         <v>0</v>
       </c>
-      <c r="L69" s="593"/>
-      <c r="M69" s="594"/>
-      <c r="N69" s="592">
+      <c r="L69" s="412"/>
+      <c r="M69" s="413"/>
+      <c r="N69" s="411">
         <v>0</v>
       </c>
-      <c r="O69" s="593"/>
-      <c r="P69" s="594"/>
+      <c r="O69" s="412"/>
+      <c r="P69" s="413"/>
       <c r="Q69" s="103"/>
       <c r="R69" s="102"/>
       <c r="S69" s="102"/>
@@ -23009,27 +22178,27 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B70" s="277" t="s">
+      <c r="B70" s="414" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="278"/>
-      <c r="D70" s="278"/>
-      <c r="E70" s="278"/>
-      <c r="F70" s="278"/>
-      <c r="G70" s="279"/>
+      <c r="C70" s="415"/>
+      <c r="D70" s="415"/>
+      <c r="E70" s="415"/>
+      <c r="F70" s="415"/>
+      <c r="G70" s="416"/>
       <c r="H70" s="211"/>
       <c r="I70" s="212"/>
       <c r="J70" s="207"/>
-      <c r="K70" s="592">
+      <c r="K70" s="411">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="L70" s="593"/>
-      <c r="M70" s="594"/>
-      <c r="N70" s="592">
+      <c r="L70" s="412"/>
+      <c r="M70" s="413"/>
+      <c r="N70" s="411">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="O70" s="593"/>
-      <c r="P70" s="594"/>
+      <c r="O70" s="412"/>
+      <c r="P70" s="413"/>
       <c r="Q70" s="103"/>
       <c r="R70" s="102"/>
       <c r="S70" s="102"/>
@@ -23070,27 +22239,27 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B71" s="277" t="s">
+      <c r="B71" s="414" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="278"/>
-      <c r="D71" s="278"/>
-      <c r="E71" s="278"/>
-      <c r="F71" s="278"/>
-      <c r="G71" s="279"/>
+      <c r="C71" s="415"/>
+      <c r="D71" s="415"/>
+      <c r="E71" s="415"/>
+      <c r="F71" s="415"/>
+      <c r="G71" s="416"/>
       <c r="H71" s="211"/>
       <c r="I71" s="212"/>
       <c r="J71" s="207"/>
-      <c r="K71" s="592">
+      <c r="K71" s="411">
         <v>0.96319999999999995</v>
       </c>
-      <c r="L71" s="593"/>
-      <c r="M71" s="594"/>
-      <c r="N71" s="592">
+      <c r="L71" s="412"/>
+      <c r="M71" s="413"/>
+      <c r="N71" s="411">
         <v>0.95920000000000005</v>
       </c>
-      <c r="O71" s="593"/>
-      <c r="P71" s="594"/>
+      <c r="O71" s="412"/>
+      <c r="P71" s="413"/>
       <c r="Q71" s="103"/>
       <c r="R71" s="102"/>
       <c r="S71" s="102"/>
@@ -23131,27 +22300,27 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B72" s="277" t="s">
+      <c r="B72" s="414" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="278"/>
-      <c r="D72" s="278"/>
-      <c r="E72" s="278"/>
-      <c r="F72" s="278"/>
-      <c r="G72" s="279"/>
+      <c r="C72" s="415"/>
+      <c r="D72" s="415"/>
+      <c r="E72" s="415"/>
+      <c r="F72" s="415"/>
+      <c r="G72" s="416"/>
       <c r="H72" s="211"/>
       <c r="I72" s="212"/>
       <c r="J72" s="207"/>
-      <c r="K72" s="592">
+      <c r="K72" s="411">
         <v>1.46E-2</v>
       </c>
-      <c r="L72" s="593"/>
-      <c r="M72" s="594"/>
-      <c r="N72" s="592">
+      <c r="L72" s="412"/>
+      <c r="M72" s="413"/>
+      <c r="N72" s="411">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="O72" s="593"/>
-      <c r="P72" s="594"/>
+      <c r="O72" s="412"/>
+      <c r="P72" s="413"/>
       <c r="Q72" s="103"/>
       <c r="R72" s="102"/>
       <c r="S72" s="102"/>
@@ -23192,27 +22361,27 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B73" s="277" t="s">
+      <c r="B73" s="414" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="278"/>
-      <c r="D73" s="278"/>
-      <c r="E73" s="278"/>
-      <c r="F73" s="278"/>
-      <c r="G73" s="279"/>
+      <c r="C73" s="415"/>
+      <c r="D73" s="415"/>
+      <c r="E73" s="415"/>
+      <c r="F73" s="415"/>
+      <c r="G73" s="416"/>
       <c r="H73" s="211"/>
       <c r="I73" s="212"/>
       <c r="J73" s="207"/>
-      <c r="K73" s="592">
+      <c r="K73" s="411">
         <v>1.35E-2</v>
       </c>
-      <c r="L73" s="593"/>
-      <c r="M73" s="594"/>
-      <c r="N73" s="592">
+      <c r="L73" s="412"/>
+      <c r="M73" s="413"/>
+      <c r="N73" s="411">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="O73" s="593"/>
-      <c r="P73" s="594"/>
+      <c r="O73" s="412"/>
+      <c r="P73" s="413"/>
       <c r="Q73" s="103"/>
       <c r="R73" s="102"/>
       <c r="S73" s="102"/>
@@ -23253,27 +22422,27 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B74" s="277" t="s">
+      <c r="B74" s="414" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="278"/>
-      <c r="D74" s="278"/>
-      <c r="E74" s="278"/>
-      <c r="F74" s="278"/>
-      <c r="G74" s="279"/>
+      <c r="C74" s="415"/>
+      <c r="D74" s="415"/>
+      <c r="E74" s="415"/>
+      <c r="F74" s="415"/>
+      <c r="G74" s="416"/>
       <c r="H74" s="211"/>
       <c r="I74" s="212"/>
       <c r="J74" s="207"/>
-      <c r="K74" s="592">
+      <c r="K74" s="411">
         <v>0</v>
       </c>
-      <c r="L74" s="593"/>
-      <c r="M74" s="594"/>
-      <c r="N74" s="592">
+      <c r="L74" s="412"/>
+      <c r="M74" s="413"/>
+      <c r="N74" s="411">
         <v>0</v>
       </c>
-      <c r="O74" s="593"/>
-      <c r="P74" s="594"/>
+      <c r="O74" s="412"/>
+      <c r="P74" s="413"/>
       <c r="Q74" s="103"/>
       <c r="R74" s="102"/>
       <c r="S74" s="102"/>
@@ -23314,27 +22483,27 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B75" s="277" t="s">
+      <c r="B75" s="414" t="s">
         <v>100</v>
       </c>
-      <c r="C75" s="278"/>
-      <c r="D75" s="278"/>
-      <c r="E75" s="278"/>
-      <c r="F75" s="278"/>
-      <c r="G75" s="279"/>
+      <c r="C75" s="415"/>
+      <c r="D75" s="415"/>
+      <c r="E75" s="415"/>
+      <c r="F75" s="415"/>
+      <c r="G75" s="416"/>
       <c r="H75" s="211"/>
       <c r="I75" s="212"/>
       <c r="J75" s="207"/>
-      <c r="K75" s="592">
+      <c r="K75" s="411">
         <v>0</v>
       </c>
-      <c r="L75" s="593"/>
-      <c r="M75" s="594"/>
-      <c r="N75" s="592">
+      <c r="L75" s="412"/>
+      <c r="M75" s="413"/>
+      <c r="N75" s="411">
         <v>0</v>
       </c>
-      <c r="O75" s="593"/>
-      <c r="P75" s="594"/>
+      <c r="O75" s="412"/>
+      <c r="P75" s="413"/>
       <c r="Q75" s="101"/>
       <c r="R75" s="96"/>
       <c r="S75" s="96"/>
@@ -23377,27 +22546,27 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B76" s="277" t="s">
+      <c r="B76" s="414" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="278"/>
-      <c r="D76" s="278"/>
-      <c r="E76" s="278"/>
-      <c r="F76" s="278"/>
-      <c r="G76" s="279"/>
+      <c r="C76" s="415"/>
+      <c r="D76" s="415"/>
+      <c r="E76" s="415"/>
+      <c r="F76" s="415"/>
+      <c r="G76" s="416"/>
       <c r="H76" s="211"/>
       <c r="I76" s="212"/>
       <c r="J76" s="207"/>
-      <c r="K76" s="592">
+      <c r="K76" s="411">
         <v>0</v>
       </c>
-      <c r="L76" s="593"/>
-      <c r="M76" s="594"/>
-      <c r="N76" s="592">
+      <c r="L76" s="412"/>
+      <c r="M76" s="413"/>
+      <c r="N76" s="411">
         <v>0</v>
       </c>
-      <c r="O76" s="593"/>
-      <c r="P76" s="594"/>
+      <c r="O76" s="412"/>
+      <c r="P76" s="413"/>
       <c r="Q76" s="101"/>
       <c r="R76" s="96"/>
       <c r="S76" s="96"/>
@@ -23440,27 +22609,27 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B77" s="277" t="s">
+      <c r="B77" s="414" t="s">
         <v>295</v>
       </c>
-      <c r="C77" s="278"/>
-      <c r="D77" s="278"/>
-      <c r="E77" s="278"/>
-      <c r="F77" s="278"/>
-      <c r="G77" s="279"/>
+      <c r="C77" s="415"/>
+      <c r="D77" s="415"/>
+      <c r="E77" s="415"/>
+      <c r="F77" s="415"/>
+      <c r="G77" s="416"/>
       <c r="H77" s="211"/>
       <c r="I77" s="212"/>
       <c r="J77" s="207"/>
-      <c r="K77" s="592">
+      <c r="K77" s="411">
         <v>0</v>
       </c>
-      <c r="L77" s="593"/>
-      <c r="M77" s="594"/>
-      <c r="N77" s="592">
+      <c r="L77" s="412"/>
+      <c r="M77" s="413"/>
+      <c r="N77" s="411">
         <v>0</v>
       </c>
-      <c r="O77" s="593"/>
-      <c r="P77" s="594"/>
+      <c r="O77" s="412"/>
+      <c r="P77" s="413"/>
       <c r="Q77" s="101"/>
       <c r="R77" s="96"/>
       <c r="S77" s="96"/>
@@ -23501,27 +22670,27 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B78" s="277" t="s">
+      <c r="B78" s="414" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="278"/>
-      <c r="D78" s="278"/>
-      <c r="E78" s="278"/>
-      <c r="F78" s="278"/>
-      <c r="G78" s="279"/>
+      <c r="C78" s="415"/>
+      <c r="D78" s="415"/>
+      <c r="E78" s="415"/>
+      <c r="F78" s="415"/>
+      <c r="G78" s="416"/>
       <c r="H78" s="211"/>
       <c r="I78" s="212"/>
       <c r="J78" s="207"/>
-      <c r="K78" s="592">
+      <c r="K78" s="411">
         <v>0</v>
       </c>
-      <c r="L78" s="593"/>
-      <c r="M78" s="594"/>
-      <c r="N78" s="592">
+      <c r="L78" s="412"/>
+      <c r="M78" s="413"/>
+      <c r="N78" s="411">
         <v>0</v>
       </c>
-      <c r="O78" s="593"/>
-      <c r="P78" s="594"/>
+      <c r="O78" s="412"/>
+      <c r="P78" s="413"/>
       <c r="Q78" s="101"/>
       <c r="R78" s="96"/>
       <c r="S78" s="96"/>
@@ -23562,27 +22731,27 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B79" s="277" t="s">
+      <c r="B79" s="414" t="s">
         <v>105</v>
       </c>
-      <c r="C79" s="278"/>
-      <c r="D79" s="278"/>
-      <c r="E79" s="278"/>
-      <c r="F79" s="278"/>
-      <c r="G79" s="279"/>
+      <c r="C79" s="415"/>
+      <c r="D79" s="415"/>
+      <c r="E79" s="415"/>
+      <c r="F79" s="415"/>
+      <c r="G79" s="416"/>
       <c r="H79" s="211"/>
       <c r="I79" s="212"/>
       <c r="J79" s="207"/>
-      <c r="K79" s="592">
+      <c r="K79" s="411">
         <v>0</v>
       </c>
-      <c r="L79" s="593"/>
-      <c r="M79" s="594"/>
-      <c r="N79" s="592">
+      <c r="L79" s="412"/>
+      <c r="M79" s="413"/>
+      <c r="N79" s="411">
         <v>0</v>
       </c>
-      <c r="O79" s="593"/>
-      <c r="P79" s="594"/>
+      <c r="O79" s="412"/>
+      <c r="P79" s="413"/>
       <c r="Q79" s="101"/>
       <c r="R79" s="96"/>
       <c r="S79" s="96"/>
@@ -23623,27 +22792,27 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B80" s="277" t="s">
+      <c r="B80" s="414" t="s">
         <v>106</v>
       </c>
-      <c r="C80" s="278"/>
-      <c r="D80" s="278"/>
-      <c r="E80" s="278"/>
-      <c r="F80" s="278"/>
-      <c r="G80" s="279"/>
+      <c r="C80" s="415"/>
+      <c r="D80" s="415"/>
+      <c r="E80" s="415"/>
+      <c r="F80" s="415"/>
+      <c r="G80" s="416"/>
       <c r="H80" s="211"/>
       <c r="I80" s="212"/>
       <c r="J80" s="207"/>
-      <c r="K80" s="592">
+      <c r="K80" s="411">
         <v>0</v>
       </c>
-      <c r="L80" s="593"/>
-      <c r="M80" s="594"/>
-      <c r="N80" s="592">
+      <c r="L80" s="412"/>
+      <c r="M80" s="413"/>
+      <c r="N80" s="411">
         <v>0</v>
       </c>
-      <c r="O80" s="593"/>
-      <c r="P80" s="594"/>
+      <c r="O80" s="412"/>
+      <c r="P80" s="413"/>
       <c r="Q80" s="101"/>
       <c r="R80" s="96"/>
       <c r="S80" s="96"/>
@@ -23684,27 +22853,27 @@
         <f>A80+1</f>
         <v>17</v>
       </c>
-      <c r="B81" s="277" t="s">
+      <c r="B81" s="414" t="s">
         <v>107</v>
       </c>
-      <c r="C81" s="278"/>
-      <c r="D81" s="278"/>
-      <c r="E81" s="278"/>
-      <c r="F81" s="278"/>
-      <c r="G81" s="279"/>
+      <c r="C81" s="415"/>
+      <c r="D81" s="415"/>
+      <c r="E81" s="415"/>
+      <c r="F81" s="415"/>
+      <c r="G81" s="416"/>
       <c r="H81" s="211"/>
       <c r="I81" s="212"/>
       <c r="J81" s="207"/>
-      <c r="K81" s="592">
+      <c r="K81" s="411">
         <v>0</v>
       </c>
-      <c r="L81" s="593"/>
-      <c r="M81" s="594"/>
-      <c r="N81" s="592">
+      <c r="L81" s="412"/>
+      <c r="M81" s="413"/>
+      <c r="N81" s="411">
         <v>0</v>
       </c>
-      <c r="O81" s="593"/>
-      <c r="P81" s="594"/>
+      <c r="O81" s="412"/>
+      <c r="P81" s="413"/>
       <c r="Q81" s="101"/>
       <c r="R81" s="96"/>
       <c r="S81" s="96"/>
@@ -23745,27 +22914,27 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B82" s="277" t="s">
+      <c r="B82" s="414" t="s">
         <v>108</v>
       </c>
-      <c r="C82" s="278"/>
-      <c r="D82" s="278"/>
-      <c r="E82" s="278"/>
-      <c r="F82" s="278"/>
-      <c r="G82" s="279"/>
+      <c r="C82" s="415"/>
+      <c r="D82" s="415"/>
+      <c r="E82" s="415"/>
+      <c r="F82" s="415"/>
+      <c r="G82" s="416"/>
       <c r="H82" s="211"/>
       <c r="I82" s="212"/>
       <c r="J82" s="207"/>
-      <c r="K82" s="592">
+      <c r="K82" s="411">
         <v>0</v>
       </c>
-      <c r="L82" s="593"/>
-      <c r="M82" s="594"/>
-      <c r="N82" s="592">
+      <c r="L82" s="412"/>
+      <c r="M82" s="413"/>
+      <c r="N82" s="411">
         <v>0</v>
       </c>
-      <c r="O82" s="593"/>
-      <c r="P82" s="594"/>
+      <c r="O82" s="412"/>
+      <c r="P82" s="413"/>
       <c r="Q82" s="111"/>
       <c r="R82" s="96"/>
       <c r="S82" s="96"/>
@@ -23806,27 +22975,27 @@
         <f>A82+1</f>
         <v>19</v>
       </c>
-      <c r="B83" s="277" t="s">
+      <c r="B83" s="414" t="s">
         <v>109</v>
       </c>
-      <c r="C83" s="278"/>
-      <c r="D83" s="278"/>
-      <c r="E83" s="278"/>
-      <c r="F83" s="278"/>
-      <c r="G83" s="279"/>
+      <c r="C83" s="415"/>
+      <c r="D83" s="415"/>
+      <c r="E83" s="415"/>
+      <c r="F83" s="415"/>
+      <c r="G83" s="416"/>
       <c r="H83" s="211"/>
       <c r="I83" s="212"/>
       <c r="J83" s="207"/>
-      <c r="K83" s="592">
+      <c r="K83" s="411">
         <v>0</v>
       </c>
-      <c r="L83" s="593"/>
-      <c r="M83" s="594"/>
-      <c r="N83" s="592">
+      <c r="L83" s="412"/>
+      <c r="M83" s="413"/>
+      <c r="N83" s="411">
         <v>0</v>
       </c>
-      <c r="O83" s="593"/>
-      <c r="P83" s="594"/>
+      <c r="O83" s="412"/>
+      <c r="P83" s="413"/>
       <c r="Q83" s="101"/>
       <c r="R83" s="96"/>
       <c r="S83" s="96"/>
@@ -23867,27 +23036,27 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B84" s="277" t="s">
+      <c r="B84" s="414" t="s">
         <v>110</v>
       </c>
-      <c r="C84" s="278"/>
-      <c r="D84" s="278"/>
-      <c r="E84" s="278"/>
-      <c r="F84" s="278"/>
-      <c r="G84" s="279"/>
+      <c r="C84" s="415"/>
+      <c r="D84" s="415"/>
+      <c r="E84" s="415"/>
+      <c r="F84" s="415"/>
+      <c r="G84" s="416"/>
       <c r="H84" s="211"/>
       <c r="I84" s="212"/>
       <c r="J84" s="207"/>
-      <c r="K84" s="592">
+      <c r="K84" s="411">
         <v>0</v>
       </c>
-      <c r="L84" s="593"/>
-      <c r="M84" s="594"/>
-      <c r="N84" s="592">
+      <c r="L84" s="412"/>
+      <c r="M84" s="413"/>
+      <c r="N84" s="411">
         <v>0</v>
       </c>
-      <c r="O84" s="593"/>
-      <c r="P84" s="594"/>
+      <c r="O84" s="412"/>
+      <c r="P84" s="413"/>
       <c r="Q84" s="101"/>
       <c r="R84" s="96"/>
       <c r="S84" s="96"/>
@@ -23928,27 +23097,27 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B85" s="277" t="s">
+      <c r="B85" s="414" t="s">
         <v>298</v>
       </c>
-      <c r="C85" s="278"/>
-      <c r="D85" s="278"/>
-      <c r="E85" s="278"/>
-      <c r="F85" s="278"/>
-      <c r="G85" s="279"/>
+      <c r="C85" s="415"/>
+      <c r="D85" s="415"/>
+      <c r="E85" s="415"/>
+      <c r="F85" s="415"/>
+      <c r="G85" s="416"/>
       <c r="H85" s="211"/>
       <c r="I85" s="212"/>
       <c r="J85" s="207"/>
-      <c r="K85" s="592">
+      <c r="K85" s="411">
         <v>0</v>
       </c>
-      <c r="L85" s="593"/>
-      <c r="M85" s="594"/>
-      <c r="N85" s="592">
+      <c r="L85" s="412"/>
+      <c r="M85" s="413"/>
+      <c r="N85" s="411">
         <v>0</v>
       </c>
-      <c r="O85" s="593"/>
-      <c r="P85" s="594"/>
+      <c r="O85" s="412"/>
+      <c r="P85" s="413"/>
       <c r="Q85" s="101"/>
       <c r="R85" s="96"/>
       <c r="S85" s="96"/>
@@ -24001,11 +23170,11 @@
       <c r="K86" s="209"/>
       <c r="L86" s="209"/>
       <c r="M86" s="210"/>
-      <c r="N86" s="280">
+      <c r="N86" s="417">
         <v>0</v>
       </c>
-      <c r="O86" s="281"/>
-      <c r="P86" s="282"/>
+      <c r="O86" s="418"/>
+      <c r="P86" s="419"/>
       <c r="Q86" s="101"/>
       <c r="R86" s="96"/>
       <c r="S86" s="96"/>
@@ -24058,11 +23227,11 @@
       <c r="K87" s="209"/>
       <c r="L87" s="209"/>
       <c r="M87" s="210"/>
-      <c r="N87" s="280">
+      <c r="N87" s="417">
         <v>0</v>
       </c>
-      <c r="O87" s="281"/>
-      <c r="P87" s="282"/>
+      <c r="O87" s="418"/>
+      <c r="P87" s="419"/>
       <c r="Q87" s="101"/>
       <c r="R87" s="96"/>
       <c r="S87" s="96"/>
@@ -24117,11 +23286,11 @@
       <c r="K88" s="209"/>
       <c r="L88" s="209"/>
       <c r="M88" s="210"/>
-      <c r="N88" s="280">
+      <c r="N88" s="417">
         <v>0</v>
       </c>
-      <c r="O88" s="281"/>
-      <c r="P88" s="282"/>
+      <c r="O88" s="418"/>
+      <c r="P88" s="419"/>
       <c r="Q88" s="101"/>
       <c r="R88" s="96"/>
       <c r="S88" s="96"/>
@@ -24173,18 +23342,18 @@
       <c r="H89" s="101"/>
       <c r="I89" s="96"/>
       <c r="J89" s="100"/>
-      <c r="K89" s="292">
+      <c r="K89" s="432">
         <f>IF(SUM(K69:M88)=0,"",SUM(K69:M85))</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="L89" s="293"/>
-      <c r="M89" s="294"/>
-      <c r="N89" s="292">
+      <c r="L89" s="433"/>
+      <c r="M89" s="434"/>
+      <c r="N89" s="432">
         <f>IF(SUM(N69:P88)=0,"",SUM(N69:P88))</f>
         <v>1</v>
       </c>
-      <c r="O89" s="293"/>
-      <c r="P89" s="294"/>
+      <c r="O89" s="433"/>
+      <c r="P89" s="434"/>
       <c r="Q89" s="101"/>
       <c r="R89" s="96"/>
       <c r="S89" s="96"/>
@@ -24236,16 +23405,16 @@
       <c r="H90" s="101"/>
       <c r="I90" s="96"/>
       <c r="J90" s="100"/>
-      <c r="K90" s="295">
+      <c r="K90" s="435">
         <v>44.367735652000007</v>
       </c>
-      <c r="L90" s="296"/>
-      <c r="M90" s="297"/>
-      <c r="N90" s="295">
+      <c r="L90" s="436"/>
+      <c r="M90" s="437"/>
+      <c r="N90" s="435">
         <v>44.033903047999999</v>
       </c>
-      <c r="O90" s="296"/>
-      <c r="P90" s="297"/>
+      <c r="O90" s="436"/>
+      <c r="P90" s="437"/>
       <c r="Q90" s="101"/>
       <c r="R90" s="96"/>
       <c r="S90" s="96"/>
@@ -25951,27 +25120,27 @@
       </c>
       <c r="U118" s="142"/>
       <c r="V118" s="142"/>
-      <c r="W118" s="288" t="s">
+      <c r="W118" s="428" t="s">
         <v>1</v>
       </c>
-      <c r="X118" s="288"/>
-      <c r="Y118" s="288"/>
-      <c r="Z118" s="288"/>
-      <c r="AA118" s="288"/>
+      <c r="X118" s="428"/>
+      <c r="Y118" s="428"/>
+      <c r="Z118" s="428"/>
+      <c r="AA118" s="428"/>
       <c r="AB118" s="134" t="s">
         <v>2</v>
       </c>
       <c r="AC118" s="134"/>
       <c r="AD118" s="134"/>
-      <c r="AE118" s="288" t="e">
+      <c r="AE118" s="428" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AF118" s="288"/>
-      <c r="AG118" s="288"/>
-      <c r="AH118" s="288"/>
-      <c r="AI118" s="288"/>
-      <c r="AJ118" s="288"/>
-      <c r="AK118" s="288"/>
+      <c r="AF118" s="428"/>
+      <c r="AG118" s="428"/>
+      <c r="AH118" s="428"/>
+      <c r="AI118" s="428"/>
+      <c r="AJ118" s="428"/>
+      <c r="AK118" s="428"/>
       <c r="AL118" s="138"/>
       <c r="AM118" s="141"/>
       <c r="AN118" s="138"/>
@@ -26014,26 +25183,26 @@
       <c r="U119" s="142"/>
       <c r="V119" s="142"/>
       <c r="W119" s="134"/>
-      <c r="X119" s="287" t="e">
+      <c r="X119" s="427" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Y119" s="287"/>
-      <c r="Z119" s="287"/>
-      <c r="AA119" s="287"/>
+      <c r="Y119" s="427"/>
+      <c r="Z119" s="427"/>
+      <c r="AA119" s="427"/>
       <c r="AB119" s="146" t="s">
         <v>7</v>
       </c>
       <c r="AC119" s="146"/>
-      <c r="AD119" s="288" t="e">
+      <c r="AD119" s="428" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AE119" s="288"/>
-      <c r="AF119" s="288"/>
-      <c r="AG119" s="288"/>
-      <c r="AH119" s="288"/>
-      <c r="AI119" s="288"/>
-      <c r="AJ119" s="288"/>
-      <c r="AK119" s="288"/>
+      <c r="AE119" s="428"/>
+      <c r="AF119" s="428"/>
+      <c r="AG119" s="428"/>
+      <c r="AH119" s="428"/>
+      <c r="AI119" s="428"/>
+      <c r="AJ119" s="428"/>
+      <c r="AK119" s="428"/>
       <c r="AL119" s="138"/>
       <c r="AM119" s="141"/>
       <c r="AN119" s="138"/>
@@ -26834,26 +26003,26 @@
         <v>199</v>
       </c>
       <c r="AA132" s="134"/>
-      <c r="AB132" s="601">
+      <c r="AB132" s="500">
         <v>664</v>
       </c>
-      <c r="AC132" s="602"/>
-      <c r="AD132" s="595"/>
-      <c r="AE132" s="595"/>
-      <c r="AF132" s="595"/>
-      <c r="AG132" s="595"/>
-      <c r="AH132" s="595"/>
-      <c r="AI132" s="595"/>
-      <c r="AJ132" s="595"/>
-      <c r="AK132" s="595"/>
-      <c r="AL132" s="596"/>
-      <c r="AM132" s="597"/>
-      <c r="AN132" s="598" t="s">
+      <c r="AC132" s="501"/>
+      <c r="AD132" s="405"/>
+      <c r="AE132" s="405"/>
+      <c r="AF132" s="405"/>
+      <c r="AG132" s="405"/>
+      <c r="AH132" s="405"/>
+      <c r="AI132" s="405"/>
+      <c r="AJ132" s="405"/>
+      <c r="AK132" s="405"/>
+      <c r="AL132" s="406"/>
+      <c r="AM132" s="407"/>
+      <c r="AN132" s="408" t="s">
         <v>200</v>
       </c>
-      <c r="AO132" s="598"/>
-      <c r="AP132" s="599"/>
-      <c r="AQ132" s="600">
+      <c r="AO132" s="408"/>
+      <c r="AP132" s="409"/>
+      <c r="AQ132" s="410">
         <v>34.090000000000003</v>
       </c>
       <c r="AR132" s="50" t="s">
@@ -26901,26 +26070,26 @@
         <v>203</v>
       </c>
       <c r="AA133" s="134"/>
-      <c r="AB133" s="601">
+      <c r="AB133" s="500">
         <v>755</v>
       </c>
-      <c r="AC133" s="602"/>
-      <c r="AD133" s="595"/>
-      <c r="AE133" s="595"/>
-      <c r="AF133" s="595"/>
-      <c r="AG133" s="595"/>
-      <c r="AH133" s="595"/>
-      <c r="AI133" s="595"/>
-      <c r="AJ133" s="595"/>
-      <c r="AK133" s="595"/>
-      <c r="AL133" s="596"/>
-      <c r="AM133" s="597"/>
-      <c r="AN133" s="598" t="s">
+      <c r="AC133" s="501"/>
+      <c r="AD133" s="405"/>
+      <c r="AE133" s="405"/>
+      <c r="AF133" s="405"/>
+      <c r="AG133" s="405"/>
+      <c r="AH133" s="405"/>
+      <c r="AI133" s="405"/>
+      <c r="AJ133" s="405"/>
+      <c r="AK133" s="405"/>
+      <c r="AL133" s="406"/>
+      <c r="AM133" s="407"/>
+      <c r="AN133" s="408" t="s">
         <v>200</v>
       </c>
-      <c r="AO133" s="598"/>
-      <c r="AP133" s="599"/>
-      <c r="AQ133" s="600">
+      <c r="AO133" s="408"/>
+      <c r="AP133" s="409"/>
+      <c r="AQ133" s="410">
         <v>57.32</v>
       </c>
       <c r="AR133" s="50" t="s">
@@ -28247,12 +27416,12 @@
       <c r="AE155" s="163"/>
       <c r="AF155" s="163"/>
       <c r="AG155" s="163"/>
-      <c r="AH155" s="289">
+      <c r="AH155" s="429">
         <v>15919</v>
       </c>
-      <c r="AI155" s="290"/>
-      <c r="AJ155" s="290"/>
-      <c r="AK155" s="291"/>
+      <c r="AI155" s="430"/>
+      <c r="AJ155" s="430"/>
+      <c r="AK155" s="431"/>
       <c r="AL155" s="163"/>
       <c r="AM155" s="162"/>
       <c r="AN155" s="164"/>
@@ -29488,6 +28657,12 @@
     <mergeCell ref="AS37:AT37"/>
     <mergeCell ref="AQ34:AR34"/>
     <mergeCell ref="AQ33:AR33"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC41:AE41"/>
     <mergeCell ref="AQ23:AT23"/>
     <mergeCell ref="AQ24:AR24"/>
     <mergeCell ref="W21:Y21"/>
@@ -29521,6 +28696,11 @@
     <mergeCell ref="AC17:AE17"/>
     <mergeCell ref="W20:Y20"/>
     <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="N70:P70"/>
     <mergeCell ref="T24:V24"/>
     <mergeCell ref="Z24:AB24"/>
     <mergeCell ref="AC24:AE24"/>
@@ -29535,21 +28715,6 @@
     <mergeCell ref="T32:V32"/>
     <mergeCell ref="Z32:AB32"/>
     <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="Q67:T67"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="N70:P70"/>
     <mergeCell ref="W61:AA61"/>
     <mergeCell ref="AE61:AK61"/>
     <mergeCell ref="X62:AA62"/>
@@ -29570,6 +28735,10 @@
     <mergeCell ref="B72:G72"/>
     <mergeCell ref="K72:M72"/>
     <mergeCell ref="N72:P72"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="Q67:T67"/>
+    <mergeCell ref="B69:G69"/>
     <mergeCell ref="X119:AA119"/>
     <mergeCell ref="AD119:AK119"/>
     <mergeCell ref="AH155:AK155"/>
@@ -29636,7 +28805,7 @@
   <dimension ref="B3:AA256"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28:Q29"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29650,29 +28819,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="339" t="s">
+      <c r="B3" s="512" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="340"/>
+      <c r="C3" s="513"/>
       <c r="D3" s="225" t="s">
         <v>299</v>
       </c>
-      <c r="F3" s="350" t="s">
+      <c r="F3" s="523" t="s">
         <v>343</v>
       </c>
-      <c r="G3" s="351"/>
-      <c r="H3" s="351"/>
-      <c r="I3" s="351"/>
-      <c r="J3" s="351"/>
-      <c r="K3" s="351"/>
-      <c r="L3" s="351"/>
-      <c r="M3" s="351"/>
-      <c r="N3" s="351"/>
-      <c r="O3" s="351"/>
-      <c r="P3" s="351"/>
-      <c r="Q3" s="351"/>
-      <c r="R3" s="351"/>
-      <c r="S3" s="352"/>
+      <c r="G3" s="524"/>
+      <c r="H3" s="524"/>
+      <c r="I3" s="524"/>
+      <c r="J3" s="524"/>
+      <c r="K3" s="524"/>
+      <c r="L3" s="524"/>
+      <c r="M3" s="524"/>
+      <c r="N3" s="524"/>
+      <c r="O3" s="524"/>
+      <c r="P3" s="524"/>
+      <c r="Q3" s="524"/>
+      <c r="R3" s="524"/>
+      <c r="S3" s="525"/>
       <c r="T3" s="228"/>
       <c r="U3" s="228"/>
       <c r="V3" s="228"/>
@@ -29683,45 +28852,45 @@
       <c r="AA3" s="228"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="341" t="s">
+      <c r="B4" s="514" t="s">
         <v>359</v>
       </c>
-      <c r="C4" s="342"/>
+      <c r="C4" s="515"/>
       <c r="D4" s="224">
         <v>1</v>
       </c>
-      <c r="F4" s="343" t="s">
+      <c r="F4" s="516" t="s">
         <v>300</v>
       </c>
-      <c r="G4" s="344"/>
-      <c r="H4" s="348" t="s">
+      <c r="G4" s="517"/>
+      <c r="H4" s="521" t="s">
         <v>322</v>
       </c>
-      <c r="I4" s="349"/>
-      <c r="J4" s="343" t="s">
+      <c r="I4" s="522"/>
+      <c r="J4" s="516" t="s">
         <v>306</v>
       </c>
-      <c r="K4" s="344"/>
-      <c r="L4" s="345" t="s">
+      <c r="K4" s="517"/>
+      <c r="L4" s="518" t="s">
         <v>301</v>
       </c>
-      <c r="M4" s="346"/>
-      <c r="N4" s="346"/>
-      <c r="O4" s="347"/>
-      <c r="P4" s="345" t="s">
+      <c r="M4" s="519"/>
+      <c r="N4" s="519"/>
+      <c r="O4" s="520"/>
+      <c r="P4" s="518" t="s">
         <v>302</v>
       </c>
-      <c r="Q4" s="346"/>
-      <c r="R4" s="346"/>
-      <c r="S4" s="347"/>
+      <c r="Q4" s="519"/>
+      <c r="R4" s="519"/>
+      <c r="S4" s="520"/>
       <c r="T4" s="226"/>
       <c r="U4" s="226"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="341" t="s">
+      <c r="B5" s="514" t="s">
         <v>319</v>
       </c>
-      <c r="C5" s="342"/>
+      <c r="C5" s="515"/>
       <c r="D5" s="224">
         <v>0</v>
       </c>
@@ -29765,10 +28934,10 @@
       <c r="U5" s="227"/>
     </row>
     <row r="6" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="341" t="s">
+      <c r="B6" s="514" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="342"/>
+      <c r="C6" s="515"/>
       <c r="D6" s="224">
         <v>0</v>
       </c>
@@ -29817,29 +28986,29 @@
       <c r="U6" s="229"/>
     </row>
     <row r="7" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="341" t="s">
+      <c r="B7" s="514" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="342"/>
+      <c r="C7" s="515"/>
       <c r="D7" s="224">
         <v>0</v>
       </c>
-      <c r="F7" s="363" t="s">
+      <c r="F7" s="509" t="s">
         <v>342</v>
       </c>
-      <c r="G7" s="364"/>
-      <c r="H7" s="364"/>
-      <c r="I7" s="365"/>
+      <c r="G7" s="510"/>
+      <c r="H7" s="510"/>
+      <c r="I7" s="511"/>
     </row>
     <row r="8" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="341" t="s">
+      <c r="B8" s="514" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="342"/>
+      <c r="C8" s="515"/>
       <c r="D8" s="224">
         <v>0</v>
       </c>
-      <c r="K8" s="366" t="s">
+      <c r="K8" s="534" t="s">
         <v>346</v>
       </c>
       <c r="L8" s="250" t="s">
@@ -29868,14 +29037,14 @@
       </c>
     </row>
     <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="341" t="s">
+      <c r="B9" s="514" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="342"/>
+      <c r="C9" s="515"/>
       <c r="D9" s="224">
         <v>0</v>
       </c>
-      <c r="K9" s="367"/>
+      <c r="K9" s="535"/>
       <c r="L9" s="230">
         <v>206996.51233021205</v>
       </c>
@@ -29902,77 +29071,77 @@
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="341" t="s">
+      <c r="B10" s="514" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="342"/>
+      <c r="C10" s="515"/>
       <c r="D10" s="224">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="341" t="s">
+      <c r="B11" s="514" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="342"/>
+      <c r="C11" s="515"/>
       <c r="D11" s="224">
         <v>0</v>
       </c>
-      <c r="F11" s="350" t="s">
+      <c r="F11" s="523" t="s">
         <v>344</v>
       </c>
-      <c r="G11" s="351"/>
-      <c r="H11" s="351"/>
-      <c r="I11" s="351"/>
-      <c r="J11" s="351"/>
-      <c r="K11" s="351"/>
-      <c r="L11" s="351"/>
-      <c r="M11" s="351"/>
-      <c r="N11" s="351"/>
-      <c r="O11" s="351"/>
-      <c r="P11" s="351"/>
-      <c r="Q11" s="351"/>
-      <c r="R11" s="351"/>
-      <c r="S11" s="352"/>
+      <c r="G11" s="524"/>
+      <c r="H11" s="524"/>
+      <c r="I11" s="524"/>
+      <c r="J11" s="524"/>
+      <c r="K11" s="524"/>
+      <c r="L11" s="524"/>
+      <c r="M11" s="524"/>
+      <c r="N11" s="524"/>
+      <c r="O11" s="524"/>
+      <c r="P11" s="524"/>
+      <c r="Q11" s="524"/>
+      <c r="R11" s="524"/>
+      <c r="S11" s="525"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="341" t="s">
+      <c r="B12" s="514" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="342"/>
+      <c r="C12" s="515"/>
       <c r="D12" s="224">
         <v>0</v>
       </c>
-      <c r="F12" s="343" t="s">
+      <c r="F12" s="516" t="s">
         <v>300</v>
       </c>
-      <c r="G12" s="344"/>
-      <c r="H12" s="348" t="s">
+      <c r="G12" s="517"/>
+      <c r="H12" s="521" t="s">
         <v>322</v>
       </c>
-      <c r="I12" s="349"/>
-      <c r="J12" s="343" t="s">
+      <c r="I12" s="522"/>
+      <c r="J12" s="516" t="s">
         <v>306</v>
       </c>
-      <c r="K12" s="344"/>
-      <c r="L12" s="345" t="s">
+      <c r="K12" s="517"/>
+      <c r="L12" s="518" t="s">
         <v>301</v>
       </c>
-      <c r="M12" s="346"/>
-      <c r="N12" s="346"/>
-      <c r="O12" s="347"/>
-      <c r="P12" s="345" t="s">
+      <c r="M12" s="519"/>
+      <c r="N12" s="519"/>
+      <c r="O12" s="520"/>
+      <c r="P12" s="518" t="s">
         <v>302</v>
       </c>
-      <c r="Q12" s="346"/>
-      <c r="R12" s="346"/>
-      <c r="S12" s="347"/>
+      <c r="Q12" s="519"/>
+      <c r="R12" s="519"/>
+      <c r="S12" s="520"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="341" t="s">
+      <c r="B13" s="514" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="342"/>
+      <c r="C13" s="515"/>
       <c r="D13" s="224">
         <v>0</v>
       </c>
@@ -30014,10 +29183,10 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="341" t="s">
+      <c r="B14" s="514" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="342"/>
+      <c r="C14" s="515"/>
       <c r="D14" s="224">
         <v>0</v>
       </c>
@@ -30067,547 +29236,547 @@
       </c>
     </row>
     <row r="15" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="341" t="s">
+      <c r="B15" s="514" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="342"/>
+      <c r="C15" s="515"/>
       <c r="D15" s="224">
         <v>0</v>
       </c>
-      <c r="F15" s="363" t="s">
+      <c r="F15" s="509" t="s">
         <v>342</v>
       </c>
-      <c r="G15" s="364"/>
-      <c r="H15" s="364"/>
-      <c r="I15" s="365"/>
+      <c r="G15" s="510"/>
+      <c r="H15" s="510"/>
+      <c r="I15" s="511"/>
     </row>
     <row r="16" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="341" t="s">
+      <c r="B16" s="514" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="342"/>
+      <c r="C16" s="515"/>
       <c r="D16" s="224">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="341" t="s">
+      <c r="B17" s="514" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="342"/>
+      <c r="C17" s="515"/>
       <c r="D17" s="224">
         <v>0</v>
       </c>
-      <c r="F17" s="374" t="s">
+      <c r="F17" s="542" t="s">
         <v>331</v>
       </c>
-      <c r="G17" s="390"/>
-      <c r="H17" s="390"/>
-      <c r="I17" s="375"/>
+      <c r="G17" s="543"/>
+      <c r="H17" s="543"/>
+      <c r="I17" s="544"/>
       <c r="J17" s="254"/>
-      <c r="K17" s="374" t="s">
+      <c r="K17" s="542" t="s">
         <v>331</v>
       </c>
-      <c r="L17" s="390"/>
-      <c r="M17" s="390"/>
-      <c r="N17" s="375"/>
-      <c r="O17" s="374" t="s">
+      <c r="L17" s="543"/>
+      <c r="M17" s="543"/>
+      <c r="N17" s="544"/>
+      <c r="O17" s="542" t="s">
         <v>332</v>
       </c>
-      <c r="P17" s="375"/>
+      <c r="P17" s="544"/>
     </row>
     <row r="18" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="341" t="s">
+      <c r="B18" s="514" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="342"/>
+      <c r="C18" s="515"/>
       <c r="D18" s="224">
         <v>0</v>
       </c>
-      <c r="F18" s="353" t="s">
+      <c r="F18" s="526" t="s">
         <v>323</v>
       </c>
       <c r="G18" s="255" t="s">
         <v>313</v>
       </c>
-      <c r="H18" s="359" t="s">
+      <c r="H18" s="532" t="s">
         <v>320</v>
       </c>
-      <c r="I18" s="360"/>
+      <c r="I18" s="533"/>
       <c r="J18" s="247"/>
-      <c r="K18" s="353" t="s">
+      <c r="K18" s="526" t="s">
         <v>323</v>
       </c>
       <c r="L18" s="255" t="s">
         <v>313</v>
       </c>
-      <c r="M18" s="359" t="s">
+      <c r="M18" s="532" t="s">
         <v>320</v>
       </c>
-      <c r="N18" s="360"/>
-      <c r="O18" s="386" t="s">
+      <c r="N18" s="533"/>
+      <c r="O18" s="559" t="s">
         <v>333</v>
       </c>
-      <c r="P18" s="387"/>
+      <c r="P18" s="560"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="341" t="s">
+      <c r="B19" s="514" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="342"/>
+      <c r="C19" s="515"/>
       <c r="D19" s="224">
         <v>0</v>
       </c>
-      <c r="F19" s="354"/>
+      <c r="F19" s="527"/>
       <c r="G19" s="244">
         <v>1.8662659904294905</v>
       </c>
-      <c r="H19" s="355">
+      <c r="H19" s="528">
         <v>1.0152825727437298</v>
       </c>
-      <c r="I19" s="356"/>
+      <c r="I19" s="529"/>
       <c r="J19" s="247"/>
-      <c r="K19" s="354"/>
+      <c r="K19" s="527"/>
       <c r="L19" s="244">
         <v>4.5923715669783451</v>
       </c>
-      <c r="M19" s="355">
+      <c r="M19" s="528">
         <v>1.0014445285409057</v>
       </c>
-      <c r="N19" s="356"/>
-      <c r="O19" s="388"/>
-      <c r="P19" s="389"/>
+      <c r="N19" s="529"/>
+      <c r="O19" s="561"/>
+      <c r="P19" s="562"/>
     </row>
     <row r="20" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="341" t="s">
+      <c r="B20" s="514" t="s">
         <v>298</v>
       </c>
-      <c r="C20" s="342"/>
+      <c r="C20" s="515"/>
       <c r="D20" s="224">
         <v>0</v>
       </c>
-      <c r="F20" s="353" t="s">
+      <c r="F20" s="526" t="s">
         <v>311</v>
       </c>
-      <c r="G20" s="357">
+      <c r="G20" s="530">
         <v>0.79291789160158044</v>
       </c>
-      <c r="H20" s="359" t="s">
+      <c r="H20" s="532" t="s">
         <v>324</v>
       </c>
-      <c r="I20" s="360"/>
+      <c r="I20" s="533"/>
       <c r="J20" s="247"/>
-      <c r="K20" s="353" t="s">
+      <c r="K20" s="526" t="s">
         <v>311</v>
       </c>
-      <c r="L20" s="357">
-        <v>0.79687942357018382</v>
-      </c>
-      <c r="M20" s="359" t="s">
+      <c r="L20" s="530">
+        <v>0.90609030842694083</v>
+      </c>
+      <c r="M20" s="532" t="s">
         <v>324</v>
       </c>
-      <c r="N20" s="360"/>
-      <c r="O20" s="380" t="s">
+      <c r="N20" s="533"/>
+      <c r="O20" s="553" t="s">
         <v>339</v>
       </c>
-      <c r="P20" s="381"/>
+      <c r="P20" s="554"/>
     </row>
     <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="354"/>
-      <c r="G21" s="358"/>
-      <c r="H21" s="361">
+      <c r="F21" s="527"/>
+      <c r="G21" s="531"/>
+      <c r="H21" s="545">
         <v>-1.2852169656465073E-2</v>
       </c>
-      <c r="I21" s="362"/>
+      <c r="I21" s="546"/>
       <c r="J21" s="247"/>
-      <c r="K21" s="354"/>
-      <c r="L21" s="358"/>
-      <c r="M21" s="361">
-        <v>1.0065319795524608E-2</v>
-      </c>
-      <c r="N21" s="362"/>
-      <c r="O21" s="382"/>
-      <c r="P21" s="383"/>
+      <c r="K21" s="527"/>
+      <c r="L21" s="531"/>
+      <c r="M21" s="545">
+        <v>1.1444753683164222E-2</v>
+      </c>
+      <c r="N21" s="546"/>
+      <c r="O21" s="555"/>
+      <c r="P21" s="556"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="403" t="s">
+      <c r="B22" s="573" t="s">
         <v>372</v>
       </c>
-      <c r="C22" s="404"/>
-      <c r="D22" s="405"/>
-      <c r="F22" s="353" t="s">
+      <c r="C22" s="574"/>
+      <c r="D22" s="575"/>
+      <c r="F22" s="526" t="s">
         <v>312</v>
       </c>
-      <c r="G22" s="357">
+      <c r="G22" s="530">
         <v>1584073.48764541</v>
       </c>
-      <c r="H22" s="368" t="s">
+      <c r="H22" s="538" t="s">
         <v>326</v>
       </c>
-      <c r="I22" s="369"/>
+      <c r="I22" s="539"/>
       <c r="J22" s="247"/>
-      <c r="K22" s="353" t="s">
+      <c r="K22" s="526" t="s">
         <v>312</v>
       </c>
-      <c r="L22" s="357">
-        <v>3151614.7879795674</v>
-      </c>
-      <c r="M22" s="368" t="s">
+      <c r="L22" s="530">
+        <v>6025473.5221382696</v>
+      </c>
+      <c r="M22" s="538" t="s">
         <v>326</v>
       </c>
-      <c r="N22" s="369"/>
-      <c r="O22" s="382"/>
-      <c r="P22" s="383"/>
+      <c r="N22" s="539"/>
+      <c r="O22" s="555"/>
+      <c r="P22" s="556"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="406" t="s">
+      <c r="B23" s="576" t="s">
         <v>373</v>
       </c>
-      <c r="C23" s="408" t="s">
+      <c r="C23" s="578" t="s">
         <v>374</v>
       </c>
       <c r="D23" s="274" t="s">
         <v>375</v>
       </c>
-      <c r="F23" s="354"/>
-      <c r="G23" s="358"/>
-      <c r="H23" s="372">
+      <c r="F23" s="527"/>
+      <c r="G23" s="531"/>
+      <c r="H23" s="540">
         <v>0.45990677176579392</v>
       </c>
-      <c r="I23" s="373"/>
+      <c r="I23" s="541"/>
       <c r="J23" s="247"/>
-      <c r="K23" s="354"/>
-      <c r="L23" s="358"/>
-      <c r="M23" s="372">
-        <v>0.53165848172920771</v>
-      </c>
-      <c r="N23" s="373"/>
-      <c r="O23" s="384"/>
-      <c r="P23" s="385"/>
+      <c r="K23" s="527"/>
+      <c r="L23" s="531"/>
+      <c r="M23" s="540">
+        <v>0.53165848172920782</v>
+      </c>
+      <c r="N23" s="541"/>
+      <c r="O23" s="557"/>
+      <c r="P23" s="558"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="407"/>
-      <c r="C24" s="409"/>
+      <c r="B24" s="577"/>
+      <c r="C24" s="579"/>
       <c r="D24" s="275">
         <v>0.01</v>
       </c>
-      <c r="F24" s="353" t="s">
+      <c r="F24" s="526" t="s">
         <v>325</v>
       </c>
-      <c r="G24" s="357">
+      <c r="G24" s="530">
         <v>6.5080147324787882E-2</v>
       </c>
-      <c r="H24" s="368" t="s">
+      <c r="H24" s="538" t="s">
         <v>340</v>
       </c>
-      <c r="I24" s="369"/>
+      <c r="I24" s="539"/>
       <c r="J24" s="247"/>
-      <c r="K24" s="353" t="s">
+      <c r="K24" s="526" t="s">
         <v>325</v>
       </c>
-      <c r="L24" s="357">
-        <v>0.17451622399329006</v>
-      </c>
-      <c r="M24" s="368" t="s">
+      <c r="L24" s="530">
+        <v>0.11871324891291708</v>
+      </c>
+      <c r="M24" s="538" t="s">
         <v>340</v>
       </c>
-      <c r="N24" s="369"/>
-      <c r="O24" s="376" t="s">
+      <c r="N24" s="539"/>
+      <c r="O24" s="549" t="s">
         <v>334</v>
       </c>
-      <c r="P24" s="377"/>
+      <c r="P24" s="550"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="406" t="s">
+      <c r="B25" s="576" t="s">
         <v>377</v>
       </c>
-      <c r="C25" s="408" t="s">
+      <c r="C25" s="578" t="s">
         <v>415</v>
       </c>
       <c r="D25" s="274" t="s">
         <v>376</v>
       </c>
-      <c r="F25" s="354"/>
-      <c r="G25" s="358"/>
-      <c r="H25" s="355">
+      <c r="F25" s="527"/>
+      <c r="G25" s="531"/>
+      <c r="H25" s="528">
         <v>1.0399955546984283</v>
       </c>
-      <c r="I25" s="356"/>
+      <c r="I25" s="529"/>
       <c r="J25" s="247"/>
-      <c r="K25" s="354"/>
-      <c r="L25" s="358"/>
-      <c r="M25" s="355">
+      <c r="K25" s="527"/>
+      <c r="L25" s="531"/>
+      <c r="M25" s="528">
         <v>1.0030643174904303</v>
       </c>
-      <c r="N25" s="356"/>
-      <c r="O25" s="378"/>
-      <c r="P25" s="379"/>
+      <c r="N25" s="529"/>
+      <c r="O25" s="551"/>
+      <c r="P25" s="552"/>
     </row>
     <row r="26" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="407"/>
-      <c r="C26" s="409"/>
+      <c r="B26" s="577"/>
+      <c r="C26" s="579"/>
       <c r="D26" s="275">
         <v>3</v>
       </c>
-      <c r="F26" s="370" t="s">
+      <c r="F26" s="536" t="s">
         <v>328</v>
       </c>
-      <c r="G26" s="357">
+      <c r="G26" s="530">
         <v>2.1632835960797991</v>
       </c>
-      <c r="H26" s="368" t="s">
+      <c r="H26" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="I26" s="369"/>
+      <c r="I26" s="539"/>
       <c r="J26" s="247"/>
-      <c r="K26" s="370" t="s">
+      <c r="K26" s="536" t="s">
         <v>328</v>
       </c>
-      <c r="L26" s="357">
-        <v>5.1499805472472575</v>
-      </c>
-      <c r="M26" s="368" t="s">
+      <c r="L26" s="530">
+        <v>3.9833442802668779</v>
+      </c>
+      <c r="M26" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="N26" s="369"/>
+      <c r="N26" s="539"/>
     </row>
     <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="406" t="s">
+      <c r="B27" s="576" t="s">
         <v>378</v>
       </c>
-      <c r="C27" s="408" t="s">
+      <c r="C27" s="578" t="s">
         <v>415</v>
       </c>
       <c r="D27" s="274" t="s">
         <v>376</v>
       </c>
-      <c r="F27" s="371"/>
-      <c r="G27" s="358"/>
-      <c r="H27" s="355">
+      <c r="F27" s="537"/>
+      <c r="G27" s="531"/>
+      <c r="H27" s="528">
         <v>1.0345349274168634</v>
       </c>
-      <c r="I27" s="356"/>
+      <c r="I27" s="529"/>
       <c r="J27" s="247"/>
-      <c r="K27" s="371"/>
-      <c r="L27" s="358"/>
-      <c r="M27" s="355">
+      <c r="K27" s="537"/>
+      <c r="L27" s="531"/>
+      <c r="M27" s="528">
         <v>1.0032935444337996</v>
       </c>
-      <c r="N27" s="356"/>
+      <c r="N27" s="529"/>
     </row>
     <row r="28" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="407"/>
-      <c r="C28" s="409"/>
+      <c r="B28" s="577"/>
+      <c r="C28" s="579"/>
       <c r="D28" s="275">
         <v>4</v>
       </c>
-      <c r="F28" s="370" t="s">
+      <c r="F28" s="536" t="s">
         <v>348</v>
       </c>
-      <c r="G28" s="357">
+      <c r="G28" s="530">
         <v>18.621757056162078</v>
       </c>
-      <c r="H28" s="368" t="s">
+      <c r="H28" s="538" t="s">
         <v>349</v>
       </c>
-      <c r="I28" s="369"/>
+      <c r="I28" s="539"/>
       <c r="J28" s="247"/>
-      <c r="K28" s="370" t="s">
+      <c r="K28" s="536" t="s">
         <v>348</v>
       </c>
-      <c r="L28" s="357">
+      <c r="L28" s="530">
         <v>44.331536913878331</v>
       </c>
-      <c r="M28" s="368" t="s">
+      <c r="M28" s="538" t="s">
         <v>349</v>
       </c>
-      <c r="N28" s="369"/>
-      <c r="P28" s="397" t="s">
+      <c r="N28" s="539"/>
+      <c r="P28" s="567" t="s">
         <v>362</v>
       </c>
-      <c r="Q28" s="398"/>
-      <c r="R28" s="401">
+      <c r="Q28" s="568"/>
+      <c r="R28" s="571">
         <v>3.9960357651347467</v>
       </c>
-      <c r="S28" s="393">
+      <c r="S28" s="563">
         <v>0.97362491092613679</v>
       </c>
     </row>
     <row r="29" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="371"/>
-      <c r="G29" s="358"/>
-      <c r="H29" s="355">
+      <c r="F29" s="537"/>
+      <c r="G29" s="531"/>
+      <c r="H29" s="528">
         <v>0.55298448801462841</v>
       </c>
-      <c r="I29" s="356"/>
+      <c r="I29" s="529"/>
       <c r="J29" s="248"/>
-      <c r="K29" s="371"/>
-      <c r="L29" s="358"/>
-      <c r="M29" s="355">
+      <c r="K29" s="537"/>
+      <c r="L29" s="531"/>
+      <c r="M29" s="528">
         <v>0.53628519665585839</v>
       </c>
-      <c r="N29" s="356"/>
-      <c r="P29" s="399"/>
-      <c r="Q29" s="400"/>
-      <c r="R29" s="402"/>
-      <c r="S29" s="394"/>
+      <c r="N29" s="529"/>
+      <c r="P29" s="569"/>
+      <c r="Q29" s="570"/>
+      <c r="R29" s="572"/>
+      <c r="S29" s="564"/>
     </row>
     <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="370" t="s">
+      <c r="F30" s="536" t="s">
         <v>350</v>
       </c>
-      <c r="G30" s="357">
+      <c r="G30" s="530">
         <v>34.837972022368341</v>
       </c>
-      <c r="H30" s="368" t="s">
+      <c r="H30" s="538" t="s">
         <v>351</v>
       </c>
-      <c r="I30" s="369"/>
+      <c r="I30" s="539"/>
       <c r="J30" s="246"/>
-      <c r="K30" s="370" t="s">
+      <c r="K30" s="536" t="s">
         <v>350</v>
       </c>
-      <c r="L30" s="357">
-        <v>82.936364975520945</v>
-      </c>
-      <c r="M30" s="368" t="s">
+      <c r="L30" s="530">
+        <v>82.936364975631193</v>
+      </c>
+      <c r="M30" s="538" t="s">
         <v>351</v>
       </c>
-      <c r="N30" s="369"/>
+      <c r="N30" s="539"/>
     </row>
     <row r="31" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31"/>
-      <c r="F31" s="371"/>
-      <c r="G31" s="358"/>
-      <c r="H31" s="391">
+      <c r="F31" s="537"/>
+      <c r="G31" s="531"/>
+      <c r="H31" s="547">
         <v>1.0345349294460064</v>
       </c>
-      <c r="I31" s="392"/>
+      <c r="I31" s="548"/>
       <c r="J31" s="246"/>
-      <c r="K31" s="371"/>
-      <c r="L31" s="358"/>
-      <c r="M31" s="391">
-        <v>1.0032935444404874</v>
-      </c>
-      <c r="N31" s="392"/>
+      <c r="K31" s="537"/>
+      <c r="L31" s="531"/>
+      <c r="M31" s="547">
+        <v>1.003293544441821</v>
+      </c>
+      <c r="N31" s="548"/>
     </row>
     <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32"/>
-      <c r="F32" s="370" t="s">
+      <c r="F32" s="536" t="s">
         <v>327</v>
       </c>
-      <c r="G32" s="357">
+      <c r="G32" s="530">
         <v>349.19867230786303</v>
       </c>
-      <c r="H32" s="368" t="s">
+      <c r="H32" s="538" t="s">
         <v>329</v>
       </c>
-      <c r="I32" s="369"/>
+      <c r="I32" s="539"/>
       <c r="J32" s="246"/>
-      <c r="K32" s="370" t="s">
+      <c r="K32" s="536" t="s">
         <v>327</v>
       </c>
-      <c r="L32" s="357">
+      <c r="L32" s="530">
         <v>3790.8074981393911</v>
       </c>
-      <c r="M32" s="368" t="s">
+      <c r="M32" s="538" t="s">
         <v>329</v>
       </c>
-      <c r="N32" s="369"/>
+      <c r="N32" s="539"/>
     </row>
     <row r="33" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D33"/>
-      <c r="F33" s="371"/>
-      <c r="G33" s="358"/>
-      <c r="H33" s="355">
+      <c r="F33" s="537"/>
+      <c r="G33" s="531"/>
+      <c r="H33" s="528">
         <v>0.48552726783867922</v>
       </c>
-      <c r="I33" s="356"/>
+      <c r="I33" s="529"/>
       <c r="J33" s="246"/>
-      <c r="K33" s="371"/>
-      <c r="L33" s="358"/>
-      <c r="M33" s="355">
+      <c r="K33" s="537"/>
+      <c r="L33" s="531"/>
+      <c r="M33" s="528">
         <v>0.49204062289601269</v>
       </c>
-      <c r="N33" s="356"/>
+      <c r="N33" s="529"/>
     </row>
     <row r="34" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34"/>
-      <c r="F34" s="370" t="s">
+      <c r="F34" s="536" t="s">
         <v>352</v>
       </c>
-      <c r="G34" s="357">
+      <c r="G34" s="530">
         <v>776.29134447977162</v>
       </c>
-      <c r="H34" s="368" t="s">
+      <c r="H34" s="538" t="s">
         <v>353</v>
       </c>
-      <c r="I34" s="369"/>
+      <c r="I34" s="539"/>
       <c r="J34" s="246"/>
-      <c r="K34" s="370" t="s">
+      <c r="K34" s="536" t="s">
         <v>352</v>
       </c>
-      <c r="L34" s="357">
-        <v>7903.0535063375501</v>
-      </c>
-      <c r="M34" s="368" t="s">
+      <c r="L34" s="530">
+        <v>7913.1493084056592</v>
+      </c>
+      <c r="M34" s="538" t="s">
         <v>353</v>
       </c>
-      <c r="N34" s="369"/>
+      <c r="N34" s="539"/>
     </row>
     <row r="35" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D35"/>
-      <c r="F35" s="371"/>
-      <c r="G35" s="358"/>
-      <c r="H35" s="391">
+      <c r="F35" s="537"/>
+      <c r="G35" s="531"/>
+      <c r="H35" s="547">
         <v>1.0793586729327076</v>
       </c>
-      <c r="I35" s="392"/>
+      <c r="I35" s="548"/>
       <c r="J35" s="246"/>
-      <c r="K35" s="371"/>
-      <c r="L35" s="358"/>
-      <c r="M35" s="391">
-        <v>1.0258034394907851</v>
-      </c>
-      <c r="N35" s="392"/>
+      <c r="K35" s="537"/>
+      <c r="L35" s="531"/>
+      <c r="M35" s="547">
+        <v>1.0271138581128505</v>
+      </c>
+      <c r="N35" s="548"/>
     </row>
     <row r="36" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="F36" s="370" t="s">
+      <c r="F36" s="536" t="s">
         <v>370</v>
       </c>
-      <c r="G36" s="393">
+      <c r="G36" s="563">
         <v>0.69259343752995117</v>
       </c>
-      <c r="H36" s="359" t="s">
+      <c r="H36" s="532" t="s">
         <v>379</v>
       </c>
-      <c r="I36" s="360"/>
+      <c r="I36" s="533"/>
       <c r="J36" s="246"/>
-      <c r="K36" s="370" t="s">
+      <c r="K36" s="536" t="s">
         <v>370</v>
       </c>
-      <c r="L36" s="393">
+      <c r="L36" s="563">
         <v>0.82430525531315957</v>
       </c>
-      <c r="M36" s="359" t="s">
+      <c r="M36" s="532" t="s">
         <v>379</v>
       </c>
-      <c r="N36" s="360"/>
+      <c r="N36" s="533"/>
     </row>
     <row r="37" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="371"/>
-      <c r="G37" s="394"/>
-      <c r="H37" s="395">
+      <c r="F37" s="537"/>
+      <c r="G37" s="564"/>
+      <c r="H37" s="565">
         <v>0.69541791203235626</v>
       </c>
-      <c r="I37" s="396"/>
+      <c r="I37" s="566"/>
       <c r="J37" s="246"/>
-      <c r="K37" s="371"/>
-      <c r="L37" s="394"/>
-      <c r="M37" s="395">
-        <v>0.8261859683402778</v>
-      </c>
-      <c r="N37" s="396"/>
+      <c r="K37" s="537"/>
+      <c r="L37" s="564"/>
+      <c r="M37" s="565">
+        <v>0.82513189875524506</v>
+      </c>
+      <c r="N37" s="566"/>
     </row>
     <row r="256" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H256">
@@ -30632,6 +29801,14 @@
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="F26:F27"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="F30:F31"/>
     <mergeCell ref="L36:L37"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="M37:N37"/>
@@ -30644,17 +29821,11 @@
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="M31:N31"/>
-    <mergeCell ref="K32:K33"/>
     <mergeCell ref="L32:L33"/>
     <mergeCell ref="M32:N32"/>
     <mergeCell ref="M33:N33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M28:N28"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="H31:I31"/>
@@ -30689,6 +29860,9 @@
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="H22:I22"/>
@@ -30704,10 +29878,6 @@
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
     <mergeCell ref="K22:K23"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
@@ -30742,7 +29912,6 @@
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
   </mergeCells>
   <conditionalFormatting sqref="H19:I19">
     <cfRule type="cellIs" dxfId="81" priority="21" operator="between">
@@ -30863,10 +30032,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AB50"/>
+  <dimension ref="B2:AG50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S66" sqref="S66"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30889,2194 +30058,2392 @@
     <col min="28" max="28" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="339" t="s">
+    <row r="2" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="512" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="340"/>
+      <c r="C3" s="513"/>
       <c r="D3" s="225" t="s">
         <v>299</v>
       </c>
-      <c r="F3" s="520" t="s">
+      <c r="F3" s="580" t="s">
         <v>410</v>
       </c>
-      <c r="G3" s="521"/>
-      <c r="H3" s="521"/>
-      <c r="I3" s="521"/>
-      <c r="J3" s="521"/>
-      <c r="K3" s="521"/>
-      <c r="L3" s="522"/>
-      <c r="M3" s="523" t="s">
+      <c r="G3" s="581"/>
+      <c r="H3" s="581"/>
+      <c r="I3" s="581"/>
+      <c r="J3" s="581"/>
+      <c r="K3" s="581"/>
+      <c r="L3" s="582"/>
+      <c r="M3" s="596" t="s">
         <v>346</v>
       </c>
-      <c r="N3" s="518"/>
-      <c r="O3" s="519"/>
-      <c r="P3" s="523" t="s">
+      <c r="N3" s="597"/>
+      <c r="O3" s="598"/>
+      <c r="P3" s="596" t="s">
         <v>411</v>
       </c>
-      <c r="Q3" s="518"/>
-      <c r="R3" s="518"/>
-      <c r="S3" s="545" t="s">
+      <c r="Q3" s="597"/>
+      <c r="R3" s="597"/>
+      <c r="S3" s="591" t="s">
         <v>418</v>
       </c>
-      <c r="T3" s="366" t="s">
+      <c r="T3" s="534" t="s">
         <v>416</v>
       </c>
-      <c r="U3" s="537" t="s">
+      <c r="U3" s="594" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="341" t="s">
+    <row r="4" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="514" t="s">
         <v>359</v>
       </c>
-      <c r="C4" s="342"/>
+      <c r="C4" s="515"/>
       <c r="D4" s="224">
         <v>1</v>
       </c>
-      <c r="F4" s="490"/>
-      <c r="G4" s="498" t="s">
+      <c r="F4" s="346"/>
+      <c r="G4" s="354" t="s">
         <v>306</v>
       </c>
-      <c r="H4" s="497">
+      <c r="H4" s="353">
         <v>3774</v>
       </c>
-      <c r="I4" s="496" t="s">
+      <c r="I4" s="352" t="s">
         <v>308</v>
       </c>
-      <c r="J4" s="495"/>
-      <c r="K4" s="495"/>
-      <c r="L4" s="494"/>
-      <c r="M4" s="524"/>
-      <c r="N4" s="495"/>
-      <c r="O4" s="525"/>
-      <c r="P4" s="524"/>
-      <c r="Q4" s="524"/>
-      <c r="R4" s="541"/>
-      <c r="S4" s="546"/>
-      <c r="T4" s="367"/>
-      <c r="U4" s="538"/>
+      <c r="J4" s="351"/>
+      <c r="K4" s="351"/>
+      <c r="L4" s="350"/>
+      <c r="M4" s="363"/>
+      <c r="N4" s="351"/>
+      <c r="O4" s="364"/>
+      <c r="P4" s="363"/>
+      <c r="Q4" s="363"/>
+      <c r="R4" s="378"/>
+      <c r="S4" s="592"/>
+      <c r="T4" s="535"/>
+      <c r="U4" s="595"/>
     </row>
-    <row r="5" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="341" t="s">
+    <row r="5" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="514" t="s">
         <v>319</v>
       </c>
-      <c r="C5" s="342"/>
+      <c r="C5" s="515"/>
       <c r="D5" s="224">
         <v>0</v>
       </c>
-      <c r="F5" s="490"/>
-      <c r="G5" s="493" t="s">
+      <c r="F5" s="346"/>
+      <c r="G5" s="349" t="s">
         <v>401</v>
       </c>
-      <c r="H5" s="492" t="s">
+      <c r="H5" s="348" t="s">
         <v>400</v>
       </c>
-      <c r="I5" s="492" t="s">
+      <c r="I5" s="348" t="s">
         <v>399</v>
       </c>
-      <c r="J5" s="492" t="s">
+      <c r="J5" s="348" t="s">
         <v>398</v>
       </c>
-      <c r="K5" s="492" t="s">
+      <c r="K5" s="348" t="s">
         <v>397</v>
       </c>
-      <c r="L5" s="491" t="s">
+      <c r="L5" s="347" t="s">
         <v>396</v>
       </c>
-      <c r="M5" s="493" t="s">
+      <c r="M5" s="349" t="s">
         <v>413</v>
       </c>
-      <c r="N5" s="492" t="s">
+      <c r="N5" s="348" t="s">
         <v>412</v>
       </c>
-      <c r="O5" s="491" t="s">
+      <c r="O5" s="347" t="s">
         <v>414</v>
       </c>
-      <c r="P5" s="493" t="s">
+      <c r="P5" s="349" t="s">
         <v>397</v>
       </c>
-      <c r="Q5" s="491" t="s">
+      <c r="Q5" s="347" t="s">
         <v>396</v>
       </c>
       <c r="R5" s="276" t="s">
         <v>398</v>
       </c>
-      <c r="S5" s="546"/>
+      <c r="S5" s="592"/>
     </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="341" t="s">
+    <row r="6" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="514" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="342"/>
+      <c r="C6" s="515"/>
       <c r="D6" s="224">
         <v>0</v>
       </c>
-      <c r="F6" s="490"/>
-      <c r="G6" s="489" t="s">
+      <c r="F6" s="346"/>
+      <c r="G6" s="345" t="s">
         <v>307</v>
       </c>
-      <c r="H6" s="488" t="s">
+      <c r="H6" s="344" t="s">
         <v>321</v>
       </c>
-      <c r="I6" s="488" t="s">
+      <c r="I6" s="344" t="s">
         <v>360</v>
       </c>
-      <c r="J6" s="488" t="s">
+      <c r="J6" s="344" t="s">
         <v>309</v>
       </c>
-      <c r="K6" s="488" t="s">
+      <c r="K6" s="344" t="s">
         <v>360</v>
       </c>
-      <c r="L6" s="487" t="s">
+      <c r="L6" s="343" t="s">
         <v>309</v>
       </c>
-      <c r="M6" s="489" t="s">
+      <c r="M6" s="345" t="s">
         <v>307</v>
       </c>
-      <c r="N6" s="488" t="s">
+      <c r="N6" s="344" t="s">
         <v>321</v>
       </c>
-      <c r="O6" s="487" t="s">
+      <c r="O6" s="343" t="s">
         <v>309</v>
       </c>
-      <c r="P6" s="489" t="s">
+      <c r="P6" s="345" t="s">
         <v>360</v>
       </c>
-      <c r="Q6" s="487" t="s">
+      <c r="Q6" s="343" t="s">
         <v>309</v>
       </c>
-      <c r="R6" s="542" t="s">
+      <c r="R6" s="379" t="s">
         <v>309</v>
       </c>
-      <c r="S6" s="547"/>
+      <c r="S6" s="593"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="341" t="s">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B7" s="514" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="342"/>
+      <c r="C7" s="515"/>
       <c r="D7" s="224">
         <v>0</v>
       </c>
-      <c r="F7" s="486">
+      <c r="F7" s="342">
         <v>1</v>
       </c>
-      <c r="G7" s="485">
+      <c r="G7" s="341">
         <v>21002.326409887686</v>
       </c>
-      <c r="H7" s="485">
+      <c r="H7" s="341">
         <v>6000</v>
       </c>
-      <c r="I7" s="484">
+      <c r="I7" s="340">
         <v>88</v>
       </c>
-      <c r="J7" s="484">
+      <c r="J7" s="340">
         <v>40</v>
       </c>
-      <c r="K7" s="484">
+      <c r="K7" s="340">
         <v>224</v>
       </c>
       <c r="L7" s="262">
         <v>78</v>
       </c>
-      <c r="M7" s="526">
+      <c r="M7" s="365">
         <v>116672.5292608053</v>
       </c>
-      <c r="N7" s="485">
+      <c r="N7" s="341">
         <v>12847.158290277126</v>
       </c>
       <c r="O7" s="262">
         <v>40</v>
       </c>
-      <c r="P7" s="527">
+      <c r="P7" s="366">
         <v>1500</v>
       </c>
-      <c r="Q7" s="528">
+      <c r="Q7" s="367">
         <v>125</v>
       </c>
-      <c r="R7" s="539">
+      <c r="R7" s="376">
         <v>45.933910438309624</v>
       </c>
-      <c r="S7" s="544">
+      <c r="S7" s="381">
         <v>1.196678766955152</v>
       </c>
+      <c r="W7">
+        <v>21002.326409887686</v>
+      </c>
+      <c r="X7">
+        <v>6000</v>
+      </c>
+      <c r="Y7">
+        <v>88</v>
+      </c>
+      <c r="Z7">
+        <v>40</v>
+      </c>
+      <c r="AA7">
+        <v>224</v>
+      </c>
+      <c r="AB7">
+        <v>78</v>
+      </c>
+      <c r="AC7">
+        <v>116672.5292608053</v>
+      </c>
+      <c r="AD7">
+        <v>12847.158290277126</v>
+      </c>
+      <c r="AE7">
+        <v>40</v>
+      </c>
+      <c r="AF7">
+        <v>1500</v>
+      </c>
+      <c r="AG7">
+        <v>125</v>
+      </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="341" t="s">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B8" s="514" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="342"/>
+      <c r="C8" s="515"/>
       <c r="D8" s="224">
         <v>0</v>
       </c>
-      <c r="F8" s="486">
+      <c r="F8" s="342">
         <v>2</v>
       </c>
-      <c r="G8" s="485">
+      <c r="G8" s="341">
         <v>29619.8226853753</v>
       </c>
-      <c r="H8" s="485">
+      <c r="H8" s="341">
         <v>8000</v>
       </c>
-      <c r="I8" s="484">
+      <c r="I8" s="340">
         <v>93</v>
       </c>
-      <c r="J8" s="484">
+      <c r="J8" s="340">
         <v>40</v>
       </c>
-      <c r="K8" s="484">
+      <c r="K8" s="340">
         <v>224</v>
       </c>
       <c r="L8" s="262">
         <v>74</v>
       </c>
-      <c r="M8" s="526">
+      <c r="M8" s="365">
         <v>155563.3723477404</v>
       </c>
-      <c r="N8" s="485">
+      <c r="N8" s="341">
         <v>17129.544387036167</v>
       </c>
       <c r="O8" s="262">
         <v>40</v>
       </c>
-      <c r="P8" s="527">
+      <c r="P8" s="366">
         <v>1360</v>
       </c>
-      <c r="Q8" s="535">
+      <c r="Q8" s="374">
         <v>120</v>
       </c>
-      <c r="R8" s="539">
+      <c r="R8" s="376">
         <v>45.551152431171261</v>
       </c>
-      <c r="S8" s="543">
+      <c r="S8" s="380">
         <v>1.1456757934618682</v>
       </c>
+      <c r="W8">
+        <v>29619.8226853753</v>
+      </c>
+      <c r="X8">
+        <v>8000</v>
+      </c>
+      <c r="Y8">
+        <v>93</v>
+      </c>
+      <c r="Z8">
+        <v>40</v>
+      </c>
+      <c r="AA8">
+        <v>224</v>
+      </c>
+      <c r="AB8">
+        <v>74</v>
+      </c>
+      <c r="AC8">
+        <v>155563.3723477404</v>
+      </c>
+      <c r="AD8">
+        <v>17129.544387036167</v>
+      </c>
+      <c r="AE8">
+        <v>40</v>
+      </c>
+      <c r="AF8">
+        <v>1360</v>
+      </c>
+      <c r="AG8">
+        <v>120</v>
+      </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="341" t="s">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="514" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="342"/>
+      <c r="C9" s="515"/>
       <c r="D9" s="224">
         <v>0</v>
       </c>
-      <c r="F9" s="486">
+      <c r="F9" s="342">
         <v>3</v>
       </c>
-      <c r="G9" s="485">
+      <c r="G9" s="341">
         <v>35144.307786208119</v>
       </c>
-      <c r="H9" s="485">
+      <c r="H9" s="341">
         <v>9000</v>
       </c>
-      <c r="I9" s="484">
+      <c r="I9" s="340">
         <v>98</v>
       </c>
-      <c r="J9" s="484">
+      <c r="J9" s="340">
         <v>40</v>
       </c>
-      <c r="K9" s="484">
+      <c r="K9" s="340">
         <v>224</v>
       </c>
       <c r="L9" s="262">
         <v>73</v>
       </c>
-      <c r="M9" s="526">
+      <c r="M9" s="365">
         <v>175008.79389120796</v>
       </c>
-      <c r="N9" s="485">
+      <c r="N9" s="341">
         <v>19270.737435415689</v>
       </c>
       <c r="O9" s="262">
         <v>40</v>
       </c>
-      <c r="P9" s="527">
+      <c r="P9" s="366">
         <v>1260</v>
       </c>
-      <c r="Q9" s="535">
+      <c r="Q9" s="374">
         <v>115</v>
       </c>
-      <c r="R9" s="539">
+      <c r="R9" s="376">
         <v>45.62856008016405</v>
       </c>
       <c r="S9" s="270">
         <v>1.0897330679057786</v>
       </c>
+      <c r="W9">
+        <v>35144.307786208119</v>
+      </c>
+      <c r="X9">
+        <v>9000</v>
+      </c>
+      <c r="Y9">
+        <v>98</v>
+      </c>
+      <c r="Z9">
+        <v>40</v>
+      </c>
+      <c r="AA9">
+        <v>224</v>
+      </c>
+      <c r="AB9">
+        <v>73</v>
+      </c>
+      <c r="AC9">
+        <v>175008.79389120796</v>
+      </c>
+      <c r="AD9">
+        <v>19270.737435415689</v>
+      </c>
+      <c r="AE9">
+        <v>40</v>
+      </c>
+      <c r="AF9">
+        <v>1260</v>
+      </c>
+      <c r="AG9">
+        <v>115</v>
+      </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="341" t="s">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="514" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="342"/>
+      <c r="C10" s="515"/>
       <c r="D10" s="224">
         <v>0</v>
       </c>
-      <c r="F10" s="486">
+      <c r="F10" s="342">
         <v>4</v>
       </c>
-      <c r="G10" s="485">
+      <c r="G10" s="341">
         <v>41889.463107497941</v>
       </c>
-      <c r="H10" s="485">
+      <c r="H10" s="341">
         <v>10000</v>
       </c>
-      <c r="I10" s="484">
+      <c r="I10" s="340">
         <v>105</v>
       </c>
-      <c r="J10" s="484">
+      <c r="J10" s="340">
         <v>40</v>
       </c>
-      <c r="K10" s="484">
+      <c r="K10" s="340">
         <v>224</v>
       </c>
       <c r="L10" s="262">
         <v>72</v>
       </c>
-      <c r="M10" s="526">
+      <c r="M10" s="365">
         <v>194454.21543467548</v>
       </c>
-      <c r="N10" s="485">
+      <c r="N10" s="341">
         <v>21411.930483795208</v>
       </c>
       <c r="O10" s="262">
         <v>40</v>
       </c>
-      <c r="P10" s="527">
+      <c r="P10" s="366">
         <v>1150</v>
       </c>
-      <c r="Q10" s="535">
+      <c r="Q10" s="374">
         <v>112</v>
       </c>
-      <c r="R10" s="539">
+      <c r="R10" s="376">
         <v>45.77953416650729</v>
       </c>
       <c r="S10" s="270">
         <v>1.0190879189227857</v>
       </c>
+      <c r="W10">
+        <v>41889.463107497941</v>
+      </c>
+      <c r="X10">
+        <v>10000</v>
+      </c>
+      <c r="Y10">
+        <v>105</v>
+      </c>
+      <c r="Z10">
+        <v>40</v>
+      </c>
+      <c r="AA10">
+        <v>224</v>
+      </c>
+      <c r="AB10">
+        <v>72</v>
+      </c>
+      <c r="AC10">
+        <v>194454.21543467548</v>
+      </c>
+      <c r="AD10">
+        <v>21411.930483795208</v>
+      </c>
+      <c r="AE10">
+        <v>40</v>
+      </c>
+      <c r="AF10">
+        <v>1150</v>
+      </c>
+      <c r="AG10">
+        <v>112</v>
+      </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="341" t="s">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="514" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="342"/>
+      <c r="C11" s="515"/>
       <c r="D11" s="224">
         <v>0</v>
       </c>
-      <c r="F11" s="486">
+      <c r="F11" s="342">
         <v>5</v>
       </c>
-      <c r="G11" s="485">
+      <c r="G11" s="341">
         <v>46755.510190508096</v>
       </c>
-      <c r="H11" s="485">
+      <c r="H11" s="341">
         <v>10645</v>
       </c>
-      <c r="I11" s="484">
+      <c r="I11" s="340">
         <v>110</v>
       </c>
-      <c r="J11" s="484">
+      <c r="J11" s="340">
         <v>40</v>
       </c>
-      <c r="K11" s="484">
+      <c r="K11" s="340">
         <v>224</v>
       </c>
       <c r="L11" s="262">
-        <v>71.45</v>
-      </c>
-      <c r="M11" s="526">
+        <v>71.450773994121278</v>
+      </c>
+      <c r="M11" s="365">
         <v>206996.51233021205</v>
       </c>
-      <c r="N11" s="485">
+      <c r="N11" s="341">
         <v>22793</v>
       </c>
       <c r="O11" s="262">
         <v>40</v>
       </c>
-      <c r="P11" s="527">
+      <c r="P11" s="366">
         <v>1159</v>
       </c>
-      <c r="Q11" s="535">
-        <v>112</v>
-      </c>
-      <c r="R11" s="539">
-        <v>45.902058361877266</v>
+      <c r="Q11" s="374">
+        <v>112.41819933258614</v>
+      </c>
+      <c r="R11" s="376">
+        <v>45.902206518766263</v>
       </c>
       <c r="S11" s="270">
-        <v>0.97362732210798297</v>
+        <v>0.97362491092613601</v>
+      </c>
+      <c r="W11">
+        <v>46755.510190508096</v>
+      </c>
+      <c r="X11">
+        <v>10645</v>
+      </c>
+      <c r="Y11">
+        <v>110</v>
+      </c>
+      <c r="Z11">
+        <v>40</v>
+      </c>
+      <c r="AA11">
+        <v>224</v>
+      </c>
+      <c r="AB11">
+        <v>71.450773994121278</v>
+      </c>
+      <c r="AC11">
+        <v>206996.51233021205</v>
+      </c>
+      <c r="AD11">
+        <v>22793</v>
+      </c>
+      <c r="AE11">
+        <v>40</v>
+      </c>
+      <c r="AF11">
+        <v>1159</v>
+      </c>
+      <c r="AG11">
+        <v>112.41819933258614</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="341" t="s">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="514" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="342"/>
+      <c r="C12" s="515"/>
       <c r="D12" s="224">
         <v>0</v>
       </c>
-      <c r="F12" s="486">
+      <c r="F12" s="342">
         <v>6</v>
       </c>
-      <c r="G12" s="485">
+      <c r="G12" s="341">
         <v>69851.180978331904</v>
       </c>
-      <c r="H12" s="485">
+      <c r="H12" s="341">
         <v>13000</v>
       </c>
-      <c r="I12" s="484">
+      <c r="I12" s="340">
         <v>134</v>
       </c>
-      <c r="J12" s="484">
+      <c r="J12" s="340">
         <v>40</v>
       </c>
-      <c r="K12" s="484">
+      <c r="K12" s="340">
         <v>224</v>
       </c>
       <c r="L12" s="262">
         <v>69</v>
       </c>
-      <c r="M12" s="526">
+      <c r="M12" s="365">
         <v>252790.48006507813</v>
       </c>
-      <c r="N12" s="485">
+      <c r="N12" s="341">
         <v>27835.509628933771</v>
       </c>
       <c r="O12" s="262">
         <v>40</v>
       </c>
-      <c r="P12" s="527">
+      <c r="P12" s="366">
         <v>980</v>
       </c>
-      <c r="Q12" s="535">
+      <c r="Q12" s="374">
         <v>110</v>
       </c>
-      <c r="R12" s="539">
+      <c r="R12" s="376">
         <v>46.380279763182784</v>
       </c>
       <c r="S12" s="270">
         <v>0.80217780579342823</v>
       </c>
+      <c r="W12">
+        <v>69851.180978331904</v>
+      </c>
+      <c r="X12">
+        <v>13000</v>
+      </c>
+      <c r="Y12">
+        <v>134</v>
+      </c>
+      <c r="Z12">
+        <v>40</v>
+      </c>
+      <c r="AA12">
+        <v>224</v>
+      </c>
+      <c r="AB12">
+        <v>69</v>
+      </c>
+      <c r="AC12">
+        <v>252790.48006507813</v>
+      </c>
+      <c r="AD12">
+        <v>27835.509628933771</v>
+      </c>
+      <c r="AE12">
+        <v>40</v>
+      </c>
+      <c r="AF12">
+        <v>980</v>
+      </c>
+      <c r="AG12">
+        <v>110</v>
+      </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="341" t="s">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="514" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="342"/>
+      <c r="C13" s="515"/>
       <c r="D13" s="224">
         <v>0</v>
       </c>
-      <c r="F13" s="486">
+      <c r="F13" s="342">
         <v>7</v>
       </c>
-      <c r="G13" s="485"/>
-      <c r="H13" s="485"/>
-      <c r="I13" s="484"/>
-      <c r="J13" s="484"/>
-      <c r="K13" s="484"/>
+      <c r="G13" s="341"/>
+      <c r="H13" s="341"/>
+      <c r="I13" s="340"/>
+      <c r="J13" s="340"/>
+      <c r="K13" s="340"/>
       <c r="L13" s="262"/>
-      <c r="M13" s="526"/>
-      <c r="N13" s="485"/>
+      <c r="M13" s="365"/>
+      <c r="N13" s="341"/>
       <c r="O13" s="262"/>
-      <c r="P13" s="527"/>
-      <c r="Q13" s="535"/>
-      <c r="R13" s="539"/>
+      <c r="P13" s="366"/>
+      <c r="Q13" s="374"/>
+      <c r="R13" s="376"/>
       <c r="S13" s="270"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="341" t="s">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="514" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="342"/>
+      <c r="C14" s="515"/>
       <c r="D14" s="224">
         <v>0</v>
       </c>
-      <c r="F14" s="486">
+      <c r="F14" s="342">
         <v>8</v>
       </c>
-      <c r="G14" s="485"/>
-      <c r="H14" s="485"/>
-      <c r="I14" s="484"/>
-      <c r="J14" s="484"/>
-      <c r="K14" s="484"/>
+      <c r="G14" s="341"/>
+      <c r="H14" s="341"/>
+      <c r="I14" s="340"/>
+      <c r="J14" s="340"/>
+      <c r="K14" s="340"/>
       <c r="L14" s="262"/>
-      <c r="M14" s="526"/>
-      <c r="N14" s="485"/>
+      <c r="M14" s="365"/>
+      <c r="N14" s="341"/>
       <c r="O14" s="262"/>
-      <c r="P14" s="527"/>
-      <c r="Q14" s="535"/>
-      <c r="R14" s="539"/>
+      <c r="P14" s="366"/>
+      <c r="Q14" s="374"/>
+      <c r="R14" s="376"/>
       <c r="S14" s="270"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="341" t="s">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="514" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="342"/>
+      <c r="C15" s="515"/>
       <c r="D15" s="224">
         <v>0</v>
       </c>
-      <c r="F15" s="486">
+      <c r="F15" s="342">
         <v>9</v>
       </c>
-      <c r="G15" s="485"/>
-      <c r="H15" s="485"/>
-      <c r="I15" s="484"/>
-      <c r="J15" s="484"/>
-      <c r="K15" s="484"/>
+      <c r="G15" s="341"/>
+      <c r="H15" s="341"/>
+      <c r="I15" s="340"/>
+      <c r="J15" s="340"/>
+      <c r="K15" s="340"/>
       <c r="L15" s="262"/>
-      <c r="M15" s="526"/>
-      <c r="N15" s="485"/>
+      <c r="M15" s="365"/>
+      <c r="N15" s="341"/>
       <c r="O15" s="262"/>
-      <c r="P15" s="527"/>
-      <c r="Q15" s="535"/>
-      <c r="R15" s="539"/>
+      <c r="P15" s="366"/>
+      <c r="Q15" s="374"/>
+      <c r="R15" s="376"/>
       <c r="S15" s="270"/>
     </row>
-    <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="341" t="s">
+    <row r="16" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="514" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="342"/>
+      <c r="C16" s="515"/>
       <c r="D16" s="224">
         <v>0</v>
       </c>
-      <c r="F16" s="483">
+      <c r="F16" s="339">
         <v>10</v>
       </c>
-      <c r="G16" s="482"/>
-      <c r="H16" s="482"/>
+      <c r="G16" s="338"/>
+      <c r="H16" s="338"/>
       <c r="I16" s="233"/>
       <c r="J16" s="233"/>
       <c r="K16" s="233"/>
       <c r="L16" s="231"/>
       <c r="M16" s="230"/>
-      <c r="N16" s="482"/>
+      <c r="N16" s="338"/>
       <c r="O16" s="231"/>
-      <c r="P16" s="529"/>
-      <c r="Q16" s="536"/>
-      <c r="R16" s="540"/>
+      <c r="P16" s="368"/>
+      <c r="Q16" s="375"/>
+      <c r="R16" s="377"/>
       <c r="S16" s="271"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="341" t="s">
+      <c r="B17" s="514" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="342"/>
+      <c r="C17" s="515"/>
       <c r="D17" s="224">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="341" t="s">
+      <c r="B18" s="514" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="342"/>
+      <c r="C18" s="515"/>
       <c r="D18" s="224">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="341" t="s">
+      <c r="B19" s="514" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="342"/>
+      <c r="C19" s="515"/>
       <c r="D19" s="224">
         <v>0</v>
       </c>
-      <c r="F19" s="374" t="s">
+      <c r="F19" s="542" t="s">
         <v>409</v>
       </c>
-      <c r="G19" s="404"/>
-      <c r="H19" s="404"/>
-      <c r="I19" s="404"/>
-      <c r="J19" s="404"/>
-      <c r="K19" s="390"/>
-      <c r="L19" s="390"/>
-      <c r="M19" s="390"/>
-      <c r="N19" s="390"/>
-      <c r="O19" s="390"/>
-      <c r="P19" s="390"/>
-      <c r="Q19" s="390"/>
-      <c r="R19" s="390"/>
-      <c r="S19" s="390"/>
-      <c r="T19" s="390"/>
-      <c r="U19" s="390"/>
-      <c r="V19" s="390"/>
-      <c r="W19" s="390"/>
-      <c r="X19" s="390"/>
-      <c r="Y19" s="390"/>
-      <c r="Z19" s="390"/>
-      <c r="AA19" s="390"/>
-      <c r="AB19" s="375"/>
+      <c r="G19" s="574"/>
+      <c r="H19" s="574"/>
+      <c r="I19" s="574"/>
+      <c r="J19" s="574"/>
+      <c r="K19" s="543"/>
+      <c r="L19" s="543"/>
+      <c r="M19" s="543"/>
+      <c r="N19" s="543"/>
+      <c r="O19" s="543"/>
+      <c r="P19" s="543"/>
+      <c r="Q19" s="543"/>
+      <c r="R19" s="543"/>
+      <c r="S19" s="543"/>
+      <c r="T19" s="543"/>
+      <c r="U19" s="543"/>
+      <c r="V19" s="543"/>
+      <c r="W19" s="543"/>
+      <c r="X19" s="543"/>
+      <c r="Y19" s="543"/>
+      <c r="Z19" s="543"/>
+      <c r="AA19" s="543"/>
+      <c r="AB19" s="544"/>
     </row>
     <row r="20" spans="2:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="341" t="s">
+      <c r="B20" s="514" t="s">
         <v>298</v>
       </c>
-      <c r="C20" s="342"/>
+      <c r="C20" s="515"/>
       <c r="D20" s="224">
         <v>0</v>
       </c>
-      <c r="F20" s="481"/>
-      <c r="G20" s="480" t="s">
+      <c r="F20" s="337"/>
+      <c r="G20" s="586" t="s">
         <v>323</v>
       </c>
-      <c r="H20" s="478"/>
-      <c r="I20" s="479" t="s">
+      <c r="H20" s="587"/>
+      <c r="I20" s="588" t="s">
         <v>311</v>
       </c>
-      <c r="J20" s="478"/>
-      <c r="K20" s="476" t="s">
+      <c r="J20" s="587"/>
+      <c r="K20" s="583" t="s">
         <v>312</v>
       </c>
-      <c r="L20" s="475"/>
-      <c r="M20" s="476" t="s">
+      <c r="L20" s="585"/>
+      <c r="M20" s="583" t="s">
         <v>325</v>
       </c>
-      <c r="N20" s="476"/>
-      <c r="O20" s="477" t="s">
+      <c r="N20" s="583"/>
+      <c r="O20" s="584" t="s">
         <v>328</v>
       </c>
-      <c r="P20" s="475"/>
-      <c r="Q20" s="476" t="s">
+      <c r="P20" s="585"/>
+      <c r="Q20" s="583" t="s">
         <v>348</v>
       </c>
-      <c r="R20" s="476"/>
-      <c r="S20" s="477" t="s">
+      <c r="R20" s="583"/>
+      <c r="S20" s="584" t="s">
         <v>350</v>
       </c>
-      <c r="T20" s="475"/>
-      <c r="U20" s="477" t="s">
+      <c r="T20" s="585"/>
+      <c r="U20" s="584" t="s">
         <v>395</v>
       </c>
-      <c r="V20" s="475"/>
-      <c r="W20" s="476" t="s">
+      <c r="V20" s="585"/>
+      <c r="W20" s="583" t="s">
         <v>327</v>
       </c>
-      <c r="X20" s="476"/>
-      <c r="Y20" s="477" t="s">
+      <c r="X20" s="583"/>
+      <c r="Y20" s="584" t="s">
         <v>352</v>
       </c>
-      <c r="Z20" s="475"/>
-      <c r="AA20" s="476" t="s">
+      <c r="Z20" s="585"/>
+      <c r="AA20" s="583" t="s">
         <v>394</v>
       </c>
-      <c r="AB20" s="475"/>
+      <c r="AB20" s="585"/>
     </row>
     <row r="21" spans="2:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="474"/>
-      <c r="G21" s="467" t="s">
+      <c r="F21" s="336"/>
+      <c r="G21" s="329" t="s">
         <v>313</v>
       </c>
-      <c r="H21" s="472" t="s">
+      <c r="H21" s="334" t="s">
         <v>320</v>
       </c>
-      <c r="I21" s="469" t="s">
+      <c r="I21" s="331" t="s">
         <v>393</v>
       </c>
-      <c r="J21" s="472" t="s">
+      <c r="J21" s="334" t="s">
         <v>392</v>
       </c>
-      <c r="K21" s="473" t="s">
+      <c r="K21" s="335" t="s">
         <v>391</v>
       </c>
-      <c r="L21" s="465" t="s">
+      <c r="L21" s="327" t="s">
         <v>326</v>
       </c>
-      <c r="M21" s="467" t="s">
+      <c r="M21" s="329" t="s">
         <v>390</v>
       </c>
-      <c r="N21" s="471" t="s">
+      <c r="N21" s="333" t="s">
         <v>340</v>
       </c>
-      <c r="O21" s="467" t="s">
+      <c r="O21" s="329" t="s">
         <v>389</v>
       </c>
-      <c r="P21" s="472" t="s">
+      <c r="P21" s="334" t="s">
         <v>341</v>
       </c>
-      <c r="Q21" s="469" t="s">
+      <c r="Q21" s="331" t="s">
         <v>388</v>
       </c>
-      <c r="R21" s="471" t="s">
+      <c r="R21" s="333" t="s">
         <v>349</v>
       </c>
-      <c r="S21" s="467" t="s">
+      <c r="S21" s="329" t="s">
         <v>387</v>
       </c>
-      <c r="T21" s="465" t="s">
+      <c r="T21" s="327" t="s">
         <v>351</v>
       </c>
-      <c r="U21" s="467" t="s">
+      <c r="U21" s="329" t="s">
         <v>386</v>
       </c>
-      <c r="V21" s="470" t="s">
+      <c r="V21" s="332" t="s">
         <v>385</v>
       </c>
-      <c r="W21" s="469" t="s">
+      <c r="W21" s="331" t="s">
         <v>384</v>
       </c>
-      <c r="X21" s="468" t="s">
+      <c r="X21" s="330" t="s">
         <v>329</v>
       </c>
-      <c r="Y21" s="467" t="s">
+      <c r="Y21" s="329" t="s">
         <v>383</v>
       </c>
-      <c r="Z21" s="465" t="s">
+      <c r="Z21" s="327" t="s">
         <v>353</v>
       </c>
-      <c r="AA21" s="466" t="s">
+      <c r="AA21" s="328" t="s">
         <v>382</v>
       </c>
-      <c r="AB21" s="465" t="s">
+      <c r="AB21" s="327" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="22" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="403" t="s">
+      <c r="B22" s="573" t="s">
         <v>372</v>
       </c>
-      <c r="C22" s="404"/>
-      <c r="D22" s="405"/>
-      <c r="F22" s="534">
+      <c r="C22" s="574"/>
+      <c r="D22" s="575"/>
+      <c r="F22" s="373">
         <v>1</v>
       </c>
-      <c r="G22" s="464">
+      <c r="G22" s="326">
         <v>2.2938206070683895</v>
       </c>
-      <c r="H22" s="456">
+      <c r="H22" s="318">
         <v>1.2478800445916214</v>
       </c>
-      <c r="I22" s="463">
+      <c r="I22" s="325">
         <v>0.79057161148223143</v>
       </c>
-      <c r="J22" s="462">
+      <c r="J22" s="324">
         <v>-1.5198449775814082E-2</v>
       </c>
-      <c r="K22" s="459">
+      <c r="K22" s="321">
         <v>1261997.3965116579</v>
       </c>
-      <c r="L22" s="462">
+      <c r="L22" s="324">
         <v>0.36639786798605534</v>
       </c>
-      <c r="M22" s="459">
+      <c r="M22" s="321">
         <v>3.6682093372355784E-2</v>
       </c>
-      <c r="N22" s="456">
+      <c r="N22" s="318">
         <v>0.58618819428751245</v>
       </c>
-      <c r="O22" s="457">
+      <c r="O22" s="319">
         <v>2.8785009208624861</v>
       </c>
-      <c r="P22" s="454">
+      <c r="P22" s="316">
         <v>1.3765692795111442</v>
       </c>
-      <c r="Q22" s="459">
+      <c r="Q22" s="321">
         <v>24.778417832676411</v>
       </c>
-      <c r="R22" s="461">
+      <c r="R22" s="323">
         <v>0.73581030284577709</v>
       </c>
-      <c r="S22" s="457">
+      <c r="S22" s="319">
         <v>46.355981549470854</v>
       </c>
-      <c r="T22" s="456">
+      <c r="T22" s="318">
         <v>1.3765692810962313</v>
       </c>
-      <c r="U22" s="457">
+      <c r="U22" s="319">
         <v>8206.6772655007953</v>
       </c>
-      <c r="V22" s="460">
+      <c r="V22" s="322">
         <v>0.58618819428751257</v>
       </c>
-      <c r="W22" s="459">
+      <c r="W22" s="321">
         <v>190.73668770750731</v>
       </c>
-      <c r="X22" s="458">
+      <c r="X22" s="320">
         <v>0.26520107378180352</v>
       </c>
-      <c r="Y22" s="457">
+      <c r="Y22" s="319">
         <v>534.22582472872887</v>
       </c>
-      <c r="Z22" s="456">
+      <c r="Z22" s="318">
         <v>0.74278978031373299</v>
       </c>
-      <c r="AA22" s="455">
+      <c r="AA22" s="317">
         <v>0.75788661772600119</v>
       </c>
-      <c r="AB22" s="454">
+      <c r="AB22" s="316">
         <v>0.75788661772600119</v>
       </c>
     </row>
     <row r="23" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="406" t="s">
+      <c r="B23" s="576" t="s">
         <v>373</v>
       </c>
-      <c r="C23" s="408" t="s">
+      <c r="C23" s="578" t="s">
         <v>374</v>
       </c>
       <c r="D23" s="274" t="s">
         <v>375</v>
       </c>
-      <c r="F23" s="452">
+      <c r="F23" s="314">
         <v>2</v>
       </c>
-      <c r="G23" s="443">
+      <c r="G23" s="305">
         <v>2.1960569675259816</v>
       </c>
-      <c r="H23" s="451">
+      <c r="H23" s="313">
         <v>1.1946948502064609</v>
       </c>
-      <c r="I23" s="445">
+      <c r="I23" s="307">
         <v>0.79110209462054248</v>
       </c>
-      <c r="J23" s="450">
+      <c r="J23" s="312">
         <v>-1.4667966637503027E-2</v>
       </c>
-      <c r="K23" s="445">
+      <c r="K23" s="307">
         <v>1334959.9889553213</v>
       </c>
-      <c r="L23" s="450">
+      <c r="L23" s="312">
         <v>0.38758122255397165</v>
       </c>
-      <c r="M23" s="445">
+      <c r="M23" s="307">
         <v>4.8909457829807712E-2</v>
       </c>
-      <c r="N23" s="449">
+      <c r="N23" s="311">
         <v>0.78158425905001672</v>
       </c>
-      <c r="O23" s="443">
+      <c r="O23" s="305">
         <v>2.6896039271903942</v>
       </c>
-      <c r="P23" s="448">
+      <c r="P23" s="310">
         <v>1.2862341343679216</v>
       </c>
-      <c r="Q23" s="445">
+      <c r="Q23" s="307">
         <v>23.152374011526238</v>
       </c>
-      <c r="R23" s="447">
+      <c r="R23" s="309">
         <v>0.68752393506553933</v>
       </c>
-      <c r="S23" s="443">
+      <c r="S23" s="305">
         <v>43.313944761655122</v>
       </c>
-      <c r="T23" s="442">
+      <c r="T23" s="304">
         <v>1.2862341343880803</v>
       </c>
-      <c r="U23" s="443">
+      <c r="U23" s="305">
         <v>10942.236354001061</v>
       </c>
-      <c r="V23" s="446">
+      <c r="V23" s="308">
         <v>0.78158425905001683</v>
       </c>
-      <c r="W23" s="445">
+      <c r="W23" s="307">
         <v>238.64943684675083</v>
       </c>
-      <c r="X23" s="444">
+      <c r="X23" s="306">
         <v>0.33181915692190117</v>
       </c>
-      <c r="Y23" s="443">
+      <c r="Y23" s="305">
         <v>631.9383933126478</v>
       </c>
-      <c r="Z23" s="442">
+      <c r="Z23" s="304">
         <v>0.87864973689519299</v>
       </c>
-      <c r="AA23" s="441">
+      <c r="AA23" s="303">
         <v>0.79820614941859303</v>
       </c>
-      <c r="AB23" s="440">
+      <c r="AB23" s="302">
         <v>0.79820614941859303</v>
       </c>
     </row>
     <row r="24" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="407"/>
-      <c r="C24" s="409"/>
+      <c r="B24" s="577"/>
+      <c r="C24" s="579"/>
       <c r="D24" s="275">
         <v>0.01</v>
       </c>
-      <c r="F24" s="452">
+      <c r="F24" s="314">
         <v>3</v>
       </c>
-      <c r="G24" s="443">
+      <c r="G24" s="305">
         <v>2.0888247008228333</v>
       </c>
-      <c r="H24" s="451">
+      <c r="H24" s="313">
         <v>1.1363585507840728</v>
       </c>
-      <c r="I24" s="445">
+      <c r="I24" s="307">
         <v>0.79163419486663988</v>
       </c>
-      <c r="J24" s="450">
+      <c r="J24" s="312">
         <v>-1.4135866391405627E-2</v>
       </c>
-      <c r="K24" s="445">
+      <c r="K24" s="307">
         <v>1408061.2762814094</v>
       </c>
-      <c r="L24" s="450">
+      <c r="L24" s="312">
         <v>0.40880484464491257</v>
       </c>
-      <c r="M24" s="445">
+      <c r="M24" s="307">
         <v>5.5023140058533676E-2</v>
       </c>
-      <c r="N24" s="449">
+      <c r="N24" s="311">
         <v>0.87928229143126879</v>
       </c>
-      <c r="O24" s="443">
+      <c r="O24" s="305">
         <v>2.5240129742084778</v>
       </c>
-      <c r="P24" s="448">
+      <c r="P24" s="310">
         <v>1.2070445057706931</v>
       </c>
-      <c r="Q24" s="445">
+      <c r="Q24" s="307">
         <v>21.72695087111342</v>
       </c>
-      <c r="R24" s="447">
+      <c r="R24" s="309">
         <v>0.64519512134897594</v>
       </c>
-      <c r="S24" s="443">
+      <c r="S24" s="305">
         <v>40.647233387074962</v>
       </c>
-      <c r="T24" s="442">
+      <c r="T24" s="304">
         <v>1.2070445058418833</v>
       </c>
-      <c r="U24" s="453">
+      <c r="U24" s="315">
         <v>12310.015898251193</v>
       </c>
-      <c r="V24" s="446">
+      <c r="V24" s="308">
         <v>0.87928229143126879</v>
       </c>
-      <c r="W24" s="445">
+      <c r="W24" s="307">
         <v>274.77592594272676</v>
       </c>
-      <c r="X24" s="444">
+      <c r="X24" s="306">
         <v>0.38204957570169806</v>
       </c>
-      <c r="Y24" s="443">
+      <c r="Y24" s="305">
         <v>689.87910437995538</v>
       </c>
-      <c r="Z24" s="442">
+      <c r="Z24" s="304">
         <v>0.95921073947637803</v>
       </c>
-      <c r="AA24" s="441">
+      <c r="AA24" s="303">
         <v>0.77192053655525172</v>
       </c>
-      <c r="AB24" s="440">
+      <c r="AB24" s="302">
         <v>0.77192053655525172</v>
       </c>
     </row>
     <row r="25" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="406" t="s">
+      <c r="B25" s="576" t="s">
         <v>377</v>
       </c>
-      <c r="C25" s="408" t="s">
+      <c r="C25" s="578" t="s">
         <v>415</v>
       </c>
       <c r="D25" s="274" t="s">
         <v>376</v>
       </c>
-      <c r="F25" s="452">
+      <c r="F25" s="314">
         <v>4</v>
       </c>
-      <c r="G25" s="443">
+      <c r="G25" s="305">
         <v>1.9534105002860245</v>
       </c>
-      <c r="H25" s="451">
+      <c r="H25" s="313">
         <v>1.0626907678356159</v>
       </c>
-      <c r="I25" s="445">
+      <c r="I25" s="307">
         <v>0.7923818704744261</v>
       </c>
-      <c r="J25" s="450">
+      <c r="J25" s="312">
         <v>-1.3388190783619414E-2</v>
       </c>
-      <c r="K25" s="445">
+      <c r="K25" s="307">
         <v>1510637.1170318304</v>
       </c>
-      <c r="L25" s="450">
+      <c r="L25" s="312">
         <v>0.43858586436945224</v>
       </c>
-      <c r="M25" s="445">
+      <c r="M25" s="307">
         <v>6.113682228725964E-2</v>
       </c>
-      <c r="N25" s="449">
+      <c r="N25" s="311">
         <v>0.97698032381252087</v>
       </c>
-      <c r="O25" s="443">
+      <c r="O25" s="305">
         <v>2.3079962372304461</v>
       </c>
-      <c r="P25" s="448">
+      <c r="P25" s="310">
         <v>1.1037400385638183</v>
       </c>
-      <c r="Q25" s="445">
+      <c r="Q25" s="307">
         <v>19.867457643614554</v>
       </c>
-      <c r="R25" s="447">
+      <c r="R25" s="309">
         <v>0.5899763303791481</v>
       </c>
-      <c r="S25" s="443">
+      <c r="S25" s="305">
         <v>37.168454641133863</v>
       </c>
-      <c r="T25" s="442">
+      <c r="T25" s="304">
         <v>1.1037400390325154</v>
       </c>
-      <c r="U25" s="443">
+      <c r="U25" s="305">
         <v>13677.795442501325</v>
       </c>
-      <c r="V25" s="446">
+      <c r="V25" s="308">
         <v>0.97698032381252087</v>
       </c>
-      <c r="W25" s="445">
+      <c r="W25" s="307">
         <v>317.90816785867793</v>
       </c>
-      <c r="X25" s="444">
+      <c r="X25" s="306">
         <v>0.44202082196905446</v>
       </c>
-      <c r="Y25" s="443">
+      <c r="Y25" s="305">
         <v>741.31139154014522</v>
       </c>
-      <c r="Z25" s="442">
+      <c r="Z25" s="304">
         <v>1.0307224027325474</v>
       </c>
-      <c r="AA25" s="441">
+      <c r="AA25" s="303">
         <v>0.72718163620753729</v>
       </c>
-      <c r="AB25" s="440">
+      <c r="AB25" s="302">
         <v>0.72987067759020041</v>
       </c>
     </row>
     <row r="26" spans="2:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="407"/>
-      <c r="C26" s="409"/>
+      <c r="B26" s="577"/>
+      <c r="C26" s="579"/>
       <c r="D26" s="275">
         <v>3</v>
       </c>
-      <c r="F26" s="452">
+      <c r="F26" s="314">
         <v>5</v>
       </c>
-      <c r="G26" s="443">
-        <v>1.8662706122367447</v>
-      </c>
-      <c r="H26" s="451">
-        <v>1.015285087090765</v>
-      </c>
-      <c r="I26" s="445">
+      <c r="G26" s="305">
+        <v>1.8662659904294889</v>
+      </c>
+      <c r="H26" s="313">
+        <v>1.0152825727437291</v>
+      </c>
+      <c r="I26" s="307">
         <v>0.79291789160158044</v>
       </c>
-      <c r="J26" s="450">
+      <c r="J26" s="312">
         <v>-1.2852169656465073E-2</v>
       </c>
-      <c r="K26" s="445">
+      <c r="K26" s="307">
         <v>1584073.48764541</v>
       </c>
-      <c r="L26" s="450">
+      <c r="L26" s="312">
         <v>0.45990677176579392</v>
       </c>
-      <c r="M26" s="445">
+      <c r="M26" s="307">
         <v>6.5080147324787882E-2</v>
       </c>
-      <c r="N26" s="449">
+      <c r="N26" s="311">
         <v>1.0399955546984283</v>
       </c>
-      <c r="O26" s="443">
-        <v>2.1632808784628588</v>
-      </c>
-      <c r="P26" s="448">
-        <v>1.0345336277862234</v>
-      </c>
-      <c r="Q26" s="445">
-        <v>18.621733662649305</v>
-      </c>
-      <c r="R26" s="447">
-        <v>0.55298379332993008</v>
-      </c>
-      <c r="S26" s="443">
-        <v>34.837928257212347</v>
-      </c>
-      <c r="T26" s="442">
-        <v>1.034533629812878</v>
-      </c>
-      <c r="U26" s="443">
+      <c r="O26" s="305">
+        <v>2.163283596079792</v>
+      </c>
+      <c r="P26" s="310">
+        <v>1.0345349274168598</v>
+      </c>
+      <c r="Q26" s="307">
+        <v>18.621757056162021</v>
+      </c>
+      <c r="R26" s="309">
+        <v>0.55298448801462674</v>
+      </c>
+      <c r="S26" s="305">
+        <v>34.837972022367701</v>
+      </c>
+      <c r="T26" s="304">
+        <v>1.0345349294459874</v>
+      </c>
+      <c r="U26" s="305">
         <v>14560.013248542662</v>
       </c>
-      <c r="V26" s="446">
+      <c r="V26" s="308">
         <v>1.0399955546984285</v>
       </c>
-      <c r="W26" s="445">
-        <v>349.18926797918618</v>
-      </c>
-      <c r="X26" s="444">
-        <v>0.48551419202147134</v>
-      </c>
-      <c r="Y26" s="443">
-        <v>776.2707013766277</v>
-      </c>
-      <c r="Z26" s="442">
-        <v>1.0793299706773325</v>
-      </c>
-      <c r="AA26" s="441">
-        <v>0.69261122029228916</v>
-      </c>
-      <c r="AB26" s="440">
-        <v>0.69543553140534309</v>
+      <c r="W26" s="307">
+        <v>349.19867230786303</v>
+      </c>
+      <c r="X26" s="306">
+        <v>0.48552726783867922</v>
+      </c>
+      <c r="Y26" s="305">
+        <v>776.29134447977162</v>
+      </c>
+      <c r="Z26" s="304">
+        <v>1.0793586729327076</v>
+      </c>
+      <c r="AA26" s="303">
+        <v>0.69259343752994895</v>
+      </c>
+      <c r="AB26" s="302">
+        <v>0.69541791203235404</v>
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B27" s="406" t="s">
+      <c r="B27" s="576" t="s">
         <v>378</v>
       </c>
-      <c r="C27" s="408" t="s">
+      <c r="C27" s="578" t="s">
         <v>415</v>
       </c>
       <c r="D27" s="274" t="s">
         <v>376</v>
       </c>
-      <c r="F27" s="452">
+      <c r="F27" s="314">
         <v>6</v>
       </c>
-      <c r="G27" s="443">
+      <c r="G27" s="305">
         <v>1.5376323473539415</v>
       </c>
-      <c r="H27" s="451">
+      <c r="H27" s="313">
         <v>0.83649990599476209</v>
       </c>
-      <c r="I27" s="445">
+      <c r="I27" s="307">
         <v>0.79551394604184722</v>
       </c>
-      <c r="J27" s="450">
+      <c r="J27" s="312">
         <v>-1.0256115216198292E-2</v>
       </c>
-      <c r="K27" s="445">
+      <c r="K27" s="307">
         <v>1938534.3825596469</v>
       </c>
-      <c r="L27" s="450">
+      <c r="L27" s="312">
         <v>0.56281801115503138</v>
       </c>
-      <c r="M27" s="445">
+      <c r="M27" s="307">
         <v>7.9477868973437532E-2</v>
       </c>
-      <c r="N27" s="449">
+      <c r="N27" s="311">
         <v>1.2700744209562771</v>
       </c>
-      <c r="O27" s="443">
+      <c r="O27" s="305">
         <v>1.5530658650683018</v>
       </c>
-      <c r="P27" s="448">
+      <c r="P27" s="310">
         <v>0.74271393954247678</v>
       </c>
-      <c r="Q27" s="445">
+      <c r="Q27" s="307">
         <v>13.368943065961881</v>
       </c>
-      <c r="R27" s="447">
+      <c r="R27" s="309">
         <v>0.39699895742014901</v>
       </c>
-      <c r="S27" s="443">
+      <c r="S27" s="305">
         <v>25.010909680914001</v>
       </c>
-      <c r="T27" s="442">
+      <c r="T27" s="304">
         <v>0.74271429076042417</v>
       </c>
-      <c r="U27" s="443">
+      <c r="U27" s="305">
         <v>17781.134075251724</v>
       </c>
-      <c r="V27" s="446">
+      <c r="V27" s="308">
         <v>1.2700744209562773</v>
       </c>
-      <c r="W27" s="445">
+      <c r="W27" s="307">
         <v>484.75830745438367</v>
       </c>
-      <c r="X27" s="444">
+      <c r="X27" s="306">
         <v>0.67400994117448021</v>
       </c>
-      <c r="Y27" s="443">
+      <c r="Y27" s="305">
         <v>884.5077748936518</v>
       </c>
-      <c r="Z27" s="442">
+      <c r="Z27" s="304">
         <v>1.2298232421329687</v>
       </c>
-      <c r="AA27" s="441">
+      <c r="AA27" s="303">
         <v>0.53510999836265705</v>
       </c>
-      <c r="AB27" s="440">
+      <c r="AB27" s="302">
         <v>0.53510999836265705</v>
       </c>
     </row>
     <row r="28" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="407"/>
-      <c r="C28" s="409"/>
+      <c r="B28" s="577"/>
+      <c r="C28" s="579"/>
       <c r="D28" s="275">
         <v>4</v>
       </c>
-      <c r="F28" s="452">
+      <c r="F28" s="314">
         <v>7</v>
       </c>
-      <c r="G28" s="443"/>
-      <c r="H28" s="451"/>
-      <c r="I28" s="445"/>
-      <c r="J28" s="450"/>
-      <c r="K28" s="445"/>
-      <c r="L28" s="450"/>
-      <c r="M28" s="445"/>
-      <c r="N28" s="449"/>
-      <c r="O28" s="443"/>
-      <c r="P28" s="448"/>
-      <c r="Q28" s="445"/>
-      <c r="R28" s="447"/>
-      <c r="S28" s="443"/>
-      <c r="T28" s="442"/>
-      <c r="U28" s="443"/>
-      <c r="V28" s="446"/>
-      <c r="W28" s="445"/>
-      <c r="X28" s="444"/>
-      <c r="Y28" s="443"/>
-      <c r="Z28" s="442"/>
-      <c r="AA28" s="441"/>
-      <c r="AB28" s="440"/>
+      <c r="G28" s="305"/>
+      <c r="H28" s="313"/>
+      <c r="I28" s="307"/>
+      <c r="J28" s="312"/>
+      <c r="K28" s="307"/>
+      <c r="L28" s="312"/>
+      <c r="M28" s="307"/>
+      <c r="N28" s="311"/>
+      <c r="O28" s="305"/>
+      <c r="P28" s="310"/>
+      <c r="Q28" s="307"/>
+      <c r="R28" s="309"/>
+      <c r="S28" s="305"/>
+      <c r="T28" s="304"/>
+      <c r="U28" s="305"/>
+      <c r="V28" s="308"/>
+      <c r="W28" s="307"/>
+      <c r="X28" s="306"/>
+      <c r="Y28" s="305"/>
+      <c r="Z28" s="304"/>
+      <c r="AA28" s="303"/>
+      <c r="AB28" s="302"/>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="F29" s="452">
+      <c r="F29" s="314">
         <v>8</v>
       </c>
-      <c r="G29" s="443"/>
-      <c r="H29" s="451"/>
-      <c r="I29" s="445"/>
-      <c r="J29" s="450"/>
-      <c r="K29" s="445"/>
-      <c r="L29" s="450"/>
-      <c r="M29" s="445"/>
-      <c r="N29" s="449"/>
-      <c r="O29" s="443"/>
-      <c r="P29" s="448"/>
-      <c r="Q29" s="445"/>
-      <c r="R29" s="447"/>
-      <c r="S29" s="443"/>
-      <c r="T29" s="442"/>
-      <c r="U29" s="443"/>
-      <c r="V29" s="446"/>
-      <c r="W29" s="445"/>
-      <c r="X29" s="444"/>
-      <c r="Y29" s="443"/>
-      <c r="Z29" s="442"/>
-      <c r="AA29" s="441"/>
-      <c r="AB29" s="440"/>
+      <c r="G29" s="305"/>
+      <c r="H29" s="313"/>
+      <c r="I29" s="307"/>
+      <c r="J29" s="312"/>
+      <c r="K29" s="307"/>
+      <c r="L29" s="312"/>
+      <c r="M29" s="307"/>
+      <c r="N29" s="311"/>
+      <c r="O29" s="305"/>
+      <c r="P29" s="310"/>
+      <c r="Q29" s="307"/>
+      <c r="R29" s="309"/>
+      <c r="S29" s="305"/>
+      <c r="T29" s="304"/>
+      <c r="U29" s="305"/>
+      <c r="V29" s="308"/>
+      <c r="W29" s="307"/>
+      <c r="X29" s="306"/>
+      <c r="Y29" s="305"/>
+      <c r="Z29" s="304"/>
+      <c r="AA29" s="303"/>
+      <c r="AB29" s="302"/>
     </row>
     <row r="30" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="452">
+      <c r="F30" s="314">
         <v>9</v>
       </c>
-      <c r="G30" s="443"/>
-      <c r="H30" s="451"/>
-      <c r="I30" s="445"/>
-      <c r="J30" s="450"/>
-      <c r="K30" s="445"/>
-      <c r="L30" s="450"/>
-      <c r="M30" s="445"/>
-      <c r="N30" s="449"/>
-      <c r="O30" s="443"/>
-      <c r="P30" s="448"/>
-      <c r="Q30" s="445"/>
-      <c r="R30" s="447"/>
-      <c r="S30" s="443"/>
-      <c r="T30" s="442"/>
-      <c r="U30" s="443"/>
-      <c r="V30" s="446"/>
-      <c r="W30" s="445"/>
-      <c r="X30" s="444"/>
-      <c r="Y30" s="443"/>
-      <c r="Z30" s="442"/>
-      <c r="AA30" s="441"/>
-      <c r="AB30" s="440"/>
+      <c r="G30" s="305"/>
+      <c r="H30" s="313"/>
+      <c r="I30" s="307"/>
+      <c r="J30" s="312"/>
+      <c r="K30" s="307"/>
+      <c r="L30" s="312"/>
+      <c r="M30" s="307"/>
+      <c r="N30" s="311"/>
+      <c r="O30" s="305"/>
+      <c r="P30" s="310"/>
+      <c r="Q30" s="307"/>
+      <c r="R30" s="309"/>
+      <c r="S30" s="305"/>
+      <c r="T30" s="304"/>
+      <c r="U30" s="305"/>
+      <c r="V30" s="308"/>
+      <c r="W30" s="307"/>
+      <c r="X30" s="306"/>
+      <c r="Y30" s="305"/>
+      <c r="Z30" s="304"/>
+      <c r="AA30" s="303"/>
+      <c r="AB30" s="302"/>
     </row>
     <row r="31" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="439">
+      <c r="F31" s="301">
         <v>10</v>
       </c>
-      <c r="G31" s="430"/>
-      <c r="H31" s="438"/>
-      <c r="I31" s="432"/>
-      <c r="J31" s="437"/>
-      <c r="K31" s="432"/>
-      <c r="L31" s="437"/>
-      <c r="M31" s="432"/>
-      <c r="N31" s="436"/>
-      <c r="O31" s="430"/>
-      <c r="P31" s="435"/>
-      <c r="Q31" s="432"/>
-      <c r="R31" s="434"/>
-      <c r="S31" s="430"/>
-      <c r="T31" s="429"/>
-      <c r="U31" s="430"/>
-      <c r="V31" s="433"/>
-      <c r="W31" s="432"/>
-      <c r="X31" s="431"/>
-      <c r="Y31" s="430"/>
-      <c r="Z31" s="429"/>
-      <c r="AA31" s="428"/>
-      <c r="AB31" s="427"/>
+      <c r="G31" s="292"/>
+      <c r="H31" s="300"/>
+      <c r="I31" s="294"/>
+      <c r="J31" s="299"/>
+      <c r="K31" s="294"/>
+      <c r="L31" s="299"/>
+      <c r="M31" s="294"/>
+      <c r="N31" s="298"/>
+      <c r="O31" s="292"/>
+      <c r="P31" s="297"/>
+      <c r="Q31" s="294"/>
+      <c r="R31" s="296"/>
+      <c r="S31" s="292"/>
+      <c r="T31" s="291"/>
+      <c r="U31" s="292"/>
+      <c r="V31" s="295"/>
+      <c r="W31" s="294"/>
+      <c r="X31" s="293"/>
+      <c r="Y31" s="292"/>
+      <c r="Z31" s="291"/>
+      <c r="AA31" s="290"/>
+      <c r="AB31" s="289"/>
     </row>
     <row r="32" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="426" t="s">
+      <c r="F32" s="288" t="s">
         <v>381</v>
       </c>
-      <c r="G32" s="418">
-        <v>1.9215780055429765</v>
-      </c>
-      <c r="H32" s="415">
-        <v>1.0453733129147686</v>
-      </c>
-      <c r="I32" s="420">
+      <c r="G32" s="280">
+        <v>1.9215763171812117</v>
+      </c>
+      <c r="H32" s="277">
+        <v>1.0453723944153237</v>
+      </c>
+      <c r="I32" s="282">
         <v>0.79257768079842672</v>
       </c>
-      <c r="J32" s="425">
+      <c r="J32" s="287">
         <v>-1.319238045961884E-2</v>
       </c>
-      <c r="K32" s="420">
+      <c r="K32" s="282">
         <v>1537463.6706783453</v>
       </c>
-      <c r="L32" s="425">
+      <c r="L32" s="287">
         <v>0.44637446368722089</v>
       </c>
-      <c r="M32" s="420">
+      <c r="M32" s="282">
         <v>6.2577332211443376E-2</v>
       </c>
-      <c r="N32" s="424">
+      <c r="N32" s="286">
         <v>1</v>
       </c>
-      <c r="O32" s="418">
-        <v>2.255131229019713</v>
-      </c>
-      <c r="P32" s="423">
-        <v>1.0784587034992477</v>
-      </c>
-      <c r="Q32" s="420">
-        <v>19.41239047560374</v>
-      </c>
-      <c r="R32" s="422">
-        <v>0.57646283193988801</v>
-      </c>
-      <c r="S32" s="418">
-        <v>36.317105499822574</v>
-      </c>
-      <c r="T32" s="417">
-        <v>1.0784587045370719</v>
-      </c>
-      <c r="U32" s="418">
+      <c r="O32" s="280">
+        <v>2.2551322217743364</v>
+      </c>
+      <c r="P32" s="285">
+        <v>1.0784591782586987</v>
+      </c>
+      <c r="Q32" s="282">
+        <v>19.412399021332764</v>
+      </c>
+      <c r="R32" s="284">
+        <v>0.57646308571054861</v>
+      </c>
+      <c r="S32" s="280">
+        <v>36.3171214873813</v>
+      </c>
+      <c r="T32" s="279">
+        <v>1.0784591792974263</v>
+      </c>
+      <c r="U32" s="280">
         <v>14000.072579891637</v>
       </c>
-      <c r="V32" s="421">
+      <c r="V32" s="283">
         <v>1</v>
       </c>
-      <c r="W32" s="420">
-        <v>329.33525914183076</v>
-      </c>
-      <c r="X32" s="419">
-        <v>0.45790909661049112</v>
-      </c>
-      <c r="Y32" s="418">
-        <v>754.08214522714877</v>
-      </c>
-      <c r="Z32" s="417">
-        <v>1.0484789110975763</v>
-      </c>
-      <c r="AA32" s="416">
-        <v>0.71455294678043157</v>
-      </c>
-      <c r="AB32" s="415">
-        <v>0.7172914026514301</v>
+      <c r="W32" s="282">
+        <v>329.33869457478653</v>
+      </c>
+      <c r="X32" s="281">
+        <v>0.45791387325057925</v>
+      </c>
+      <c r="Y32" s="280">
+        <v>754.08968622228906</v>
+      </c>
+      <c r="Z32" s="279">
+        <v>1.048489396128184</v>
+      </c>
+      <c r="AA32" s="278">
+        <v>0.71454645067742539</v>
+      </c>
+      <c r="AB32" s="277">
+        <v>0.71728496623510452</v>
       </c>
     </row>
     <row r="33" spans="6:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="530"/>
-      <c r="G33" s="531"/>
-      <c r="H33" s="531"/>
-      <c r="I33" s="531"/>
-      <c r="J33" s="531"/>
-      <c r="K33" s="531"/>
-      <c r="L33" s="531"/>
-      <c r="M33" s="531"/>
-      <c r="N33" s="531"/>
-      <c r="O33" s="531"/>
-      <c r="P33" s="531"/>
-      <c r="Q33" s="531"/>
-      <c r="R33" s="531"/>
-      <c r="S33" s="531"/>
-      <c r="T33" s="531"/>
-      <c r="U33" s="531"/>
-      <c r="V33" s="531"/>
-      <c r="W33" s="531"/>
-      <c r="X33" s="531"/>
-      <c r="Y33" s="531"/>
-      <c r="Z33" s="532"/>
-      <c r="AA33" s="532"/>
-      <c r="AB33" s="533"/>
+      <c r="F33" s="369"/>
+      <c r="G33" s="370"/>
+      <c r="H33" s="370"/>
+      <c r="I33" s="370"/>
+      <c r="J33" s="370"/>
+      <c r="K33" s="370"/>
+      <c r="L33" s="370"/>
+      <c r="M33" s="370"/>
+      <c r="N33" s="370"/>
+      <c r="O33" s="370"/>
+      <c r="P33" s="370"/>
+      <c r="Q33" s="370"/>
+      <c r="R33" s="370"/>
+      <c r="S33" s="370"/>
+      <c r="T33" s="370"/>
+      <c r="U33" s="370"/>
+      <c r="V33" s="370"/>
+      <c r="W33" s="370"/>
+      <c r="X33" s="370"/>
+      <c r="Y33" s="370"/>
+      <c r="Z33" s="371"/>
+      <c r="AA33" s="371"/>
+      <c r="AB33" s="372"/>
     </row>
     <row r="34" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="374" t="s">
+      <c r="F34" s="542" t="s">
         <v>408</v>
       </c>
-      <c r="G34" s="404"/>
-      <c r="H34" s="404"/>
-      <c r="I34" s="404"/>
-      <c r="J34" s="404"/>
-      <c r="K34" s="390"/>
-      <c r="L34" s="390"/>
-      <c r="M34" s="390"/>
-      <c r="N34" s="390"/>
-      <c r="O34" s="390"/>
-      <c r="P34" s="390"/>
-      <c r="Q34" s="390"/>
-      <c r="R34" s="390"/>
-      <c r="S34" s="390"/>
-      <c r="T34" s="390"/>
-      <c r="U34" s="390"/>
-      <c r="V34" s="390"/>
-      <c r="W34" s="390"/>
-      <c r="X34" s="390"/>
-      <c r="Y34" s="390"/>
-      <c r="Z34" s="390"/>
-      <c r="AA34" s="390"/>
-      <c r="AB34" s="375"/>
+      <c r="G34" s="574"/>
+      <c r="H34" s="574"/>
+      <c r="I34" s="574"/>
+      <c r="J34" s="574"/>
+      <c r="K34" s="543"/>
+      <c r="L34" s="543"/>
+      <c r="M34" s="543"/>
+      <c r="N34" s="543"/>
+      <c r="O34" s="543"/>
+      <c r="P34" s="543"/>
+      <c r="Q34" s="543"/>
+      <c r="R34" s="543"/>
+      <c r="S34" s="543"/>
+      <c r="T34" s="543"/>
+      <c r="U34" s="543"/>
+      <c r="V34" s="543"/>
+      <c r="W34" s="543"/>
+      <c r="X34" s="543"/>
+      <c r="Y34" s="543"/>
+      <c r="Z34" s="543"/>
+      <c r="AA34" s="543"/>
+      <c r="AB34" s="544"/>
     </row>
     <row r="35" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="481"/>
-      <c r="G35" s="480" t="s">
+      <c r="F35" s="337"/>
+      <c r="G35" s="586" t="s">
         <v>323</v>
       </c>
-      <c r="H35" s="478"/>
-      <c r="I35" s="479" t="s">
+      <c r="H35" s="587"/>
+      <c r="I35" s="588" t="s">
         <v>311</v>
       </c>
-      <c r="J35" s="478"/>
-      <c r="K35" s="476" t="s">
+      <c r="J35" s="587"/>
+      <c r="K35" s="583" t="s">
         <v>312</v>
       </c>
-      <c r="L35" s="475"/>
-      <c r="M35" s="476" t="s">
+      <c r="L35" s="585"/>
+      <c r="M35" s="583" t="s">
         <v>325</v>
       </c>
-      <c r="N35" s="476"/>
-      <c r="O35" s="477" t="s">
+      <c r="N35" s="583"/>
+      <c r="O35" s="584" t="s">
         <v>328</v>
       </c>
-      <c r="P35" s="475"/>
-      <c r="Q35" s="476" t="s">
+      <c r="P35" s="585"/>
+      <c r="Q35" s="583" t="s">
         <v>348</v>
       </c>
-      <c r="R35" s="476"/>
-      <c r="S35" s="477" t="s">
+      <c r="R35" s="583"/>
+      <c r="S35" s="584" t="s">
         <v>350</v>
       </c>
-      <c r="T35" s="475"/>
-      <c r="U35" s="477" t="s">
+      <c r="T35" s="585"/>
+      <c r="U35" s="584" t="s">
         <v>395</v>
       </c>
-      <c r="V35" s="475"/>
-      <c r="W35" s="476" t="s">
+      <c r="V35" s="585"/>
+      <c r="W35" s="583" t="s">
         <v>327</v>
       </c>
-      <c r="X35" s="476"/>
-      <c r="Y35" s="477" t="s">
+      <c r="X35" s="583"/>
+      <c r="Y35" s="584" t="s">
         <v>352</v>
       </c>
-      <c r="Z35" s="475"/>
-      <c r="AA35" s="476" t="s">
+      <c r="Z35" s="585"/>
+      <c r="AA35" s="583" t="s">
         <v>394</v>
       </c>
-      <c r="AB35" s="475"/>
+      <c r="AB35" s="585"/>
     </row>
     <row r="36" spans="6:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="474"/>
-      <c r="G36" s="467" t="s">
+      <c r="F36" s="336"/>
+      <c r="G36" s="329" t="s">
         <v>313</v>
       </c>
-      <c r="H36" s="472" t="s">
+      <c r="H36" s="334" t="s">
         <v>320</v>
       </c>
-      <c r="I36" s="469" t="s">
+      <c r="I36" s="331" t="s">
         <v>393</v>
       </c>
-      <c r="J36" s="472" t="s">
+      <c r="J36" s="334" t="s">
         <v>392</v>
       </c>
-      <c r="K36" s="473" t="s">
+      <c r="K36" s="335" t="s">
         <v>391</v>
       </c>
-      <c r="L36" s="465" t="s">
+      <c r="L36" s="327" t="s">
         <v>326</v>
       </c>
-      <c r="M36" s="467" t="s">
+      <c r="M36" s="329" t="s">
         <v>390</v>
       </c>
-      <c r="N36" s="471" t="s">
+      <c r="N36" s="333" t="s">
         <v>340</v>
       </c>
-      <c r="O36" s="467" t="s">
+      <c r="O36" s="329" t="s">
         <v>389</v>
       </c>
-      <c r="P36" s="472" t="s">
+      <c r="P36" s="334" t="s">
         <v>341</v>
       </c>
-      <c r="Q36" s="469" t="s">
+      <c r="Q36" s="331" t="s">
         <v>388</v>
       </c>
-      <c r="R36" s="471" t="s">
+      <c r="R36" s="333" t="s">
         <v>349</v>
       </c>
-      <c r="S36" s="467" t="s">
+      <c r="S36" s="329" t="s">
         <v>387</v>
       </c>
-      <c r="T36" s="465" t="s">
+      <c r="T36" s="327" t="s">
         <v>351</v>
       </c>
-      <c r="U36" s="467" t="s">
+      <c r="U36" s="329" t="s">
         <v>386</v>
       </c>
-      <c r="V36" s="470" t="s">
+      <c r="V36" s="332" t="s">
         <v>385</v>
       </c>
-      <c r="W36" s="469" t="s">
+      <c r="W36" s="331" t="s">
         <v>384</v>
       </c>
-      <c r="X36" s="468" t="s">
+      <c r="X36" s="330" t="s">
         <v>329</v>
       </c>
-      <c r="Y36" s="467" t="s">
+      <c r="Y36" s="329" t="s">
         <v>383</v>
       </c>
-      <c r="Z36" s="465" t="s">
+      <c r="Z36" s="327" t="s">
         <v>353</v>
       </c>
-      <c r="AA36" s="466" t="s">
+      <c r="AA36" s="328" t="s">
         <v>382</v>
       </c>
-      <c r="AB36" s="465" t="s">
+      <c r="AB36" s="327" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="37" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="F37" s="534">
+      <c r="F37" s="373">
         <v>1</v>
       </c>
-      <c r="G37" s="464">
+      <c r="G37" s="326">
         <v>5.854318756032888</v>
       </c>
-      <c r="H37" s="456">
+      <c r="H37" s="318">
         <v>1.2766335217124172</v>
       </c>
-      <c r="I37" s="463">
-        <v>0.79683420590309406</v>
-      </c>
-      <c r="J37" s="462">
-        <v>1.0020102128434849E-2</v>
-      </c>
-      <c r="K37" s="459">
-        <v>3150945.2322291522</v>
-      </c>
-      <c r="L37" s="462">
-        <v>0.53154553169640029</v>
-      </c>
-      <c r="M37" s="459">
-        <v>9.4695663407439082E-2</v>
-      </c>
-      <c r="N37" s="456">
+      <c r="I37" s="325">
+        <v>0.90603889376029512</v>
+      </c>
+      <c r="J37" s="324">
+        <v>1.1393339016518511E-2</v>
+      </c>
+      <c r="K37" s="321">
+        <v>6024193.4194870479</v>
+      </c>
+      <c r="L37" s="324">
+        <v>0.5315455316964004</v>
+      </c>
+      <c r="M37" s="321">
+        <v>6.4415958607340465E-2</v>
+      </c>
+      <c r="N37" s="318">
         <v>0.54428086289982125</v>
       </c>
-      <c r="O37" s="457">
-        <v>6.0222588559140462</v>
-      </c>
-      <c r="P37" s="454">
-        <v>1.1732264573848601</v>
-      </c>
-      <c r="Q37" s="459">
+      <c r="O37" s="319">
+        <v>4.6580234911400007</v>
+      </c>
+      <c r="P37" s="316">
+        <v>1.1732264573848596</v>
+      </c>
+      <c r="Q37" s="321">
         <v>51.840194021429241</v>
       </c>
-      <c r="R37" s="461">
+      <c r="R37" s="323">
         <v>0.62711853864819822</v>
       </c>
-      <c r="S37" s="457">
+      <c r="S37" s="319">
         <v>96.983717484823288</v>
       </c>
-      <c r="T37" s="456">
+      <c r="T37" s="318">
         <v>1.173226457381906</v>
       </c>
-      <c r="U37" s="457">
+      <c r="U37" s="319">
         <v>21185.725147654979</v>
       </c>
-      <c r="V37" s="460">
+      <c r="V37" s="322">
         <v>0.54428086289982125</v>
       </c>
-      <c r="W37" s="459">
+      <c r="W37" s="321">
         <v>2443.8884185006873</v>
       </c>
-      <c r="X37" s="458">
+      <c r="X37" s="320">
         <v>0.31721272586846955</v>
       </c>
-      <c r="Y37" s="457">
+      <c r="Y37" s="319">
         <v>5107.2071885915893</v>
       </c>
-      <c r="Z37" s="456">
+      <c r="Z37" s="318">
         <v>0.66290715304509928</v>
       </c>
-      <c r="AA37" s="455">
+      <c r="AA37" s="317">
         <v>0.81121761804443038</v>
       </c>
-      <c r="AB37" s="454">
+      <c r="AB37" s="316">
         <v>0.81121761804443038</v>
       </c>
     </row>
     <row r="38" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="F38" s="452">
+      <c r="F38" s="314">
         <v>2</v>
       </c>
-      <c r="G38" s="443">
+      <c r="G38" s="305">
         <v>5.3332598419868535</v>
       </c>
-      <c r="H38" s="451">
+      <c r="H38" s="313">
         <v>1.1630077858788932</v>
       </c>
-      <c r="I38" s="445">
-        <v>0.7973807892259035</v>
-      </c>
-      <c r="J38" s="450">
-        <v>1.0566685451244284E-2</v>
-      </c>
-      <c r="K38" s="445">
-        <v>3159044.4030438899</v>
-      </c>
-      <c r="L38" s="450">
-        <v>0.53291181315790759</v>
-      </c>
-      <c r="M38" s="445">
-        <v>0.12719878557318826</v>
-      </c>
-      <c r="N38" s="449">
+      <c r="I38" s="307">
+        <v>0.9066603853396944</v>
+      </c>
+      <c r="J38" s="312">
+        <v>1.2014830595917791E-2</v>
+      </c>
+      <c r="K38" s="307">
+        <v>6039677.9702898962</v>
+      </c>
+      <c r="L38" s="312">
+        <v>0.53291181315790781</v>
+      </c>
+      <c r="M38" s="307">
+        <v>8.6525944394437768E-2</v>
+      </c>
+      <c r="N38" s="311">
         <v>0.73109857706689385</v>
       </c>
-      <c r="O38" s="443">
-        <v>5.6835970590248595</v>
-      </c>
-      <c r="P38" s="448">
-        <v>1.1072500538920571</v>
-      </c>
-      <c r="Q38" s="445">
+      <c r="O38" s="305">
+        <v>4.3960794858748731</v>
+      </c>
+      <c r="P38" s="310">
+        <v>1.1072500538920569</v>
+      </c>
+      <c r="Q38" s="307">
         <v>48.924960106975291</v>
       </c>
-      <c r="R38" s="447">
+      <c r="R38" s="309">
         <v>0.59185252032476554</v>
       </c>
-      <c r="S38" s="443">
+      <c r="S38" s="305">
         <v>91.529837321335748</v>
       </c>
-      <c r="T38" s="442">
+      <c r="T38" s="304">
         <v>1.1072500577435311</v>
       </c>
-      <c r="U38" s="443">
+      <c r="U38" s="305">
         <v>28457.464822590493</v>
       </c>
-      <c r="V38" s="446">
+      <c r="V38" s="308">
         <v>0.73109857706689374</v>
       </c>
-      <c r="W38" s="445">
+      <c r="W38" s="307">
         <v>3095.740458720993</v>
       </c>
-      <c r="X38" s="444">
+      <c r="X38" s="306">
         <v>0.40182205621918266</v>
       </c>
-      <c r="Y38" s="443">
+      <c r="Y38" s="305">
         <v>6460.5958992406786</v>
       </c>
-      <c r="Z38" s="442">
+      <c r="Z38" s="304">
         <v>0.83857479761292775</v>
       </c>
-      <c r="AA38" s="441">
+      <c r="AA38" s="303">
         <v>0.81295219730013824</v>
       </c>
-      <c r="AB38" s="440">
+      <c r="AB38" s="302">
         <v>0.81295219730013824</v>
       </c>
     </row>
     <row r="39" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="F39" s="452">
+      <c r="F39" s="314">
         <v>3</v>
       </c>
-      <c r="G39" s="443">
+      <c r="G39" s="305">
         <v>4.9888142985883253</v>
       </c>
-      <c r="H39" s="451">
+      <c r="H39" s="313">
         <v>1.0878955917138819</v>
       </c>
-      <c r="I39" s="445">
-        <v>0.79727013116326506</v>
-      </c>
-      <c r="J39" s="450">
-        <v>1.0456027388605849E-2</v>
-      </c>
-      <c r="K39" s="445">
-        <v>3157403.6896520802</v>
-      </c>
-      <c r="L39" s="450">
-        <v>0.53263503466512696</v>
-      </c>
-      <c r="M39" s="445">
-        <v>0.14439010283695583</v>
-      </c>
-      <c r="N39" s="449">
-        <v>0.82990885684125737</v>
-      </c>
-      <c r="O39" s="443">
-        <v>5.4131509455635305</v>
-      </c>
-      <c r="P39" s="448">
-        <v>1.0545630898805141</v>
-      </c>
-      <c r="Q39" s="445">
+      <c r="I39" s="307">
+        <v>0.90653456178955594</v>
+      </c>
+      <c r="J39" s="312">
+        <v>1.1889007045779332E-2</v>
+      </c>
+      <c r="K39" s="307">
+        <v>6036541.1417861478</v>
+      </c>
+      <c r="L39" s="312">
+        <v>0.53263503466512707</v>
+      </c>
+      <c r="M39" s="307">
+        <v>9.8220198824060523E-2</v>
+      </c>
+      <c r="N39" s="311">
+        <v>0.82990885684125726</v>
+      </c>
+      <c r="O39" s="305">
+        <v>4.1868981172670994</v>
+      </c>
+      <c r="P39" s="310">
+        <v>1.0545630898805138</v>
+      </c>
+      <c r="Q39" s="307">
         <v>46.596933476169028</v>
       </c>
-      <c r="R39" s="447">
+      <c r="R39" s="309">
         <v>0.56369003586257749</v>
       </c>
-      <c r="S39" s="443">
+      <c r="S39" s="305">
         <v>87.174516169669687</v>
       </c>
-      <c r="T39" s="442">
+      <c r="T39" s="304">
         <v>1.0545630898890634</v>
       </c>
-      <c r="U39" s="453">
+      <c r="U39" s="315">
         <v>32303.580994872405</v>
       </c>
-      <c r="V39" s="446">
+      <c r="V39" s="308">
         <v>0.82990885684125726</v>
       </c>
-      <c r="W39" s="445">
+      <c r="W39" s="307">
         <v>3253.4555870104632</v>
       </c>
-      <c r="X39" s="444">
+      <c r="X39" s="306">
         <v>0.42229322232343991</v>
       </c>
-      <c r="Y39" s="443">
+      <c r="Y39" s="305">
         <v>6791.6163683175564</v>
       </c>
-      <c r="Z39" s="442">
+      <c r="Z39" s="304">
         <v>0.88154071394496514</v>
       </c>
-      <c r="AA39" s="441">
+      <c r="AA39" s="303">
         <v>0.83607600158445594</v>
       </c>
-      <c r="AB39" s="440">
+      <c r="AB39" s="302">
         <v>0.83607600158445594</v>
       </c>
     </row>
     <row r="40" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="F40" s="452">
+      <c r="F40" s="314">
         <v>4</v>
       </c>
-      <c r="G40" s="443">
+      <c r="G40" s="305">
         <v>4.5577382100768533</v>
       </c>
-      <c r="H40" s="451">
+      <c r="H40" s="313">
         <v>0.99389213752285377</v>
       </c>
-      <c r="I40" s="445">
-        <v>0.79705447989342149</v>
-      </c>
-      <c r="J40" s="450">
-        <v>1.0240376118762273E-2</v>
-      </c>
-      <c r="K40" s="445">
-        <v>3154207.7174427919</v>
-      </c>
-      <c r="L40" s="450">
-        <v>0.53209589335289564</v>
-      </c>
-      <c r="M40" s="445">
-        <v>0.16247254299172356</v>
-      </c>
-      <c r="N40" s="449">
-        <v>0.93384103046599165</v>
-      </c>
-      <c r="O40" s="443">
-        <v>5.1223990661876089</v>
-      </c>
-      <c r="P40" s="448">
-        <v>0.99792025775063742</v>
-      </c>
-      <c r="Q40" s="445">
+      <c r="I40" s="307">
+        <v>0.90628935590291149</v>
+      </c>
+      <c r="J40" s="312">
+        <v>1.1643801159134881E-2</v>
+      </c>
+      <c r="K40" s="307">
+        <v>6030430.8627006439</v>
+      </c>
+      <c r="L40" s="312">
+        <v>0.53209589335289575</v>
+      </c>
+      <c r="M40" s="307">
+        <v>0.11052063238792449</v>
+      </c>
+      <c r="N40" s="311">
+        <v>0.93384103046599154</v>
+      </c>
+      <c r="O40" s="305">
+        <v>3.9620108919536019</v>
+      </c>
+      <c r="P40" s="310">
+        <v>0.9979202577506372</v>
+      </c>
+      <c r="Q40" s="307">
         <v>44.094112823725439</v>
       </c>
-      <c r="R40" s="447">
+      <c r="R40" s="309">
         <v>0.53341304211887863</v>
       </c>
-      <c r="S40" s="443">
+      <c r="S40" s="305">
         <v>82.492187030000906</v>
       </c>
-      <c r="T40" s="442">
+      <c r="T40" s="304">
         <v>0.99792025775913074</v>
       </c>
-      <c r="U40" s="443">
+      <c r="U40" s="305">
         <v>36349.063051104917</v>
       </c>
-      <c r="V40" s="446">
+      <c r="V40" s="308">
         <v>0.93384103046599143</v>
       </c>
-      <c r="W40" s="445">
+      <c r="W40" s="307">
         <v>3514.9712110596483</v>
       </c>
-      <c r="X40" s="444">
+      <c r="X40" s="306">
         <v>0.45623752327181505</v>
       </c>
-      <c r="Y40" s="443">
+      <c r="Y40" s="305">
         <v>7341.4932170760931</v>
       </c>
-      <c r="Z40" s="442">
+      <c r="Z40" s="304">
         <v>0.9529138309687244</v>
       </c>
-      <c r="AA40" s="441">
+      <c r="AA40" s="303">
         <v>0.82356963661471561</v>
       </c>
-      <c r="AB40" s="440">
+      <c r="AB40" s="302">
         <v>0.82356963661471561</v>
       </c>
     </row>
     <row r="41" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="F41" s="452">
+      <c r="F41" s="314">
         <v>5</v>
       </c>
-      <c r="G41" s="443">
-        <v>4.599505128191467</v>
-      </c>
-      <c r="H41" s="451">
-        <v>1.0030001225823939</v>
-      </c>
-      <c r="I41" s="445">
-        <v>0.7968796349023971</v>
-      </c>
-      <c r="J41" s="450">
-        <v>1.0065531127737892E-2</v>
-      </c>
-      <c r="K41" s="445">
-        <v>3151617.9174582525</v>
-      </c>
-      <c r="L41" s="450">
-        <v>0.53165900965346191</v>
-      </c>
-      <c r="M41" s="445">
-        <v>0.17451613166022362</v>
-      </c>
-      <c r="N41" s="449">
-        <v>1.0030637867890311</v>
-      </c>
-      <c r="O41" s="443">
-        <v>5.145900488730879</v>
-      </c>
-      <c r="P41" s="448">
-        <v>1.0024986877672861</v>
-      </c>
-      <c r="Q41" s="445">
-        <v>44.296415370588939</v>
-      </c>
-      <c r="R41" s="447">
-        <v>0.5358603261221252</v>
-      </c>
-      <c r="S41" s="443">
-        <v>82.870658858601416</v>
-      </c>
-      <c r="T41" s="442">
-        <v>1.0024986877698934</v>
-      </c>
-      <c r="U41" s="443">
-        <v>39043.507021832833</v>
-      </c>
-      <c r="V41" s="446">
-        <v>1.0030637867890311</v>
-      </c>
-      <c r="W41" s="445">
-        <v>3759.4008006222543</v>
-      </c>
-      <c r="X41" s="444">
-        <v>0.48796408484520859</v>
-      </c>
-      <c r="Y41" s="443">
-        <v>7846.9824903777035</v>
-      </c>
-      <c r="Z41" s="442">
-        <v>1.0185255131827791</v>
-      </c>
-      <c r="AA41" s="441">
-        <v>0.83053313744723845</v>
-      </c>
-      <c r="AB41" s="440">
-        <v>0.83142986193836166</v>
+      <c r="G41" s="305">
+        <v>4.5923715669783425</v>
+      </c>
+      <c r="H41" s="313">
+        <v>1.001444528540905</v>
+      </c>
+      <c r="I41" s="307">
+        <v>0.90609030842694083</v>
+      </c>
+      <c r="J41" s="312">
+        <v>1.1444753683164222E-2</v>
+      </c>
+      <c r="K41" s="307">
+        <v>6025473.5221382696</v>
+      </c>
+      <c r="L41" s="312">
+        <v>0.53165848172920782</v>
+      </c>
+      <c r="M41" s="307">
+        <v>0.11871324891291708</v>
+      </c>
+      <c r="N41" s="311">
+        <v>1.0030643174904303</v>
+      </c>
+      <c r="O41" s="305">
+        <v>3.9833442802668753</v>
+      </c>
+      <c r="P41" s="310">
+        <v>1.0032935444337989</v>
+      </c>
+      <c r="Q41" s="307">
+        <v>44.331536913878303</v>
+      </c>
+      <c r="R41" s="309">
+        <v>0.53628519665585805</v>
+      </c>
+      <c r="S41" s="305">
+        <v>82.936364975632188</v>
+      </c>
+      <c r="T41" s="304">
+        <v>1.0032935444418329</v>
+      </c>
+      <c r="U41" s="305">
+        <v>39043.527678987535</v>
+      </c>
+      <c r="V41" s="308">
+        <v>1.0030643174904306</v>
+      </c>
+      <c r="W41" s="307">
+        <v>3790.8074937926276</v>
+      </c>
+      <c r="X41" s="306">
+        <v>0.4920406223318099</v>
+      </c>
+      <c r="Y41" s="305">
+        <v>7913.1492993837137</v>
+      </c>
+      <c r="Z41" s="304">
+        <v>1.0271138569418168</v>
+      </c>
+      <c r="AA41" s="303">
+        <v>0.82430525625835604</v>
+      </c>
+      <c r="AB41" s="302">
+        <v>0.82513189969599443</v>
       </c>
     </row>
     <row r="42" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="F42" s="452">
+      <c r="F42" s="314">
         <v>6</v>
       </c>
-      <c r="G42" s="443">
+      <c r="G42" s="305">
         <v>3.8558461816613248</v>
       </c>
-      <c r="H42" s="451">
+      <c r="H42" s="313">
         <v>0.84083267331540912</v>
       </c>
-      <c r="I42" s="445">
-        <v>0.79619864040102362</v>
-      </c>
-      <c r="J42" s="450">
-        <v>9.3845366263644037E-3</v>
-      </c>
-      <c r="K42" s="445">
-        <v>3141543.1643575691</v>
-      </c>
-      <c r="L42" s="450">
-        <v>0.5299594593284237</v>
-      </c>
-      <c r="M42" s="445">
-        <v>0.22227332511245382</v>
-      </c>
-      <c r="N42" s="449">
+      <c r="I42" s="307">
+        <v>0.90531622515477828</v>
+      </c>
+      <c r="J42" s="312">
+        <v>1.067067041100167E-2</v>
+      </c>
+      <c r="K42" s="307">
+        <v>6006217.9006420281</v>
+      </c>
+      <c r="L42" s="312">
+        <v>0.52995945932842381</v>
+      </c>
+      <c r="M42" s="307">
+        <v>0.15119963042399434</v>
+      </c>
+      <c r="N42" s="311">
         <v>1.277557100701562</v>
       </c>
-      <c r="O42" s="443">
-        <v>4.6425173832899809</v>
-      </c>
-      <c r="P42" s="448">
-        <v>0.90443209985835826</v>
-      </c>
-      <c r="Q42" s="445">
+      <c r="O42" s="305">
+        <v>3.5908378478540754</v>
+      </c>
+      <c r="P42" s="310">
+        <v>0.90443209985835804</v>
+      </c>
+      <c r="Q42" s="307">
         <v>39.963244300145966</v>
       </c>
-      <c r="R42" s="447">
+      <c r="R42" s="309">
         <v>0.48344131109518407</v>
       </c>
-      <c r="S42" s="443">
+      <c r="S42" s="305">
         <v>74.764072326851988</v>
       </c>
-      <c r="T42" s="442">
+      <c r="T42" s="304">
         <v>0.90443210458707624</v>
       </c>
-      <c r="U42" s="443">
+      <c r="U42" s="305">
         <v>49727.953784184305</v>
       </c>
-      <c r="V42" s="446">
+      <c r="V42" s="308">
         <v>1.277557100701562</v>
       </c>
-      <c r="W42" s="445">
+      <c r="W42" s="307">
         <v>4720.4343897522476</v>
       </c>
-      <c r="X42" s="444">
+      <c r="X42" s="306">
         <v>0.61270467535306372</v>
       </c>
-      <c r="Y42" s="443">
+      <c r="Y42" s="305">
         <v>9880.4223520786891</v>
       </c>
-      <c r="Z42" s="442">
+      <c r="Z42" s="304">
         <v>1.2824626866383075</v>
       </c>
-      <c r="AA42" s="441">
+      <c r="AA42" s="303">
         <v>0.75874652727784098</v>
       </c>
-      <c r="AB42" s="440">
+      <c r="AB42" s="302">
         <v>0.75874652727784098</v>
       </c>
     </row>
     <row r="43" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="F43" s="452">
+      <c r="F43" s="314">
         <v>7</v>
       </c>
-      <c r="G43" s="443"/>
-      <c r="H43" s="451"/>
-      <c r="I43" s="445"/>
-      <c r="J43" s="450"/>
-      <c r="K43" s="445"/>
-      <c r="L43" s="450"/>
-      <c r="M43" s="445"/>
-      <c r="N43" s="449"/>
-      <c r="O43" s="443"/>
-      <c r="P43" s="448"/>
-      <c r="Q43" s="445"/>
-      <c r="R43" s="447"/>
-      <c r="S43" s="443"/>
-      <c r="T43" s="442"/>
-      <c r="U43" s="443"/>
-      <c r="V43" s="446"/>
-      <c r="W43" s="445"/>
-      <c r="X43" s="444"/>
-      <c r="Y43" s="443"/>
-      <c r="Z43" s="442"/>
-      <c r="AA43" s="441"/>
-      <c r="AB43" s="440"/>
+      <c r="G43" s="305"/>
+      <c r="H43" s="313"/>
+      <c r="I43" s="307"/>
+      <c r="J43" s="312"/>
+      <c r="K43" s="307"/>
+      <c r="L43" s="312"/>
+      <c r="M43" s="307"/>
+      <c r="N43" s="311"/>
+      <c r="O43" s="305"/>
+      <c r="P43" s="310"/>
+      <c r="Q43" s="307"/>
+      <c r="R43" s="309"/>
+      <c r="S43" s="305"/>
+      <c r="T43" s="304"/>
+      <c r="U43" s="305"/>
+      <c r="V43" s="308"/>
+      <c r="W43" s="307"/>
+      <c r="X43" s="306"/>
+      <c r="Y43" s="305"/>
+      <c r="Z43" s="304"/>
+      <c r="AA43" s="303"/>
+      <c r="AB43" s="302"/>
     </row>
     <row r="44" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="F44" s="452">
+      <c r="F44" s="314">
         <v>8</v>
       </c>
-      <c r="G44" s="443"/>
-      <c r="H44" s="451"/>
-      <c r="I44" s="445"/>
-      <c r="J44" s="450"/>
-      <c r="K44" s="445"/>
-      <c r="L44" s="450"/>
-      <c r="M44" s="445"/>
-      <c r="N44" s="449"/>
-      <c r="O44" s="443"/>
-      <c r="P44" s="448"/>
-      <c r="Q44" s="445"/>
-      <c r="R44" s="447"/>
-      <c r="S44" s="443"/>
-      <c r="T44" s="442"/>
-      <c r="U44" s="443"/>
-      <c r="V44" s="446"/>
-      <c r="W44" s="445"/>
-      <c r="X44" s="444"/>
-      <c r="Y44" s="443"/>
-      <c r="Z44" s="442"/>
-      <c r="AA44" s="441"/>
-      <c r="AB44" s="440"/>
+      <c r="G44" s="305"/>
+      <c r="H44" s="313"/>
+      <c r="I44" s="307"/>
+      <c r="J44" s="312"/>
+      <c r="K44" s="307"/>
+      <c r="L44" s="312"/>
+      <c r="M44" s="307"/>
+      <c r="N44" s="311"/>
+      <c r="O44" s="305"/>
+      <c r="P44" s="310"/>
+      <c r="Q44" s="307"/>
+      <c r="R44" s="309"/>
+      <c r="S44" s="305"/>
+      <c r="T44" s="304"/>
+      <c r="U44" s="305"/>
+      <c r="V44" s="308"/>
+      <c r="W44" s="307"/>
+      <c r="X44" s="306"/>
+      <c r="Y44" s="305"/>
+      <c r="Z44" s="304"/>
+      <c r="AA44" s="303"/>
+      <c r="AB44" s="302"/>
     </row>
     <row r="45" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="F45" s="452">
+      <c r="F45" s="314">
         <v>9</v>
       </c>
-      <c r="G45" s="443"/>
-      <c r="H45" s="451"/>
-      <c r="I45" s="445"/>
-      <c r="J45" s="450"/>
-      <c r="K45" s="445"/>
-      <c r="L45" s="450"/>
-      <c r="M45" s="445"/>
-      <c r="N45" s="449"/>
-      <c r="O45" s="443"/>
-      <c r="P45" s="448"/>
-      <c r="Q45" s="445"/>
-      <c r="R45" s="447"/>
-      <c r="S45" s="443"/>
-      <c r="T45" s="442"/>
-      <c r="U45" s="443"/>
-      <c r="V45" s="446"/>
-      <c r="W45" s="445"/>
-      <c r="X45" s="444"/>
-      <c r="Y45" s="443"/>
-      <c r="Z45" s="442"/>
-      <c r="AA45" s="441"/>
-      <c r="AB45" s="440"/>
+      <c r="G45" s="305"/>
+      <c r="H45" s="313"/>
+      <c r="I45" s="307"/>
+      <c r="J45" s="312"/>
+      <c r="K45" s="307"/>
+      <c r="L45" s="312"/>
+      <c r="M45" s="307"/>
+      <c r="N45" s="311"/>
+      <c r="O45" s="305"/>
+      <c r="P45" s="310"/>
+      <c r="Q45" s="307"/>
+      <c r="R45" s="309"/>
+      <c r="S45" s="305"/>
+      <c r="T45" s="304"/>
+      <c r="U45" s="305"/>
+      <c r="V45" s="308"/>
+      <c r="W45" s="307"/>
+      <c r="X45" s="306"/>
+      <c r="Y45" s="305"/>
+      <c r="Z45" s="304"/>
+      <c r="AA45" s="303"/>
+      <c r="AB45" s="302"/>
     </row>
     <row r="46" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="439">
+      <c r="F46" s="301">
         <v>10</v>
       </c>
-      <c r="G46" s="430"/>
-      <c r="H46" s="438"/>
-      <c r="I46" s="432"/>
-      <c r="J46" s="437"/>
-      <c r="K46" s="432"/>
-      <c r="L46" s="437"/>
-      <c r="M46" s="432"/>
-      <c r="N46" s="436"/>
-      <c r="O46" s="430"/>
-      <c r="P46" s="435"/>
-      <c r="Q46" s="432"/>
-      <c r="R46" s="434"/>
-      <c r="S46" s="430"/>
-      <c r="T46" s="429"/>
-      <c r="U46" s="430"/>
-      <c r="V46" s="433"/>
-      <c r="W46" s="432"/>
-      <c r="X46" s="431"/>
-      <c r="Y46" s="430"/>
-      <c r="Z46" s="429"/>
-      <c r="AA46" s="428"/>
-      <c r="AB46" s="427"/>
+      <c r="G46" s="292"/>
+      <c r="H46" s="300"/>
+      <c r="I46" s="294"/>
+      <c r="J46" s="299"/>
+      <c r="K46" s="294"/>
+      <c r="L46" s="299"/>
+      <c r="M46" s="294"/>
+      <c r="N46" s="298"/>
+      <c r="O46" s="292"/>
+      <c r="P46" s="297"/>
+      <c r="Q46" s="294"/>
+      <c r="R46" s="296"/>
+      <c r="S46" s="292"/>
+      <c r="T46" s="291"/>
+      <c r="U46" s="292"/>
+      <c r="V46" s="295"/>
+      <c r="W46" s="294"/>
+      <c r="X46" s="293"/>
+      <c r="Y46" s="292"/>
+      <c r="Z46" s="291"/>
+      <c r="AA46" s="290"/>
+      <c r="AB46" s="289"/>
     </row>
     <row r="47" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="426" t="s">
+      <c r="F47" s="288" t="s">
         <v>381</v>
       </c>
-      <c r="G47" s="418">
-        <v>4.599505128191467</v>
-      </c>
-      <c r="H47" s="415">
-        <v>1.0030001225823939</v>
-      </c>
-      <c r="I47" s="420">
-        <v>0.7968796349023971</v>
-      </c>
-      <c r="J47" s="425">
-        <v>1.0065531127737892E-2</v>
-      </c>
-      <c r="K47" s="420">
-        <v>3151617.9174582525</v>
-      </c>
-      <c r="L47" s="425">
-        <v>0.53165900965346191</v>
-      </c>
-      <c r="M47" s="420">
-        <v>0.17451613166022362</v>
-      </c>
-      <c r="N47" s="424">
-        <v>1.0030637867890311</v>
-      </c>
-      <c r="O47" s="418">
-        <v>5.145900488730879</v>
-      </c>
-      <c r="P47" s="423">
-        <v>1.0024986877672861</v>
-      </c>
-      <c r="Q47" s="420">
-        <v>44.296415370588939</v>
-      </c>
-      <c r="R47" s="422">
-        <v>0.5358603261221252</v>
-      </c>
-      <c r="S47" s="418">
-        <v>82.870658858601416</v>
-      </c>
-      <c r="T47" s="417">
-        <v>1.0024986877698934</v>
-      </c>
-      <c r="U47" s="418">
-        <v>39043.507021832833</v>
-      </c>
-      <c r="V47" s="421">
-        <v>1.0030637867890311</v>
-      </c>
-      <c r="W47" s="420">
-        <v>3759.4008006222543</v>
-      </c>
-      <c r="X47" s="419">
-        <v>0.48796408484520859</v>
-      </c>
-      <c r="Y47" s="418">
-        <v>7846.9824903777035</v>
-      </c>
-      <c r="Z47" s="417">
-        <v>1.0185255131827791</v>
-      </c>
-      <c r="AA47" s="416">
-        <v>0.83053313744723845</v>
-      </c>
-      <c r="AB47" s="415">
-        <v>0.83142986193836166</v>
+      <c r="G47" s="280">
+        <v>4.5923715669783425</v>
+      </c>
+      <c r="H47" s="277">
+        <v>1.001444528540905</v>
+      </c>
+      <c r="I47" s="282">
+        <v>0.90609030842694083</v>
+      </c>
+      <c r="J47" s="287">
+        <v>1.1444753683164222E-2</v>
+      </c>
+      <c r="K47" s="282">
+        <v>6025473.5221382696</v>
+      </c>
+      <c r="L47" s="287">
+        <v>0.53165848172920782</v>
+      </c>
+      <c r="M47" s="282">
+        <v>0.11871324891291708</v>
+      </c>
+      <c r="N47" s="286">
+        <v>1.0030643174904303</v>
+      </c>
+      <c r="O47" s="280">
+        <v>3.9833442802668753</v>
+      </c>
+      <c r="P47" s="285">
+        <v>1.0032935444337989</v>
+      </c>
+      <c r="Q47" s="282">
+        <v>44.331536913878303</v>
+      </c>
+      <c r="R47" s="284">
+        <v>0.53628519665585805</v>
+      </c>
+      <c r="S47" s="280">
+        <v>82.936364975632188</v>
+      </c>
+      <c r="T47" s="279">
+        <v>1.0032935444418329</v>
+      </c>
+      <c r="U47" s="280">
+        <v>39043.527678987535</v>
+      </c>
+      <c r="V47" s="283">
+        <v>1.0030643174904306</v>
+      </c>
+      <c r="W47" s="282">
+        <v>3790.8074937926276</v>
+      </c>
+      <c r="X47" s="281">
+        <v>0.4920406223318099</v>
+      </c>
+      <c r="Y47" s="280">
+        <v>7913.1492993837137</v>
+      </c>
+      <c r="Z47" s="279">
+        <v>1.0271138569418168</v>
+      </c>
+      <c r="AA47" s="278">
+        <v>0.82430525625835604</v>
+      </c>
+      <c r="AB47" s="277">
+        <v>0.82513189969599443</v>
       </c>
     </row>
     <row r="48" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="Y48" s="517" t="s">
+      <c r="Y48" s="589" t="s">
         <v>380</v>
       </c>
-      <c r="Z48" s="517"/>
-      <c r="AA48" s="517"/>
-      <c r="AB48" s="517"/>
+      <c r="Z48" s="589"/>
+      <c r="AA48" s="589"/>
+      <c r="AB48" s="589"/>
     </row>
     <row r="49" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y49" s="414"/>
-      <c r="Z49" s="414"/>
-      <c r="AA49" s="414"/>
-      <c r="AB49" s="414"/>
+      <c r="Y49" s="590"/>
+      <c r="Z49" s="590"/>
+      <c r="AA49" s="590"/>
+      <c r="AB49" s="590"/>
     </row>
     <row r="50" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y50" s="414"/>
-      <c r="Z50" s="414"/>
-      <c r="AA50" s="414"/>
-      <c r="AB50" s="414"/>
+      <c r="Y50" s="590"/>
+      <c r="Z50" s="590"/>
+      <c r="AA50" s="590"/>
+      <c r="AB50" s="590"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -33087,11 +32454,15 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="F19:AB19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="Y48:AB50"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -33102,13 +32473,17 @@
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="O35:P35"/>
     <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="AA35:AB35"/>
     <mergeCell ref="W20:X20"/>
     <mergeCell ref="Y20:Z20"/>
     <mergeCell ref="AA20:AB20"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="F19:AB19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:J20"/>
@@ -33118,14 +32493,6 @@
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="S20:T20"/>
     <mergeCell ref="U20:V20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
@@ -33410,11 +32777,11 @@
   <sheetData>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="410" t="s">
+      <c r="B3" s="599" t="s">
         <v>371</v>
       </c>
-      <c r="C3" s="411"/>
-      <c r="D3" s="412"/>
+      <c r="C3" s="600"/>
+      <c r="D3" s="601"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="267"/>
@@ -33529,19 +32896,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="413" t="s">
+      <c r="A1" s="602" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="413"/>
-      <c r="C1" s="413"/>
-      <c r="D1" s="413"/>
+      <c r="B1" s="602"/>
+      <c r="C1" s="602"/>
+      <c r="D1" s="602"/>
       <c r="E1" s="245"/>
       <c r="F1" s="245"/>
-      <c r="G1" s="413" t="s">
+      <c r="G1" s="602" t="s">
         <v>336</v>
       </c>
-      <c r="H1" s="413"/>
-      <c r="I1" s="413"/>
+      <c r="H1" s="602"/>
+      <c r="I1" s="602"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="245"/>

--- a/scripts/Modelo_2sections.xlsx
+++ b/scripts/Modelo_2sections.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hr7o\Documents\Portable Git\ccp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hr7o\Documents\Portable Git\ccp\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4693,6 +4693,66 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="5" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4704,66 +4764,6 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="5" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6044,7 +6044,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6993,7 +6992,6 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7105,7 +7103,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7741,7 +7738,6 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17807,7 +17803,7 @@
   <dimension ref="A1:AX175"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24:V24"/>
+      <selection activeCell="T36" sqref="T36:V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19040,11 +19036,11 @@
       </c>
       <c r="X21" s="476"/>
       <c r="Y21" s="477"/>
-      <c r="Z21" s="447">
+      <c r="Z21" s="443">
         <v>282554</v>
       </c>
-      <c r="AA21" s="448"/>
-      <c r="AB21" s="449"/>
+      <c r="AA21" s="444"/>
+      <c r="AB21" s="445"/>
       <c r="AC21" s="478"/>
       <c r="AD21" s="479"/>
       <c r="AE21" s="480"/>
@@ -19150,22 +19146,22 @@
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
-      <c r="T23" s="447">
+      <c r="T23" s="443">
         <v>1.6995</v>
       </c>
-      <c r="U23" s="448"/>
-      <c r="V23" s="449"/>
+      <c r="U23" s="444"/>
+      <c r="V23" s="445"/>
       <c r="W23" s="388"/>
       <c r="X23" s="389"/>
       <c r="Y23" s="390"/>
-      <c r="Z23" s="447">
+      <c r="Z23" s="443">
         <v>3.4830000000000001</v>
       </c>
-      <c r="AA23" s="448"/>
-      <c r="AB23" s="449"/>
-      <c r="AC23" s="450"/>
-      <c r="AD23" s="451"/>
-      <c r="AE23" s="452"/>
+      <c r="AA23" s="444"/>
+      <c r="AB23" s="445"/>
+      <c r="AC23" s="446"/>
+      <c r="AD23" s="447"/>
+      <c r="AE23" s="448"/>
       <c r="AF23" s="44"/>
       <c r="AG23" s="44"/>
       <c r="AH23" s="44"/>
@@ -19213,24 +19209,24 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
-      <c r="T24" s="447">
+      <c r="T24" s="443">
         <v>-23.914999999999999</v>
       </c>
-      <c r="U24" s="448"/>
-      <c r="V24" s="449"/>
-      <c r="W24" s="447">
+      <c r="U24" s="444"/>
+      <c r="V24" s="445"/>
+      <c r="W24" s="443">
         <v>-1.1499999999999999</v>
       </c>
-      <c r="X24" s="448"/>
-      <c r="Y24" s="449"/>
-      <c r="Z24" s="447">
+      <c r="X24" s="444"/>
+      <c r="Y24" s="445"/>
+      <c r="Z24" s="443">
         <v>1.17</v>
       </c>
-      <c r="AA24" s="448"/>
-      <c r="AB24" s="449"/>
-      <c r="AC24" s="450"/>
-      <c r="AD24" s="451"/>
-      <c r="AE24" s="452"/>
+      <c r="AA24" s="444"/>
+      <c r="AB24" s="445"/>
+      <c r="AC24" s="446"/>
+      <c r="AD24" s="447"/>
+      <c r="AE24" s="448"/>
       <c r="AF24" s="44"/>
       <c r="AG24" s="44"/>
       <c r="AH24" s="44"/>
@@ -19417,9 +19413,9 @@
       <c r="Z27" s="388"/>
       <c r="AA27" s="389"/>
       <c r="AB27" s="390"/>
-      <c r="AC27" s="453"/>
-      <c r="AD27" s="454"/>
-      <c r="AE27" s="455"/>
+      <c r="AC27" s="449"/>
+      <c r="AD27" s="450"/>
+      <c r="AE27" s="451"/>
       <c r="AF27" s="44"/>
       <c r="AG27" s="44"/>
       <c r="AH27" s="44"/>
@@ -19534,22 +19530,22 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
-      <c r="T29" s="456">
+      <c r="T29" s="452">
         <v>14614</v>
       </c>
-      <c r="U29" s="457"/>
-      <c r="V29" s="458"/>
-      <c r="W29" s="456"/>
-      <c r="X29" s="457"/>
-      <c r="Y29" s="458"/>
-      <c r="Z29" s="459">
+      <c r="U29" s="453"/>
+      <c r="V29" s="454"/>
+      <c r="W29" s="452"/>
+      <c r="X29" s="453"/>
+      <c r="Y29" s="454"/>
+      <c r="Z29" s="455">
         <v>39350</v>
       </c>
-      <c r="AA29" s="460"/>
-      <c r="AB29" s="461"/>
-      <c r="AC29" s="450"/>
-      <c r="AD29" s="451"/>
-      <c r="AE29" s="452"/>
+      <c r="AA29" s="456"/>
+      <c r="AB29" s="457"/>
+      <c r="AC29" s="446"/>
+      <c r="AD29" s="447"/>
+      <c r="AE29" s="448"/>
       <c r="AF29" s="44"/>
       <c r="AG29" s="44"/>
       <c r="AH29" s="44"/>
@@ -19664,23 +19660,23 @@
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
-      <c r="T31" s="447">
+      <c r="T31" s="443">
         <f>Z23</f>
         <v>3.4830000000000001</v>
       </c>
-      <c r="U31" s="448"/>
-      <c r="V31" s="449"/>
+      <c r="U31" s="444"/>
+      <c r="V31" s="445"/>
       <c r="W31" s="424"/>
       <c r="X31" s="425"/>
       <c r="Y31" s="426"/>
-      <c r="Z31" s="447">
+      <c r="Z31" s="443">
         <v>17.527999999999999</v>
       </c>
-      <c r="AA31" s="448"/>
-      <c r="AB31" s="449"/>
-      <c r="AC31" s="450"/>
-      <c r="AD31" s="451"/>
-      <c r="AE31" s="452"/>
+      <c r="AA31" s="444"/>
+      <c r="AB31" s="445"/>
+      <c r="AC31" s="446"/>
+      <c r="AD31" s="447"/>
+      <c r="AE31" s="448"/>
       <c r="AF31" s="45"/>
       <c r="AG31" s="44"/>
       <c r="AH31" s="44"/>
@@ -19726,22 +19722,22 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
-      <c r="T32" s="447">
+      <c r="T32" s="443">
         <v>10.44</v>
       </c>
-      <c r="U32" s="448"/>
-      <c r="V32" s="449"/>
+      <c r="U32" s="444"/>
+      <c r="V32" s="445"/>
       <c r="W32" s="424"/>
       <c r="X32" s="425"/>
       <c r="Y32" s="426"/>
-      <c r="Z32" s="447">
+      <c r="Z32" s="443">
         <v>75.44</v>
       </c>
-      <c r="AA32" s="448"/>
-      <c r="AB32" s="449"/>
-      <c r="AC32" s="450"/>
-      <c r="AD32" s="451"/>
-      <c r="AE32" s="452"/>
+      <c r="AA32" s="444"/>
+      <c r="AB32" s="445"/>
+      <c r="AC32" s="446"/>
+      <c r="AD32" s="447"/>
+      <c r="AE32" s="448"/>
       <c r="AF32" s="45"/>
       <c r="AG32" s="44"/>
       <c r="AH32" s="44"/>
@@ -19932,9 +19928,9 @@
       <c r="Z35" s="388"/>
       <c r="AA35" s="389"/>
       <c r="AB35" s="389"/>
-      <c r="AC35" s="450"/>
-      <c r="AD35" s="451"/>
-      <c r="AE35" s="452"/>
+      <c r="AC35" s="446"/>
+      <c r="AD35" s="447"/>
+      <c r="AE35" s="448"/>
       <c r="AF35" s="12"/>
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
@@ -19986,19 +19982,19 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
-      <c r="T36" s="447">
+      <c r="T36" s="443">
         <v>636</v>
       </c>
-      <c r="U36" s="448"/>
-      <c r="V36" s="449"/>
+      <c r="U36" s="444"/>
+      <c r="V36" s="445"/>
       <c r="W36" s="389"/>
       <c r="X36" s="389"/>
       <c r="Y36" s="389"/>
-      <c r="Z36" s="447">
+      <c r="Z36" s="443">
         <v>7718</v>
       </c>
-      <c r="AA36" s="448"/>
-      <c r="AB36" s="449"/>
+      <c r="AA36" s="444"/>
+      <c r="AB36" s="445"/>
       <c r="AC36" s="53"/>
       <c r="AD36" s="48"/>
       <c r="AE36" s="48"/>
@@ -20114,17 +20110,17 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
-      <c r="T38" s="447">
+      <c r="T38" s="443">
         <v>5162</v>
       </c>
-      <c r="U38" s="448"/>
-      <c r="V38" s="448"/>
-      <c r="W38" s="448"/>
-      <c r="X38" s="448"/>
-      <c r="Y38" s="448"/>
-      <c r="Z38" s="448"/>
-      <c r="AA38" s="448"/>
-      <c r="AB38" s="449"/>
+      <c r="U38" s="444"/>
+      <c r="V38" s="444"/>
+      <c r="W38" s="444"/>
+      <c r="X38" s="444"/>
+      <c r="Y38" s="444"/>
+      <c r="Z38" s="444"/>
+      <c r="AA38" s="444"/>
+      <c r="AB38" s="445"/>
       <c r="AC38" s="48"/>
       <c r="AD38" s="48"/>
       <c r="AE38" s="49"/>
@@ -20234,22 +20230,22 @@
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
-      <c r="T40" s="447">
+      <c r="T40" s="443">
         <v>34550</v>
       </c>
-      <c r="U40" s="448"/>
-      <c r="V40" s="449"/>
+      <c r="U40" s="444"/>
+      <c r="V40" s="445"/>
       <c r="W40" s="389"/>
       <c r="X40" s="389"/>
       <c r="Y40" s="389"/>
-      <c r="Z40" s="447">
+      <c r="Z40" s="443">
         <v>83420</v>
       </c>
-      <c r="AA40" s="448"/>
-      <c r="AB40" s="449"/>
-      <c r="AC40" s="450"/>
-      <c r="AD40" s="451"/>
-      <c r="AE40" s="452"/>
+      <c r="AA40" s="444"/>
+      <c r="AB40" s="445"/>
+      <c r="AC40" s="446"/>
+      <c r="AD40" s="447"/>
+      <c r="AE40" s="448"/>
       <c r="AF40" s="44"/>
       <c r="AG40" s="44"/>
       <c r="AH40" s="44"/>
@@ -20314,9 +20310,9 @@
       </c>
       <c r="AA41" s="496"/>
       <c r="AB41" s="497"/>
-      <c r="AC41" s="450"/>
-      <c r="AD41" s="451"/>
-      <c r="AE41" s="452"/>
+      <c r="AC41" s="446"/>
+      <c r="AD41" s="447"/>
+      <c r="AE41" s="448"/>
       <c r="AF41" s="44"/>
       <c r="AG41" s="44"/>
       <c r="AH41" s="44"/>
@@ -21640,27 +21636,27 @@
       </c>
       <c r="U61" s="75"/>
       <c r="V61" s="75"/>
-      <c r="W61" s="438">
+      <c r="W61" s="458">
         <v>0</v>
       </c>
-      <c r="X61" s="438"/>
-      <c r="Y61" s="438"/>
-      <c r="Z61" s="438"/>
-      <c r="AA61" s="438"/>
+      <c r="X61" s="458"/>
+      <c r="Y61" s="458"/>
+      <c r="Z61" s="458"/>
+      <c r="AA61" s="458"/>
       <c r="AB61" s="76" t="s">
         <v>2</v>
       </c>
       <c r="AC61" s="76"/>
       <c r="AD61" s="76"/>
-      <c r="AE61" s="438" t="s">
+      <c r="AE61" s="458" t="s">
         <v>82</v>
       </c>
-      <c r="AF61" s="438"/>
-      <c r="AG61" s="438"/>
-      <c r="AH61" s="438"/>
-      <c r="AI61" s="438"/>
-      <c r="AJ61" s="438"/>
-      <c r="AK61" s="438"/>
+      <c r="AF61" s="458"/>
+      <c r="AG61" s="458"/>
+      <c r="AH61" s="458"/>
+      <c r="AI61" s="458"/>
+      <c r="AJ61" s="458"/>
+      <c r="AK61" s="458"/>
       <c r="AL61" s="10"/>
       <c r="AM61" s="74"/>
       <c r="AN61" s="10"/>
@@ -21703,26 +21699,26 @@
       <c r="U62" s="75"/>
       <c r="V62" s="75"/>
       <c r="W62" s="76"/>
-      <c r="X62" s="439" t="s">
+      <c r="X62" s="459" t="s">
         <v>82</v>
       </c>
-      <c r="Y62" s="439"/>
-      <c r="Z62" s="439"/>
-      <c r="AA62" s="439"/>
+      <c r="Y62" s="459"/>
+      <c r="Z62" s="459"/>
+      <c r="AA62" s="459"/>
       <c r="AB62" s="81" t="s">
         <v>7</v>
       </c>
       <c r="AC62" s="81"/>
-      <c r="AD62" s="438" t="s">
+      <c r="AD62" s="458" t="s">
         <v>82</v>
       </c>
-      <c r="AE62" s="438"/>
-      <c r="AF62" s="438"/>
-      <c r="AG62" s="438"/>
-      <c r="AH62" s="438"/>
-      <c r="AI62" s="438"/>
-      <c r="AJ62" s="438"/>
-      <c r="AK62" s="438"/>
+      <c r="AE62" s="458"/>
+      <c r="AF62" s="458"/>
+      <c r="AG62" s="458"/>
+      <c r="AH62" s="458"/>
+      <c r="AI62" s="458"/>
+      <c r="AJ62" s="458"/>
+      <c r="AK62" s="458"/>
       <c r="AL62" s="10"/>
       <c r="AM62" s="74"/>
       <c r="AN62" s="10"/>
@@ -21939,14 +21935,14 @@
       <c r="H66" s="71"/>
       <c r="I66" s="71"/>
       <c r="J66" s="71"/>
-      <c r="K66" s="440" t="s">
+      <c r="K66" s="460" t="s">
         <v>87</v>
       </c>
-      <c r="L66" s="441"/>
-      <c r="M66" s="441"/>
-      <c r="N66" s="441"/>
-      <c r="O66" s="441"/>
-      <c r="P66" s="441"/>
+      <c r="L66" s="461"/>
+      <c r="M66" s="461"/>
+      <c r="N66" s="461"/>
+      <c r="O66" s="461"/>
+      <c r="P66" s="461"/>
       <c r="Q66" s="203" t="s">
         <v>88</v>
       </c>
@@ -22000,22 +21996,22 @@
       <c r="H67" s="96"/>
       <c r="I67" s="96"/>
       <c r="J67" s="96"/>
-      <c r="K67" s="444" t="s">
+      <c r="K67" s="440" t="s">
         <v>35</v>
       </c>
-      <c r="L67" s="445"/>
-      <c r="M67" s="446"/>
-      <c r="N67" s="444" t="s">
+      <c r="L67" s="441"/>
+      <c r="M67" s="442"/>
+      <c r="N67" s="440" t="s">
         <v>346</v>
       </c>
-      <c r="O67" s="445"/>
-      <c r="P67" s="446"/>
-      <c r="Q67" s="444" t="s">
+      <c r="O67" s="441"/>
+      <c r="P67" s="442"/>
+      <c r="Q67" s="440" t="s">
         <v>357</v>
       </c>
-      <c r="R67" s="445"/>
-      <c r="S67" s="445"/>
-      <c r="T67" s="446"/>
+      <c r="R67" s="441"/>
+      <c r="S67" s="441"/>
+      <c r="T67" s="442"/>
       <c r="U67" s="97"/>
       <c r="V67" s="98" t="s">
         <v>90</v>
@@ -22031,17 +22027,17 @@
         <v>92</v>
       </c>
       <c r="AC67" s="99"/>
-      <c r="AD67" s="442" t="s">
+      <c r="AD67" s="438" t="s">
         <v>93</v>
       </c>
-      <c r="AE67" s="443"/>
-      <c r="AF67" s="443"/>
-      <c r="AG67" s="443"/>
-      <c r="AH67" s="443"/>
-      <c r="AI67" s="443"/>
-      <c r="AJ67" s="443"/>
-      <c r="AK67" s="443"/>
-      <c r="AL67" s="443"/>
+      <c r="AE67" s="439"/>
+      <c r="AF67" s="439"/>
+      <c r="AG67" s="439"/>
+      <c r="AH67" s="439"/>
+      <c r="AI67" s="439"/>
+      <c r="AJ67" s="439"/>
+      <c r="AK67" s="439"/>
+      <c r="AL67" s="439"/>
       <c r="AM67" s="100"/>
       <c r="AN67" s="9"/>
       <c r="AO67" s="9"/>
@@ -28687,6 +28683,11 @@
     <mergeCell ref="T21:V21"/>
     <mergeCell ref="Z21:AB21"/>
     <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="W61:AA61"/>
+    <mergeCell ref="AE61:AK61"/>
+    <mergeCell ref="X62:AA62"/>
+    <mergeCell ref="AD62:AK62"/>
+    <mergeCell ref="K66:P66"/>
     <mergeCell ref="T23:V23"/>
     <mergeCell ref="Z23:AB23"/>
     <mergeCell ref="AC23:AE23"/>
@@ -28696,11 +28697,6 @@
     <mergeCell ref="AC17:AE17"/>
     <mergeCell ref="W20:Y20"/>
     <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="N70:P70"/>
     <mergeCell ref="T24:V24"/>
     <mergeCell ref="Z24:AB24"/>
     <mergeCell ref="AC24:AE24"/>
@@ -28715,11 +28711,6 @@
     <mergeCell ref="T32:V32"/>
     <mergeCell ref="Z32:AB32"/>
     <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="W61:AA61"/>
-    <mergeCell ref="AE61:AK61"/>
-    <mergeCell ref="X62:AA62"/>
-    <mergeCell ref="AD62:AK62"/>
-    <mergeCell ref="K66:P66"/>
     <mergeCell ref="AD67:AL67"/>
     <mergeCell ref="K76:M76"/>
     <mergeCell ref="N76:P76"/>
@@ -28739,6 +28730,11 @@
     <mergeCell ref="N67:P67"/>
     <mergeCell ref="Q67:T67"/>
     <mergeCell ref="B69:G69"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="N70:P70"/>
     <mergeCell ref="X119:AA119"/>
     <mergeCell ref="AD119:AK119"/>
     <mergeCell ref="AH155:AK155"/>
@@ -30032,10 +30028,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AG50"/>
+  <dimension ref="B2:AB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U57" sqref="U57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30058,8 +30054,8 @@
     <col min="28" max="28" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="512" t="s">
         <v>296</v>
       </c>
@@ -30096,7 +30092,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="514" t="s">
         <v>359</v>
       </c>
@@ -30127,7 +30123,7 @@
       <c r="T4" s="535"/>
       <c r="U4" s="595"/>
     </row>
-    <row r="5" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="514" t="s">
         <v>319</v>
       </c>
@@ -30174,7 +30170,7 @@
       </c>
       <c r="S5" s="592"/>
     </row>
-    <row r="6" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="514" t="s">
         <v>96</v>
       </c>
@@ -30221,7 +30217,7 @@
       </c>
       <c r="S6" s="593"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="514" t="s">
         <v>97</v>
       </c>
@@ -30271,41 +30267,8 @@
       <c r="S7" s="381">
         <v>1.196678766955152</v>
       </c>
-      <c r="W7">
-        <v>21002.326409887686</v>
-      </c>
-      <c r="X7">
-        <v>6000</v>
-      </c>
-      <c r="Y7">
-        <v>88</v>
-      </c>
-      <c r="Z7">
-        <v>40</v>
-      </c>
-      <c r="AA7">
-        <v>224</v>
-      </c>
-      <c r="AB7">
-        <v>78</v>
-      </c>
-      <c r="AC7">
-        <v>116672.5292608053</v>
-      </c>
-      <c r="AD7">
-        <v>12847.158290277126</v>
-      </c>
-      <c r="AE7">
-        <v>40</v>
-      </c>
-      <c r="AF7">
-        <v>1500</v>
-      </c>
-      <c r="AG7">
-        <v>125</v>
-      </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="514" t="s">
         <v>98</v>
       </c>
@@ -30355,41 +30318,8 @@
       <c r="S8" s="380">
         <v>1.1456757934618682</v>
       </c>
-      <c r="W8">
-        <v>29619.8226853753</v>
-      </c>
-      <c r="X8">
-        <v>8000</v>
-      </c>
-      <c r="Y8">
-        <v>93</v>
-      </c>
-      <c r="Z8">
-        <v>40</v>
-      </c>
-      <c r="AA8">
-        <v>224</v>
-      </c>
-      <c r="AB8">
-        <v>74</v>
-      </c>
-      <c r="AC8">
-        <v>155563.3723477404</v>
-      </c>
-      <c r="AD8">
-        <v>17129.544387036167</v>
-      </c>
-      <c r="AE8">
-        <v>40</v>
-      </c>
-      <c r="AF8">
-        <v>1360</v>
-      </c>
-      <c r="AG8">
-        <v>120</v>
-      </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="514" t="s">
         <v>99</v>
       </c>
@@ -30439,41 +30369,8 @@
       <c r="S9" s="270">
         <v>1.0897330679057786</v>
       </c>
-      <c r="W9">
-        <v>35144.307786208119</v>
-      </c>
-      <c r="X9">
-        <v>9000</v>
-      </c>
-      <c r="Y9">
-        <v>98</v>
-      </c>
-      <c r="Z9">
-        <v>40</v>
-      </c>
-      <c r="AA9">
-        <v>224</v>
-      </c>
-      <c r="AB9">
-        <v>73</v>
-      </c>
-      <c r="AC9">
-        <v>175008.79389120796</v>
-      </c>
-      <c r="AD9">
-        <v>19270.737435415689</v>
-      </c>
-      <c r="AE9">
-        <v>40</v>
-      </c>
-      <c r="AF9">
-        <v>1260</v>
-      </c>
-      <c r="AG9">
-        <v>115</v>
-      </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="514" t="s">
         <v>100</v>
       </c>
@@ -30523,41 +30420,8 @@
       <c r="S10" s="270">
         <v>1.0190879189227857</v>
       </c>
-      <c r="W10">
-        <v>41889.463107497941</v>
-      </c>
-      <c r="X10">
-        <v>10000</v>
-      </c>
-      <c r="Y10">
-        <v>105</v>
-      </c>
-      <c r="Z10">
-        <v>40</v>
-      </c>
-      <c r="AA10">
-        <v>224</v>
-      </c>
-      <c r="AB10">
-        <v>72</v>
-      </c>
-      <c r="AC10">
-        <v>194454.21543467548</v>
-      </c>
-      <c r="AD10">
-        <v>21411.930483795208</v>
-      </c>
-      <c r="AE10">
-        <v>40</v>
-      </c>
-      <c r="AF10">
-        <v>1150</v>
-      </c>
-      <c r="AG10">
-        <v>112</v>
-      </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="514" t="s">
         <v>102</v>
       </c>
@@ -30607,41 +30471,8 @@
       <c r="S11" s="270">
         <v>0.97362491092613601</v>
       </c>
-      <c r="W11">
-        <v>46755.510190508096</v>
-      </c>
-      <c r="X11">
-        <v>10645</v>
-      </c>
-      <c r="Y11">
-        <v>110</v>
-      </c>
-      <c r="Z11">
-        <v>40</v>
-      </c>
-      <c r="AA11">
-        <v>224</v>
-      </c>
-      <c r="AB11">
-        <v>71.450773994121278</v>
-      </c>
-      <c r="AC11">
-        <v>206996.51233021205</v>
-      </c>
-      <c r="AD11">
-        <v>22793</v>
-      </c>
-      <c r="AE11">
-        <v>40</v>
-      </c>
-      <c r="AF11">
-        <v>1159</v>
-      </c>
-      <c r="AG11">
-        <v>112.41819933258614</v>
-      </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="514" t="s">
         <v>295</v>
       </c>
@@ -30691,41 +30522,8 @@
       <c r="S12" s="270">
         <v>0.80217780579342823</v>
       </c>
-      <c r="W12">
-        <v>69851.180978331904</v>
-      </c>
-      <c r="X12">
-        <v>13000</v>
-      </c>
-      <c r="Y12">
-        <v>134</v>
-      </c>
-      <c r="Z12">
-        <v>40</v>
-      </c>
-      <c r="AA12">
-        <v>224</v>
-      </c>
-      <c r="AB12">
-        <v>69</v>
-      </c>
-      <c r="AC12">
-        <v>252790.48006507813</v>
-      </c>
-      <c r="AD12">
-        <v>27835.509628933771</v>
-      </c>
-      <c r="AE12">
-        <v>40</v>
-      </c>
-      <c r="AF12">
-        <v>980</v>
-      </c>
-      <c r="AG12">
-        <v>110</v>
-      </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="514" t="s">
         <v>104</v>
       </c>
@@ -30750,7 +30548,7 @@
       <c r="R13" s="376"/>
       <c r="S13" s="270"/>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="514" t="s">
         <v>105</v>
       </c>
@@ -30775,7 +30573,7 @@
       <c r="R14" s="376"/>
       <c r="S14" s="270"/>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="514" t="s">
         <v>106</v>
       </c>
@@ -30800,7 +30598,7 @@
       <c r="R15" s="376"/>
       <c r="S15" s="270"/>
     </row>
-    <row r="16" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="514" t="s">
         <v>107</v>
       </c>

--- a/scripts/Modelo_2sections.xlsx
+++ b/scripts/Modelo_2sections.xlsx
@@ -3653,7 +3653,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="603">
+  <cellXfs count="605">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -4516,12 +4516,6 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="73" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4609,6 +4603,14 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="73" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="73" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="74" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="22" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4708,6 +4710,18 @@
     <xf numFmtId="164" fontId="11" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4726,6 +4740,33 @@
     <xf numFmtId="165" fontId="5" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4751,45 +4792,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5198,7 +5200,505 @@
     <cellStyle name="Percent 2" xfId="4"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="133">
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF89C064"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF89C064"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF89C064"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF89C064"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF89C064"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF89C064"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF89C064"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -7844,7 +8344,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7935,7 +8434,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>36</c:v>
@@ -7994,13 +8493,13 @@
                   <c:v>10942.236354001061</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0000">
-                  <c:v>12310.015898251193</c:v>
+                  <c:v>12310.015898251195</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13677.795442501325</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14560.013248542662</c:v>
+                  <c:v>14361.685214626392</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>17781.134075251724</c:v>
@@ -8015,22 +8514,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>46.355981549470854</c:v>
+                  <c:v>42.10491468821408</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.313944761655122</c:v>
+                  <c:v>39.769778637710971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.647233387074962</c:v>
+                  <c:v>37.484246467377005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.168454641133863</c:v>
+                  <c:v>34.843346620601622</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.837972022367701</c:v>
+                  <c:v>33.464420776421072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.010909680914001</c:v>
+                  <c:v>24.100008989407826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8100,7 +8599,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8219,7 +8717,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8300,7 +8797,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8407,7 +8903,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8557,13 +9052,13 @@
                   <c:v>10942.236354001061</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0000">
-                  <c:v>12310.015898251193</c:v>
+                  <c:v>12310.015898251195</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13677.795442501325</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14560.013248542662</c:v>
+                  <c:v>14361.685214626392</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>17781.134075251724</c:v>
@@ -8578,22 +9073,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.75788661772600119</c:v>
+                  <c:v>0.7056731612812156</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79820614941859303</c:v>
+                  <c:v>0.75393349234841445</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77192053655525172</c:v>
+                  <c:v>0.73309328068200297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72987067759020041</c:v>
+                  <c:v>0.70605330835331781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69541791203235404</c:v>
+                  <c:v>0.68912072120134127</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53510999836265705</c:v>
+                  <c:v>0.53444351606358975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8663,7 +9158,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8783,7 +9277,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8864,7 +9357,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9706,7 +10198,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.44637446368722089</c:v>
+                  <c:v>0.45740650535804456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9791,7 +10283,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.53165848172920782</c:v>
+                  <c:v>0.5221900841314796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10443,7 +10935,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-1.319238045961884E-2</c:v>
+                  <c:v>-1.2915032163883861E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10504,7 +10996,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.1444753683164222E-2</c:v>
+                  <c:v>1.115053980036107E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10739,7 +11231,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10883,22 +11374,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>21185.725147654979</c:v>
+                  <c:v>21494.671999772527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28457.464822590493</c:v>
+                  <c:v>28812.841225219905</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0000">
-                  <c:v>32303.580994872405</c:v>
+                  <c:v>32675.918392549538</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36349.063051104917</c:v>
+                  <c:v>36922.339397637901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39043.527678987535</c:v>
+                  <c:v>39128.778541153421</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49727.953784184305</c:v>
+                  <c:v>49905.329232838922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10910,22 +11401,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>96.983717484823288</c:v>
+                  <c:v>91.893492704076337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.529837321335748</c:v>
+                  <c:v>90.433604979483519</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.174516169669687</c:v>
+                  <c:v>88.136056933272016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.492187030000906</c:v>
+                  <c:v>85.320523350503549</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.936364975632188</c:v>
+                  <c:v>83.78120072444959</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.764072326851988</c:v>
+                  <c:v>72.147462385695817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10995,7 +11486,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11114,7 +11604,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11195,7 +11684,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11302,7 +11790,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11446,22 +11933,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>21185.725147654979</c:v>
+                  <c:v>21494.671999772527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28457.464822590493</c:v>
+                  <c:v>28812.841225219905</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0000">
-                  <c:v>32303.580994872405</c:v>
+                  <c:v>32675.918392549538</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36349.063051104917</c:v>
+                  <c:v>36922.339397637901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39043.527678987535</c:v>
+                  <c:v>39128.778541153421</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49727.953784184305</c:v>
+                  <c:v>49905.329232838922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11473,22 +11960,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.81121761804443038</c:v>
+                  <c:v>0.7641962163031073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81295219730013824</c:v>
+                  <c:v>0.82899347513665866</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83607600158445594</c:v>
+                  <c:v>0.84795263393430254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82356963661471561</c:v>
+                  <c:v>0.86092848818878742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82513189969599443</c:v>
+                  <c:v>0.83256645225504111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75874652727784098</c:v>
+                  <c:v>0.72145108693428051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11558,7 +12045,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11678,7 +12164,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11759,7 +12244,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17802,8 +18286,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AX175"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36:V36"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AQ43" sqref="AQ43:AR43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18022,14 +18506,14 @@
         <v>7</v>
       </c>
       <c r="AC4" s="22"/>
-      <c r="AD4" s="471"/>
-      <c r="AE4" s="471"/>
-      <c r="AF4" s="471"/>
-      <c r="AG4" s="471"/>
-      <c r="AH4" s="471"/>
-      <c r="AI4" s="471"/>
-      <c r="AJ4" s="471"/>
-      <c r="AK4" s="471"/>
+      <c r="AD4" s="473"/>
+      <c r="AE4" s="473"/>
+      <c r="AF4" s="473"/>
+      <c r="AG4" s="473"/>
+      <c r="AH4" s="473"/>
+      <c r="AI4" s="473"/>
+      <c r="AJ4" s="473"/>
+      <c r="AK4" s="473"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="20"/>
       <c r="AN4" s="10"/>
@@ -18242,22 +18726,22 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="32"/>
-      <c r="E8" s="472"/>
-      <c r="F8" s="472"/>
-      <c r="G8" s="472"/>
-      <c r="H8" s="472"/>
-      <c r="I8" s="472"/>
-      <c r="J8" s="472"/>
-      <c r="K8" s="472"/>
-      <c r="L8" s="472"/>
-      <c r="M8" s="472"/>
-      <c r="N8" s="472"/>
-      <c r="O8" s="472"/>
-      <c r="P8" s="472"/>
-      <c r="Q8" s="472"/>
-      <c r="R8" s="472"/>
-      <c r="S8" s="472"/>
-      <c r="T8" s="472"/>
+      <c r="E8" s="474"/>
+      <c r="F8" s="474"/>
+      <c r="G8" s="474"/>
+      <c r="H8" s="474"/>
+      <c r="I8" s="474"/>
+      <c r="J8" s="474"/>
+      <c r="K8" s="474"/>
+      <c r="L8" s="474"/>
+      <c r="M8" s="474"/>
+      <c r="N8" s="474"/>
+      <c r="O8" s="474"/>
+      <c r="P8" s="474"/>
+      <c r="Q8" s="474"/>
+      <c r="R8" s="474"/>
+      <c r="S8" s="474"/>
+      <c r="T8" s="474"/>
       <c r="U8" s="32"/>
       <c r="V8" s="13" t="s">
         <v>18</v>
@@ -18301,22 +18785,22 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="471"/>
-      <c r="F9" s="471"/>
-      <c r="G9" s="471"/>
-      <c r="H9" s="471"/>
-      <c r="I9" s="471"/>
-      <c r="J9" s="471"/>
-      <c r="K9" s="471"/>
-      <c r="L9" s="471"/>
-      <c r="M9" s="471"/>
-      <c r="N9" s="471"/>
-      <c r="O9" s="471"/>
-      <c r="P9" s="471"/>
-      <c r="Q9" s="471"/>
-      <c r="R9" s="471"/>
-      <c r="S9" s="471"/>
-      <c r="T9" s="471"/>
+      <c r="E9" s="473"/>
+      <c r="F9" s="473"/>
+      <c r="G9" s="473"/>
+      <c r="H9" s="473"/>
+      <c r="I9" s="473"/>
+      <c r="J9" s="473"/>
+      <c r="K9" s="473"/>
+      <c r="L9" s="473"/>
+      <c r="M9" s="473"/>
+      <c r="N9" s="473"/>
+      <c r="O9" s="473"/>
+      <c r="P9" s="473"/>
+      <c r="Q9" s="473"/>
+      <c r="R9" s="473"/>
+      <c r="S9" s="473"/>
+      <c r="T9" s="473"/>
       <c r="U9" s="12"/>
       <c r="V9" s="13" t="s">
         <v>20</v>
@@ -18360,22 +18844,22 @@
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="471"/>
-      <c r="F10" s="471"/>
-      <c r="G10" s="471"/>
-      <c r="H10" s="471"/>
-      <c r="I10" s="471"/>
-      <c r="J10" s="471"/>
-      <c r="K10" s="471"/>
-      <c r="L10" s="471"/>
-      <c r="M10" s="471"/>
-      <c r="N10" s="471"/>
-      <c r="O10" s="471"/>
-      <c r="P10" s="471"/>
-      <c r="Q10" s="471"/>
-      <c r="R10" s="471"/>
-      <c r="S10" s="471"/>
-      <c r="T10" s="471"/>
+      <c r="E10" s="473"/>
+      <c r="F10" s="473"/>
+      <c r="G10" s="473"/>
+      <c r="H10" s="473"/>
+      <c r="I10" s="473"/>
+      <c r="J10" s="473"/>
+      <c r="K10" s="473"/>
+      <c r="L10" s="473"/>
+      <c r="M10" s="473"/>
+      <c r="N10" s="473"/>
+      <c r="O10" s="473"/>
+      <c r="P10" s="473"/>
+      <c r="Q10" s="473"/>
+      <c r="R10" s="473"/>
+      <c r="S10" s="473"/>
+      <c r="T10" s="473"/>
       <c r="U10" s="12"/>
       <c r="V10" s="13" t="s">
         <v>22</v>
@@ -18650,46 +19134,46 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="462" t="s">
+      <c r="B15" s="455" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="463"/>
-      <c r="D15" s="463"/>
-      <c r="E15" s="463"/>
-      <c r="F15" s="463"/>
-      <c r="G15" s="463"/>
-      <c r="H15" s="463"/>
-      <c r="I15" s="463"/>
-      <c r="J15" s="463"/>
-      <c r="K15" s="463"/>
-      <c r="L15" s="463"/>
-      <c r="M15" s="463"/>
-      <c r="N15" s="463"/>
-      <c r="O15" s="463"/>
-      <c r="P15" s="463"/>
-      <c r="Q15" s="463"/>
-      <c r="R15" s="463"/>
-      <c r="S15" s="463"/>
-      <c r="T15" s="463"/>
-      <c r="U15" s="463"/>
-      <c r="V15" s="463"/>
-      <c r="W15" s="463"/>
-      <c r="X15" s="463"/>
-      <c r="Y15" s="463"/>
-      <c r="Z15" s="463"/>
-      <c r="AA15" s="463"/>
-      <c r="AB15" s="463"/>
-      <c r="AC15" s="463"/>
-      <c r="AD15" s="463"/>
-      <c r="AE15" s="463"/>
-      <c r="AF15" s="463"/>
-      <c r="AG15" s="463"/>
-      <c r="AH15" s="463"/>
-      <c r="AI15" s="463"/>
-      <c r="AJ15" s="463"/>
-      <c r="AK15" s="463"/>
-      <c r="AL15" s="463"/>
-      <c r="AM15" s="464"/>
+      <c r="C15" s="456"/>
+      <c r="D15" s="456"/>
+      <c r="E15" s="456"/>
+      <c r="F15" s="456"/>
+      <c r="G15" s="456"/>
+      <c r="H15" s="456"/>
+      <c r="I15" s="456"/>
+      <c r="J15" s="456"/>
+      <c r="K15" s="456"/>
+      <c r="L15" s="456"/>
+      <c r="M15" s="456"/>
+      <c r="N15" s="456"/>
+      <c r="O15" s="456"/>
+      <c r="P15" s="456"/>
+      <c r="Q15" s="456"/>
+      <c r="R15" s="456"/>
+      <c r="S15" s="456"/>
+      <c r="T15" s="456"/>
+      <c r="U15" s="456"/>
+      <c r="V15" s="456"/>
+      <c r="W15" s="456"/>
+      <c r="X15" s="456"/>
+      <c r="Y15" s="456"/>
+      <c r="Z15" s="456"/>
+      <c r="AA15" s="456"/>
+      <c r="AB15" s="456"/>
+      <c r="AC15" s="456"/>
+      <c r="AD15" s="456"/>
+      <c r="AE15" s="456"/>
+      <c r="AF15" s="456"/>
+      <c r="AG15" s="456"/>
+      <c r="AH15" s="456"/>
+      <c r="AI15" s="456"/>
+      <c r="AJ15" s="456"/>
+      <c r="AK15" s="456"/>
+      <c r="AL15" s="456"/>
+      <c r="AM15" s="457"/>
       <c r="AN15" s="10"/>
       <c r="AO15" s="9"/>
       <c r="AP15" s="9"/>
@@ -18707,50 +19191,50 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="473" t="s">
+      <c r="B16" s="475" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="474"/>
-      <c r="D16" s="474"/>
-      <c r="E16" s="474"/>
-      <c r="F16" s="474"/>
-      <c r="G16" s="474"/>
-      <c r="H16" s="474"/>
-      <c r="I16" s="474"/>
-      <c r="J16" s="474"/>
-      <c r="K16" s="474"/>
-      <c r="L16" s="474"/>
-      <c r="M16" s="474"/>
-      <c r="N16" s="474"/>
-      <c r="O16" s="474"/>
-      <c r="P16" s="474"/>
-      <c r="Q16" s="474"/>
-      <c r="R16" s="474"/>
+      <c r="C16" s="476"/>
+      <c r="D16" s="476"/>
+      <c r="E16" s="476"/>
+      <c r="F16" s="476"/>
+      <c r="G16" s="476"/>
+      <c r="H16" s="476"/>
+      <c r="I16" s="476"/>
+      <c r="J16" s="476"/>
+      <c r="K16" s="476"/>
+      <c r="L16" s="476"/>
+      <c r="M16" s="476"/>
+      <c r="N16" s="476"/>
+      <c r="O16" s="476"/>
+      <c r="P16" s="476"/>
+      <c r="Q16" s="476"/>
+      <c r="R16" s="476"/>
       <c r="S16" s="13"/>
-      <c r="T16" s="462" t="s">
+      <c r="T16" s="455" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="463"/>
-      <c r="V16" s="463"/>
-      <c r="W16" s="463"/>
-      <c r="X16" s="463"/>
-      <c r="Y16" s="464"/>
-      <c r="Z16" s="462" t="s">
+      <c r="U16" s="456"/>
+      <c r="V16" s="456"/>
+      <c r="W16" s="456"/>
+      <c r="X16" s="456"/>
+      <c r="Y16" s="457"/>
+      <c r="Z16" s="455" t="s">
         <v>34</v>
       </c>
-      <c r="AA16" s="463"/>
-      <c r="AB16" s="463"/>
-      <c r="AC16" s="463"/>
-      <c r="AD16" s="463"/>
-      <c r="AE16" s="463"/>
-      <c r="AF16" s="463"/>
-      <c r="AG16" s="463"/>
-      <c r="AH16" s="463"/>
-      <c r="AI16" s="463"/>
-      <c r="AJ16" s="463"/>
-      <c r="AK16" s="463"/>
-      <c r="AL16" s="463"/>
-      <c r="AM16" s="464"/>
+      <c r="AA16" s="456"/>
+      <c r="AB16" s="456"/>
+      <c r="AC16" s="456"/>
+      <c r="AD16" s="456"/>
+      <c r="AE16" s="456"/>
+      <c r="AF16" s="456"/>
+      <c r="AG16" s="456"/>
+      <c r="AH16" s="456"/>
+      <c r="AI16" s="456"/>
+      <c r="AJ16" s="456"/>
+      <c r="AK16" s="456"/>
+      <c r="AL16" s="456"/>
+      <c r="AM16" s="457"/>
       <c r="AN16" s="10"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="9"/>
@@ -18786,38 +19270,38 @@
       <c r="Q17" s="195"/>
       <c r="R17" s="195"/>
       <c r="S17" s="13"/>
-      <c r="T17" s="462" t="s">
+      <c r="T17" s="455" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="463"/>
-      <c r="V17" s="464"/>
-      <c r="W17" s="462" t="s">
+      <c r="U17" s="456"/>
+      <c r="V17" s="457"/>
+      <c r="W17" s="455" t="s">
         <v>346</v>
       </c>
-      <c r="X17" s="463"/>
-      <c r="Y17" s="464"/>
-      <c r="Z17" s="462" t="s">
+      <c r="X17" s="456"/>
+      <c r="Y17" s="457"/>
+      <c r="Z17" s="455" t="s">
         <v>36</v>
       </c>
-      <c r="AA17" s="463"/>
-      <c r="AB17" s="464"/>
-      <c r="AC17" s="462" t="s">
+      <c r="AA17" s="456"/>
+      <c r="AB17" s="457"/>
+      <c r="AC17" s="455" t="s">
         <v>36</v>
       </c>
-      <c r="AD17" s="463"/>
-      <c r="AE17" s="464"/>
-      <c r="AF17" s="462" t="s">
+      <c r="AD17" s="456"/>
+      <c r="AE17" s="457"/>
+      <c r="AF17" s="455" t="s">
         <v>35</v>
       </c>
-      <c r="AG17" s="463"/>
-      <c r="AH17" s="464"/>
-      <c r="AI17" s="462" t="s">
+      <c r="AG17" s="456"/>
+      <c r="AH17" s="457"/>
+      <c r="AI17" s="455" t="s">
         <v>36</v>
       </c>
-      <c r="AJ17" s="463"/>
-      <c r="AK17" s="463"/>
-      <c r="AL17" s="463"/>
-      <c r="AM17" s="464"/>
+      <c r="AJ17" s="456"/>
+      <c r="AK17" s="456"/>
+      <c r="AL17" s="456"/>
+      <c r="AM17" s="457"/>
       <c r="AN17" s="10"/>
       <c r="AO17" s="9"/>
       <c r="AP17" s="9"/>
@@ -18856,11 +19340,11 @@
       <c r="T18" s="37"/>
       <c r="U18" s="38"/>
       <c r="V18" s="39"/>
-      <c r="W18" s="468" t="s">
+      <c r="W18" s="461" t="s">
         <v>347</v>
       </c>
-      <c r="X18" s="469"/>
-      <c r="Y18" s="470"/>
+      <c r="X18" s="462"/>
+      <c r="Y18" s="463"/>
       <c r="Z18" s="38"/>
       <c r="AA18" s="38"/>
       <c r="AB18" s="39"/>
@@ -18969,15 +19453,15 @@
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
-      <c r="T20" s="382"/>
-      <c r="U20" s="383"/>
-      <c r="V20" s="384"/>
-      <c r="W20" s="465"/>
-      <c r="X20" s="466"/>
-      <c r="Y20" s="467"/>
-      <c r="Z20" s="383"/>
-      <c r="AA20" s="383"/>
-      <c r="AB20" s="384"/>
+      <c r="T20" s="380"/>
+      <c r="U20" s="381"/>
+      <c r="V20" s="382"/>
+      <c r="W20" s="458"/>
+      <c r="X20" s="459"/>
+      <c r="Y20" s="460"/>
+      <c r="Z20" s="381"/>
+      <c r="AA20" s="381"/>
+      <c r="AB20" s="382"/>
       <c r="AC20" s="38"/>
       <c r="AD20" s="38"/>
       <c r="AE20" s="39"/>
@@ -19026,24 +19510,24 @@
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
-      <c r="T21" s="475">
+      <c r="T21" s="477">
         <v>53640</v>
       </c>
-      <c r="U21" s="476"/>
-      <c r="V21" s="477"/>
-      <c r="W21" s="475">
+      <c r="U21" s="478"/>
+      <c r="V21" s="479"/>
+      <c r="W21" s="477">
         <v>228914</v>
       </c>
-      <c r="X21" s="476"/>
-      <c r="Y21" s="477"/>
-      <c r="Z21" s="443">
+      <c r="X21" s="478"/>
+      <c r="Y21" s="479"/>
+      <c r="Z21" s="449">
         <v>282554</v>
       </c>
-      <c r="AA21" s="444"/>
-      <c r="AB21" s="445"/>
-      <c r="AC21" s="478"/>
-      <c r="AD21" s="479"/>
-      <c r="AE21" s="480"/>
+      <c r="AA21" s="450"/>
+      <c r="AB21" s="451"/>
+      <c r="AC21" s="480"/>
+      <c r="AD21" s="481"/>
+      <c r="AE21" s="482"/>
       <c r="AF21" s="38"/>
       <c r="AG21" s="38"/>
       <c r="AH21" s="38"/>
@@ -19089,15 +19573,15 @@
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
-      <c r="T22" s="385"/>
-      <c r="U22" s="386"/>
-      <c r="V22" s="387"/>
-      <c r="W22" s="385"/>
-      <c r="X22" s="386"/>
-      <c r="Y22" s="387"/>
-      <c r="Z22" s="385"/>
-      <c r="AA22" s="386"/>
-      <c r="AB22" s="387"/>
+      <c r="T22" s="383"/>
+      <c r="U22" s="384"/>
+      <c r="V22" s="385"/>
+      <c r="W22" s="383"/>
+      <c r="X22" s="384"/>
+      <c r="Y22" s="385"/>
+      <c r="Z22" s="383"/>
+      <c r="AA22" s="384"/>
+      <c r="AB22" s="385"/>
       <c r="AC22" s="43"/>
       <c r="AD22" s="43"/>
       <c r="AE22" s="43"/>
@@ -19146,22 +19630,22 @@
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
-      <c r="T23" s="443">
+      <c r="T23" s="449">
         <v>1.6995</v>
       </c>
-      <c r="U23" s="444"/>
-      <c r="V23" s="445"/>
-      <c r="W23" s="388"/>
-      <c r="X23" s="389"/>
-      <c r="Y23" s="390"/>
-      <c r="Z23" s="443">
+      <c r="U23" s="450"/>
+      <c r="V23" s="451"/>
+      <c r="W23" s="386"/>
+      <c r="X23" s="387"/>
+      <c r="Y23" s="388"/>
+      <c r="Z23" s="449">
         <v>3.4830000000000001</v>
       </c>
-      <c r="AA23" s="444"/>
-      <c r="AB23" s="445"/>
-      <c r="AC23" s="446"/>
-      <c r="AD23" s="447"/>
-      <c r="AE23" s="448"/>
+      <c r="AA23" s="450"/>
+      <c r="AB23" s="451"/>
+      <c r="AC23" s="452"/>
+      <c r="AD23" s="453"/>
+      <c r="AE23" s="454"/>
       <c r="AF23" s="44"/>
       <c r="AG23" s="44"/>
       <c r="AH23" s="44"/>
@@ -19173,12 +19657,12 @@
       <c r="AN23" s="10"/>
       <c r="AO23" s="9"/>
       <c r="AP23" s="9"/>
-      <c r="AQ23" s="481" t="s">
+      <c r="AQ23" s="483" t="s">
         <v>310</v>
       </c>
-      <c r="AR23" s="482"/>
-      <c r="AS23" s="482"/>
-      <c r="AT23" s="483"/>
+      <c r="AR23" s="484"/>
+      <c r="AS23" s="484"/>
+      <c r="AT23" s="485"/>
       <c r="AU23" s="9"/>
       <c r="AV23" s="9"/>
       <c r="AW23" s="9"/>
@@ -19209,24 +19693,24 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
-      <c r="T24" s="443">
+      <c r="T24" s="449">
         <v>-23.914999999999999</v>
       </c>
-      <c r="U24" s="444"/>
-      <c r="V24" s="445"/>
-      <c r="W24" s="443">
+      <c r="U24" s="450"/>
+      <c r="V24" s="451"/>
+      <c r="W24" s="449">
         <v>-1.1499999999999999</v>
       </c>
-      <c r="X24" s="444"/>
-      <c r="Y24" s="445"/>
-      <c r="Z24" s="443">
+      <c r="X24" s="450"/>
+      <c r="Y24" s="451"/>
+      <c r="Z24" s="449">
         <v>1.17</v>
       </c>
-      <c r="AA24" s="444"/>
-      <c r="AB24" s="445"/>
-      <c r="AC24" s="446"/>
-      <c r="AD24" s="447"/>
-      <c r="AE24" s="448"/>
+      <c r="AA24" s="450"/>
+      <c r="AB24" s="451"/>
+      <c r="AC24" s="452"/>
+      <c r="AD24" s="453"/>
+      <c r="AE24" s="454"/>
       <c r="AF24" s="44"/>
       <c r="AG24" s="44"/>
       <c r="AH24" s="44"/>
@@ -19238,10 +19722,10 @@
       <c r="AN24" s="10"/>
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
-      <c r="AQ24" s="484" t="s">
+      <c r="AQ24" s="486" t="s">
         <v>345</v>
       </c>
-      <c r="AR24" s="485"/>
+      <c r="AR24" s="487"/>
       <c r="AS24" s="249">
         <v>1</v>
       </c>
@@ -19278,15 +19762,15 @@
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
-      <c r="T25" s="388"/>
-      <c r="U25" s="389"/>
-      <c r="V25" s="390"/>
-      <c r="W25" s="388"/>
-      <c r="X25" s="389"/>
-      <c r="Y25" s="390"/>
-      <c r="Z25" s="388"/>
-      <c r="AA25" s="389"/>
-      <c r="AB25" s="390"/>
+      <c r="T25" s="386"/>
+      <c r="U25" s="387"/>
+      <c r="V25" s="388"/>
+      <c r="W25" s="386"/>
+      <c r="X25" s="387"/>
+      <c r="Y25" s="388"/>
+      <c r="Z25" s="386"/>
+      <c r="AA25" s="387"/>
+      <c r="AB25" s="388"/>
       <c r="AC25" s="48"/>
       <c r="AD25" s="48"/>
       <c r="AE25" s="49"/>
@@ -19301,10 +19785,10 @@
       <c r="AN25" s="10"/>
       <c r="AO25" s="9"/>
       <c r="AP25" s="50"/>
-      <c r="AQ25" s="420" t="s">
+      <c r="AQ25" s="422" t="s">
         <v>311</v>
       </c>
-      <c r="AR25" s="421"/>
+      <c r="AR25" s="423"/>
       <c r="AS25" s="240">
         <v>0.80577006125804551</v>
       </c>
@@ -19341,15 +19825,15 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
-      <c r="T26" s="388"/>
-      <c r="U26" s="389"/>
-      <c r="V26" s="390"/>
-      <c r="W26" s="388"/>
-      <c r="X26" s="389"/>
-      <c r="Y26" s="390"/>
-      <c r="Z26" s="388"/>
-      <c r="AA26" s="389"/>
-      <c r="AB26" s="390"/>
+      <c r="T26" s="386"/>
+      <c r="U26" s="387"/>
+      <c r="V26" s="388"/>
+      <c r="W26" s="386"/>
+      <c r="X26" s="387"/>
+      <c r="Y26" s="388"/>
+      <c r="Z26" s="386"/>
+      <c r="AA26" s="387"/>
+      <c r="AB26" s="388"/>
       <c r="AC26" s="48"/>
       <c r="AD26" s="48"/>
       <c r="AE26" s="49"/>
@@ -19364,10 +19848,10 @@
       <c r="AN26" s="10"/>
       <c r="AO26" s="9"/>
       <c r="AP26" s="50"/>
-      <c r="AQ26" s="422" t="s">
+      <c r="AQ26" s="424" t="s">
         <v>312</v>
       </c>
-      <c r="AR26" s="423"/>
+      <c r="AR26" s="425"/>
       <c r="AS26" s="235">
         <v>3444336.0804700097</v>
       </c>
@@ -19404,18 +19888,18 @@
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
-      <c r="T27" s="388"/>
-      <c r="U27" s="389"/>
-      <c r="V27" s="390"/>
-      <c r="W27" s="388"/>
-      <c r="X27" s="389"/>
-      <c r="Y27" s="390"/>
-      <c r="Z27" s="388"/>
-      <c r="AA27" s="389"/>
-      <c r="AB27" s="390"/>
-      <c r="AC27" s="449"/>
-      <c r="AD27" s="450"/>
-      <c r="AE27" s="451"/>
+      <c r="T27" s="386"/>
+      <c r="U27" s="387"/>
+      <c r="V27" s="388"/>
+      <c r="W27" s="386"/>
+      <c r="X27" s="387"/>
+      <c r="Y27" s="388"/>
+      <c r="Z27" s="386"/>
+      <c r="AA27" s="387"/>
+      <c r="AB27" s="388"/>
+      <c r="AC27" s="464"/>
+      <c r="AD27" s="465"/>
+      <c r="AE27" s="466"/>
       <c r="AF27" s="44"/>
       <c r="AG27" s="44"/>
       <c r="AH27" s="44"/>
@@ -19427,10 +19911,10 @@
       <c r="AN27" s="10"/>
       <c r="AO27" s="9"/>
       <c r="AP27" s="50"/>
-      <c r="AQ27" s="422" t="s">
+      <c r="AQ27" s="424" t="s">
         <v>313</v>
       </c>
-      <c r="AR27" s="423"/>
+      <c r="AR27" s="425"/>
       <c r="AS27" s="239">
         <v>1.8381739631224414</v>
       </c>
@@ -19467,15 +19951,15 @@
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
-      <c r="T28" s="388"/>
-      <c r="U28" s="389"/>
-      <c r="V28" s="390"/>
-      <c r="W28" s="424"/>
-      <c r="X28" s="425"/>
-      <c r="Y28" s="426"/>
-      <c r="Z28" s="388"/>
-      <c r="AA28" s="389"/>
-      <c r="AB28" s="390"/>
+      <c r="T28" s="386"/>
+      <c r="U28" s="387"/>
+      <c r="V28" s="388"/>
+      <c r="W28" s="426"/>
+      <c r="X28" s="427"/>
+      <c r="Y28" s="428"/>
+      <c r="Z28" s="386"/>
+      <c r="AA28" s="387"/>
+      <c r="AB28" s="388"/>
       <c r="AC28" s="48"/>
       <c r="AD28" s="48"/>
       <c r="AE28" s="49"/>
@@ -19490,10 +19974,10 @@
       <c r="AN28" s="10"/>
       <c r="AO28" s="9"/>
       <c r="AP28" s="50"/>
-      <c r="AQ28" s="422" t="s">
+      <c r="AQ28" s="424" t="s">
         <v>314</v>
       </c>
-      <c r="AR28" s="423"/>
+      <c r="AR28" s="425"/>
       <c r="AS28" s="239">
         <v>6.2577332211443376E-2</v>
       </c>
@@ -19530,22 +20014,22 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
-      <c r="T29" s="452">
+      <c r="T29" s="467">
         <v>14614</v>
       </c>
-      <c r="U29" s="453"/>
-      <c r="V29" s="454"/>
-      <c r="W29" s="452"/>
-      <c r="X29" s="453"/>
-      <c r="Y29" s="454"/>
-      <c r="Z29" s="455">
+      <c r="U29" s="468"/>
+      <c r="V29" s="469"/>
+      <c r="W29" s="467"/>
+      <c r="X29" s="468"/>
+      <c r="Y29" s="469"/>
+      <c r="Z29" s="470">
         <v>39350</v>
       </c>
-      <c r="AA29" s="456"/>
-      <c r="AB29" s="457"/>
-      <c r="AC29" s="446"/>
-      <c r="AD29" s="447"/>
-      <c r="AE29" s="448"/>
+      <c r="AA29" s="471"/>
+      <c r="AB29" s="472"/>
+      <c r="AC29" s="452"/>
+      <c r="AD29" s="453"/>
+      <c r="AE29" s="454"/>
       <c r="AF29" s="44"/>
       <c r="AG29" s="44"/>
       <c r="AH29" s="44"/>
@@ -19557,10 +20041,10 @@
       <c r="AN29" s="10"/>
       <c r="AO29" s="9"/>
       <c r="AP29" s="50"/>
-      <c r="AQ29" s="422" t="s">
+      <c r="AQ29" s="424" t="s">
         <v>315</v>
       </c>
-      <c r="AR29" s="423"/>
+      <c r="AR29" s="425"/>
       <c r="AS29" s="239">
         <v>2.0910686906253764</v>
       </c>
@@ -19597,15 +20081,15 @@
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
-      <c r="T30" s="385"/>
-      <c r="U30" s="386"/>
-      <c r="V30" s="387"/>
-      <c r="W30" s="424"/>
-      <c r="X30" s="425"/>
-      <c r="Y30" s="426"/>
-      <c r="Z30" s="385"/>
-      <c r="AA30" s="386"/>
-      <c r="AB30" s="387"/>
+      <c r="T30" s="383"/>
+      <c r="U30" s="384"/>
+      <c r="V30" s="385"/>
+      <c r="W30" s="426"/>
+      <c r="X30" s="427"/>
+      <c r="Y30" s="428"/>
+      <c r="Z30" s="383"/>
+      <c r="AA30" s="384"/>
+      <c r="AB30" s="385"/>
       <c r="AC30" s="52"/>
       <c r="AD30" s="52"/>
       <c r="AE30" s="52"/>
@@ -19620,10 +20104,10 @@
       <c r="AN30" s="10"/>
       <c r="AO30" s="9"/>
       <c r="AP30" s="50"/>
-      <c r="AQ30" s="422" t="s">
+      <c r="AQ30" s="424" t="s">
         <v>316</v>
       </c>
-      <c r="AR30" s="423"/>
+      <c r="AR30" s="425"/>
       <c r="AS30" s="239">
         <v>1.4986605874131345</v>
       </c>
@@ -19660,23 +20144,23 @@
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
-      <c r="T31" s="443">
+      <c r="T31" s="449">
         <f>Z23</f>
         <v>3.4830000000000001</v>
       </c>
-      <c r="U31" s="444"/>
-      <c r="V31" s="445"/>
-      <c r="W31" s="424"/>
-      <c r="X31" s="425"/>
-      <c r="Y31" s="426"/>
-      <c r="Z31" s="443">
+      <c r="U31" s="450"/>
+      <c r="V31" s="451"/>
+      <c r="W31" s="426"/>
+      <c r="X31" s="427"/>
+      <c r="Y31" s="428"/>
+      <c r="Z31" s="449">
         <v>17.527999999999999</v>
       </c>
-      <c r="AA31" s="444"/>
-      <c r="AB31" s="445"/>
-      <c r="AC31" s="446"/>
-      <c r="AD31" s="447"/>
-      <c r="AE31" s="448"/>
+      <c r="AA31" s="450"/>
+      <c r="AB31" s="451"/>
+      <c r="AC31" s="452"/>
+      <c r="AD31" s="453"/>
+      <c r="AE31" s="454"/>
       <c r="AF31" s="45"/>
       <c r="AG31" s="44"/>
       <c r="AH31" s="44"/>
@@ -19688,8 +20172,8 @@
       <c r="AN31" s="10"/>
       <c r="AO31" s="9"/>
       <c r="AP31" s="50"/>
-      <c r="AQ31" s="486"/>
-      <c r="AR31" s="487"/>
+      <c r="AQ31" s="488"/>
+      <c r="AR31" s="489"/>
       <c r="AS31" s="237"/>
       <c r="AT31" s="237"/>
       <c r="AU31" s="50"/>
@@ -19722,22 +20206,22 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
-      <c r="T32" s="443">
+      <c r="T32" s="449">
         <v>10.44</v>
       </c>
-      <c r="U32" s="444"/>
-      <c r="V32" s="445"/>
-      <c r="W32" s="424"/>
-      <c r="X32" s="425"/>
-      <c r="Y32" s="426"/>
-      <c r="Z32" s="443">
+      <c r="U32" s="450"/>
+      <c r="V32" s="451"/>
+      <c r="W32" s="426"/>
+      <c r="X32" s="427"/>
+      <c r="Y32" s="428"/>
+      <c r="Z32" s="449">
         <v>75.44</v>
       </c>
-      <c r="AA32" s="444"/>
-      <c r="AB32" s="445"/>
-      <c r="AC32" s="446"/>
-      <c r="AD32" s="447"/>
-      <c r="AE32" s="448"/>
+      <c r="AA32" s="450"/>
+      <c r="AB32" s="451"/>
+      <c r="AC32" s="452"/>
+      <c r="AD32" s="453"/>
+      <c r="AE32" s="454"/>
       <c r="AF32" s="45"/>
       <c r="AG32" s="44"/>
       <c r="AH32" s="44"/>
@@ -19749,10 +20233,10 @@
       <c r="AN32" s="10"/>
       <c r="AO32" s="9"/>
       <c r="AP32" s="50"/>
-      <c r="AQ32" s="422" t="s">
+      <c r="AQ32" s="424" t="s">
         <v>317</v>
       </c>
-      <c r="AR32" s="423"/>
+      <c r="AR32" s="425"/>
       <c r="AS32" s="236">
         <v>0.69764585396711076</v>
       </c>
@@ -19789,15 +20273,15 @@
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
-      <c r="T33" s="388"/>
-      <c r="U33" s="389"/>
-      <c r="V33" s="389"/>
-      <c r="W33" s="388"/>
-      <c r="X33" s="389"/>
-      <c r="Y33" s="389"/>
-      <c r="Z33" s="388"/>
-      <c r="AA33" s="389"/>
-      <c r="AB33" s="389"/>
+      <c r="T33" s="386"/>
+      <c r="U33" s="387"/>
+      <c r="V33" s="387"/>
+      <c r="W33" s="386"/>
+      <c r="X33" s="387"/>
+      <c r="Y33" s="387"/>
+      <c r="Z33" s="386"/>
+      <c r="AA33" s="387"/>
+      <c r="AB33" s="387"/>
       <c r="AC33" s="53"/>
       <c r="AD33" s="48"/>
       <c r="AE33" s="48"/>
@@ -19812,10 +20296,10 @@
       <c r="AN33" s="10"/>
       <c r="AO33" s="9"/>
       <c r="AP33" s="50"/>
-      <c r="AQ33" s="493" t="s">
+      <c r="AQ33" s="495" t="s">
         <v>330</v>
       </c>
-      <c r="AR33" s="494"/>
+      <c r="AR33" s="496"/>
       <c r="AS33" s="238">
         <v>719.21536737229644</v>
       </c>
@@ -19854,15 +20338,15 @@
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
-      <c r="T34" s="388"/>
-      <c r="U34" s="389"/>
-      <c r="V34" s="389"/>
-      <c r="W34" s="388"/>
-      <c r="X34" s="389"/>
-      <c r="Y34" s="389"/>
-      <c r="Z34" s="388"/>
-      <c r="AA34" s="389"/>
-      <c r="AB34" s="389"/>
+      <c r="T34" s="386"/>
+      <c r="U34" s="387"/>
+      <c r="V34" s="387"/>
+      <c r="W34" s="386"/>
+      <c r="X34" s="387"/>
+      <c r="Y34" s="387"/>
+      <c r="Z34" s="386"/>
+      <c r="AA34" s="387"/>
+      <c r="AB34" s="387"/>
       <c r="AC34" s="53"/>
       <c r="AD34" s="48"/>
       <c r="AE34" s="48"/>
@@ -19877,10 +20361,10 @@
       <c r="AN34" s="10"/>
       <c r="AO34" s="9"/>
       <c r="AP34" s="50"/>
-      <c r="AQ34" s="489" t="s">
+      <c r="AQ34" s="491" t="s">
         <v>355</v>
       </c>
-      <c r="AR34" s="490"/>
+      <c r="AR34" s="492"/>
       <c r="AS34" s="238">
         <v>14000.072579891636</v>
       </c>
@@ -19919,18 +20403,18 @@
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
-      <c r="T35" s="388"/>
-      <c r="U35" s="389"/>
-      <c r="V35" s="389"/>
-      <c r="W35" s="388"/>
-      <c r="X35" s="389"/>
-      <c r="Y35" s="389"/>
-      <c r="Z35" s="388"/>
-      <c r="AA35" s="389"/>
-      <c r="AB35" s="389"/>
-      <c r="AC35" s="446"/>
-      <c r="AD35" s="447"/>
-      <c r="AE35" s="448"/>
+      <c r="T35" s="386"/>
+      <c r="U35" s="387"/>
+      <c r="V35" s="387"/>
+      <c r="W35" s="386"/>
+      <c r="X35" s="387"/>
+      <c r="Y35" s="387"/>
+      <c r="Z35" s="386"/>
+      <c r="AA35" s="387"/>
+      <c r="AB35" s="387"/>
+      <c r="AC35" s="452"/>
+      <c r="AD35" s="453"/>
+      <c r="AE35" s="454"/>
       <c r="AF35" s="12"/>
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
@@ -19942,10 +20426,10 @@
       <c r="AN35" s="10"/>
       <c r="AO35" s="9"/>
       <c r="AP35" s="50"/>
-      <c r="AQ35" s="489" t="s">
+      <c r="AQ35" s="491" t="s">
         <v>356</v>
       </c>
-      <c r="AR35" s="490"/>
+      <c r="AR35" s="492"/>
       <c r="AS35" s="257"/>
       <c r="AT35" s="238">
         <v>1.0595085461752092</v>
@@ -19982,19 +20466,19 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
-      <c r="T36" s="443">
+      <c r="T36" s="449">
         <v>636</v>
       </c>
-      <c r="U36" s="444"/>
-      <c r="V36" s="445"/>
-      <c r="W36" s="389"/>
-      <c r="X36" s="389"/>
-      <c r="Y36" s="389"/>
-      <c r="Z36" s="443">
+      <c r="U36" s="450"/>
+      <c r="V36" s="451"/>
+      <c r="W36" s="387"/>
+      <c r="X36" s="387"/>
+      <c r="Y36" s="387"/>
+      <c r="Z36" s="449">
         <v>7718</v>
       </c>
-      <c r="AA36" s="444"/>
-      <c r="AB36" s="445"/>
+      <c r="AA36" s="450"/>
+      <c r="AB36" s="451"/>
       <c r="AC36" s="53"/>
       <c r="AD36" s="48"/>
       <c r="AE36" s="48"/>
@@ -20009,14 +20493,14 @@
       <c r="AN36" s="10"/>
       <c r="AO36" s="9"/>
       <c r="AP36" s="50"/>
-      <c r="AQ36" s="489" t="s">
+      <c r="AQ36" s="491" t="s">
         <v>358</v>
       </c>
-      <c r="AR36" s="490"/>
-      <c r="AS36" s="491">
+      <c r="AR36" s="492"/>
+      <c r="AS36" s="493">
         <v>31259.452441734171</v>
       </c>
-      <c r="AT36" s="492"/>
+      <c r="AT36" s="494"/>
       <c r="AU36" s="50" t="s">
         <v>321</v>
       </c>
@@ -20049,15 +20533,15 @@
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
-      <c r="T37" s="391"/>
-      <c r="U37" s="392"/>
-      <c r="V37" s="392"/>
-      <c r="W37" s="392"/>
-      <c r="X37" s="392"/>
-      <c r="Y37" s="392"/>
-      <c r="Z37" s="392"/>
-      <c r="AA37" s="392"/>
-      <c r="AB37" s="393"/>
+      <c r="T37" s="389"/>
+      <c r="U37" s="390"/>
+      <c r="V37" s="390"/>
+      <c r="W37" s="390"/>
+      <c r="X37" s="390"/>
+      <c r="Y37" s="390"/>
+      <c r="Z37" s="390"/>
+      <c r="AA37" s="390"/>
+      <c r="AB37" s="391"/>
       <c r="AC37" s="258"/>
       <c r="AD37" s="258"/>
       <c r="AE37" s="259"/>
@@ -20072,14 +20556,14 @@
       <c r="AN37" s="10"/>
       <c r="AO37" s="9"/>
       <c r="AP37" s="50"/>
-      <c r="AQ37" s="489" t="s">
+      <c r="AQ37" s="491" t="s">
         <v>361</v>
       </c>
-      <c r="AR37" s="490"/>
-      <c r="AS37" s="491">
+      <c r="AR37" s="492"/>
+      <c r="AS37" s="493">
         <v>4.1042866922269026</v>
       </c>
-      <c r="AT37" s="492"/>
+      <c r="AT37" s="494"/>
       <c r="AU37" s="50"/>
       <c r="AV37" s="50"/>
       <c r="AW37" s="9"/>
@@ -20110,17 +20594,17 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
-      <c r="T38" s="443">
+      <c r="T38" s="449">
         <v>5162</v>
       </c>
-      <c r="U38" s="444"/>
-      <c r="V38" s="444"/>
-      <c r="W38" s="444"/>
-      <c r="X38" s="444"/>
-      <c r="Y38" s="444"/>
-      <c r="Z38" s="444"/>
-      <c r="AA38" s="444"/>
-      <c r="AB38" s="445"/>
+      <c r="U38" s="450"/>
+      <c r="V38" s="450"/>
+      <c r="W38" s="450"/>
+      <c r="X38" s="450"/>
+      <c r="Y38" s="450"/>
+      <c r="Z38" s="450"/>
+      <c r="AA38" s="450"/>
+      <c r="AB38" s="451"/>
       <c r="AC38" s="48"/>
       <c r="AD38" s="48"/>
       <c r="AE38" s="49"/>
@@ -20169,15 +20653,15 @@
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
-      <c r="T39" s="394"/>
-      <c r="U39" s="395"/>
-      <c r="V39" s="396"/>
-      <c r="W39" s="389"/>
-      <c r="X39" s="389"/>
-      <c r="Y39" s="389"/>
-      <c r="Z39" s="397"/>
-      <c r="AA39" s="397"/>
-      <c r="AB39" s="398"/>
+      <c r="T39" s="392"/>
+      <c r="U39" s="393"/>
+      <c r="V39" s="394"/>
+      <c r="W39" s="387"/>
+      <c r="X39" s="387"/>
+      <c r="Y39" s="387"/>
+      <c r="Z39" s="395"/>
+      <c r="AA39" s="395"/>
+      <c r="AB39" s="396"/>
       <c r="AC39" s="55"/>
       <c r="AD39" s="55"/>
       <c r="AE39" s="56"/>
@@ -20191,13 +20675,13 @@
       <c r="AM39" s="39"/>
       <c r="AN39" s="10"/>
       <c r="AO39" s="9"/>
-      <c r="AP39" s="502" t="s">
+      <c r="AP39" s="504" t="s">
         <v>406</v>
       </c>
-      <c r="AQ39" s="503"/>
-      <c r="AR39" s="503"/>
-      <c r="AS39" s="504"/>
-      <c r="AT39" s="499" t="s">
+      <c r="AQ39" s="505"/>
+      <c r="AR39" s="505"/>
+      <c r="AS39" s="506"/>
+      <c r="AT39" s="501" t="s">
         <v>402</v>
       </c>
       <c r="AU39" s="9"/>
@@ -20230,22 +20714,22 @@
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
-      <c r="T40" s="443">
+      <c r="T40" s="449">
         <v>34550</v>
       </c>
-      <c r="U40" s="444"/>
-      <c r="V40" s="445"/>
-      <c r="W40" s="389"/>
-      <c r="X40" s="389"/>
-      <c r="Y40" s="389"/>
-      <c r="Z40" s="443">
+      <c r="U40" s="450"/>
+      <c r="V40" s="451"/>
+      <c r="W40" s="387"/>
+      <c r="X40" s="387"/>
+      <c r="Y40" s="387"/>
+      <c r="Z40" s="449">
         <v>83420</v>
       </c>
-      <c r="AA40" s="444"/>
-      <c r="AB40" s="445"/>
-      <c r="AC40" s="446"/>
-      <c r="AD40" s="447"/>
-      <c r="AE40" s="448"/>
+      <c r="AA40" s="450"/>
+      <c r="AB40" s="451"/>
+      <c r="AC40" s="452"/>
+      <c r="AD40" s="453"/>
+      <c r="AE40" s="454"/>
       <c r="AF40" s="44"/>
       <c r="AG40" s="44"/>
       <c r="AH40" s="44"/>
@@ -20259,14 +20743,14 @@
       <c r="AP40" s="355" t="s">
         <v>400</v>
       </c>
-      <c r="AQ40" s="505" t="s">
+      <c r="AQ40" s="507" t="s">
         <v>403</v>
       </c>
-      <c r="AR40" s="505"/>
+      <c r="AR40" s="507"/>
       <c r="AS40" s="356" t="s">
         <v>404</v>
       </c>
-      <c r="AT40" s="499"/>
+      <c r="AT40" s="501"/>
       <c r="AU40" s="9"/>
       <c r="AV40" s="9"/>
       <c r="AW40" s="9"/>
@@ -20297,22 +20781,22 @@
       <c r="Q41" s="13"/>
       <c r="R41" s="13"/>
       <c r="S41" s="13"/>
-      <c r="T41" s="495">
+      <c r="T41" s="497">
         <v>0.84599999999999997</v>
       </c>
-      <c r="U41" s="496"/>
-      <c r="V41" s="497"/>
-      <c r="W41" s="389"/>
-      <c r="X41" s="389"/>
-      <c r="Y41" s="389"/>
-      <c r="Z41" s="495">
+      <c r="U41" s="498"/>
+      <c r="V41" s="499"/>
+      <c r="W41" s="387"/>
+      <c r="X41" s="387"/>
+      <c r="Y41" s="387"/>
+      <c r="Z41" s="497">
         <v>0.85199999999999998</v>
       </c>
-      <c r="AA41" s="496"/>
-      <c r="AB41" s="497"/>
-      <c r="AC41" s="446"/>
-      <c r="AD41" s="447"/>
-      <c r="AE41" s="448"/>
+      <c r="AA41" s="498"/>
+      <c r="AB41" s="499"/>
+      <c r="AC41" s="452"/>
+      <c r="AD41" s="453"/>
+      <c r="AE41" s="454"/>
       <c r="AF41" s="44"/>
       <c r="AG41" s="44"/>
       <c r="AH41" s="44"/>
@@ -20326,14 +20810,14 @@
       <c r="AP41" s="357" t="s">
         <v>321</v>
       </c>
-      <c r="AQ41" s="506" t="s">
+      <c r="AQ41" s="508" t="s">
         <v>405</v>
       </c>
-      <c r="AR41" s="506"/>
+      <c r="AR41" s="508"/>
       <c r="AS41" s="358" t="s">
         <v>65</v>
       </c>
-      <c r="AT41" s="499"/>
+      <c r="AT41" s="501"/>
       <c r="AU41" s="9"/>
       <c r="AV41" s="9"/>
       <c r="AW41" s="9"/>
@@ -20364,15 +20848,15 @@
       <c r="Q42" s="13"/>
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
-      <c r="T42" s="399"/>
-      <c r="U42" s="400"/>
-      <c r="V42" s="401"/>
-      <c r="W42" s="400"/>
-      <c r="X42" s="400"/>
-      <c r="Y42" s="401"/>
-      <c r="Z42" s="400"/>
-      <c r="AA42" s="400"/>
-      <c r="AB42" s="401"/>
+      <c r="T42" s="397"/>
+      <c r="U42" s="398"/>
+      <c r="V42" s="399"/>
+      <c r="W42" s="398"/>
+      <c r="X42" s="398"/>
+      <c r="Y42" s="399"/>
+      <c r="Z42" s="398"/>
+      <c r="AA42" s="398"/>
+      <c r="AB42" s="399"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
       <c r="AE42" s="57"/>
@@ -20389,14 +20873,14 @@
       <c r="AP42" s="359">
         <v>11000</v>
       </c>
-      <c r="AQ42" s="498">
-        <v>40</v>
-      </c>
-      <c r="AR42" s="498"/>
+      <c r="AQ42" s="500">
+        <v>38.5</v>
+      </c>
+      <c r="AR42" s="500"/>
       <c r="AS42" s="360">
         <v>0.75</v>
       </c>
-      <c r="AT42" s="499"/>
+      <c r="AT42" s="501"/>
       <c r="AU42" s="9"/>
       <c r="AV42" s="9"/>
       <c r="AW42" s="9"/>
@@ -20427,15 +20911,15 @@
       <c r="Q43" s="13"/>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
-      <c r="T43" s="402"/>
-      <c r="U43" s="403"/>
-      <c r="V43" s="403"/>
-      <c r="W43" s="403"/>
-      <c r="X43" s="403"/>
-      <c r="Y43" s="404"/>
-      <c r="Z43" s="402"/>
-      <c r="AA43" s="403"/>
-      <c r="AB43" s="403"/>
+      <c r="T43" s="400"/>
+      <c r="U43" s="401"/>
+      <c r="V43" s="401"/>
+      <c r="W43" s="401"/>
+      <c r="X43" s="401"/>
+      <c r="Y43" s="402"/>
+      <c r="Z43" s="400"/>
+      <c r="AA43" s="401"/>
+      <c r="AB43" s="401"/>
       <c r="AC43" s="44"/>
       <c r="AD43" s="44"/>
       <c r="AE43" s="46"/>
@@ -20452,14 +20936,14 @@
       <c r="AP43" s="359">
         <v>13000</v>
       </c>
-      <c r="AQ43" s="498">
+      <c r="AQ43" s="500">
         <v>36</v>
       </c>
-      <c r="AR43" s="498"/>
+      <c r="AR43" s="500"/>
       <c r="AS43" s="360">
         <v>0.72</v>
       </c>
-      <c r="AT43" s="499"/>
+      <c r="AT43" s="501"/>
       <c r="AU43" s="9"/>
       <c r="AV43" s="9"/>
       <c r="AW43" s="9"/>
@@ -20490,15 +20974,15 @@
       <c r="Q44" s="13"/>
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
-      <c r="T44" s="382"/>
-      <c r="U44" s="383"/>
-      <c r="V44" s="384"/>
-      <c r="W44" s="383"/>
-      <c r="X44" s="383"/>
-      <c r="Y44" s="384"/>
-      <c r="Z44" s="383"/>
-      <c r="AA44" s="383"/>
-      <c r="AB44" s="384"/>
+      <c r="T44" s="380"/>
+      <c r="U44" s="381"/>
+      <c r="V44" s="382"/>
+      <c r="W44" s="381"/>
+      <c r="X44" s="381"/>
+      <c r="Y44" s="382"/>
+      <c r="Z44" s="381"/>
+      <c r="AA44" s="381"/>
+      <c r="AB44" s="382"/>
       <c r="AC44" s="38"/>
       <c r="AD44" s="38"/>
       <c r="AE44" s="39"/>
@@ -20515,14 +20999,14 @@
       <c r="AP44" s="359">
         <v>14000.072579891636</v>
       </c>
-      <c r="AQ44" s="507">
+      <c r="AQ44" s="509">
         <v>33.675007997094966</v>
       </c>
-      <c r="AR44" s="508"/>
+      <c r="AR44" s="510"/>
       <c r="AS44" s="360">
         <v>0.69764585396711076</v>
       </c>
-      <c r="AT44" s="499"/>
+      <c r="AT44" s="501"/>
       <c r="AU44" s="9"/>
       <c r="AV44" s="9"/>
       <c r="AW44" s="9"/>
@@ -20576,10 +21060,10 @@
       <c r="AN45" s="10"/>
       <c r="AO45" s="9"/>
       <c r="AP45" s="359"/>
-      <c r="AQ45" s="498"/>
-      <c r="AR45" s="498"/>
+      <c r="AQ45" s="500"/>
+      <c r="AR45" s="500"/>
       <c r="AS45" s="360"/>
-      <c r="AT45" s="499"/>
+      <c r="AT45" s="501"/>
       <c r="AU45" s="9"/>
       <c r="AV45" s="9"/>
       <c r="AW45" s="9"/>
@@ -20643,10 +21127,10 @@
       <c r="AN46" s="10"/>
       <c r="AO46" s="9"/>
       <c r="AP46" s="359"/>
-      <c r="AQ46" s="498"/>
-      <c r="AR46" s="498"/>
+      <c r="AQ46" s="500"/>
+      <c r="AR46" s="500"/>
       <c r="AS46" s="360"/>
-      <c r="AT46" s="499"/>
+      <c r="AT46" s="501"/>
       <c r="AU46" s="9"/>
       <c r="AV46" s="9"/>
       <c r="AW46" s="9"/>
@@ -20712,10 +21196,10 @@
       <c r="AN47" s="10"/>
       <c r="AO47" s="9"/>
       <c r="AP47" s="359"/>
-      <c r="AQ47" s="498"/>
-      <c r="AR47" s="498"/>
+      <c r="AQ47" s="500"/>
+      <c r="AR47" s="500"/>
       <c r="AS47" s="360"/>
-      <c r="AT47" s="499"/>
+      <c r="AT47" s="501"/>
       <c r="AU47" s="9"/>
       <c r="AV47" s="9"/>
       <c r="AW47" s="9"/>
@@ -20783,10 +21267,10 @@
       <c r="AN48" s="10"/>
       <c r="AO48" s="9"/>
       <c r="AP48" s="359"/>
-      <c r="AQ48" s="498"/>
-      <c r="AR48" s="498"/>
+      <c r="AQ48" s="500"/>
+      <c r="AR48" s="500"/>
       <c r="AS48" s="360"/>
-      <c r="AT48" s="499"/>
+      <c r="AT48" s="501"/>
       <c r="AU48" s="9"/>
       <c r="AV48" s="9"/>
       <c r="AW48" s="9"/>
@@ -20842,10 +21326,10 @@
       <c r="AN49" s="10"/>
       <c r="AO49" s="9"/>
       <c r="AP49" s="361"/>
-      <c r="AQ49" s="488"/>
-      <c r="AR49" s="488"/>
+      <c r="AQ49" s="490"/>
+      <c r="AR49" s="490"/>
       <c r="AS49" s="362"/>
-      <c r="AT49" s="499"/>
+      <c r="AT49" s="501"/>
       <c r="AU49" s="9"/>
       <c r="AV49" s="9"/>
       <c r="AW49" s="9"/>
@@ -20904,13 +21388,13 @@
       <c r="AM50" s="33"/>
       <c r="AN50" s="10"/>
       <c r="AO50" s="9"/>
-      <c r="AP50" s="502" t="s">
+      <c r="AP50" s="504" t="s">
         <v>407</v>
       </c>
-      <c r="AQ50" s="503"/>
-      <c r="AR50" s="503"/>
-      <c r="AS50" s="504"/>
-      <c r="AT50" s="499"/>
+      <c r="AQ50" s="505"/>
+      <c r="AR50" s="505"/>
+      <c r="AS50" s="506"/>
+      <c r="AT50" s="501"/>
       <c r="AU50" s="9"/>
       <c r="AV50" s="9"/>
       <c r="AW50" s="9"/>
@@ -20970,14 +21454,14 @@
       <c r="AP51" s="355" t="s">
         <v>400</v>
       </c>
-      <c r="AQ51" s="505" t="s">
+      <c r="AQ51" s="507" t="s">
         <v>403</v>
       </c>
-      <c r="AR51" s="505"/>
+      <c r="AR51" s="507"/>
       <c r="AS51" s="356" t="s">
         <v>404</v>
       </c>
-      <c r="AT51" s="499"/>
+      <c r="AT51" s="501"/>
       <c r="AU51" s="9"/>
       <c r="AV51" s="9"/>
       <c r="AW51" s="9"/>
@@ -21031,14 +21515,14 @@
       <c r="AP52" s="357" t="s">
         <v>321</v>
       </c>
-      <c r="AQ52" s="506" t="s">
+      <c r="AQ52" s="508" t="s">
         <v>405</v>
       </c>
-      <c r="AR52" s="506"/>
+      <c r="AR52" s="508"/>
       <c r="AS52" s="358" t="s">
         <v>65</v>
       </c>
-      <c r="AT52" s="499"/>
+      <c r="AT52" s="501"/>
       <c r="AU52" s="9"/>
       <c r="AV52" s="9"/>
       <c r="AW52" s="9"/>
@@ -21094,14 +21578,14 @@
       <c r="AP53" s="359">
         <v>32000</v>
       </c>
-      <c r="AQ53" s="498">
+      <c r="AQ53" s="500">
         <v>85</v>
       </c>
-      <c r="AR53" s="498"/>
+      <c r="AR53" s="500"/>
       <c r="AS53" s="360">
         <v>0.79</v>
       </c>
-      <c r="AT53" s="499"/>
+      <c r="AT53" s="501"/>
       <c r="AU53" s="9"/>
       <c r="AV53" s="9"/>
       <c r="AW53" s="9"/>
@@ -21152,14 +21636,14 @@
       <c r="AP54" s="359">
         <v>35000</v>
       </c>
-      <c r="AQ54" s="498">
+      <c r="AQ54" s="500">
         <v>84</v>
       </c>
-      <c r="AR54" s="498"/>
+      <c r="AR54" s="500"/>
       <c r="AS54" s="360">
         <v>0.81</v>
       </c>
-      <c r="AT54" s="499"/>
+      <c r="AT54" s="501"/>
       <c r="AU54" s="9"/>
       <c r="AV54" s="9"/>
       <c r="AW54" s="9"/>
@@ -21215,14 +21699,14 @@
       <c r="AP55" s="359">
         <v>38924.251414575934</v>
       </c>
-      <c r="AQ55" s="507">
+      <c r="AQ55" s="509">
         <v>82.664107065268283</v>
       </c>
-      <c r="AR55" s="508"/>
+      <c r="AR55" s="510"/>
       <c r="AS55" s="360">
         <v>0.84214168812256252</v>
       </c>
-      <c r="AT55" s="499"/>
+      <c r="AT55" s="501"/>
       <c r="AU55" s="9"/>
       <c r="AV55" s="9"/>
       <c r="AW55" s="9"/>
@@ -21276,10 +21760,10 @@
       <c r="AN56" s="10"/>
       <c r="AO56" s="9"/>
       <c r="AP56" s="359"/>
-      <c r="AQ56" s="498"/>
-      <c r="AR56" s="498"/>
+      <c r="AQ56" s="500"/>
+      <c r="AR56" s="500"/>
       <c r="AS56" s="360"/>
-      <c r="AT56" s="499"/>
+      <c r="AT56" s="501"/>
       <c r="AU56" s="9"/>
       <c r="AV56" s="9"/>
       <c r="AW56" s="9"/>
@@ -21330,10 +21814,10 @@
       <c r="AN57" s="10"/>
       <c r="AO57" s="9"/>
       <c r="AP57" s="359"/>
-      <c r="AQ57" s="498"/>
-      <c r="AR57" s="498"/>
+      <c r="AQ57" s="500"/>
+      <c r="AR57" s="500"/>
       <c r="AS57" s="360"/>
-      <c r="AT57" s="499"/>
+      <c r="AT57" s="501"/>
       <c r="AU57" s="9"/>
       <c r="AV57" s="9"/>
       <c r="AW57" s="9"/>
@@ -21460,10 +21944,10 @@
       <c r="AN58" s="9"/>
       <c r="AO58" s="9"/>
       <c r="AP58" s="359"/>
-      <c r="AQ58" s="498"/>
-      <c r="AR58" s="498"/>
+      <c r="AQ58" s="500"/>
+      <c r="AR58" s="500"/>
       <c r="AS58" s="360"/>
-      <c r="AT58" s="499"/>
+      <c r="AT58" s="501"/>
       <c r="AU58" s="9"/>
       <c r="AV58" s="9"/>
       <c r="AW58" s="9"/>
@@ -21548,10 +22032,10 @@
       <c r="AN59" s="10"/>
       <c r="AO59" s="9"/>
       <c r="AP59" s="359"/>
-      <c r="AQ59" s="498"/>
-      <c r="AR59" s="498"/>
+      <c r="AQ59" s="500"/>
+      <c r="AR59" s="500"/>
       <c r="AS59" s="360"/>
-      <c r="AT59" s="499"/>
+      <c r="AT59" s="501"/>
       <c r="AU59" s="9"/>
       <c r="AV59" s="9"/>
       <c r="AW59" s="9"/>
@@ -21600,10 +22084,10 @@
       <c r="AN60" s="10"/>
       <c r="AO60" s="9"/>
       <c r="AP60" s="361"/>
-      <c r="AQ60" s="488"/>
-      <c r="AR60" s="488"/>
+      <c r="AQ60" s="490"/>
+      <c r="AR60" s="490"/>
       <c r="AS60" s="362"/>
-      <c r="AT60" s="499"/>
+      <c r="AT60" s="501"/>
       <c r="AU60" s="9"/>
       <c r="AV60" s="9"/>
       <c r="AW60" s="9"/>
@@ -21636,27 +22120,27 @@
       </c>
       <c r="U61" s="75"/>
       <c r="V61" s="75"/>
-      <c r="W61" s="458">
+      <c r="W61" s="445">
         <v>0</v>
       </c>
-      <c r="X61" s="458"/>
-      <c r="Y61" s="458"/>
-      <c r="Z61" s="458"/>
-      <c r="AA61" s="458"/>
+      <c r="X61" s="445"/>
+      <c r="Y61" s="445"/>
+      <c r="Z61" s="445"/>
+      <c r="AA61" s="445"/>
       <c r="AB61" s="76" t="s">
         <v>2</v>
       </c>
       <c r="AC61" s="76"/>
       <c r="AD61" s="76"/>
-      <c r="AE61" s="458" t="s">
+      <c r="AE61" s="445" t="s">
         <v>82</v>
       </c>
-      <c r="AF61" s="458"/>
-      <c r="AG61" s="458"/>
-      <c r="AH61" s="458"/>
-      <c r="AI61" s="458"/>
-      <c r="AJ61" s="458"/>
-      <c r="AK61" s="458"/>
+      <c r="AF61" s="445"/>
+      <c r="AG61" s="445"/>
+      <c r="AH61" s="445"/>
+      <c r="AI61" s="445"/>
+      <c r="AJ61" s="445"/>
+      <c r="AK61" s="445"/>
       <c r="AL61" s="10"/>
       <c r="AM61" s="74"/>
       <c r="AN61" s="10"/>
@@ -21699,26 +22183,26 @@
       <c r="U62" s="75"/>
       <c r="V62" s="75"/>
       <c r="W62" s="76"/>
-      <c r="X62" s="459" t="s">
+      <c r="X62" s="446" t="s">
         <v>82</v>
       </c>
-      <c r="Y62" s="459"/>
-      <c r="Z62" s="459"/>
-      <c r="AA62" s="459"/>
+      <c r="Y62" s="446"/>
+      <c r="Z62" s="446"/>
+      <c r="AA62" s="446"/>
       <c r="AB62" s="81" t="s">
         <v>7</v>
       </c>
       <c r="AC62" s="81"/>
-      <c r="AD62" s="458" t="s">
+      <c r="AD62" s="445" t="s">
         <v>82</v>
       </c>
-      <c r="AE62" s="458"/>
-      <c r="AF62" s="458"/>
-      <c r="AG62" s="458"/>
-      <c r="AH62" s="458"/>
-      <c r="AI62" s="458"/>
-      <c r="AJ62" s="458"/>
-      <c r="AK62" s="458"/>
+      <c r="AE62" s="445"/>
+      <c r="AF62" s="445"/>
+      <c r="AG62" s="445"/>
+      <c r="AH62" s="445"/>
+      <c r="AI62" s="445"/>
+      <c r="AJ62" s="445"/>
+      <c r="AK62" s="445"/>
       <c r="AL62" s="10"/>
       <c r="AM62" s="74"/>
       <c r="AN62" s="10"/>
@@ -21935,14 +22419,14 @@
       <c r="H66" s="71"/>
       <c r="I66" s="71"/>
       <c r="J66" s="71"/>
-      <c r="K66" s="460" t="s">
+      <c r="K66" s="447" t="s">
         <v>87</v>
       </c>
-      <c r="L66" s="461"/>
-      <c r="M66" s="461"/>
-      <c r="N66" s="461"/>
-      <c r="O66" s="461"/>
-      <c r="P66" s="461"/>
+      <c r="L66" s="448"/>
+      <c r="M66" s="448"/>
+      <c r="N66" s="448"/>
+      <c r="O66" s="448"/>
+      <c r="P66" s="448"/>
       <c r="Q66" s="203" t="s">
         <v>88</v>
       </c>
@@ -21996,22 +22480,22 @@
       <c r="H67" s="96"/>
       <c r="I67" s="96"/>
       <c r="J67" s="96"/>
-      <c r="K67" s="440" t="s">
+      <c r="K67" s="442" t="s">
         <v>35</v>
       </c>
-      <c r="L67" s="441"/>
-      <c r="M67" s="442"/>
-      <c r="N67" s="440" t="s">
+      <c r="L67" s="443"/>
+      <c r="M67" s="444"/>
+      <c r="N67" s="442" t="s">
         <v>346</v>
       </c>
-      <c r="O67" s="441"/>
-      <c r="P67" s="442"/>
-      <c r="Q67" s="440" t="s">
+      <c r="O67" s="443"/>
+      <c r="P67" s="444"/>
+      <c r="Q67" s="442" t="s">
         <v>357</v>
       </c>
-      <c r="R67" s="441"/>
-      <c r="S67" s="441"/>
-      <c r="T67" s="442"/>
+      <c r="R67" s="443"/>
+      <c r="S67" s="443"/>
+      <c r="T67" s="444"/>
       <c r="U67" s="97"/>
       <c r="V67" s="98" t="s">
         <v>90</v>
@@ -22027,17 +22511,17 @@
         <v>92</v>
       </c>
       <c r="AC67" s="99"/>
-      <c r="AD67" s="438" t="s">
+      <c r="AD67" s="440" t="s">
         <v>93</v>
       </c>
-      <c r="AE67" s="439"/>
-      <c r="AF67" s="439"/>
-      <c r="AG67" s="439"/>
-      <c r="AH67" s="439"/>
-      <c r="AI67" s="439"/>
-      <c r="AJ67" s="439"/>
-      <c r="AK67" s="439"/>
-      <c r="AL67" s="439"/>
+      <c r="AE67" s="441"/>
+      <c r="AF67" s="441"/>
+      <c r="AG67" s="441"/>
+      <c r="AH67" s="441"/>
+      <c r="AI67" s="441"/>
+      <c r="AJ67" s="441"/>
+      <c r="AK67" s="441"/>
+      <c r="AL67" s="441"/>
       <c r="AM67" s="100"/>
       <c r="AN67" s="9"/>
       <c r="AO67" s="9"/>
@@ -22113,27 +22597,27 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B69" s="414" t="s">
+      <c r="B69" s="416" t="s">
         <v>297</v>
       </c>
-      <c r="C69" s="415"/>
-      <c r="D69" s="415"/>
-      <c r="E69" s="415"/>
-      <c r="F69" s="415"/>
-      <c r="G69" s="416"/>
+      <c r="C69" s="417"/>
+      <c r="D69" s="417"/>
+      <c r="E69" s="417"/>
+      <c r="F69" s="417"/>
+      <c r="G69" s="418"/>
       <c r="H69" s="211"/>
       <c r="I69" s="212"/>
       <c r="J69" s="207"/>
-      <c r="K69" s="411">
+      <c r="K69" s="413">
         <v>0</v>
       </c>
-      <c r="L69" s="412"/>
-      <c r="M69" s="413"/>
-      <c r="N69" s="411">
+      <c r="L69" s="414"/>
+      <c r="M69" s="415"/>
+      <c r="N69" s="413">
         <v>0</v>
       </c>
-      <c r="O69" s="412"/>
-      <c r="P69" s="413"/>
+      <c r="O69" s="414"/>
+      <c r="P69" s="415"/>
       <c r="Q69" s="103"/>
       <c r="R69" s="102"/>
       <c r="S69" s="102"/>
@@ -22174,27 +22658,27 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B70" s="414" t="s">
+      <c r="B70" s="416" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="415"/>
-      <c r="D70" s="415"/>
-      <c r="E70" s="415"/>
-      <c r="F70" s="415"/>
-      <c r="G70" s="416"/>
+      <c r="C70" s="417"/>
+      <c r="D70" s="417"/>
+      <c r="E70" s="417"/>
+      <c r="F70" s="417"/>
+      <c r="G70" s="418"/>
       <c r="H70" s="211"/>
       <c r="I70" s="212"/>
       <c r="J70" s="207"/>
-      <c r="K70" s="411">
+      <c r="K70" s="413">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="L70" s="412"/>
-      <c r="M70" s="413"/>
-      <c r="N70" s="411">
+      <c r="L70" s="414"/>
+      <c r="M70" s="415"/>
+      <c r="N70" s="413">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="O70" s="412"/>
-      <c r="P70" s="413"/>
+      <c r="O70" s="414"/>
+      <c r="P70" s="415"/>
       <c r="Q70" s="103"/>
       <c r="R70" s="102"/>
       <c r="S70" s="102"/>
@@ -22235,27 +22719,27 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B71" s="414" t="s">
+      <c r="B71" s="416" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="415"/>
-      <c r="D71" s="415"/>
-      <c r="E71" s="415"/>
-      <c r="F71" s="415"/>
-      <c r="G71" s="416"/>
+      <c r="C71" s="417"/>
+      <c r="D71" s="417"/>
+      <c r="E71" s="417"/>
+      <c r="F71" s="417"/>
+      <c r="G71" s="418"/>
       <c r="H71" s="211"/>
       <c r="I71" s="212"/>
       <c r="J71" s="207"/>
-      <c r="K71" s="411">
+      <c r="K71" s="413">
         <v>0.96319999999999995</v>
       </c>
-      <c r="L71" s="412"/>
-      <c r="M71" s="413"/>
-      <c r="N71" s="411">
+      <c r="L71" s="414"/>
+      <c r="M71" s="415"/>
+      <c r="N71" s="413">
         <v>0.95920000000000005</v>
       </c>
-      <c r="O71" s="412"/>
-      <c r="P71" s="413"/>
+      <c r="O71" s="414"/>
+      <c r="P71" s="415"/>
       <c r="Q71" s="103"/>
       <c r="R71" s="102"/>
       <c r="S71" s="102"/>
@@ -22296,27 +22780,27 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B72" s="414" t="s">
+      <c r="B72" s="416" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="415"/>
-      <c r="D72" s="415"/>
-      <c r="E72" s="415"/>
-      <c r="F72" s="415"/>
-      <c r="G72" s="416"/>
+      <c r="C72" s="417"/>
+      <c r="D72" s="417"/>
+      <c r="E72" s="417"/>
+      <c r="F72" s="417"/>
+      <c r="G72" s="418"/>
       <c r="H72" s="211"/>
       <c r="I72" s="212"/>
       <c r="J72" s="207"/>
-      <c r="K72" s="411">
+      <c r="K72" s="413">
         <v>1.46E-2</v>
       </c>
-      <c r="L72" s="412"/>
-      <c r="M72" s="413"/>
-      <c r="N72" s="411">
+      <c r="L72" s="414"/>
+      <c r="M72" s="415"/>
+      <c r="N72" s="413">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="O72" s="412"/>
-      <c r="P72" s="413"/>
+      <c r="O72" s="414"/>
+      <c r="P72" s="415"/>
       <c r="Q72" s="103"/>
       <c r="R72" s="102"/>
       <c r="S72" s="102"/>
@@ -22357,27 +22841,27 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B73" s="414" t="s">
+      <c r="B73" s="416" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="415"/>
-      <c r="D73" s="415"/>
-      <c r="E73" s="415"/>
-      <c r="F73" s="415"/>
-      <c r="G73" s="416"/>
+      <c r="C73" s="417"/>
+      <c r="D73" s="417"/>
+      <c r="E73" s="417"/>
+      <c r="F73" s="417"/>
+      <c r="G73" s="418"/>
       <c r="H73" s="211"/>
       <c r="I73" s="212"/>
       <c r="J73" s="207"/>
-      <c r="K73" s="411">
+      <c r="K73" s="413">
         <v>1.35E-2</v>
       </c>
-      <c r="L73" s="412"/>
-      <c r="M73" s="413"/>
-      <c r="N73" s="411">
+      <c r="L73" s="414"/>
+      <c r="M73" s="415"/>
+      <c r="N73" s="413">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="O73" s="412"/>
-      <c r="P73" s="413"/>
+      <c r="O73" s="414"/>
+      <c r="P73" s="415"/>
       <c r="Q73" s="103"/>
       <c r="R73" s="102"/>
       <c r="S73" s="102"/>
@@ -22418,27 +22902,27 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B74" s="414" t="s">
+      <c r="B74" s="416" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="415"/>
-      <c r="D74" s="415"/>
-      <c r="E74" s="415"/>
-      <c r="F74" s="415"/>
-      <c r="G74" s="416"/>
+      <c r="C74" s="417"/>
+      <c r="D74" s="417"/>
+      <c r="E74" s="417"/>
+      <c r="F74" s="417"/>
+      <c r="G74" s="418"/>
       <c r="H74" s="211"/>
       <c r="I74" s="212"/>
       <c r="J74" s="207"/>
-      <c r="K74" s="411">
+      <c r="K74" s="413">
         <v>0</v>
       </c>
-      <c r="L74" s="412"/>
-      <c r="M74" s="413"/>
-      <c r="N74" s="411">
+      <c r="L74" s="414"/>
+      <c r="M74" s="415"/>
+      <c r="N74" s="413">
         <v>0</v>
       </c>
-      <c r="O74" s="412"/>
-      <c r="P74" s="413"/>
+      <c r="O74" s="414"/>
+      <c r="P74" s="415"/>
       <c r="Q74" s="103"/>
       <c r="R74" s="102"/>
       <c r="S74" s="102"/>
@@ -22479,27 +22963,27 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B75" s="414" t="s">
+      <c r="B75" s="416" t="s">
         <v>100</v>
       </c>
-      <c r="C75" s="415"/>
-      <c r="D75" s="415"/>
-      <c r="E75" s="415"/>
-      <c r="F75" s="415"/>
-      <c r="G75" s="416"/>
+      <c r="C75" s="417"/>
+      <c r="D75" s="417"/>
+      <c r="E75" s="417"/>
+      <c r="F75" s="417"/>
+      <c r="G75" s="418"/>
       <c r="H75" s="211"/>
       <c r="I75" s="212"/>
       <c r="J75" s="207"/>
-      <c r="K75" s="411">
+      <c r="K75" s="413">
         <v>0</v>
       </c>
-      <c r="L75" s="412"/>
-      <c r="M75" s="413"/>
-      <c r="N75" s="411">
+      <c r="L75" s="414"/>
+      <c r="M75" s="415"/>
+      <c r="N75" s="413">
         <v>0</v>
       </c>
-      <c r="O75" s="412"/>
-      <c r="P75" s="413"/>
+      <c r="O75" s="414"/>
+      <c r="P75" s="415"/>
       <c r="Q75" s="101"/>
       <c r="R75" s="96"/>
       <c r="S75" s="96"/>
@@ -22542,27 +23026,27 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B76" s="414" t="s">
+      <c r="B76" s="416" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="415"/>
-      <c r="D76" s="415"/>
-      <c r="E76" s="415"/>
-      <c r="F76" s="415"/>
-      <c r="G76" s="416"/>
+      <c r="C76" s="417"/>
+      <c r="D76" s="417"/>
+      <c r="E76" s="417"/>
+      <c r="F76" s="417"/>
+      <c r="G76" s="418"/>
       <c r="H76" s="211"/>
       <c r="I76" s="212"/>
       <c r="J76" s="207"/>
-      <c r="K76" s="411">
+      <c r="K76" s="413">
         <v>0</v>
       </c>
-      <c r="L76" s="412"/>
-      <c r="M76" s="413"/>
-      <c r="N76" s="411">
+      <c r="L76" s="414"/>
+      <c r="M76" s="415"/>
+      <c r="N76" s="413">
         <v>0</v>
       </c>
-      <c r="O76" s="412"/>
-      <c r="P76" s="413"/>
+      <c r="O76" s="414"/>
+      <c r="P76" s="415"/>
       <c r="Q76" s="101"/>
       <c r="R76" s="96"/>
       <c r="S76" s="96"/>
@@ -22605,27 +23089,27 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B77" s="414" t="s">
+      <c r="B77" s="416" t="s">
         <v>295</v>
       </c>
-      <c r="C77" s="415"/>
-      <c r="D77" s="415"/>
-      <c r="E77" s="415"/>
-      <c r="F77" s="415"/>
-      <c r="G77" s="416"/>
+      <c r="C77" s="417"/>
+      <c r="D77" s="417"/>
+      <c r="E77" s="417"/>
+      <c r="F77" s="417"/>
+      <c r="G77" s="418"/>
       <c r="H77" s="211"/>
       <c r="I77" s="212"/>
       <c r="J77" s="207"/>
-      <c r="K77" s="411">
+      <c r="K77" s="413">
         <v>0</v>
       </c>
-      <c r="L77" s="412"/>
-      <c r="M77" s="413"/>
-      <c r="N77" s="411">
+      <c r="L77" s="414"/>
+      <c r="M77" s="415"/>
+      <c r="N77" s="413">
         <v>0</v>
       </c>
-      <c r="O77" s="412"/>
-      <c r="P77" s="413"/>
+      <c r="O77" s="414"/>
+      <c r="P77" s="415"/>
       <c r="Q77" s="101"/>
       <c r="R77" s="96"/>
       <c r="S77" s="96"/>
@@ -22666,27 +23150,27 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B78" s="414" t="s">
+      <c r="B78" s="416" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="415"/>
-      <c r="D78" s="415"/>
-      <c r="E78" s="415"/>
-      <c r="F78" s="415"/>
-      <c r="G78" s="416"/>
+      <c r="C78" s="417"/>
+      <c r="D78" s="417"/>
+      <c r="E78" s="417"/>
+      <c r="F78" s="417"/>
+      <c r="G78" s="418"/>
       <c r="H78" s="211"/>
       <c r="I78" s="212"/>
       <c r="J78" s="207"/>
-      <c r="K78" s="411">
+      <c r="K78" s="413">
         <v>0</v>
       </c>
-      <c r="L78" s="412"/>
-      <c r="M78" s="413"/>
-      <c r="N78" s="411">
+      <c r="L78" s="414"/>
+      <c r="M78" s="415"/>
+      <c r="N78" s="413">
         <v>0</v>
       </c>
-      <c r="O78" s="412"/>
-      <c r="P78" s="413"/>
+      <c r="O78" s="414"/>
+      <c r="P78" s="415"/>
       <c r="Q78" s="101"/>
       <c r="R78" s="96"/>
       <c r="S78" s="96"/>
@@ -22727,27 +23211,27 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B79" s="414" t="s">
+      <c r="B79" s="416" t="s">
         <v>105</v>
       </c>
-      <c r="C79" s="415"/>
-      <c r="D79" s="415"/>
-      <c r="E79" s="415"/>
-      <c r="F79" s="415"/>
-      <c r="G79" s="416"/>
+      <c r="C79" s="417"/>
+      <c r="D79" s="417"/>
+      <c r="E79" s="417"/>
+      <c r="F79" s="417"/>
+      <c r="G79" s="418"/>
       <c r="H79" s="211"/>
       <c r="I79" s="212"/>
       <c r="J79" s="207"/>
-      <c r="K79" s="411">
+      <c r="K79" s="413">
         <v>0</v>
       </c>
-      <c r="L79" s="412"/>
-      <c r="M79" s="413"/>
-      <c r="N79" s="411">
+      <c r="L79" s="414"/>
+      <c r="M79" s="415"/>
+      <c r="N79" s="413">
         <v>0</v>
       </c>
-      <c r="O79" s="412"/>
-      <c r="P79" s="413"/>
+      <c r="O79" s="414"/>
+      <c r="P79" s="415"/>
       <c r="Q79" s="101"/>
       <c r="R79" s="96"/>
       <c r="S79" s="96"/>
@@ -22788,27 +23272,27 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B80" s="414" t="s">
+      <c r="B80" s="416" t="s">
         <v>106</v>
       </c>
-      <c r="C80" s="415"/>
-      <c r="D80" s="415"/>
-      <c r="E80" s="415"/>
-      <c r="F80" s="415"/>
-      <c r="G80" s="416"/>
+      <c r="C80" s="417"/>
+      <c r="D80" s="417"/>
+      <c r="E80" s="417"/>
+      <c r="F80" s="417"/>
+      <c r="G80" s="418"/>
       <c r="H80" s="211"/>
       <c r="I80" s="212"/>
       <c r="J80" s="207"/>
-      <c r="K80" s="411">
+      <c r="K80" s="413">
         <v>0</v>
       </c>
-      <c r="L80" s="412"/>
-      <c r="M80" s="413"/>
-      <c r="N80" s="411">
+      <c r="L80" s="414"/>
+      <c r="M80" s="415"/>
+      <c r="N80" s="413">
         <v>0</v>
       </c>
-      <c r="O80" s="412"/>
-      <c r="P80" s="413"/>
+      <c r="O80" s="414"/>
+      <c r="P80" s="415"/>
       <c r="Q80" s="101"/>
       <c r="R80" s="96"/>
       <c r="S80" s="96"/>
@@ -22849,27 +23333,27 @@
         <f>A80+1</f>
         <v>17</v>
       </c>
-      <c r="B81" s="414" t="s">
+      <c r="B81" s="416" t="s">
         <v>107</v>
       </c>
-      <c r="C81" s="415"/>
-      <c r="D81" s="415"/>
-      <c r="E81" s="415"/>
-      <c r="F81" s="415"/>
-      <c r="G81" s="416"/>
+      <c r="C81" s="417"/>
+      <c r="D81" s="417"/>
+      <c r="E81" s="417"/>
+      <c r="F81" s="417"/>
+      <c r="G81" s="418"/>
       <c r="H81" s="211"/>
       <c r="I81" s="212"/>
       <c r="J81" s="207"/>
-      <c r="K81" s="411">
+      <c r="K81" s="413">
         <v>0</v>
       </c>
-      <c r="L81" s="412"/>
-      <c r="M81" s="413"/>
-      <c r="N81" s="411">
+      <c r="L81" s="414"/>
+      <c r="M81" s="415"/>
+      <c r="N81" s="413">
         <v>0</v>
       </c>
-      <c r="O81" s="412"/>
-      <c r="P81" s="413"/>
+      <c r="O81" s="414"/>
+      <c r="P81" s="415"/>
       <c r="Q81" s="101"/>
       <c r="R81" s="96"/>
       <c r="S81" s="96"/>
@@ -22910,27 +23394,27 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B82" s="414" t="s">
+      <c r="B82" s="416" t="s">
         <v>108</v>
       </c>
-      <c r="C82" s="415"/>
-      <c r="D82" s="415"/>
-      <c r="E82" s="415"/>
-      <c r="F82" s="415"/>
-      <c r="G82" s="416"/>
+      <c r="C82" s="417"/>
+      <c r="D82" s="417"/>
+      <c r="E82" s="417"/>
+      <c r="F82" s="417"/>
+      <c r="G82" s="418"/>
       <c r="H82" s="211"/>
       <c r="I82" s="212"/>
       <c r="J82" s="207"/>
-      <c r="K82" s="411">
+      <c r="K82" s="413">
         <v>0</v>
       </c>
-      <c r="L82" s="412"/>
-      <c r="M82" s="413"/>
-      <c r="N82" s="411">
+      <c r="L82" s="414"/>
+      <c r="M82" s="415"/>
+      <c r="N82" s="413">
         <v>0</v>
       </c>
-      <c r="O82" s="412"/>
-      <c r="P82" s="413"/>
+      <c r="O82" s="414"/>
+      <c r="P82" s="415"/>
       <c r="Q82" s="111"/>
       <c r="R82" s="96"/>
       <c r="S82" s="96"/>
@@ -22971,27 +23455,27 @@
         <f>A82+1</f>
         <v>19</v>
       </c>
-      <c r="B83" s="414" t="s">
+      <c r="B83" s="416" t="s">
         <v>109</v>
       </c>
-      <c r="C83" s="415"/>
-      <c r="D83" s="415"/>
-      <c r="E83" s="415"/>
-      <c r="F83" s="415"/>
-      <c r="G83" s="416"/>
+      <c r="C83" s="417"/>
+      <c r="D83" s="417"/>
+      <c r="E83" s="417"/>
+      <c r="F83" s="417"/>
+      <c r="G83" s="418"/>
       <c r="H83" s="211"/>
       <c r="I83" s="212"/>
       <c r="J83" s="207"/>
-      <c r="K83" s="411">
+      <c r="K83" s="413">
         <v>0</v>
       </c>
-      <c r="L83" s="412"/>
-      <c r="M83" s="413"/>
-      <c r="N83" s="411">
+      <c r="L83" s="414"/>
+      <c r="M83" s="415"/>
+      <c r="N83" s="413">
         <v>0</v>
       </c>
-      <c r="O83" s="412"/>
-      <c r="P83" s="413"/>
+      <c r="O83" s="414"/>
+      <c r="P83" s="415"/>
       <c r="Q83" s="101"/>
       <c r="R83" s="96"/>
       <c r="S83" s="96"/>
@@ -23032,27 +23516,27 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B84" s="414" t="s">
+      <c r="B84" s="416" t="s">
         <v>110</v>
       </c>
-      <c r="C84" s="415"/>
-      <c r="D84" s="415"/>
-      <c r="E84" s="415"/>
-      <c r="F84" s="415"/>
-      <c r="G84" s="416"/>
+      <c r="C84" s="417"/>
+      <c r="D84" s="417"/>
+      <c r="E84" s="417"/>
+      <c r="F84" s="417"/>
+      <c r="G84" s="418"/>
       <c r="H84" s="211"/>
       <c r="I84" s="212"/>
       <c r="J84" s="207"/>
-      <c r="K84" s="411">
+      <c r="K84" s="413">
         <v>0</v>
       </c>
-      <c r="L84" s="412"/>
-      <c r="M84" s="413"/>
-      <c r="N84" s="411">
+      <c r="L84" s="414"/>
+      <c r="M84" s="415"/>
+      <c r="N84" s="413">
         <v>0</v>
       </c>
-      <c r="O84" s="412"/>
-      <c r="P84" s="413"/>
+      <c r="O84" s="414"/>
+      <c r="P84" s="415"/>
       <c r="Q84" s="101"/>
       <c r="R84" s="96"/>
       <c r="S84" s="96"/>
@@ -23093,27 +23577,27 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B85" s="414" t="s">
+      <c r="B85" s="416" t="s">
         <v>298</v>
       </c>
-      <c r="C85" s="415"/>
-      <c r="D85" s="415"/>
-      <c r="E85" s="415"/>
-      <c r="F85" s="415"/>
-      <c r="G85" s="416"/>
+      <c r="C85" s="417"/>
+      <c r="D85" s="417"/>
+      <c r="E85" s="417"/>
+      <c r="F85" s="417"/>
+      <c r="G85" s="418"/>
       <c r="H85" s="211"/>
       <c r="I85" s="212"/>
       <c r="J85" s="207"/>
-      <c r="K85" s="411">
+      <c r="K85" s="413">
         <v>0</v>
       </c>
-      <c r="L85" s="412"/>
-      <c r="M85" s="413"/>
-      <c r="N85" s="411">
+      <c r="L85" s="414"/>
+      <c r="M85" s="415"/>
+      <c r="N85" s="413">
         <v>0</v>
       </c>
-      <c r="O85" s="412"/>
-      <c r="P85" s="413"/>
+      <c r="O85" s="414"/>
+      <c r="P85" s="415"/>
       <c r="Q85" s="101"/>
       <c r="R85" s="96"/>
       <c r="S85" s="96"/>
@@ -23166,11 +23650,11 @@
       <c r="K86" s="209"/>
       <c r="L86" s="209"/>
       <c r="M86" s="210"/>
-      <c r="N86" s="417">
+      <c r="N86" s="419">
         <v>0</v>
       </c>
-      <c r="O86" s="418"/>
-      <c r="P86" s="419"/>
+      <c r="O86" s="420"/>
+      <c r="P86" s="421"/>
       <c r="Q86" s="101"/>
       <c r="R86" s="96"/>
       <c r="S86" s="96"/>
@@ -23223,11 +23707,11 @@
       <c r="K87" s="209"/>
       <c r="L87" s="209"/>
       <c r="M87" s="210"/>
-      <c r="N87" s="417">
+      <c r="N87" s="419">
         <v>0</v>
       </c>
-      <c r="O87" s="418"/>
-      <c r="P87" s="419"/>
+      <c r="O87" s="420"/>
+      <c r="P87" s="421"/>
       <c r="Q87" s="101"/>
       <c r="R87" s="96"/>
       <c r="S87" s="96"/>
@@ -23282,11 +23766,11 @@
       <c r="K88" s="209"/>
       <c r="L88" s="209"/>
       <c r="M88" s="210"/>
-      <c r="N88" s="417">
+      <c r="N88" s="419">
         <v>0</v>
       </c>
-      <c r="O88" s="418"/>
-      <c r="P88" s="419"/>
+      <c r="O88" s="420"/>
+      <c r="P88" s="421"/>
       <c r="Q88" s="101"/>
       <c r="R88" s="96"/>
       <c r="S88" s="96"/>
@@ -23338,18 +23822,18 @@
       <c r="H89" s="101"/>
       <c r="I89" s="96"/>
       <c r="J89" s="100"/>
-      <c r="K89" s="432">
+      <c r="K89" s="434">
         <f>IF(SUM(K69:M88)=0,"",SUM(K69:M85))</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="L89" s="433"/>
-      <c r="M89" s="434"/>
-      <c r="N89" s="432">
+      <c r="L89" s="435"/>
+      <c r="M89" s="436"/>
+      <c r="N89" s="434">
         <f>IF(SUM(N69:P88)=0,"",SUM(N69:P88))</f>
         <v>1</v>
       </c>
-      <c r="O89" s="433"/>
-      <c r="P89" s="434"/>
+      <c r="O89" s="435"/>
+      <c r="P89" s="436"/>
       <c r="Q89" s="101"/>
       <c r="R89" s="96"/>
       <c r="S89" s="96"/>
@@ -23401,16 +23885,16 @@
       <c r="H90" s="101"/>
       <c r="I90" s="96"/>
       <c r="J90" s="100"/>
-      <c r="K90" s="435">
+      <c r="K90" s="437">
         <v>44.367735652000007</v>
       </c>
-      <c r="L90" s="436"/>
-      <c r="M90" s="437"/>
-      <c r="N90" s="435">
+      <c r="L90" s="438"/>
+      <c r="M90" s="439"/>
+      <c r="N90" s="437">
         <v>44.033903047999999</v>
       </c>
-      <c r="O90" s="436"/>
-      <c r="P90" s="437"/>
+      <c r="O90" s="438"/>
+      <c r="P90" s="439"/>
       <c r="Q90" s="101"/>
       <c r="R90" s="96"/>
       <c r="S90" s="96"/>
@@ -25116,27 +25600,27 @@
       </c>
       <c r="U118" s="142"/>
       <c r="V118" s="142"/>
-      <c r="W118" s="428" t="s">
+      <c r="W118" s="430" t="s">
         <v>1</v>
       </c>
-      <c r="X118" s="428"/>
-      <c r="Y118" s="428"/>
-      <c r="Z118" s="428"/>
-      <c r="AA118" s="428"/>
+      <c r="X118" s="430"/>
+      <c r="Y118" s="430"/>
+      <c r="Z118" s="430"/>
+      <c r="AA118" s="430"/>
       <c r="AB118" s="134" t="s">
         <v>2</v>
       </c>
       <c r="AC118" s="134"/>
       <c r="AD118" s="134"/>
-      <c r="AE118" s="428" t="e">
+      <c r="AE118" s="430" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AF118" s="428"/>
-      <c r="AG118" s="428"/>
-      <c r="AH118" s="428"/>
-      <c r="AI118" s="428"/>
-      <c r="AJ118" s="428"/>
-      <c r="AK118" s="428"/>
+      <c r="AF118" s="430"/>
+      <c r="AG118" s="430"/>
+      <c r="AH118" s="430"/>
+      <c r="AI118" s="430"/>
+      <c r="AJ118" s="430"/>
+      <c r="AK118" s="430"/>
       <c r="AL118" s="138"/>
       <c r="AM118" s="141"/>
       <c r="AN118" s="138"/>
@@ -25179,26 +25663,26 @@
       <c r="U119" s="142"/>
       <c r="V119" s="142"/>
       <c r="W119" s="134"/>
-      <c r="X119" s="427" t="e">
+      <c r="X119" s="429" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Y119" s="427"/>
-      <c r="Z119" s="427"/>
-      <c r="AA119" s="427"/>
+      <c r="Y119" s="429"/>
+      <c r="Z119" s="429"/>
+      <c r="AA119" s="429"/>
       <c r="AB119" s="146" t="s">
         <v>7</v>
       </c>
       <c r="AC119" s="146"/>
-      <c r="AD119" s="428" t="e">
+      <c r="AD119" s="430" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AE119" s="428"/>
-      <c r="AF119" s="428"/>
-      <c r="AG119" s="428"/>
-      <c r="AH119" s="428"/>
-      <c r="AI119" s="428"/>
-      <c r="AJ119" s="428"/>
-      <c r="AK119" s="428"/>
+      <c r="AE119" s="430"/>
+      <c r="AF119" s="430"/>
+      <c r="AG119" s="430"/>
+      <c r="AH119" s="430"/>
+      <c r="AI119" s="430"/>
+      <c r="AJ119" s="430"/>
+      <c r="AK119" s="430"/>
       <c r="AL119" s="138"/>
       <c r="AM119" s="141"/>
       <c r="AN119" s="138"/>
@@ -25999,26 +26483,26 @@
         <v>199</v>
       </c>
       <c r="AA132" s="134"/>
-      <c r="AB132" s="500">
+      <c r="AB132" s="502">
         <v>664</v>
       </c>
-      <c r="AC132" s="501"/>
-      <c r="AD132" s="405"/>
-      <c r="AE132" s="405"/>
-      <c r="AF132" s="405"/>
-      <c r="AG132" s="405"/>
-      <c r="AH132" s="405"/>
-      <c r="AI132" s="405"/>
-      <c r="AJ132" s="405"/>
-      <c r="AK132" s="405"/>
-      <c r="AL132" s="406"/>
-      <c r="AM132" s="407"/>
-      <c r="AN132" s="408" t="s">
+      <c r="AC132" s="503"/>
+      <c r="AD132" s="403"/>
+      <c r="AE132" s="403"/>
+      <c r="AF132" s="403"/>
+      <c r="AG132" s="403"/>
+      <c r="AH132" s="403"/>
+      <c r="AI132" s="403"/>
+      <c r="AJ132" s="403"/>
+      <c r="AK132" s="403"/>
+      <c r="AL132" s="404"/>
+      <c r="AM132" s="405"/>
+      <c r="AN132" s="406" t="s">
         <v>200</v>
       </c>
-      <c r="AO132" s="408"/>
-      <c r="AP132" s="409"/>
-      <c r="AQ132" s="410">
+      <c r="AO132" s="406"/>
+      <c r="AP132" s="407"/>
+      <c r="AQ132" s="408">
         <v>34.090000000000003</v>
       </c>
       <c r="AR132" s="50" t="s">
@@ -26066,26 +26550,26 @@
         <v>203</v>
       </c>
       <c r="AA133" s="134"/>
-      <c r="AB133" s="500">
+      <c r="AB133" s="502">
         <v>755</v>
       </c>
-      <c r="AC133" s="501"/>
-      <c r="AD133" s="405"/>
-      <c r="AE133" s="405"/>
-      <c r="AF133" s="405"/>
-      <c r="AG133" s="405"/>
-      <c r="AH133" s="405"/>
-      <c r="AI133" s="405"/>
-      <c r="AJ133" s="405"/>
-      <c r="AK133" s="405"/>
-      <c r="AL133" s="406"/>
-      <c r="AM133" s="407"/>
-      <c r="AN133" s="408" t="s">
+      <c r="AC133" s="503"/>
+      <c r="AD133" s="403"/>
+      <c r="AE133" s="403"/>
+      <c r="AF133" s="403"/>
+      <c r="AG133" s="403"/>
+      <c r="AH133" s="403"/>
+      <c r="AI133" s="403"/>
+      <c r="AJ133" s="403"/>
+      <c r="AK133" s="403"/>
+      <c r="AL133" s="404"/>
+      <c r="AM133" s="405"/>
+      <c r="AN133" s="406" t="s">
         <v>200</v>
       </c>
-      <c r="AO133" s="408"/>
-      <c r="AP133" s="409"/>
-      <c r="AQ133" s="410">
+      <c r="AO133" s="406"/>
+      <c r="AP133" s="407"/>
+      <c r="AQ133" s="408">
         <v>57.32</v>
       </c>
       <c r="AR133" s="50" t="s">
@@ -27412,12 +27896,12 @@
       <c r="AE155" s="163"/>
       <c r="AF155" s="163"/>
       <c r="AG155" s="163"/>
-      <c r="AH155" s="429">
+      <c r="AH155" s="431">
         <v>15919</v>
       </c>
-      <c r="AI155" s="430"/>
-      <c r="AJ155" s="430"/>
-      <c r="AK155" s="431"/>
+      <c r="AI155" s="432"/>
+      <c r="AJ155" s="432"/>
+      <c r="AK155" s="433"/>
       <c r="AL155" s="163"/>
       <c r="AM155" s="162"/>
       <c r="AN155" s="164"/>
@@ -28659,6 +29143,7 @@
     <mergeCell ref="T41:V41"/>
     <mergeCell ref="Z41:AB41"/>
     <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="T32:V32"/>
     <mergeCell ref="AQ23:AT23"/>
     <mergeCell ref="AQ24:AR24"/>
     <mergeCell ref="W21:Y21"/>
@@ -28672,6 +29157,9 @@
     <mergeCell ref="AQ30:AR30"/>
     <mergeCell ref="AQ31:AR31"/>
     <mergeCell ref="AQ32:AR32"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
     <mergeCell ref="AD4:AK4"/>
     <mergeCell ref="E8:T8"/>
     <mergeCell ref="E9:T9"/>
@@ -28707,10 +29195,6 @@
     <mergeCell ref="AC35:AE35"/>
     <mergeCell ref="T31:V31"/>
     <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
     <mergeCell ref="AD67:AL67"/>
     <mergeCell ref="K76:M76"/>
     <mergeCell ref="N76:P76"/>
@@ -28815,29 +29299,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="512" t="s">
+      <c r="B3" s="514" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="513"/>
+      <c r="C3" s="515"/>
       <c r="D3" s="225" t="s">
         <v>299</v>
       </c>
-      <c r="F3" s="523" t="s">
+      <c r="F3" s="525" t="s">
         <v>343</v>
       </c>
-      <c r="G3" s="524"/>
-      <c r="H3" s="524"/>
-      <c r="I3" s="524"/>
-      <c r="J3" s="524"/>
-      <c r="K3" s="524"/>
-      <c r="L3" s="524"/>
-      <c r="M3" s="524"/>
-      <c r="N3" s="524"/>
-      <c r="O3" s="524"/>
-      <c r="P3" s="524"/>
-      <c r="Q3" s="524"/>
-      <c r="R3" s="524"/>
-      <c r="S3" s="525"/>
+      <c r="G3" s="526"/>
+      <c r="H3" s="526"/>
+      <c r="I3" s="526"/>
+      <c r="J3" s="526"/>
+      <c r="K3" s="526"/>
+      <c r="L3" s="526"/>
+      <c r="M3" s="526"/>
+      <c r="N3" s="526"/>
+      <c r="O3" s="526"/>
+      <c r="P3" s="526"/>
+      <c r="Q3" s="526"/>
+      <c r="R3" s="526"/>
+      <c r="S3" s="527"/>
       <c r="T3" s="228"/>
       <c r="U3" s="228"/>
       <c r="V3" s="228"/>
@@ -28848,45 +29332,45 @@
       <c r="AA3" s="228"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="514" t="s">
+      <c r="B4" s="516" t="s">
         <v>359</v>
       </c>
-      <c r="C4" s="515"/>
+      <c r="C4" s="517"/>
       <c r="D4" s="224">
         <v>1</v>
       </c>
-      <c r="F4" s="516" t="s">
+      <c r="F4" s="518" t="s">
         <v>300</v>
       </c>
-      <c r="G4" s="517"/>
-      <c r="H4" s="521" t="s">
+      <c r="G4" s="519"/>
+      <c r="H4" s="523" t="s">
         <v>322</v>
       </c>
-      <c r="I4" s="522"/>
-      <c r="J4" s="516" t="s">
+      <c r="I4" s="524"/>
+      <c r="J4" s="518" t="s">
         <v>306</v>
       </c>
-      <c r="K4" s="517"/>
-      <c r="L4" s="518" t="s">
+      <c r="K4" s="519"/>
+      <c r="L4" s="520" t="s">
         <v>301</v>
       </c>
-      <c r="M4" s="519"/>
-      <c r="N4" s="519"/>
-      <c r="O4" s="520"/>
-      <c r="P4" s="518" t="s">
+      <c r="M4" s="521"/>
+      <c r="N4" s="521"/>
+      <c r="O4" s="522"/>
+      <c r="P4" s="520" t="s">
         <v>302</v>
       </c>
-      <c r="Q4" s="519"/>
-      <c r="R4" s="519"/>
-      <c r="S4" s="520"/>
+      <c r="Q4" s="521"/>
+      <c r="R4" s="521"/>
+      <c r="S4" s="522"/>
       <c r="T4" s="226"/>
       <c r="U4" s="226"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="514" t="s">
+      <c r="B5" s="516" t="s">
         <v>319</v>
       </c>
-      <c r="C5" s="515"/>
+      <c r="C5" s="517"/>
       <c r="D5" s="224">
         <v>0</v>
       </c>
@@ -28930,10 +29414,10 @@
       <c r="U5" s="227"/>
     </row>
     <row r="6" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="514" t="s">
+      <c r="B6" s="516" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="515"/>
+      <c r="C6" s="517"/>
       <c r="D6" s="224">
         <v>0</v>
       </c>
@@ -28982,29 +29466,29 @@
       <c r="U6" s="229"/>
     </row>
     <row r="7" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="514" t="s">
+      <c r="B7" s="516" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="515"/>
+      <c r="C7" s="517"/>
       <c r="D7" s="224">
         <v>0</v>
       </c>
-      <c r="F7" s="509" t="s">
+      <c r="F7" s="511" t="s">
         <v>342</v>
       </c>
-      <c r="G7" s="510"/>
-      <c r="H7" s="510"/>
-      <c r="I7" s="511"/>
+      <c r="G7" s="512"/>
+      <c r="H7" s="512"/>
+      <c r="I7" s="513"/>
     </row>
     <row r="8" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="514" t="s">
+      <c r="B8" s="516" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="515"/>
+      <c r="C8" s="517"/>
       <c r="D8" s="224">
         <v>0</v>
       </c>
-      <c r="K8" s="534" t="s">
+      <c r="K8" s="536" t="s">
         <v>346</v>
       </c>
       <c r="L8" s="250" t="s">
@@ -29033,14 +29517,14 @@
       </c>
     </row>
     <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="514" t="s">
+      <c r="B9" s="516" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="515"/>
+      <c r="C9" s="517"/>
       <c r="D9" s="224">
         <v>0</v>
       </c>
-      <c r="K9" s="535"/>
+      <c r="K9" s="537"/>
       <c r="L9" s="230">
         <v>206996.51233021205</v>
       </c>
@@ -29067,77 +29551,77 @@
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="514" t="s">
+      <c r="B10" s="516" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="515"/>
+      <c r="C10" s="517"/>
       <c r="D10" s="224">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="514" t="s">
+      <c r="B11" s="516" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="515"/>
+      <c r="C11" s="517"/>
       <c r="D11" s="224">
         <v>0</v>
       </c>
-      <c r="F11" s="523" t="s">
+      <c r="F11" s="525" t="s">
         <v>344</v>
       </c>
-      <c r="G11" s="524"/>
-      <c r="H11" s="524"/>
-      <c r="I11" s="524"/>
-      <c r="J11" s="524"/>
-      <c r="K11" s="524"/>
-      <c r="L11" s="524"/>
-      <c r="M11" s="524"/>
-      <c r="N11" s="524"/>
-      <c r="O11" s="524"/>
-      <c r="P11" s="524"/>
-      <c r="Q11" s="524"/>
-      <c r="R11" s="524"/>
-      <c r="S11" s="525"/>
+      <c r="G11" s="526"/>
+      <c r="H11" s="526"/>
+      <c r="I11" s="526"/>
+      <c r="J11" s="526"/>
+      <c r="K11" s="526"/>
+      <c r="L11" s="526"/>
+      <c r="M11" s="526"/>
+      <c r="N11" s="526"/>
+      <c r="O11" s="526"/>
+      <c r="P11" s="526"/>
+      <c r="Q11" s="526"/>
+      <c r="R11" s="526"/>
+      <c r="S11" s="527"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="514" t="s">
+      <c r="B12" s="516" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="515"/>
+      <c r="C12" s="517"/>
       <c r="D12" s="224">
         <v>0</v>
       </c>
-      <c r="F12" s="516" t="s">
+      <c r="F12" s="518" t="s">
         <v>300</v>
       </c>
-      <c r="G12" s="517"/>
-      <c r="H12" s="521" t="s">
+      <c r="G12" s="519"/>
+      <c r="H12" s="523" t="s">
         <v>322</v>
       </c>
-      <c r="I12" s="522"/>
-      <c r="J12" s="516" t="s">
+      <c r="I12" s="524"/>
+      <c r="J12" s="518" t="s">
         <v>306</v>
       </c>
-      <c r="K12" s="517"/>
-      <c r="L12" s="518" t="s">
+      <c r="K12" s="519"/>
+      <c r="L12" s="520" t="s">
         <v>301</v>
       </c>
-      <c r="M12" s="519"/>
-      <c r="N12" s="519"/>
-      <c r="O12" s="520"/>
-      <c r="P12" s="518" t="s">
+      <c r="M12" s="521"/>
+      <c r="N12" s="521"/>
+      <c r="O12" s="522"/>
+      <c r="P12" s="520" t="s">
         <v>302</v>
       </c>
-      <c r="Q12" s="519"/>
-      <c r="R12" s="519"/>
-      <c r="S12" s="520"/>
+      <c r="Q12" s="521"/>
+      <c r="R12" s="521"/>
+      <c r="S12" s="522"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="514" t="s">
+      <c r="B13" s="516" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="515"/>
+      <c r="C13" s="517"/>
       <c r="D13" s="224">
         <v>0</v>
       </c>
@@ -29179,10 +29663,10 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="514" t="s">
+      <c r="B14" s="516" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="515"/>
+      <c r="C14" s="517"/>
       <c r="D14" s="224">
         <v>0</v>
       </c>
@@ -29232,547 +29716,547 @@
       </c>
     </row>
     <row r="15" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="514" t="s">
+      <c r="B15" s="516" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="515"/>
+      <c r="C15" s="517"/>
       <c r="D15" s="224">
         <v>0</v>
       </c>
-      <c r="F15" s="509" t="s">
+      <c r="F15" s="511" t="s">
         <v>342</v>
       </c>
-      <c r="G15" s="510"/>
-      <c r="H15" s="510"/>
-      <c r="I15" s="511"/>
+      <c r="G15" s="512"/>
+      <c r="H15" s="512"/>
+      <c r="I15" s="513"/>
     </row>
     <row r="16" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="514" t="s">
+      <c r="B16" s="516" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="515"/>
+      <c r="C16" s="517"/>
       <c r="D16" s="224">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="514" t="s">
+      <c r="B17" s="516" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="515"/>
+      <c r="C17" s="517"/>
       <c r="D17" s="224">
         <v>0</v>
       </c>
-      <c r="F17" s="542" t="s">
+      <c r="F17" s="544" t="s">
         <v>331</v>
       </c>
-      <c r="G17" s="543"/>
-      <c r="H17" s="543"/>
-      <c r="I17" s="544"/>
+      <c r="G17" s="545"/>
+      <c r="H17" s="545"/>
+      <c r="I17" s="546"/>
       <c r="J17" s="254"/>
-      <c r="K17" s="542" t="s">
+      <c r="K17" s="544" t="s">
         <v>331</v>
       </c>
-      <c r="L17" s="543"/>
-      <c r="M17" s="543"/>
-      <c r="N17" s="544"/>
-      <c r="O17" s="542" t="s">
+      <c r="L17" s="545"/>
+      <c r="M17" s="545"/>
+      <c r="N17" s="546"/>
+      <c r="O17" s="544" t="s">
         <v>332</v>
       </c>
-      <c r="P17" s="544"/>
+      <c r="P17" s="546"/>
     </row>
     <row r="18" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="514" t="s">
+      <c r="B18" s="516" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="515"/>
+      <c r="C18" s="517"/>
       <c r="D18" s="224">
         <v>0</v>
       </c>
-      <c r="F18" s="526" t="s">
+      <c r="F18" s="528" t="s">
         <v>323</v>
       </c>
       <c r="G18" s="255" t="s">
         <v>313</v>
       </c>
-      <c r="H18" s="532" t="s">
+      <c r="H18" s="534" t="s">
         <v>320</v>
       </c>
-      <c r="I18" s="533"/>
+      <c r="I18" s="535"/>
       <c r="J18" s="247"/>
-      <c r="K18" s="526" t="s">
+      <c r="K18" s="528" t="s">
         <v>323</v>
       </c>
       <c r="L18" s="255" t="s">
         <v>313</v>
       </c>
-      <c r="M18" s="532" t="s">
+      <c r="M18" s="534" t="s">
         <v>320</v>
       </c>
-      <c r="N18" s="533"/>
-      <c r="O18" s="559" t="s">
+      <c r="N18" s="535"/>
+      <c r="O18" s="561" t="s">
         <v>333</v>
       </c>
-      <c r="P18" s="560"/>
+      <c r="P18" s="562"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="514" t="s">
+      <c r="B19" s="516" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="515"/>
+      <c r="C19" s="517"/>
       <c r="D19" s="224">
         <v>0</v>
       </c>
-      <c r="F19" s="527"/>
+      <c r="F19" s="529"/>
       <c r="G19" s="244">
         <v>1.8662659904294905</v>
       </c>
-      <c r="H19" s="528">
+      <c r="H19" s="530">
         <v>1.0152825727437298</v>
       </c>
-      <c r="I19" s="529"/>
+      <c r="I19" s="531"/>
       <c r="J19" s="247"/>
-      <c r="K19" s="527"/>
+      <c r="K19" s="529"/>
       <c r="L19" s="244">
         <v>4.5923715669783451</v>
       </c>
-      <c r="M19" s="528">
+      <c r="M19" s="530">
         <v>1.0014445285409057</v>
       </c>
-      <c r="N19" s="529"/>
-      <c r="O19" s="561"/>
-      <c r="P19" s="562"/>
+      <c r="N19" s="531"/>
+      <c r="O19" s="563"/>
+      <c r="P19" s="564"/>
     </row>
     <row r="20" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="514" t="s">
+      <c r="B20" s="516" t="s">
         <v>298</v>
       </c>
-      <c r="C20" s="515"/>
+      <c r="C20" s="517"/>
       <c r="D20" s="224">
         <v>0</v>
       </c>
-      <c r="F20" s="526" t="s">
+      <c r="F20" s="528" t="s">
         <v>311</v>
       </c>
-      <c r="G20" s="530">
+      <c r="G20" s="532">
         <v>0.79291789160158044</v>
       </c>
-      <c r="H20" s="532" t="s">
+      <c r="H20" s="534" t="s">
         <v>324</v>
       </c>
-      <c r="I20" s="533"/>
+      <c r="I20" s="535"/>
       <c r="J20" s="247"/>
-      <c r="K20" s="526" t="s">
+      <c r="K20" s="528" t="s">
         <v>311</v>
       </c>
-      <c r="L20" s="530">
+      <c r="L20" s="532">
         <v>0.90609030842694083</v>
       </c>
-      <c r="M20" s="532" t="s">
+      <c r="M20" s="534" t="s">
         <v>324</v>
       </c>
-      <c r="N20" s="533"/>
-      <c r="O20" s="553" t="s">
+      <c r="N20" s="535"/>
+      <c r="O20" s="555" t="s">
         <v>339</v>
       </c>
-      <c r="P20" s="554"/>
+      <c r="P20" s="556"/>
     </row>
     <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="527"/>
-      <c r="G21" s="531"/>
-      <c r="H21" s="545">
+      <c r="F21" s="529"/>
+      <c r="G21" s="533"/>
+      <c r="H21" s="547">
         <v>-1.2852169656465073E-2</v>
       </c>
-      <c r="I21" s="546"/>
+      <c r="I21" s="548"/>
       <c r="J21" s="247"/>
-      <c r="K21" s="527"/>
-      <c r="L21" s="531"/>
-      <c r="M21" s="545">
+      <c r="K21" s="529"/>
+      <c r="L21" s="533"/>
+      <c r="M21" s="547">
         <v>1.1444753683164222E-2</v>
       </c>
-      <c r="N21" s="546"/>
-      <c r="O21" s="555"/>
-      <c r="P21" s="556"/>
+      <c r="N21" s="548"/>
+      <c r="O21" s="557"/>
+      <c r="P21" s="558"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="573" t="s">
+      <c r="B22" s="575" t="s">
         <v>372</v>
       </c>
-      <c r="C22" s="574"/>
-      <c r="D22" s="575"/>
-      <c r="F22" s="526" t="s">
+      <c r="C22" s="576"/>
+      <c r="D22" s="577"/>
+      <c r="F22" s="528" t="s">
         <v>312</v>
       </c>
-      <c r="G22" s="530">
+      <c r="G22" s="532">
         <v>1584073.48764541</v>
       </c>
-      <c r="H22" s="538" t="s">
+      <c r="H22" s="540" t="s">
         <v>326</v>
       </c>
-      <c r="I22" s="539"/>
+      <c r="I22" s="541"/>
       <c r="J22" s="247"/>
-      <c r="K22" s="526" t="s">
+      <c r="K22" s="528" t="s">
         <v>312</v>
       </c>
-      <c r="L22" s="530">
+      <c r="L22" s="532">
         <v>6025473.5221382696</v>
       </c>
-      <c r="M22" s="538" t="s">
+      <c r="M22" s="540" t="s">
         <v>326</v>
       </c>
-      <c r="N22" s="539"/>
-      <c r="O22" s="555"/>
-      <c r="P22" s="556"/>
+      <c r="N22" s="541"/>
+      <c r="O22" s="557"/>
+      <c r="P22" s="558"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="576" t="s">
+      <c r="B23" s="578" t="s">
         <v>373</v>
       </c>
-      <c r="C23" s="578" t="s">
+      <c r="C23" s="580" t="s">
         <v>374</v>
       </c>
       <c r="D23" s="274" t="s">
         <v>375</v>
       </c>
-      <c r="F23" s="527"/>
-      <c r="G23" s="531"/>
-      <c r="H23" s="540">
+      <c r="F23" s="529"/>
+      <c r="G23" s="533"/>
+      <c r="H23" s="542">
         <v>0.45990677176579392</v>
       </c>
-      <c r="I23" s="541"/>
+      <c r="I23" s="543"/>
       <c r="J23" s="247"/>
-      <c r="K23" s="527"/>
-      <c r="L23" s="531"/>
-      <c r="M23" s="540">
+      <c r="K23" s="529"/>
+      <c r="L23" s="533"/>
+      <c r="M23" s="542">
         <v>0.53165848172920782</v>
       </c>
-      <c r="N23" s="541"/>
-      <c r="O23" s="557"/>
-      <c r="P23" s="558"/>
+      <c r="N23" s="543"/>
+      <c r="O23" s="559"/>
+      <c r="P23" s="560"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="577"/>
-      <c r="C24" s="579"/>
+      <c r="B24" s="579"/>
+      <c r="C24" s="581"/>
       <c r="D24" s="275">
         <v>0.01</v>
       </c>
-      <c r="F24" s="526" t="s">
+      <c r="F24" s="528" t="s">
         <v>325</v>
       </c>
-      <c r="G24" s="530">
+      <c r="G24" s="532">
         <v>6.5080147324787882E-2</v>
       </c>
-      <c r="H24" s="538" t="s">
+      <c r="H24" s="540" t="s">
         <v>340</v>
       </c>
-      <c r="I24" s="539"/>
+      <c r="I24" s="541"/>
       <c r="J24" s="247"/>
-      <c r="K24" s="526" t="s">
+      <c r="K24" s="528" t="s">
         <v>325</v>
       </c>
-      <c r="L24" s="530">
+      <c r="L24" s="532">
         <v>0.11871324891291708</v>
       </c>
-      <c r="M24" s="538" t="s">
+      <c r="M24" s="540" t="s">
         <v>340</v>
       </c>
-      <c r="N24" s="539"/>
-      <c r="O24" s="549" t="s">
+      <c r="N24" s="541"/>
+      <c r="O24" s="551" t="s">
         <v>334</v>
       </c>
-      <c r="P24" s="550"/>
+      <c r="P24" s="552"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="576" t="s">
+      <c r="B25" s="578" t="s">
         <v>377</v>
       </c>
-      <c r="C25" s="578" t="s">
+      <c r="C25" s="580" t="s">
         <v>415</v>
       </c>
       <c r="D25" s="274" t="s">
         <v>376</v>
       </c>
-      <c r="F25" s="527"/>
-      <c r="G25" s="531"/>
-      <c r="H25" s="528">
+      <c r="F25" s="529"/>
+      <c r="G25" s="533"/>
+      <c r="H25" s="530">
         <v>1.0399955546984283</v>
       </c>
-      <c r="I25" s="529"/>
+      <c r="I25" s="531"/>
       <c r="J25" s="247"/>
-      <c r="K25" s="527"/>
-      <c r="L25" s="531"/>
-      <c r="M25" s="528">
+      <c r="K25" s="529"/>
+      <c r="L25" s="533"/>
+      <c r="M25" s="530">
         <v>1.0030643174904303</v>
       </c>
-      <c r="N25" s="529"/>
-      <c r="O25" s="551"/>
-      <c r="P25" s="552"/>
+      <c r="N25" s="531"/>
+      <c r="O25" s="553"/>
+      <c r="P25" s="554"/>
     </row>
     <row r="26" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="577"/>
-      <c r="C26" s="579"/>
+      <c r="B26" s="579"/>
+      <c r="C26" s="581"/>
       <c r="D26" s="275">
         <v>3</v>
       </c>
-      <c r="F26" s="536" t="s">
+      <c r="F26" s="538" t="s">
         <v>328</v>
       </c>
-      <c r="G26" s="530">
+      <c r="G26" s="532">
         <v>2.1632835960797991</v>
       </c>
-      <c r="H26" s="538" t="s">
+      <c r="H26" s="540" t="s">
         <v>341</v>
       </c>
-      <c r="I26" s="539"/>
+      <c r="I26" s="541"/>
       <c r="J26" s="247"/>
-      <c r="K26" s="536" t="s">
+      <c r="K26" s="538" t="s">
         <v>328</v>
       </c>
-      <c r="L26" s="530">
+      <c r="L26" s="532">
         <v>3.9833442802668779</v>
       </c>
-      <c r="M26" s="538" t="s">
+      <c r="M26" s="540" t="s">
         <v>341</v>
       </c>
-      <c r="N26" s="539"/>
+      <c r="N26" s="541"/>
     </row>
     <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="576" t="s">
+      <c r="B27" s="578" t="s">
         <v>378</v>
       </c>
-      <c r="C27" s="578" t="s">
+      <c r="C27" s="580" t="s">
         <v>415</v>
       </c>
       <c r="D27" s="274" t="s">
         <v>376</v>
       </c>
-      <c r="F27" s="537"/>
-      <c r="G27" s="531"/>
-      <c r="H27" s="528">
+      <c r="F27" s="539"/>
+      <c r="G27" s="533"/>
+      <c r="H27" s="530">
         <v>1.0345349274168634</v>
       </c>
-      <c r="I27" s="529"/>
+      <c r="I27" s="531"/>
       <c r="J27" s="247"/>
-      <c r="K27" s="537"/>
-      <c r="L27" s="531"/>
-      <c r="M27" s="528">
+      <c r="K27" s="539"/>
+      <c r="L27" s="533"/>
+      <c r="M27" s="530">
         <v>1.0032935444337996</v>
       </c>
-      <c r="N27" s="529"/>
+      <c r="N27" s="531"/>
     </row>
     <row r="28" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="577"/>
-      <c r="C28" s="579"/>
+      <c r="B28" s="579"/>
+      <c r="C28" s="581"/>
       <c r="D28" s="275">
         <v>4</v>
       </c>
-      <c r="F28" s="536" t="s">
+      <c r="F28" s="538" t="s">
         <v>348</v>
       </c>
-      <c r="G28" s="530">
+      <c r="G28" s="532">
         <v>18.621757056162078</v>
       </c>
-      <c r="H28" s="538" t="s">
+      <c r="H28" s="540" t="s">
         <v>349</v>
       </c>
-      <c r="I28" s="539"/>
+      <c r="I28" s="541"/>
       <c r="J28" s="247"/>
-      <c r="K28" s="536" t="s">
+      <c r="K28" s="538" t="s">
         <v>348</v>
       </c>
-      <c r="L28" s="530">
+      <c r="L28" s="532">
         <v>44.331536913878331</v>
       </c>
-      <c r="M28" s="538" t="s">
+      <c r="M28" s="540" t="s">
         <v>349</v>
       </c>
-      <c r="N28" s="539"/>
-      <c r="P28" s="567" t="s">
+      <c r="N28" s="541"/>
+      <c r="P28" s="569" t="s">
         <v>362</v>
       </c>
-      <c r="Q28" s="568"/>
-      <c r="R28" s="571">
+      <c r="Q28" s="570"/>
+      <c r="R28" s="573">
         <v>3.9960357651347467</v>
       </c>
-      <c r="S28" s="563">
+      <c r="S28" s="565">
         <v>0.97362491092613679</v>
       </c>
     </row>
     <row r="29" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="537"/>
-      <c r="G29" s="531"/>
-      <c r="H29" s="528">
+      <c r="F29" s="539"/>
+      <c r="G29" s="533"/>
+      <c r="H29" s="530">
         <v>0.55298448801462841</v>
       </c>
-      <c r="I29" s="529"/>
+      <c r="I29" s="531"/>
       <c r="J29" s="248"/>
-      <c r="K29" s="537"/>
-      <c r="L29" s="531"/>
-      <c r="M29" s="528">
+      <c r="K29" s="539"/>
+      <c r="L29" s="533"/>
+      <c r="M29" s="530">
         <v>0.53628519665585839</v>
       </c>
-      <c r="N29" s="529"/>
-      <c r="P29" s="569"/>
-      <c r="Q29" s="570"/>
-      <c r="R29" s="572"/>
-      <c r="S29" s="564"/>
+      <c r="N29" s="531"/>
+      <c r="P29" s="571"/>
+      <c r="Q29" s="572"/>
+      <c r="R29" s="574"/>
+      <c r="S29" s="566"/>
     </row>
     <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="536" t="s">
+      <c r="F30" s="538" t="s">
         <v>350</v>
       </c>
-      <c r="G30" s="530">
+      <c r="G30" s="532">
         <v>34.837972022368341</v>
       </c>
-      <c r="H30" s="538" t="s">
+      <c r="H30" s="540" t="s">
         <v>351</v>
       </c>
-      <c r="I30" s="539"/>
+      <c r="I30" s="541"/>
       <c r="J30" s="246"/>
-      <c r="K30" s="536" t="s">
+      <c r="K30" s="538" t="s">
         <v>350</v>
       </c>
-      <c r="L30" s="530">
+      <c r="L30" s="532">
         <v>82.936364975631193</v>
       </c>
-      <c r="M30" s="538" t="s">
+      <c r="M30" s="540" t="s">
         <v>351</v>
       </c>
-      <c r="N30" s="539"/>
+      <c r="N30" s="541"/>
     </row>
     <row r="31" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31"/>
-      <c r="F31" s="537"/>
-      <c r="G31" s="531"/>
-      <c r="H31" s="547">
+      <c r="F31" s="539"/>
+      <c r="G31" s="533"/>
+      <c r="H31" s="549">
         <v>1.0345349294460064</v>
       </c>
-      <c r="I31" s="548"/>
+      <c r="I31" s="550"/>
       <c r="J31" s="246"/>
-      <c r="K31" s="537"/>
-      <c r="L31" s="531"/>
-      <c r="M31" s="547">
+      <c r="K31" s="539"/>
+      <c r="L31" s="533"/>
+      <c r="M31" s="549">
         <v>1.003293544441821</v>
       </c>
-      <c r="N31" s="548"/>
+      <c r="N31" s="550"/>
     </row>
     <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32"/>
-      <c r="F32" s="536" t="s">
+      <c r="F32" s="538" t="s">
         <v>327</v>
       </c>
-      <c r="G32" s="530">
+      <c r="G32" s="532">
         <v>349.19867230786303</v>
       </c>
-      <c r="H32" s="538" t="s">
+      <c r="H32" s="540" t="s">
         <v>329</v>
       </c>
-      <c r="I32" s="539"/>
+      <c r="I32" s="541"/>
       <c r="J32" s="246"/>
-      <c r="K32" s="536" t="s">
+      <c r="K32" s="538" t="s">
         <v>327</v>
       </c>
-      <c r="L32" s="530">
+      <c r="L32" s="532">
         <v>3790.8074981393911</v>
       </c>
-      <c r="M32" s="538" t="s">
+      <c r="M32" s="540" t="s">
         <v>329</v>
       </c>
-      <c r="N32" s="539"/>
+      <c r="N32" s="541"/>
     </row>
     <row r="33" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D33"/>
-      <c r="F33" s="537"/>
-      <c r="G33" s="531"/>
-      <c r="H33" s="528">
+      <c r="F33" s="539"/>
+      <c r="G33" s="533"/>
+      <c r="H33" s="530">
         <v>0.48552726783867922</v>
       </c>
-      <c r="I33" s="529"/>
+      <c r="I33" s="531"/>
       <c r="J33" s="246"/>
-      <c r="K33" s="537"/>
-      <c r="L33" s="531"/>
-      <c r="M33" s="528">
+      <c r="K33" s="539"/>
+      <c r="L33" s="533"/>
+      <c r="M33" s="530">
         <v>0.49204062289601269</v>
       </c>
-      <c r="N33" s="529"/>
+      <c r="N33" s="531"/>
     </row>
     <row r="34" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34"/>
-      <c r="F34" s="536" t="s">
+      <c r="F34" s="538" t="s">
         <v>352</v>
       </c>
-      <c r="G34" s="530">
+      <c r="G34" s="532">
         <v>776.29134447977162</v>
       </c>
-      <c r="H34" s="538" t="s">
+      <c r="H34" s="540" t="s">
         <v>353</v>
       </c>
-      <c r="I34" s="539"/>
+      <c r="I34" s="541"/>
       <c r="J34" s="246"/>
-      <c r="K34" s="536" t="s">
+      <c r="K34" s="538" t="s">
         <v>352</v>
       </c>
-      <c r="L34" s="530">
+      <c r="L34" s="532">
         <v>7913.1493084056592</v>
       </c>
-      <c r="M34" s="538" t="s">
+      <c r="M34" s="540" t="s">
         <v>353</v>
       </c>
-      <c r="N34" s="539"/>
+      <c r="N34" s="541"/>
     </row>
     <row r="35" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D35"/>
-      <c r="F35" s="537"/>
-      <c r="G35" s="531"/>
-      <c r="H35" s="547">
+      <c r="F35" s="539"/>
+      <c r="G35" s="533"/>
+      <c r="H35" s="549">
         <v>1.0793586729327076</v>
       </c>
-      <c r="I35" s="548"/>
+      <c r="I35" s="550"/>
       <c r="J35" s="246"/>
-      <c r="K35" s="537"/>
-      <c r="L35" s="531"/>
-      <c r="M35" s="547">
+      <c r="K35" s="539"/>
+      <c r="L35" s="533"/>
+      <c r="M35" s="549">
         <v>1.0271138581128505</v>
       </c>
-      <c r="N35" s="548"/>
+      <c r="N35" s="550"/>
     </row>
     <row r="36" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="F36" s="536" t="s">
+      <c r="F36" s="538" t="s">
         <v>370</v>
       </c>
-      <c r="G36" s="563">
+      <c r="G36" s="565">
         <v>0.69259343752995117</v>
       </c>
-      <c r="H36" s="532" t="s">
+      <c r="H36" s="534" t="s">
         <v>379</v>
       </c>
-      <c r="I36" s="533"/>
+      <c r="I36" s="535"/>
       <c r="J36" s="246"/>
-      <c r="K36" s="536" t="s">
+      <c r="K36" s="538" t="s">
         <v>370</v>
       </c>
-      <c r="L36" s="563">
+      <c r="L36" s="565">
         <v>0.82430525531315957</v>
       </c>
-      <c r="M36" s="532" t="s">
+      <c r="M36" s="534" t="s">
         <v>379</v>
       </c>
-      <c r="N36" s="533"/>
+      <c r="N36" s="535"/>
     </row>
     <row r="37" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="537"/>
-      <c r="G37" s="564"/>
-      <c r="H37" s="565">
+      <c r="F37" s="539"/>
+      <c r="G37" s="566"/>
+      <c r="H37" s="567">
         <v>0.69541791203235626</v>
       </c>
-      <c r="I37" s="566"/>
+      <c r="I37" s="568"/>
       <c r="J37" s="246"/>
-      <c r="K37" s="537"/>
-      <c r="L37" s="564"/>
-      <c r="M37" s="565">
+      <c r="K37" s="539"/>
+      <c r="L37" s="566"/>
+      <c r="M37" s="567">
         <v>0.82513189875524506</v>
       </c>
-      <c r="N37" s="566"/>
+      <c r="N37" s="568"/>
     </row>
     <row r="256" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H256">
@@ -29910,108 +30394,108 @@
     <mergeCell ref="H20:I20"/>
   </mergeCells>
   <conditionalFormatting sqref="H19:I19">
-    <cfRule type="cellIs" dxfId="81" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="132" priority="21" operator="between">
       <formula>1.05</formula>
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="131" priority="22" operator="between">
       <formula>-100</formula>
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="130" priority="23" operator="between">
       <formula>0.95</formula>
       <formula>1.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="129" priority="24" operator="between">
       <formula>0.95</formula>
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:I25">
-    <cfRule type="cellIs" dxfId="77" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="128" priority="18" operator="between">
       <formula>1.04</formula>
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="127" priority="19" operator="between">
       <formula>-100</formula>
       <formula>0.96</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="126" priority="20" operator="between">
       <formula>0.96</formula>
       <formula>1.04</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:G23">
-    <cfRule type="cellIs" dxfId="74" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="17" operator="lessThan">
       <formula>90000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:N19">
-    <cfRule type="cellIs" dxfId="73" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="124" priority="13" operator="between">
       <formula>1.05</formula>
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="123" priority="14" operator="between">
       <formula>-100</formula>
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="122" priority="15" operator="between">
       <formula>0.95</formula>
       <formula>1.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="121" priority="16" operator="between">
       <formula>0.95</formula>
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:N25">
-    <cfRule type="cellIs" dxfId="69" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="120" priority="10" operator="between">
       <formula>1.04</formula>
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="119" priority="11" operator="between">
       <formula>-100</formula>
       <formula>0.96</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="118" priority="12" operator="between">
       <formula>0.96</formula>
       <formula>1.04</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:L23">
-    <cfRule type="cellIs" dxfId="66" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="9" operator="lessThan">
       <formula>90000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28">
-    <cfRule type="cellIs" dxfId="65" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="116" priority="5" operator="between">
       <formula>1.1</formula>
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="115" priority="6" operator="between">
       <formula>-100</formula>
       <formula>0.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="114" priority="7" operator="between">
       <formula>0.9</formula>
       <formula>1.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="62" priority="3">
+    <cfRule type="expression" dxfId="113" priority="3">
       <formula>IF($C$23="No",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="4">
+    <cfRule type="expression" dxfId="112" priority="4">
       <formula>"C23=No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="60" priority="2">
+    <cfRule type="expression" dxfId="111" priority="2">
       <formula>IF($C$25="No",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="59" priority="1">
+    <cfRule type="expression" dxfId="110" priority="1">
       <formula>IF($C$27="No",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30030,8 +30514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U57" sqref="U57"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD36" sqref="AD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30056,47 +30540,47 @@
   <sheetData>
     <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="512" t="s">
+      <c r="B3" s="514" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="513"/>
+      <c r="C3" s="515"/>
       <c r="D3" s="225" t="s">
         <v>299</v>
       </c>
-      <c r="F3" s="580" t="s">
+      <c r="F3" s="582" t="s">
         <v>410</v>
       </c>
-      <c r="G3" s="581"/>
-      <c r="H3" s="581"/>
-      <c r="I3" s="581"/>
-      <c r="J3" s="581"/>
-      <c r="K3" s="581"/>
-      <c r="L3" s="582"/>
-      <c r="M3" s="596" t="s">
+      <c r="G3" s="583"/>
+      <c r="H3" s="583"/>
+      <c r="I3" s="583"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="583"/>
+      <c r="L3" s="584"/>
+      <c r="M3" s="598" t="s">
         <v>346</v>
       </c>
-      <c r="N3" s="597"/>
-      <c r="O3" s="598"/>
-      <c r="P3" s="596" t="s">
+      <c r="N3" s="599"/>
+      <c r="O3" s="600"/>
+      <c r="P3" s="598" t="s">
         <v>411</v>
       </c>
-      <c r="Q3" s="597"/>
-      <c r="R3" s="597"/>
-      <c r="S3" s="591" t="s">
+      <c r="Q3" s="599"/>
+      <c r="R3" s="599"/>
+      <c r="S3" s="593" t="s">
         <v>418</v>
       </c>
-      <c r="T3" s="534" t="s">
+      <c r="T3" s="536" t="s">
         <v>416</v>
       </c>
-      <c r="U3" s="594" t="s">
+      <c r="U3" s="596" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="514" t="s">
+      <c r="B4" s="516" t="s">
         <v>359</v>
       </c>
-      <c r="C4" s="515"/>
+      <c r="C4" s="517"/>
       <c r="D4" s="224">
         <v>1</v>
       </c>
@@ -30119,15 +30603,15 @@
       <c r="P4" s="363"/>
       <c r="Q4" s="363"/>
       <c r="R4" s="378"/>
-      <c r="S4" s="592"/>
-      <c r="T4" s="535"/>
-      <c r="U4" s="595"/>
+      <c r="S4" s="594"/>
+      <c r="T4" s="537"/>
+      <c r="U4" s="597"/>
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="514" t="s">
+      <c r="B5" s="516" t="s">
         <v>319</v>
       </c>
-      <c r="C5" s="515"/>
+      <c r="C5" s="517"/>
       <c r="D5" s="224">
         <v>0</v>
       </c>
@@ -30168,13 +30652,13 @@
       <c r="R5" s="276" t="s">
         <v>398</v>
       </c>
-      <c r="S5" s="592"/>
+      <c r="S5" s="594"/>
     </row>
     <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="514" t="s">
+      <c r="B6" s="516" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="515"/>
+      <c r="C6" s="517"/>
       <c r="D6" s="224">
         <v>0</v>
       </c>
@@ -30215,13 +30699,13 @@
       <c r="R6" s="379" t="s">
         <v>309</v>
       </c>
-      <c r="S6" s="593"/>
+      <c r="S6" s="595"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="514" t="s">
+      <c r="B7" s="516" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="515"/>
+      <c r="C7" s="517"/>
       <c r="D7" s="224">
         <v>0</v>
       </c>
@@ -30229,25 +30713,25 @@
         <v>1</v>
       </c>
       <c r="G7" s="341">
-        <v>21002.326409887686</v>
+        <v>22457.630520586419</v>
       </c>
       <c r="H7" s="341">
         <v>6000</v>
       </c>
       <c r="I7" s="340">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J7" s="340">
         <v>40</v>
       </c>
       <c r="K7" s="340">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L7" s="262">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M7" s="365">
-        <v>116672.5292608053</v>
+        <v>114505.13210393619</v>
       </c>
       <c r="N7" s="341">
         <v>12847.158290277126</v>
@@ -30256,23 +30740,23 @@
         <v>40</v>
       </c>
       <c r="P7" s="366">
-        <v>1500</v>
+        <v>1320</v>
       </c>
       <c r="Q7" s="367">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R7" s="376">
-        <v>45.933910438309624</v>
-      </c>
-      <c r="S7" s="381">
-        <v>1.196678766955152</v>
+        <v>46.205213227321678</v>
+      </c>
+      <c r="S7" s="409">
+        <v>1.1020667272721743</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="514" t="s">
+      <c r="B8" s="516" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="515"/>
+      <c r="C8" s="517"/>
       <c r="D8" s="224">
         <v>0</v>
       </c>
@@ -30280,25 +30764,25 @@
         <v>2</v>
       </c>
       <c r="G8" s="341">
-        <v>29619.8226853753</v>
+        <v>31239.38469885166</v>
       </c>
       <c r="H8" s="341">
         <v>8000</v>
       </c>
       <c r="I8" s="340">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J8" s="340">
         <v>40</v>
       </c>
       <c r="K8" s="340">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L8" s="262">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M8" s="365">
-        <v>155563.3723477404</v>
+        <v>152673.50947191493</v>
       </c>
       <c r="N8" s="341">
         <v>17129.544387036167</v>
@@ -30307,23 +30791,23 @@
         <v>40</v>
       </c>
       <c r="P8" s="366">
-        <v>1360</v>
+        <v>1310</v>
       </c>
       <c r="Q8" s="374">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R8" s="376">
-        <v>45.551152431171261</v>
-      </c>
-      <c r="S8" s="380">
-        <v>1.1456757934618682</v>
+        <v>45.717467001073658</v>
+      </c>
+      <c r="S8" s="410">
+        <v>1.0697451070999937</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="514" t="s">
+      <c r="B9" s="516" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="515"/>
+      <c r="C9" s="517"/>
       <c r="D9" s="224">
         <v>0</v>
       </c>
@@ -30331,25 +30815,25 @@
         <v>3</v>
       </c>
       <c r="G9" s="341">
-        <v>35144.307786208119</v>
+        <v>36786.859768449503</v>
       </c>
       <c r="H9" s="341">
         <v>9000</v>
       </c>
       <c r="I9" s="340">
-        <v>98</v>
+        <v>102.5</v>
       </c>
       <c r="J9" s="340">
         <v>40</v>
       </c>
       <c r="K9" s="340">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L9" s="262">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M9" s="365">
-        <v>175008.79389120796</v>
+        <v>171757.69815590431</v>
       </c>
       <c r="N9" s="341">
         <v>19270.737435415689</v>
@@ -30364,17 +30848,17 @@
         <v>115</v>
       </c>
       <c r="R9" s="376">
-        <v>45.62856008016405</v>
-      </c>
-      <c r="S9" s="270">
-        <v>1.0897330679057786</v>
+        <v>45.753010439290506</v>
+      </c>
+      <c r="S9" s="411">
+        <v>1.0252363045602468</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="514" t="s">
+      <c r="B10" s="516" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="515"/>
+      <c r="C10" s="517"/>
       <c r="D10" s="224">
         <v>0</v>
       </c>
@@ -30382,50 +30866,50 @@
         <v>4</v>
       </c>
       <c r="G10" s="341">
-        <v>41889.463107497941</v>
+        <v>43108.858111742957</v>
       </c>
       <c r="H10" s="341">
         <v>10000</v>
       </c>
       <c r="I10" s="340">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J10" s="340">
         <v>40</v>
       </c>
       <c r="K10" s="340">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L10" s="262">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M10" s="365">
-        <v>194454.21543467548</v>
+        <v>192518.12716566678</v>
       </c>
       <c r="N10" s="341">
-        <v>21411.930483795208</v>
+        <v>21600</v>
       </c>
       <c r="O10" s="262">
         <v>40</v>
       </c>
       <c r="P10" s="366">
-        <v>1150</v>
+        <v>1198</v>
       </c>
       <c r="Q10" s="374">
         <v>112</v>
       </c>
       <c r="R10" s="376">
-        <v>45.77953416650729</v>
-      </c>
-      <c r="S10" s="270">
-        <v>1.0190879189227857</v>
+        <v>45.775774206386529</v>
+      </c>
+      <c r="S10" s="411">
+        <v>0.98376739171525207</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="514" t="s">
+      <c r="B11" s="516" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="515"/>
+      <c r="C11" s="517"/>
       <c r="D11" s="224">
         <v>0</v>
       </c>
@@ -30433,25 +30917,25 @@
         <v>5</v>
       </c>
       <c r="G11" s="341">
-        <v>46755.510190508096</v>
+        <v>46546.027543562093</v>
       </c>
       <c r="H11" s="341">
-        <v>10645</v>
+        <v>10500</v>
       </c>
       <c r="I11" s="340">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J11" s="340">
         <v>40</v>
       </c>
       <c r="K11" s="340">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L11" s="262">
-        <v>71.450773994121278</v>
+        <v>70.5</v>
       </c>
       <c r="M11" s="365">
-        <v>206996.51233021205</v>
+        <v>203151.1885410668</v>
       </c>
       <c r="N11" s="341">
         <v>22793</v>
@@ -30460,23 +30944,23 @@
         <v>40</v>
       </c>
       <c r="P11" s="366">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="Q11" s="374">
-        <v>112.41819933258614</v>
+        <v>112</v>
       </c>
       <c r="R11" s="376">
-        <v>45.902206518766263</v>
-      </c>
-      <c r="S11" s="270">
-        <v>0.97362491092613601</v>
+        <v>45.787664987494566</v>
+      </c>
+      <c r="S11" s="411">
+        <v>0.96298502412986597</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="514" t="s">
+      <c r="B12" s="516" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="515"/>
+      <c r="C12" s="517"/>
       <c r="D12" s="224">
         <v>0</v>
       </c>
@@ -30496,13 +30980,13 @@
         <v>40</v>
       </c>
       <c r="K12" s="340">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L12" s="262">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M12" s="365">
-        <v>252790.48006507813</v>
+        <v>248094.45289186176</v>
       </c>
       <c r="N12" s="341">
         <v>27835.509628933771</v>
@@ -30511,23 +30995,23 @@
         <v>40</v>
       </c>
       <c r="P12" s="366">
-        <v>980</v>
+        <v>910</v>
       </c>
       <c r="Q12" s="374">
         <v>110</v>
       </c>
       <c r="R12" s="376">
-        <v>46.380279763182784</v>
-      </c>
-      <c r="S12" s="270">
-        <v>0.80217780579342823</v>
+        <v>46.247772001017097</v>
+      </c>
+      <c r="S12" s="411">
+        <v>0.78999494914407875</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="514" t="s">
+      <c r="B13" s="516" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="515"/>
+      <c r="C13" s="517"/>
       <c r="D13" s="224">
         <v>0</v>
       </c>
@@ -30546,13 +31030,13 @@
       <c r="P13" s="366"/>
       <c r="Q13" s="374"/>
       <c r="R13" s="376"/>
-      <c r="S13" s="270"/>
+      <c r="S13" s="411"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="514" t="s">
+      <c r="B14" s="516" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="515"/>
+      <c r="C14" s="517"/>
       <c r="D14" s="224">
         <v>0</v>
       </c>
@@ -30571,13 +31055,13 @@
       <c r="P14" s="366"/>
       <c r="Q14" s="374"/>
       <c r="R14" s="376"/>
-      <c r="S14" s="270"/>
+      <c r="S14" s="411"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="514" t="s">
+      <c r="B15" s="516" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="515"/>
+      <c r="C15" s="517"/>
       <c r="D15" s="224">
         <v>0</v>
       </c>
@@ -30596,13 +31080,13 @@
       <c r="P15" s="366"/>
       <c r="Q15" s="374"/>
       <c r="R15" s="376"/>
-      <c r="S15" s="270"/>
+      <c r="S15" s="411"/>
     </row>
     <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="514" t="s">
+      <c r="B16" s="516" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="515"/>
+      <c r="C16" s="517"/>
       <c r="D16" s="224">
         <v>0</v>
       </c>
@@ -30621,113 +31105,113 @@
       <c r="P16" s="368"/>
       <c r="Q16" s="375"/>
       <c r="R16" s="377"/>
-      <c r="S16" s="271"/>
+      <c r="S16" s="412"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="514" t="s">
+      <c r="B17" s="516" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="515"/>
+      <c r="C17" s="517"/>
       <c r="D17" s="224">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="514" t="s">
+      <c r="B18" s="516" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="515"/>
+      <c r="C18" s="517"/>
       <c r="D18" s="224">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="514" t="s">
+      <c r="B19" s="516" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="515"/>
+      <c r="C19" s="517"/>
       <c r="D19" s="224">
         <v>0</v>
       </c>
-      <c r="F19" s="542" t="s">
+      <c r="F19" s="544" t="s">
         <v>409</v>
       </c>
-      <c r="G19" s="574"/>
-      <c r="H19" s="574"/>
-      <c r="I19" s="574"/>
-      <c r="J19" s="574"/>
-      <c r="K19" s="543"/>
-      <c r="L19" s="543"/>
-      <c r="M19" s="543"/>
-      <c r="N19" s="543"/>
-      <c r="O19" s="543"/>
-      <c r="P19" s="543"/>
-      <c r="Q19" s="543"/>
-      <c r="R19" s="543"/>
-      <c r="S19" s="543"/>
-      <c r="T19" s="543"/>
-      <c r="U19" s="543"/>
-      <c r="V19" s="543"/>
-      <c r="W19" s="543"/>
-      <c r="X19" s="543"/>
-      <c r="Y19" s="543"/>
-      <c r="Z19" s="543"/>
-      <c r="AA19" s="543"/>
-      <c r="AB19" s="544"/>
+      <c r="G19" s="576"/>
+      <c r="H19" s="576"/>
+      <c r="I19" s="576"/>
+      <c r="J19" s="576"/>
+      <c r="K19" s="545"/>
+      <c r="L19" s="545"/>
+      <c r="M19" s="545"/>
+      <c r="N19" s="545"/>
+      <c r="O19" s="545"/>
+      <c r="P19" s="545"/>
+      <c r="Q19" s="545"/>
+      <c r="R19" s="545"/>
+      <c r="S19" s="545"/>
+      <c r="T19" s="545"/>
+      <c r="U19" s="545"/>
+      <c r="V19" s="545"/>
+      <c r="W19" s="545"/>
+      <c r="X19" s="545"/>
+      <c r="Y19" s="545"/>
+      <c r="Z19" s="545"/>
+      <c r="AA19" s="545"/>
+      <c r="AB19" s="546"/>
     </row>
     <row r="20" spans="2:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="514" t="s">
+      <c r="B20" s="516" t="s">
         <v>298</v>
       </c>
-      <c r="C20" s="515"/>
+      <c r="C20" s="517"/>
       <c r="D20" s="224">
         <v>0</v>
       </c>
       <c r="F20" s="337"/>
-      <c r="G20" s="586" t="s">
+      <c r="G20" s="588" t="s">
         <v>323</v>
       </c>
-      <c r="H20" s="587"/>
-      <c r="I20" s="588" t="s">
+      <c r="H20" s="589"/>
+      <c r="I20" s="590" t="s">
         <v>311</v>
       </c>
-      <c r="J20" s="587"/>
-      <c r="K20" s="583" t="s">
+      <c r="J20" s="589"/>
+      <c r="K20" s="585" t="s">
         <v>312</v>
       </c>
-      <c r="L20" s="585"/>
-      <c r="M20" s="583" t="s">
+      <c r="L20" s="587"/>
+      <c r="M20" s="585" t="s">
         <v>325</v>
       </c>
-      <c r="N20" s="583"/>
-      <c r="O20" s="584" t="s">
+      <c r="N20" s="585"/>
+      <c r="O20" s="586" t="s">
         <v>328</v>
       </c>
-      <c r="P20" s="585"/>
-      <c r="Q20" s="583" t="s">
+      <c r="P20" s="587"/>
+      <c r="Q20" s="585" t="s">
         <v>348</v>
       </c>
-      <c r="R20" s="583"/>
-      <c r="S20" s="584" t="s">
+      <c r="R20" s="585"/>
+      <c r="S20" s="586" t="s">
         <v>350</v>
       </c>
-      <c r="T20" s="585"/>
-      <c r="U20" s="584" t="s">
+      <c r="T20" s="587"/>
+      <c r="U20" s="586" t="s">
         <v>395</v>
       </c>
-      <c r="V20" s="585"/>
-      <c r="W20" s="583" t="s">
+      <c r="V20" s="587"/>
+      <c r="W20" s="585" t="s">
         <v>327</v>
       </c>
-      <c r="X20" s="583"/>
-      <c r="Y20" s="584" t="s">
+      <c r="X20" s="585"/>
+      <c r="Y20" s="586" t="s">
         <v>352</v>
       </c>
-      <c r="Z20" s="585"/>
-      <c r="AA20" s="583" t="s">
+      <c r="Z20" s="587"/>
+      <c r="AA20" s="585" t="s">
         <v>394</v>
       </c>
-      <c r="AB20" s="585"/>
+      <c r="AB20" s="587"/>
     </row>
     <row r="21" spans="2:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F21" s="336"/>
@@ -30799,31 +31283,31 @@
       </c>
     </row>
     <row r="22" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="573" t="s">
+      <c r="B22" s="575" t="s">
         <v>372</v>
       </c>
-      <c r="C22" s="574"/>
-      <c r="D22" s="575"/>
+      <c r="C22" s="576"/>
+      <c r="D22" s="577"/>
       <c r="F22" s="373">
         <v>1</v>
       </c>
       <c r="G22" s="326">
-        <v>2.2938206070683895</v>
+        <v>2.112466134761855</v>
       </c>
       <c r="H22" s="318">
-        <v>1.2478800445916214</v>
+        <v>1.1492199199544111</v>
       </c>
       <c r="I22" s="325">
-        <v>0.79057161148223143</v>
+        <v>0.79120838499138291</v>
       </c>
       <c r="J22" s="324">
-        <v>-1.5198449775814082E-2</v>
+        <v>-1.4561676266662604E-2</v>
       </c>
       <c r="K22" s="321">
-        <v>1261997.3965116579</v>
+        <v>1349569.133571781</v>
       </c>
       <c r="L22" s="324">
-        <v>0.36639786798605534</v>
+        <v>0.39182272055972556</v>
       </c>
       <c r="M22" s="321">
         <v>3.6682093372355784E-2</v>
@@ -30832,22 +31316,22 @@
         <v>0.58618819428751245</v>
       </c>
       <c r="O22" s="319">
-        <v>2.8785009208624861</v>
+        <v>2.6145284829827187</v>
       </c>
       <c r="P22" s="316">
-        <v>1.3765692795111442</v>
+        <v>1.2503312276177743</v>
       </c>
       <c r="Q22" s="321">
-        <v>24.778417832676411</v>
+        <v>22.506117235275429</v>
       </c>
       <c r="R22" s="323">
-        <v>0.73581030284577709</v>
+        <v>0.66833294404019028</v>
       </c>
       <c r="S22" s="319">
-        <v>46.355981549470854</v>
+        <v>42.10491468821408</v>
       </c>
       <c r="T22" s="318">
-        <v>1.3765692810962313</v>
+        <v>1.2503312454104343</v>
       </c>
       <c r="U22" s="319">
         <v>8206.6772655007953</v>
@@ -30856,29 +31340,29 @@
         <v>0.58618819428751257</v>
       </c>
       <c r="W22" s="321">
-        <v>190.73668770750731</v>
+        <v>198.9566263561081</v>
       </c>
       <c r="X22" s="320">
-        <v>0.26520107378180352</v>
+        <v>0.27663011023111206</v>
       </c>
       <c r="Y22" s="319">
-        <v>534.22582472872887</v>
+        <v>521.13773518549738</v>
       </c>
       <c r="Z22" s="318">
-        <v>0.74278978031373299</v>
+        <v>0.7245920468711764</v>
       </c>
       <c r="AA22" s="317">
-        <v>0.75788661772600119</v>
+        <v>0.7056731612812156</v>
       </c>
       <c r="AB22" s="316">
-        <v>0.75788661772600119</v>
+        <v>0.7056731612812156</v>
       </c>
     </row>
     <row r="23" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="576" t="s">
+      <c r="B23" s="578" t="s">
         <v>373</v>
       </c>
-      <c r="C23" s="578" t="s">
+      <c r="C23" s="580" t="s">
         <v>374</v>
       </c>
       <c r="D23" s="274" t="s">
@@ -30888,22 +31372,22 @@
         <v>2</v>
       </c>
       <c r="G23" s="305">
-        <v>2.1960569675259816</v>
+        <v>2.0505113308060468</v>
       </c>
       <c r="H23" s="313">
-        <v>1.1946948502064609</v>
+        <v>1.1155153820821806</v>
       </c>
       <c r="I23" s="307">
-        <v>0.79110209462054248</v>
+        <v>0.79163419486663988</v>
       </c>
       <c r="J23" s="312">
-        <v>-1.4667966637503027E-2</v>
+        <v>-1.4135866391405627E-2</v>
       </c>
       <c r="K23" s="307">
-        <v>1334959.9889553213</v>
+        <v>1408061.2762814094</v>
       </c>
       <c r="L23" s="312">
-        <v>0.38758122255397165</v>
+        <v>0.40880484464491257</v>
       </c>
       <c r="M23" s="307">
         <v>4.8909457829807712E-2</v>
@@ -30912,22 +31396,22 @@
         <v>0.78158425905001672</v>
       </c>
       <c r="O23" s="305">
-        <v>2.6896039271903942</v>
+        <v>2.4695269243786622</v>
       </c>
       <c r="P23" s="310">
-        <v>1.2862341343679216</v>
+        <v>1.1809879491046753</v>
       </c>
       <c r="Q23" s="307">
-        <v>23.152374011526238</v>
+        <v>21.25792961808888</v>
       </c>
       <c r="R23" s="309">
-        <v>0.68752393506553933</v>
+        <v>0.63126724780355603</v>
       </c>
       <c r="S23" s="305">
-        <v>43.313944761655122</v>
+        <v>39.769778637710971</v>
       </c>
       <c r="T23" s="304">
-        <v>1.2862341343880803</v>
+        <v>1.18098794931665</v>
       </c>
       <c r="U23" s="305">
         <v>10942.236354001061</v>
@@ -30936,27 +31420,27 @@
         <v>0.78158425905001683</v>
       </c>
       <c r="W23" s="307">
-        <v>238.64943684675083</v>
+        <v>244.6740432310126</v>
       </c>
       <c r="X23" s="306">
-        <v>0.33181915692190117</v>
+        <v>0.34019579437651104</v>
       </c>
       <c r="Y23" s="305">
-        <v>631.9383933126478</v>
+        <v>614.30239650767885</v>
       </c>
       <c r="Z23" s="304">
-        <v>0.87864973689519299</v>
+        <v>0.85412857452153113</v>
       </c>
       <c r="AA23" s="303">
-        <v>0.79820614941859303</v>
+        <v>0.75393349234841445</v>
       </c>
       <c r="AB23" s="302">
-        <v>0.79820614941859303</v>
+        <v>0.75393349234841445</v>
       </c>
     </row>
     <row r="24" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="577"/>
-      <c r="C24" s="579"/>
+      <c r="B24" s="579"/>
+      <c r="C24" s="581"/>
       <c r="D24" s="275">
         <v>0.01</v>
       </c>
@@ -30964,77 +31448,77 @@
         <v>3</v>
       </c>
       <c r="G24" s="305">
-        <v>2.0888247008228333</v>
+        <v>1.9651958632964308</v>
       </c>
       <c r="H24" s="313">
-        <v>1.1363585507840728</v>
+        <v>1.0691022192253348</v>
       </c>
       <c r="I24" s="307">
-        <v>0.79163419486663988</v>
+        <v>0.7921144757464188</v>
       </c>
       <c r="J24" s="312">
-        <v>-1.4135866391405627E-2</v>
+        <v>-1.3655585511626711E-2</v>
       </c>
       <c r="K24" s="307">
-        <v>1408061.2762814094</v>
+        <v>1473971.4661628488</v>
       </c>
       <c r="L24" s="312">
-        <v>0.40880484464491257</v>
+        <v>0.42794066308468726</v>
       </c>
       <c r="M24" s="307">
-        <v>5.5023140058533676E-2</v>
+        <v>5.502314005853369E-2</v>
       </c>
       <c r="N24" s="311">
-        <v>0.87928229143126879</v>
+        <v>0.87928229143126901</v>
       </c>
       <c r="O24" s="305">
-        <v>2.5240129742084778</v>
+        <v>2.327605509605299</v>
       </c>
       <c r="P24" s="310">
-        <v>1.2070445057706931</v>
+        <v>1.1131176704239121</v>
       </c>
       <c r="Q24" s="307">
-        <v>21.72695087111342</v>
+        <v>20.036256180650728</v>
       </c>
       <c r="R24" s="309">
-        <v>0.64519512134897594</v>
+        <v>0.59498890638360624</v>
       </c>
       <c r="S24" s="305">
-        <v>40.647233387074962</v>
+        <v>37.484246467377005</v>
       </c>
       <c r="T24" s="304">
-        <v>1.2070445058418833</v>
+        <v>1.1131176708439283</v>
       </c>
       <c r="U24" s="315">
-        <v>12310.015898251193</v>
+        <v>12310.015898251195</v>
       </c>
       <c r="V24" s="308">
-        <v>0.87928229143126879</v>
+        <v>0.87928229143126901</v>
       </c>
       <c r="W24" s="307">
-        <v>274.77592594272676</v>
+        <v>279.28496270724111</v>
       </c>
       <c r="X24" s="306">
-        <v>0.38204957570169806</v>
+        <v>0.38831895893385626</v>
       </c>
       <c r="Y24" s="305">
-        <v>689.87910437995538</v>
+        <v>669.89099646545867</v>
       </c>
       <c r="Z24" s="304">
-        <v>0.95921073947637803</v>
+        <v>0.9314191921579098</v>
       </c>
       <c r="AA24" s="303">
-        <v>0.77192053655525172</v>
+        <v>0.73309328068200297</v>
       </c>
       <c r="AB24" s="302">
-        <v>0.77192053655525172</v>
+        <v>0.73309328068200297</v>
       </c>
     </row>
     <row r="25" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="576" t="s">
+      <c r="B25" s="578" t="s">
         <v>377</v>
       </c>
-      <c r="C25" s="578" t="s">
+      <c r="C25" s="580" t="s">
         <v>415</v>
       </c>
       <c r="D25" s="274" t="s">
@@ -31044,22 +31528,22 @@
         <v>4</v>
       </c>
       <c r="G25" s="305">
-        <v>1.9534105002860245</v>
+        <v>1.8692886176220738</v>
       </c>
       <c r="H25" s="313">
-        <v>1.0626907678356159</v>
+        <v>1.0169269367991585</v>
       </c>
       <c r="I25" s="307">
-        <v>0.7923818704744261</v>
+        <v>0.79270328564720494</v>
       </c>
       <c r="J25" s="312">
-        <v>-1.3388190783619414E-2</v>
+        <v>-1.3066775610840575E-2</v>
       </c>
       <c r="K25" s="307">
-        <v>1510637.1170318304</v>
+        <v>1554682.1041788226</v>
       </c>
       <c r="L25" s="312">
-        <v>0.43858586436945224</v>
+        <v>0.45137352100863298</v>
       </c>
       <c r="M25" s="307">
         <v>6.113682228725964E-2</v>
@@ -31068,22 +31552,22 @@
         <v>0.97698032381252087</v>
       </c>
       <c r="O25" s="305">
-        <v>2.3079962372304461</v>
+        <v>2.1636173370030627</v>
       </c>
       <c r="P25" s="310">
-        <v>1.1037400385638183</v>
+        <v>1.0346945304584849</v>
       </c>
       <c r="Q25" s="307">
-        <v>19.867457643614554</v>
+        <v>18.624629930714438</v>
       </c>
       <c r="R25" s="309">
-        <v>0.5899763303791481</v>
+        <v>0.55306979978508464</v>
       </c>
       <c r="S25" s="305">
-        <v>37.168454641133863</v>
+        <v>34.843346620601622</v>
       </c>
       <c r="T25" s="304">
-        <v>1.1037400390325154</v>
+        <v>1.0346945314343339</v>
       </c>
       <c r="U25" s="305">
         <v>13677.795442501325</v>
@@ -31092,27 +31576,27 @@
         <v>0.97698032381252087</v>
       </c>
       <c r="W25" s="307">
-        <v>317.90816785867793</v>
+        <v>317.13386135680338</v>
       </c>
       <c r="X25" s="306">
-        <v>0.44202082196905446</v>
+        <v>0.44094422302943009</v>
       </c>
       <c r="Y25" s="305">
-        <v>741.31139154014522</v>
+        <v>718.38036600915348</v>
       </c>
       <c r="Z25" s="304">
-        <v>1.0307224027325474</v>
+        <v>0.99883901067604586</v>
       </c>
       <c r="AA25" s="303">
-        <v>0.72718163620753729</v>
+        <v>0.70324888959426568</v>
       </c>
       <c r="AB25" s="302">
-        <v>0.72987067759020041</v>
+        <v>0.70605330835331781</v>
       </c>
     </row>
     <row r="26" spans="2:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="577"/>
-      <c r="C26" s="579"/>
+      <c r="B26" s="579"/>
+      <c r="C26" s="581"/>
       <c r="D26" s="275">
         <v>3</v>
       </c>
@@ -31120,77 +31604,77 @@
         <v>5</v>
       </c>
       <c r="G26" s="305">
-        <v>1.8662659904294889</v>
+        <v>1.8207278332459582</v>
       </c>
       <c r="H26" s="313">
-        <v>1.0152825727437291</v>
+        <v>0.99050898868850901</v>
       </c>
       <c r="I26" s="307">
-        <v>0.79291789160158044</v>
+        <v>0.79302529356933382</v>
       </c>
       <c r="J26" s="312">
-        <v>-1.2852169656465073E-2</v>
+        <v>-1.2744767688711689E-2</v>
       </c>
       <c r="K26" s="307">
-        <v>1584073.48764541</v>
+        <v>1598777.6102321756</v>
       </c>
       <c r="L26" s="312">
-        <v>0.45990677176579392</v>
+        <v>0.46417584488851865</v>
       </c>
       <c r="M26" s="307">
-        <v>6.5080147324787882E-2</v>
+        <v>6.4193663401622622E-2</v>
       </c>
       <c r="N26" s="311">
-        <v>1.0399955546984283</v>
+        <v>1.0258293400031469</v>
       </c>
       <c r="O26" s="305">
-        <v>2.163283596079792</v>
+        <v>2.077992154335135</v>
       </c>
       <c r="P26" s="310">
-        <v>1.0345349274168598</v>
+        <v>0.99374648171584901</v>
       </c>
       <c r="Q26" s="307">
-        <v>18.621757056162021</v>
+        <v>17.887559972609495</v>
       </c>
       <c r="R26" s="309">
-        <v>0.55298448801462674</v>
+        <v>0.53118205567026433</v>
       </c>
       <c r="S26" s="305">
-        <v>34.837972022367701</v>
+        <v>33.464420776421072</v>
       </c>
       <c r="T26" s="304">
-        <v>1.0345349294459874</v>
+        <v>0.99374648342497618</v>
       </c>
       <c r="U26" s="305">
-        <v>14560.013248542662</v>
+        <v>14361.685214626392</v>
       </c>
       <c r="V26" s="308">
-        <v>1.0399955546984285</v>
+        <v>1.0258293400031471</v>
       </c>
       <c r="W26" s="307">
-        <v>349.19867230786303</v>
+        <v>337.00066534739199</v>
       </c>
       <c r="X26" s="306">
-        <v>0.48552726783867922</v>
+        <v>0.46856710887400455</v>
       </c>
       <c r="Y26" s="305">
-        <v>776.29134447977162</v>
+        <v>742.24860042036789</v>
       </c>
       <c r="Z26" s="304">
-        <v>1.0793586729327076</v>
+        <v>1.0320255018079285</v>
       </c>
       <c r="AA26" s="303">
-        <v>0.69259343752994895</v>
+        <v>0.68627861470732698</v>
       </c>
       <c r="AB26" s="302">
-        <v>0.69541791203235404</v>
+        <v>0.68912072120134127</v>
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B27" s="576" t="s">
+      <c r="B27" s="578" t="s">
         <v>378</v>
       </c>
-      <c r="C27" s="578" t="s">
+      <c r="C27" s="580" t="s">
         <v>415</v>
       </c>
       <c r="D27" s="274" t="s">
@@ -31200,10 +31684,10 @@
         <v>6</v>
       </c>
       <c r="G27" s="305">
-        <v>1.5376323473539415</v>
+        <v>1.5142799754334948</v>
       </c>
       <c r="H27" s="313">
-        <v>0.83649990599476209</v>
+        <v>0.82379579180919349</v>
       </c>
       <c r="I27" s="307">
         <v>0.79551394604184722</v>
@@ -31224,22 +31708,22 @@
         <v>1.2700744209562771</v>
       </c>
       <c r="O27" s="305">
-        <v>1.5530658650683018</v>
+        <v>1.4965032736802197</v>
       </c>
       <c r="P27" s="310">
-        <v>0.74271393954247678</v>
+        <v>0.7156643301051292</v>
       </c>
       <c r="Q27" s="307">
-        <v>13.368943065961881</v>
+        <v>12.882046739837762</v>
       </c>
       <c r="R27" s="309">
-        <v>0.39699895742014901</v>
+        <v>0.38254027262440604</v>
       </c>
       <c r="S27" s="305">
-        <v>25.010909680914001</v>
+        <v>24.100008989407826</v>
       </c>
       <c r="T27" s="304">
-        <v>0.74271429076042417</v>
+        <v>0.71566453648613404</v>
       </c>
       <c r="U27" s="305">
         <v>17781.134075251724</v>
@@ -31248,27 +31732,27 @@
         <v>1.2700744209562773</v>
       </c>
       <c r="W27" s="307">
-        <v>484.75830745438367</v>
+        <v>467.68593621733208</v>
       </c>
       <c r="X27" s="306">
-        <v>0.67400994117448021</v>
+        <v>0.6502724461047813</v>
       </c>
       <c r="Y27" s="305">
-        <v>884.5077748936518</v>
+        <v>853.35690060674983</v>
       </c>
       <c r="Z27" s="304">
-        <v>1.2298232421329687</v>
+        <v>1.1865109386143247</v>
       </c>
       <c r="AA27" s="303">
-        <v>0.53510999836265705</v>
+        <v>0.53444351606358975</v>
       </c>
       <c r="AB27" s="302">
-        <v>0.53510999836265705</v>
+        <v>0.53444351606358975</v>
       </c>
     </row>
     <row r="28" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="577"/>
-      <c r="C28" s="579"/>
+      <c r="B28" s="579"/>
+      <c r="C28" s="581"/>
       <c r="D28" s="275">
         <v>4</v>
       </c>
@@ -31384,22 +31868,22 @@
         <v>381</v>
       </c>
       <c r="G32" s="280">
-        <v>1.9215763171812117</v>
+        <v>1.8464047681831022</v>
       </c>
       <c r="H32" s="277">
-        <v>1.0453723944153237</v>
+        <v>1.0044777073475022</v>
       </c>
       <c r="I32" s="282">
-        <v>0.79257768079842672</v>
+        <v>0.79285502909416161</v>
       </c>
       <c r="J32" s="287">
-        <v>-1.319238045961884E-2</v>
+        <v>-1.2915032163883861E-2</v>
       </c>
       <c r="K32" s="282">
-        <v>1537463.6706783453</v>
+        <v>1575461.7298464119</v>
       </c>
       <c r="L32" s="287">
-        <v>0.44637446368722089</v>
+        <v>0.45740650535804456</v>
       </c>
       <c r="M32" s="282">
         <v>6.2577332211443376E-2</v>
@@ -31408,22 +31892,22 @@
         <v>1</v>
       </c>
       <c r="O32" s="280">
-        <v>2.2551322217743364</v>
+        <v>2.1232672105886912</v>
       </c>
       <c r="P32" s="285">
-        <v>1.0784591782586987</v>
+        <v>1.015398116813506</v>
       </c>
       <c r="Q32" s="282">
-        <v>19.412399021332764</v>
+        <v>18.277292090851237</v>
       </c>
       <c r="R32" s="284">
-        <v>0.57646308571054861</v>
+        <v>0.54275538976643922</v>
       </c>
       <c r="S32" s="280">
-        <v>36.3171214873813</v>
+        <v>34.193539748428137</v>
       </c>
       <c r="T32" s="279">
-        <v>1.0784591792974263</v>
+        <v>1.0153981181349059</v>
       </c>
       <c r="U32" s="280">
         <v>14000.072579891637</v>
@@ -31432,22 +31916,22 @@
         <v>1</v>
       </c>
       <c r="W32" s="282">
-        <v>329.33869457478653</v>
+        <v>326.49592082917468</v>
       </c>
       <c r="X32" s="281">
-        <v>0.45791387325057925</v>
+        <v>0.45396126896182754</v>
       </c>
       <c r="Y32" s="280">
-        <v>754.08968622228906</v>
+        <v>729.62806494271842</v>
       </c>
       <c r="Z32" s="279">
-        <v>1.048489396128184</v>
+        <v>1.0144778574580038</v>
       </c>
       <c r="AA32" s="278">
-        <v>0.71454645067742539</v>
+        <v>0.69525179439821538</v>
       </c>
       <c r="AB32" s="277">
-        <v>0.71728496623510452</v>
+        <v>0.69807397317625508</v>
       </c>
     </row>
     <row r="33" spans="6:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31476,78 +31960,78 @@
       <c r="AB33" s="372"/>
     </row>
     <row r="34" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="542" t="s">
+      <c r="F34" s="544" t="s">
         <v>408</v>
       </c>
-      <c r="G34" s="574"/>
-      <c r="H34" s="574"/>
-      <c r="I34" s="574"/>
-      <c r="J34" s="574"/>
-      <c r="K34" s="543"/>
-      <c r="L34" s="543"/>
-      <c r="M34" s="543"/>
-      <c r="N34" s="543"/>
-      <c r="O34" s="543"/>
-      <c r="P34" s="543"/>
-      <c r="Q34" s="543"/>
-      <c r="R34" s="543"/>
-      <c r="S34" s="543"/>
-      <c r="T34" s="543"/>
-      <c r="U34" s="543"/>
-      <c r="V34" s="543"/>
-      <c r="W34" s="543"/>
-      <c r="X34" s="543"/>
-      <c r="Y34" s="543"/>
-      <c r="Z34" s="543"/>
-      <c r="AA34" s="543"/>
-      <c r="AB34" s="544"/>
+      <c r="G34" s="576"/>
+      <c r="H34" s="576"/>
+      <c r="I34" s="576"/>
+      <c r="J34" s="576"/>
+      <c r="K34" s="545"/>
+      <c r="L34" s="545"/>
+      <c r="M34" s="545"/>
+      <c r="N34" s="545"/>
+      <c r="O34" s="545"/>
+      <c r="P34" s="545"/>
+      <c r="Q34" s="545"/>
+      <c r="R34" s="545"/>
+      <c r="S34" s="545"/>
+      <c r="T34" s="545"/>
+      <c r="U34" s="545"/>
+      <c r="V34" s="545"/>
+      <c r="W34" s="545"/>
+      <c r="X34" s="545"/>
+      <c r="Y34" s="545"/>
+      <c r="Z34" s="545"/>
+      <c r="AA34" s="545"/>
+      <c r="AB34" s="546"/>
     </row>
-    <row r="35" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F35" s="337"/>
-      <c r="G35" s="586" t="s">
+      <c r="G35" s="588" t="s">
         <v>323</v>
       </c>
-      <c r="H35" s="587"/>
-      <c r="I35" s="588" t="s">
+      <c r="H35" s="589"/>
+      <c r="I35" s="590" t="s">
         <v>311</v>
       </c>
-      <c r="J35" s="587"/>
-      <c r="K35" s="583" t="s">
+      <c r="J35" s="589"/>
+      <c r="K35" s="585" t="s">
         <v>312</v>
       </c>
-      <c r="L35" s="585"/>
-      <c r="M35" s="583" t="s">
+      <c r="L35" s="587"/>
+      <c r="M35" s="585" t="s">
         <v>325</v>
       </c>
-      <c r="N35" s="583"/>
-      <c r="O35" s="584" t="s">
+      <c r="N35" s="585"/>
+      <c r="O35" s="586" t="s">
         <v>328</v>
       </c>
-      <c r="P35" s="585"/>
-      <c r="Q35" s="583" t="s">
+      <c r="P35" s="587"/>
+      <c r="Q35" s="585" t="s">
         <v>348</v>
       </c>
-      <c r="R35" s="583"/>
-      <c r="S35" s="584" t="s">
+      <c r="R35" s="585"/>
+      <c r="S35" s="586" t="s">
         <v>350</v>
       </c>
-      <c r="T35" s="585"/>
-      <c r="U35" s="584" t="s">
+      <c r="T35" s="587"/>
+      <c r="U35" s="586" t="s">
         <v>395</v>
       </c>
-      <c r="V35" s="585"/>
-      <c r="W35" s="583" t="s">
+      <c r="V35" s="587"/>
+      <c r="W35" s="585" t="s">
         <v>327</v>
       </c>
-      <c r="X35" s="583"/>
-      <c r="Y35" s="584" t="s">
+      <c r="X35" s="585"/>
+      <c r="Y35" s="586" t="s">
         <v>352</v>
       </c>
-      <c r="Z35" s="585"/>
-      <c r="AA35" s="583" t="s">
+      <c r="Z35" s="587"/>
+      <c r="AA35" s="585" t="s">
         <v>394</v>
       </c>
-      <c r="AB35" s="585"/>
+      <c r="AB35" s="587"/>
     </row>
     <row r="36" spans="6:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F36" s="336"/>
@@ -31623,70 +32107,70 @@
         <v>1</v>
       </c>
       <c r="G37" s="326">
-        <v>5.854318756032888</v>
+        <v>5.189947159576243</v>
       </c>
       <c r="H37" s="318">
-        <v>1.2766335217124172</v>
+        <v>1.1317560242177482</v>
       </c>
       <c r="I37" s="325">
-        <v>0.90603889376029512</v>
+        <v>0.90512213294560329</v>
       </c>
       <c r="J37" s="324">
-        <v>1.1393339016518511E-2</v>
+        <v>1.0476578201826681E-2</v>
       </c>
       <c r="K37" s="321">
-        <v>6024193.4194870479</v>
+        <v>5901659.1996348463</v>
       </c>
       <c r="L37" s="324">
-        <v>0.5315455316964004</v>
+        <v>0.52073370802027941</v>
       </c>
       <c r="M37" s="321">
-        <v>6.4415958607340465E-2</v>
+        <v>6.5355322613017408E-2</v>
       </c>
       <c r="N37" s="318">
-        <v>0.54428086289982125</v>
+        <v>0.55221799311786979</v>
       </c>
       <c r="O37" s="319">
-        <v>4.6580234911400007</v>
+        <v>4.4135455346939301</v>
       </c>
       <c r="P37" s="316">
-        <v>1.1732264573848596</v>
+        <v>1.1116492654072994</v>
       </c>
       <c r="Q37" s="321">
-        <v>51.840194021429241</v>
+        <v>49.1193437036424</v>
       </c>
       <c r="R37" s="323">
-        <v>0.62711853864819822</v>
+        <v>0.59420400760949033</v>
       </c>
       <c r="S37" s="319">
-        <v>96.983717484823288</v>
+        <v>91.893492704076337</v>
       </c>
       <c r="T37" s="318">
-        <v>1.173226457381906</v>
+        <v>1.111649251004682</v>
       </c>
       <c r="U37" s="319">
-        <v>21185.725147654979</v>
+        <v>21494.671999772527</v>
       </c>
       <c r="V37" s="322">
-        <v>0.54428086289982125</v>
+        <v>0.55221799311786979</v>
       </c>
       <c r="W37" s="321">
-        <v>2443.8884185006873</v>
+        <v>2445.3874499592671</v>
       </c>
       <c r="X37" s="320">
-        <v>0.31721272586846955</v>
+        <v>0.31740729770388515</v>
       </c>
       <c r="Y37" s="319">
-        <v>5107.2071885915893</v>
+        <v>5211.8198242548569</v>
       </c>
       <c r="Z37" s="318">
-        <v>0.66290715304509928</v>
+        <v>0.6764857023224794</v>
       </c>
       <c r="AA37" s="317">
-        <v>0.81121761804443038</v>
+        <v>0.7641962163031073</v>
       </c>
       <c r="AB37" s="316">
-        <v>0.81121761804443038</v>
+        <v>0.7641962163031073</v>
       </c>
     </row>
     <row r="38" spans="6:28" x14ac:dyDescent="0.25">
@@ -31694,70 +32178,70 @@
         <v>2</v>
       </c>
       <c r="G38" s="305">
-        <v>5.3332598419868535</v>
+        <v>5.2521216739043712</v>
       </c>
       <c r="H38" s="313">
-        <v>1.1630077858788932</v>
+        <v>1.1453142318410832</v>
       </c>
       <c r="I38" s="307">
-        <v>0.9066603853396944</v>
+        <v>0.90590959377154878</v>
       </c>
       <c r="J38" s="312">
-        <v>1.2014830595917791E-2</v>
+        <v>1.1264039027772177E-2</v>
       </c>
       <c r="K38" s="307">
-        <v>6039677.9702898962</v>
+        <v>5920947.1991705243</v>
       </c>
       <c r="L38" s="312">
-        <v>0.53291181315790781</v>
+        <v>0.52243558730180906</v>
       </c>
       <c r="M38" s="307">
-        <v>8.6525944394437768E-2</v>
+        <v>8.7606479116863159E-2</v>
       </c>
       <c r="N38" s="311">
-        <v>0.73109857706689385</v>
+        <v>0.74022852535656958</v>
       </c>
       <c r="O38" s="305">
-        <v>4.3960794858748731</v>
+        <v>4.3434286419646604</v>
       </c>
       <c r="P38" s="310">
-        <v>1.1072500538920569</v>
+        <v>1.0939887718919559</v>
       </c>
       <c r="Q38" s="307">
-        <v>48.924960106975291</v>
+        <v>48.338996990024711</v>
       </c>
       <c r="R38" s="309">
-        <v>0.59185252032476554</v>
+        <v>0.58476403733313376</v>
       </c>
       <c r="S38" s="305">
-        <v>91.529837321335748</v>
+        <v>90.433604979483519</v>
       </c>
       <c r="T38" s="304">
-        <v>1.1072500577435311</v>
+        <v>1.0939887720323496</v>
       </c>
       <c r="U38" s="305">
-        <v>28457.464822590493</v>
+        <v>28812.841225219905</v>
       </c>
       <c r="V38" s="308">
-        <v>0.73109857706689374</v>
+        <v>0.74022852535656947</v>
       </c>
       <c r="W38" s="307">
-        <v>3095.740458720993</v>
+        <v>2978.9018934081764</v>
       </c>
       <c r="X38" s="306">
-        <v>0.40182205621918266</v>
+        <v>0.38665660123814977</v>
       </c>
       <c r="Y38" s="305">
-        <v>6460.5958992406786</v>
+        <v>6337.8726326642063</v>
       </c>
       <c r="Z38" s="304">
-        <v>0.83857479761292775</v>
+        <v>0.82264551801754893</v>
       </c>
       <c r="AA38" s="303">
-        <v>0.81295219730013824</v>
+        <v>0.82899347513665866</v>
       </c>
       <c r="AB38" s="302">
-        <v>0.81295219730013824</v>
+        <v>0.82899347513665866</v>
       </c>
     </row>
     <row r="39" spans="6:28" x14ac:dyDescent="0.25">
@@ -31765,70 +32249,70 @@
         <v>3</v>
       </c>
       <c r="G39" s="305">
-        <v>4.9888142985883253</v>
+        <v>5.0852395444010581</v>
       </c>
       <c r="H39" s="313">
-        <v>1.0878955917138819</v>
+        <v>1.108922752391978</v>
       </c>
       <c r="I39" s="307">
-        <v>0.90653456178955594</v>
+        <v>0.9058521185948113</v>
       </c>
       <c r="J39" s="312">
-        <v>1.1889007045779332E-2</v>
+        <v>1.120656385103469E-2</v>
       </c>
       <c r="K39" s="307">
-        <v>6036541.1417861478</v>
+        <v>5919538.1270575672</v>
       </c>
       <c r="L39" s="312">
-        <v>0.53263503466512707</v>
+        <v>0.52231125763087627</v>
       </c>
       <c r="M39" s="307">
-        <v>9.8220198824060523E-2</v>
+        <v>9.9352304061411337E-2</v>
       </c>
       <c r="N39" s="311">
-        <v>0.82990885684125726</v>
+        <v>0.83947454877227035</v>
       </c>
       <c r="O39" s="305">
-        <v>4.1868981172670994</v>
+        <v>4.2330798845102144</v>
       </c>
       <c r="P39" s="310">
-        <v>1.0545630898805138</v>
+        <v>1.066194991540407</v>
       </c>
       <c r="Q39" s="307">
-        <v>46.596933476169028</v>
+        <v>47.110900779831042</v>
       </c>
       <c r="R39" s="309">
-        <v>0.56369003586257749</v>
+        <v>0.56990757479100518</v>
       </c>
       <c r="S39" s="305">
-        <v>87.174516169669687</v>
+        <v>88.136056933272016</v>
       </c>
       <c r="T39" s="304">
-        <v>1.0545630898890634</v>
+        <v>1.0661949915418949</v>
       </c>
       <c r="U39" s="315">
-        <v>32303.580994872405</v>
+        <v>32675.918392549538</v>
       </c>
       <c r="V39" s="308">
-        <v>0.82990885684125726</v>
+        <v>0.83947454877227035</v>
       </c>
       <c r="W39" s="307">
-        <v>3253.4555870104632</v>
+        <v>3218.4456167883459</v>
       </c>
       <c r="X39" s="306">
-        <v>0.42229322232343991</v>
+        <v>0.41774898535964883</v>
       </c>
       <c r="Y39" s="305">
-        <v>6791.6163683175564</v>
+        <v>6848.3905004903781</v>
       </c>
       <c r="Z39" s="304">
-        <v>0.88154071394496514</v>
+        <v>0.88890990358923139</v>
       </c>
       <c r="AA39" s="303">
-        <v>0.83607600158445594</v>
+        <v>0.84795263393430254</v>
       </c>
       <c r="AB39" s="302">
-        <v>0.83607600158445594</v>
+        <v>0.84795263393430254</v>
       </c>
     </row>
     <row r="40" spans="6:28" x14ac:dyDescent="0.25">
@@ -31836,70 +32320,70 @@
         <v>4</v>
       </c>
       <c r="G40" s="305">
-        <v>4.5577382100768533</v>
+        <v>4.8606175446946116</v>
       </c>
       <c r="H40" s="313">
-        <v>0.99389213752285377</v>
+        <v>1.0599401147035501</v>
       </c>
       <c r="I40" s="307">
-        <v>0.90628935590291149</v>
+        <v>0.90581531616827649</v>
       </c>
       <c r="J40" s="312">
-        <v>1.1643801159134881E-2</v>
+        <v>1.116976142449988E-2</v>
       </c>
       <c r="K40" s="307">
-        <v>6030430.8627006439</v>
+        <v>5918635.9777487563</v>
       </c>
       <c r="L40" s="312">
-        <v>0.53209589335289575</v>
+        <v>0.52223165636301683</v>
       </c>
       <c r="M40" s="307">
-        <v>0.11052063238792449</v>
+        <v>0.11226369971988805</v>
       </c>
       <c r="N40" s="311">
-        <v>0.93384103046599154</v>
+        <v>0.94856902973891555</v>
       </c>
       <c r="O40" s="305">
-        <v>3.9620108919536019</v>
+        <v>4.0978528218499148</v>
       </c>
       <c r="P40" s="310">
-        <v>0.9979202577506372</v>
+        <v>1.0321350586162226</v>
       </c>
       <c r="Q40" s="307">
-        <v>44.094112823725439</v>
+        <v>45.605928299852799</v>
       </c>
       <c r="R40" s="309">
-        <v>0.53341304211887863</v>
+        <v>0.55170169882612019</v>
       </c>
       <c r="S40" s="305">
-        <v>82.492187030000906</v>
+        <v>85.320523350503549</v>
       </c>
       <c r="T40" s="304">
-        <v>0.99792025775913074</v>
+        <v>1.0321350629619439</v>
       </c>
       <c r="U40" s="305">
-        <v>36349.063051104917</v>
+        <v>36922.339397637901</v>
       </c>
       <c r="V40" s="308">
-        <v>0.93384103046599143</v>
+        <v>0.94856902973891544</v>
       </c>
       <c r="W40" s="307">
-        <v>3514.9712110596483</v>
+        <v>3467.18286113252</v>
       </c>
       <c r="X40" s="306">
-        <v>0.45623752327181505</v>
+        <v>0.45003467348931936</v>
       </c>
       <c r="Y40" s="305">
-        <v>7341.4932170760931</v>
+        <v>7378.2663707109923</v>
       </c>
       <c r="Z40" s="304">
-        <v>0.9529138309687244</v>
+        <v>0.95768692626022822</v>
       </c>
       <c r="AA40" s="303">
-        <v>0.82356963661471561</v>
+        <v>0.86092848818878742</v>
       </c>
       <c r="AB40" s="302">
-        <v>0.82356963661471561</v>
+        <v>0.86092848818878742</v>
       </c>
     </row>
     <row r="41" spans="6:28" x14ac:dyDescent="0.25">
@@ -31907,70 +32391,70 @@
         <v>5</v>
       </c>
       <c r="G41" s="305">
-        <v>4.5923715669783425</v>
+        <v>4.6681477367417044</v>
       </c>
       <c r="H41" s="313">
-        <v>1.001444528540905</v>
+        <v>1.0179688078803566</v>
       </c>
       <c r="I41" s="307">
-        <v>0.90609030842694083</v>
+        <v>0.90579609454413768</v>
       </c>
       <c r="J41" s="312">
-        <v>1.1444753683164222E-2</v>
+        <v>1.115053980036107E-2</v>
       </c>
       <c r="K41" s="307">
-        <v>6025473.5221382696</v>
+        <v>5918164.8249523798</v>
       </c>
       <c r="L41" s="312">
-        <v>0.53165848172920782</v>
+        <v>0.5221900841314796</v>
       </c>
       <c r="M41" s="307">
-        <v>0.11871324891291708</v>
+        <v>0.11897245722276933</v>
       </c>
       <c r="N41" s="311">
-        <v>1.0030643174904303</v>
+        <v>1.0052544909444525</v>
       </c>
       <c r="O41" s="305">
-        <v>3.9833442802668753</v>
+        <v>4.023920831341897</v>
       </c>
       <c r="P41" s="310">
-        <v>1.0032935444337989</v>
+        <v>1.0135136481668938</v>
       </c>
       <c r="Q41" s="307">
-        <v>44.331536913878303</v>
+        <v>44.783122502583602</v>
       </c>
       <c r="R41" s="309">
-        <v>0.53628519665585805</v>
+        <v>0.54174809469876251</v>
       </c>
       <c r="S41" s="305">
-        <v>82.936364975632188</v>
+        <v>83.78120072444959</v>
       </c>
       <c r="T41" s="304">
-        <v>1.0032935444418329</v>
+        <v>1.0135136481701701</v>
       </c>
       <c r="U41" s="305">
-        <v>39043.527678987535</v>
+        <v>39128.778541153421</v>
       </c>
       <c r="V41" s="308">
-        <v>1.0030643174904306</v>
+        <v>1.0052544909444525</v>
       </c>
       <c r="W41" s="307">
-        <v>3790.8074937926276</v>
+        <v>3734.5164129092159</v>
       </c>
       <c r="X41" s="306">
-        <v>0.4920406223318099</v>
+        <v>0.48473413195608961</v>
       </c>
       <c r="Y41" s="305">
-        <v>7913.1492993837137</v>
+        <v>7939.6736918114584</v>
       </c>
       <c r="Z41" s="304">
-        <v>1.0271138569418168</v>
+        <v>1.0305566797647883</v>
       </c>
       <c r="AA41" s="303">
-        <v>0.82430525625835604</v>
+        <v>0.83174691476475038</v>
       </c>
       <c r="AB41" s="302">
-        <v>0.82513189969599443</v>
+        <v>0.83256645225504111</v>
       </c>
     </row>
     <row r="42" spans="6:28" x14ac:dyDescent="0.25">
@@ -31978,70 +32462,70 @@
         <v>6</v>
       </c>
       <c r="G42" s="305">
-        <v>3.8558461816613248</v>
+        <v>3.6216969225633298</v>
       </c>
       <c r="H42" s="313">
-        <v>0.84083267331540912</v>
+        <v>0.78977245508923444</v>
       </c>
       <c r="I42" s="307">
-        <v>0.90531622515477828</v>
+        <v>0.90505354932178195</v>
       </c>
       <c r="J42" s="312">
-        <v>1.067067041100167E-2</v>
+        <v>1.0407994578005342E-2</v>
       </c>
       <c r="K42" s="307">
-        <v>6006217.9006420281</v>
+        <v>5899981.1097362265</v>
       </c>
       <c r="L42" s="312">
-        <v>0.52995945932842381</v>
+        <v>0.52058564152817266</v>
       </c>
       <c r="M42" s="307">
-        <v>0.15119963042399434</v>
+        <v>0.15173894684950548</v>
       </c>
       <c r="N42" s="311">
-        <v>1.277557100701562</v>
+        <v>1.2821140399414572</v>
       </c>
       <c r="O42" s="305">
-        <v>3.5908378478540754</v>
+        <v>3.4651649095370631</v>
       </c>
       <c r="P42" s="310">
-        <v>0.90443209985835804</v>
+        <v>0.87277858490909588</v>
       </c>
       <c r="Q42" s="307">
-        <v>39.963244300145966</v>
+        <v>38.564601824858116</v>
       </c>
       <c r="R42" s="309">
-        <v>0.48344131109518407</v>
+        <v>0.4665217250143287</v>
       </c>
       <c r="S42" s="305">
-        <v>74.764072326851988</v>
+        <v>72.147462385695817</v>
       </c>
       <c r="T42" s="304">
-        <v>0.90443210458707624</v>
+        <v>0.87277858489091353</v>
       </c>
       <c r="U42" s="305">
-        <v>49727.953784184305</v>
+        <v>49905.329232838922</v>
       </c>
       <c r="V42" s="308">
-        <v>1.277557100701562</v>
+        <v>1.282114039941457</v>
       </c>
       <c r="W42" s="307">
-        <v>4720.4343897522476</v>
+        <v>4720.9817801831105</v>
       </c>
       <c r="X42" s="306">
-        <v>0.61270467535306372</v>
+        <v>0.61277572573710493</v>
       </c>
       <c r="Y42" s="305">
-        <v>9880.4223520786891</v>
+        <v>10063.285255047214</v>
       </c>
       <c r="Z42" s="304">
-        <v>1.2824626866383075</v>
+        <v>1.3061979928297638</v>
       </c>
       <c r="AA42" s="303">
-        <v>0.75874652727784098</v>
+        <v>0.72145108693428051</v>
       </c>
       <c r="AB42" s="302">
-        <v>0.75874652727784098</v>
+        <v>0.72145108693428051</v>
       </c>
     </row>
     <row r="43" spans="6:28" x14ac:dyDescent="0.25">
@@ -32157,91 +32641,91 @@
         <v>381</v>
       </c>
       <c r="G47" s="280">
-        <v>4.5923715669783425</v>
+        <v>4.6681477367417044</v>
       </c>
       <c r="H47" s="277">
-        <v>1.001444528540905</v>
+        <v>1.0179688078803566</v>
       </c>
       <c r="I47" s="282">
-        <v>0.90609030842694083</v>
+        <v>0.90579609454413768</v>
       </c>
       <c r="J47" s="287">
-        <v>1.1444753683164222E-2</v>
+        <v>1.115053980036107E-2</v>
       </c>
       <c r="K47" s="282">
-        <v>6025473.5221382696</v>
+        <v>5918164.8249523798</v>
       </c>
       <c r="L47" s="287">
-        <v>0.53165848172920782</v>
+        <v>0.5221900841314796</v>
       </c>
       <c r="M47" s="282">
-        <v>0.11871324891291708</v>
+        <v>0.11897245722276933</v>
       </c>
       <c r="N47" s="286">
-        <v>1.0030643174904303</v>
+        <v>1.0052544909444525</v>
       </c>
       <c r="O47" s="280">
-        <v>3.9833442802668753</v>
+        <v>4.023920831341897</v>
       </c>
       <c r="P47" s="285">
-        <v>1.0032935444337989</v>
+        <v>1.0135136481668938</v>
       </c>
       <c r="Q47" s="282">
-        <v>44.331536913878303</v>
+        <v>44.783122502583602</v>
       </c>
       <c r="R47" s="284">
-        <v>0.53628519665585805</v>
+        <v>0.54174809469876251</v>
       </c>
       <c r="S47" s="280">
-        <v>82.936364975632188</v>
+        <v>83.78120072444959</v>
       </c>
       <c r="T47" s="279">
-        <v>1.0032935444418329</v>
+        <v>1.0135136481701701</v>
       </c>
       <c r="U47" s="280">
-        <v>39043.527678987535</v>
+        <v>39128.778541153421</v>
       </c>
       <c r="V47" s="283">
-        <v>1.0030643174904306</v>
+        <v>1.0052544909444525</v>
       </c>
       <c r="W47" s="282">
-        <v>3790.8074937926276</v>
+        <v>3734.5164129092159</v>
       </c>
       <c r="X47" s="281">
-        <v>0.4920406223318099</v>
+        <v>0.48473413195608961</v>
       </c>
       <c r="Y47" s="280">
-        <v>7913.1492993837137</v>
+        <v>7939.6736918114584</v>
       </c>
       <c r="Z47" s="279">
-        <v>1.0271138569418168</v>
+        <v>1.0305566797647883</v>
       </c>
       <c r="AA47" s="278">
-        <v>0.82430525625835604</v>
+        <v>0.83174691476475038</v>
       </c>
       <c r="AB47" s="277">
-        <v>0.82513189969599443</v>
+        <v>0.83256645225504111</v>
       </c>
     </row>
     <row r="48" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="Y48" s="589" t="s">
+      <c r="Y48" s="591" t="s">
         <v>380</v>
       </c>
-      <c r="Z48" s="589"/>
-      <c r="AA48" s="589"/>
-      <c r="AB48" s="589"/>
+      <c r="Z48" s="591"/>
+      <c r="AA48" s="591"/>
+      <c r="AB48" s="591"/>
     </row>
     <row r="49" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y49" s="590"/>
-      <c r="Z49" s="590"/>
-      <c r="AA49" s="590"/>
-      <c r="AB49" s="590"/>
+      <c r="Y49" s="592"/>
+      <c r="Z49" s="592"/>
+      <c r="AA49" s="592"/>
+      <c r="AB49" s="592"/>
     </row>
     <row r="50" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y50" s="590"/>
-      <c r="Z50" s="590"/>
-      <c r="AA50" s="590"/>
-      <c r="AB50" s="590"/>
+      <c r="Y50" s="592"/>
+      <c r="Z50" s="592"/>
+      <c r="AA50" s="592"/>
+      <c r="AB50" s="592"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -32302,250 +32786,250 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
-  <conditionalFormatting sqref="H23:H31">
-    <cfRule type="expression" dxfId="58" priority="60">
-      <formula>AND(AND(P23&gt;0.94,P23&lt;1.04),AND(H23&gt;0.95,H23&lt;1.05))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N23:N31">
-    <cfRule type="expression" dxfId="57" priority="59">
-      <formula>AND(V23&gt;0.94,V23&lt;1.04)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H31">
-    <cfRule type="expression" dxfId="56" priority="57">
-      <formula>AND(AND(N22&gt;0.94,N22&lt;1.04),OR(H22&gt;1.05,H22&lt;0.95))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="58">
-      <formula>AND(AND(N22&gt;0.94,N22&lt;1.04),AND(H22&lt;1.05,H22&gt;0.95))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N22:N31">
-    <cfRule type="expression" dxfId="54" priority="50">
-      <formula>AND(N22=N10000,N22=N10001)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="55">
-      <formula>OR(N22&lt;0.94,N22&gt;1.04)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="56">
-      <formula>AND(N22&gt;0.94,N22&lt;1.04)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z22">
-    <cfRule type="expression" dxfId="51" priority="51">
-      <formula>AND(AND(N22&gt;0.94,N22&lt;1.04),Z22&gt;1.07)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="52">
-      <formula>AND(AND(N22&gt;0.94,N22&lt;1.04),Z22&lt;1.07)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T22:T31">
-    <cfRule type="expression" dxfId="49" priority="53">
-      <formula>AND(AND(N22&gt;0.94,N22&lt;1.04),OR(T22&gt;1.05,T22&lt;1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="54">
-      <formula>AND(AND(N22&gt;0.94,N22&lt;1.04),AND(T22&lt;1.05,T22&gt;1))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F31">
-    <cfRule type="expression" dxfId="47" priority="49">
-      <formula>AND(N22&gt;0.94,N22&lt;1.04)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z23:Z31">
-    <cfRule type="expression" dxfId="46" priority="47">
-      <formula>AND(AND(N23&gt;0.94,N23&lt;1.04),Z23&gt;1.07)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="48">
-      <formula>AND(AND(N23&gt;0.94,N23&lt;1.04),Z23&lt;1.07)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="44" priority="46">
-      <formula>AND(AND(P32&gt;0.94,P32&lt;1.04),AND(H32&gt;0.95,H32&lt;1.05))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N32">
-    <cfRule type="expression" dxfId="43" priority="45">
-      <formula>AND(V32&gt;0.94,V32&lt;1.04)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="42" priority="43">
-      <formula>AND(AND(N32&gt;0.94,N32&lt;1.04),OR(H32&gt;1.05,H32&lt;0.95))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="44">
-      <formula>AND(AND(N32&gt;0.94,N32&lt;1.04),AND(H32&lt;1.05,H32&gt;0.95))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N32">
-    <cfRule type="expression" dxfId="40" priority="38">
-      <formula>AND(N32=N10010,N32=N10011)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="41">
-      <formula>OR(N32&lt;0.94,N32&gt;1.04)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="42">
-      <formula>AND(N32&gt;0.94,N32&lt;1.04)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T32">
-    <cfRule type="expression" dxfId="37" priority="39">
-      <formula>AND(AND(N32&gt;0.94,N32&lt;1.04),OR(T32&gt;1.05,T32&lt;1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="40">
-      <formula>AND(AND(N32&gt;0.94,N32&lt;1.04),AND(T32&lt;1.05,T32&gt;1))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="35" priority="37">
-      <formula>AND(N32&gt;0.94,N32&lt;1.04)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z32">
-    <cfRule type="expression" dxfId="34" priority="35">
-      <formula>AND(AND(N32&gt;0.94,N32&lt;1.04),Z32&gt;1.07)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36">
-      <formula>AND(AND(N32&gt;0.94,N32&lt;1.04),Z32&lt;1.07)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N38:N46">
-    <cfRule type="expression" dxfId="32" priority="33">
-      <formula>AND(V38&gt;0.94,V38&lt;1.04)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37:H46">
-    <cfRule type="expression" dxfId="31" priority="31">
-      <formula>AND(AND(N37&gt;0.94,N37&lt;1.04),OR(H37&gt;1.05,H37&lt;0.95))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
-      <formula>AND(AND(N37&gt;0.94,N37&lt;1.04),AND(H37&lt;1.05,H37&gt;0.95))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N37:N46">
-    <cfRule type="expression" dxfId="29" priority="24">
-      <formula>AND(N37=N10015,N37=N10016)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29">
-      <formula>OR(N37&lt;0.94,N37&gt;1.04)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30">
-      <formula>AND(N37&gt;0.94,N37&lt;1.04)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z37">
-    <cfRule type="expression" dxfId="26" priority="25">
-      <formula>AND(AND(N37&gt;0.94,N37&lt;1.04),Z37&gt;1.07)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26">
-      <formula>AND(AND(N37&gt;0.94,N37&lt;1.04),Z37&lt;1.07)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T37:T46">
-    <cfRule type="expression" dxfId="24" priority="27">
-      <formula>AND(AND(N37&gt;0.94,N37&lt;1.04),OR(T37&gt;1.05,T37&lt;1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="28">
-      <formula>AND(AND(N37&gt;0.94,N37&lt;1.04),AND(T37&lt;1.05,T37&gt;1))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:F46">
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>AND(N37&gt;0.94,N37&lt;1.04)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z38:Z46">
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>AND(AND(N38&gt;0.94,N38&lt;1.04),Z38&gt;1.07)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
-      <formula>AND(AND(N38&gt;0.94,N38&lt;1.04),Z38&lt;1.07)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>AND(AND(P47&gt;0.94,P47&lt;1.04),AND(H47&gt;0.95,H47&lt;1.05))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N47">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>AND(V47&gt;0.94,V47&lt;1.04)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>AND(AND(N47&gt;0.94,N47&lt;1.04),OR(H47&gt;1.05,H47&lt;0.95))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>AND(AND(N47&gt;0.94,N47&lt;1.04),AND(H47&lt;1.05,H47&gt;0.95))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N47">
-    <cfRule type="expression" dxfId="15" priority="12">
-      <formula>AND(N47=N10025,N47=N10026)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>OR(N47&lt;0.94,N47&gt;1.04)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="16">
-      <formula>AND(N47&gt;0.94,N47&lt;1.04)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T47">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>AND(AND(N47&gt;0.94,N47&lt;1.04),OR(T47&gt;1.05,T47&lt;1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14">
-      <formula>AND(AND(N47&gt;0.94,N47&lt;1.04),AND(T47&lt;1.05,T47&gt;1))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>AND(N47&gt;0.94,N47&lt;1.04)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z47">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>AND(AND(N47&gt;0.94,N47&lt;1.04),Z47&gt;1.07)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>AND(AND(N47&gt;0.94,N47&lt;1.04),Z47&lt;1.07)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="58" priority="58">
       <formula>IF($C$23="No",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="57" priority="59">
       <formula>"C23=No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="56" priority="57">
       <formula>IF($C$25="No",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="55" priority="56">
       <formula>IF($C$27="No",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:S16">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="53" operator="between">
       <formula>1.1</formula>
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="between">
       <formula>-100</formula>
       <formula>0.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="55" operator="between">
       <formula>0.9</formula>
       <formula>1.1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="51" priority="52">
       <formula>AND(S7=S1000,S7=S1001)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:H31">
+    <cfRule type="expression" dxfId="50" priority="51">
+      <formula>AND(AND(P23&gt;0.96,P23&lt;1.04),AND(H23&gt;0.95,H23&lt;1.05))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23:N31">
+    <cfRule type="expression" dxfId="49" priority="50">
+      <formula>AND(V23&gt;0.96,V23&lt;1.04)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H31">
+    <cfRule type="expression" dxfId="48" priority="48">
+      <formula>AND(AND(N22&gt;0.96,N22&lt;1.04),OR(H22&gt;1.05,H22&lt;0.95))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="49">
+      <formula>AND(AND(N22&gt;0.96,N22&lt;1.04),AND(H22&lt;1.05,H22&gt;0.95))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22:N31">
+    <cfRule type="expression" dxfId="46" priority="41">
+      <formula>AND(N22=N10000,N22=N10001)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="46">
+      <formula>OR(N22&lt;0.96,N22&gt;1.04)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="47">
+      <formula>AND(N22&gt;0.96,N22&lt;1.04)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z22">
+    <cfRule type="expression" dxfId="43" priority="42">
+      <formula>AND(AND(N22&gt;0.96,N22&lt;1.04),Z22&gt;1.07)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="43">
+      <formula>AND(AND(N22&gt;0.96,N22&lt;1.04),Z22&lt;1.07)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T22:T31">
+    <cfRule type="expression" dxfId="41" priority="44">
+      <formula>AND(AND(N22&gt;0.96,N22&lt;1.04),OR(T22&gt;1.05,T22&lt;1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="45">
+      <formula>AND(AND(N22&gt;0.96,N22&lt;1.04),AND(T22&lt;1.05,T22&gt;1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F31">
+    <cfRule type="expression" dxfId="39" priority="40">
+      <formula>AND(N22&gt;0.96,N22&lt;1.04)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z23:Z31">
+    <cfRule type="expression" dxfId="38" priority="38">
+      <formula>AND(AND(N23&gt;0.96,N23&lt;1.04),Z23&gt;1.07)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="39">
+      <formula>AND(AND(N23&gt;0.96,N23&lt;1.04),Z23&lt;1.07)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>AND(AND(P32&gt;0.96,P32&lt;1.04),AND(H32&gt;0.95,H32&lt;1.05))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>AND(V32&gt;0.96,V32&lt;1.04)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="expression" dxfId="34" priority="34">
+      <formula>AND(AND(N32&gt;0.96,N32&lt;1.04),OR(H32&gt;1.05,H32&lt;0.95))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="35">
+      <formula>AND(AND(N32&gt;0.96,N32&lt;1.04),AND(H32&lt;1.05,H32&gt;0.95))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32">
+    <cfRule type="expression" dxfId="32" priority="29">
+      <formula>AND(N32=N10010,N32=N10011)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>OR(N32&lt;0.96,N32&gt;1.04)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="33">
+      <formula>AND(N32&gt;0.96,N32&lt;1.04)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T32">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>AND(AND(N32&gt;0.96,N32&lt;1.04),OR(T32&gt;1.05,T32&lt;1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="31">
+      <formula>AND(AND(N32&gt;0.96,N32&lt;1.04),AND(T32&lt;1.05,T32&gt;1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>AND(N32&gt;0.96,N32&lt;1.04)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z32">
+    <cfRule type="expression" dxfId="26" priority="26">
+      <formula>AND(AND(N32&gt;0.96,N32&lt;1.04),Z32&gt;1.07)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="27">
+      <formula>AND(AND(N32&gt;0.96,N32&lt;1.04),Z32&lt;1.07)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N38:N46">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>AND(V38&gt;0.96,V38&lt;1.04)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:H46">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>AND(AND(N37&gt;0.96,N37&lt;1.04),OR(H37&gt;1.05,H37&lt;0.95))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>AND(AND(N37&gt;0.96,N37&lt;1.04),AND(H37&lt;1.05,H37&gt;0.95))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N37:N46">
+    <cfRule type="expression" dxfId="21" priority="16">
+      <formula>AND(N37=N10015,N37=N10016)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>OR(N37&lt;0.96,N37&gt;1.04)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="22">
+      <formula>AND(N37&gt;0.96,N37&lt;1.04)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z37">
+    <cfRule type="expression" dxfId="18" priority="17">
+      <formula>AND(AND(N37&gt;0.96,N37&lt;1.04),Z37&gt;1.07)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>AND(AND(N37&gt;0.96,N37&lt;1.04),Z37&lt;1.07)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T37:T46">
+    <cfRule type="expression" dxfId="16" priority="19">
+      <formula>AND(AND(N37&gt;0.96,N37&lt;1.04),OR(T37&gt;1.05,T37&lt;1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="20">
+      <formula>AND(AND(N37&gt;0.96,N37&lt;1.04),AND(T37&lt;1.05,T37&gt;1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:F46">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>AND(N37&gt;0.96,N37&lt;1.04)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z38:Z46">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>AND(AND(N38&gt;0.96,N38&lt;1.04),Z38&gt;1.07)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>AND(AND(N38&gt;0.96,N38&lt;1.04),Z38&lt;1.07)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>AND(AND(P47&gt;0.96,P47&lt;1.04),AND(H47&gt;0.95,H47&lt;1.05))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N47">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>AND(V47&gt;0.96,V47&lt;1.04)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>AND(AND(N47&gt;0.96,N47&lt;1.04),OR(H47&gt;1.05,H47&lt;0.95))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>AND(AND(N47&gt;0.96,N47&lt;1.04),AND(H47&lt;1.05,H47&gt;0.95))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N47">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>AND(N47=N10025,N47=N10026)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>OR(N47&lt;0.96,N47&gt;1.04)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>AND(N47&gt;0.96,N47&lt;1.04)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T47">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>AND(AND(N47&gt;0.96,N47&lt;1.04),OR(T47&gt;1.05,T47&lt;1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>AND(AND(N47&gt;0.96,N47&lt;1.04),AND(T47&lt;1.05,T47&gt;1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(N47&gt;0.96,N47&lt;1.04)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z47">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(AND(N47&gt;0.96,N47&lt;1.04),Z47&gt;1.07)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AND(AND(N47&gt;0.96,N47&lt;1.04),Z47&lt;1.07)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -32575,11 +33059,11 @@
   <sheetData>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="599" t="s">
+      <c r="B3" s="601" t="s">
         <v>371</v>
       </c>
-      <c r="C3" s="600"/>
-      <c r="D3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="267"/>
@@ -32694,19 +33178,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="602" t="s">
+      <c r="A1" s="604" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="602"/>
-      <c r="C1" s="602"/>
-      <c r="D1" s="602"/>
+      <c r="B1" s="604"/>
+      <c r="C1" s="604"/>
+      <c r="D1" s="604"/>
       <c r="E1" s="245"/>
       <c r="F1" s="245"/>
-      <c r="G1" s="602" t="s">
+      <c r="G1" s="604" t="s">
         <v>336</v>
       </c>
-      <c r="H1" s="602"/>
-      <c r="I1" s="602"/>
+      <c r="H1" s="604"/>
+      <c r="I1" s="604"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="245"/>
